--- a/后台接口设计.xlsx
+++ b/后台接口设计.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="接口一览" sheetId="2" r:id="rId1"/>
     <sheet name="个人中心" sheetId="3" r:id="rId2"/>
+    <sheet name="发货管理" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="126">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -394,6 +395,134 @@
   <si>
     <t>查询【用户获奖记录表（user_award_records）】的数据，统计得出</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入用户获奖记录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/manage/insertUserAwardRecords</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>macId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_award_records</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户获奖记录表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数.userId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prize_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prize_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prize_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_company</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consignee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>telephone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine(机器表)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prize(奖品表)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.prize_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:寄存中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.exchange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -475,7 +604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -483,10 +612,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,6 +1069,140 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F9C56D-5989-45B0-B91C-0558CC3DB60D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="3855720"/>
+          <a:ext cx="3040380" cy="922020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnCode": "200",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnDesc": "OK"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>308668</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>167016</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323084D5-1623-4498-9D3F-AA38385821C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5044440" y="4640580"/>
+          <a:ext cx="14771428" cy="4990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2" displayName="表2" ref="C4:D10" totalsRowShown="0">
   <autoFilter ref="C4:D10"/>
@@ -1216,7 +1480,7 @@
   <dimension ref="C4:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1282,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="L159" sqref="L159"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1314,46 +1578,46 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="5"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -1361,60 +1625,60 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="5"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
@@ -1446,88 +1710,88 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
+      <c r="F39" s="5"/>
+      <c r="G39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="3"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
+      <c r="F40" s="5"/>
+      <c r="G40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="3"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3" t="s">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="3"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="3"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3" t="s">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="3"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3" t="s">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="3"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="5"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
@@ -1544,175 +1808,175 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3" t="s">
+      <c r="D48" s="5"/>
+      <c r="E48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
+      <c r="F48" s="5"/>
+      <c r="G48" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H48" s="3"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3" t="s">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3" t="s">
+      <c r="F49" s="5"/>
+      <c r="G49" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="3"/>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3" t="s">
+      <c r="F50" s="5"/>
+      <c r="G50" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="3"/>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3" t="s">
+      <c r="F51" s="5"/>
+      <c r="G51" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H51" s="3"/>
+      <c r="H51" s="5"/>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3" t="s">
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3" t="s">
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="3"/>
+      <c r="H52" s="5"/>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3" t="s">
+      <c r="F53" s="5"/>
+      <c r="G53" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="3"/>
+      <c r="H53" s="5"/>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3" t="s">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3" t="s">
+      <c r="F54" s="5"/>
+      <c r="G54" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H54" s="3"/>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3" t="s">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3" t="s">
+      <c r="F55" s="5"/>
+      <c r="G55" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H55" s="3"/>
+      <c r="H55" s="5"/>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3" t="s">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3" t="s">
+      <c r="F56" s="5"/>
+      <c r="G56" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="3"/>
+      <c r="H56" s="5"/>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3" t="s">
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3" t="s">
+      <c r="F57" s="5"/>
+      <c r="G57" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="3"/>
+      <c r="H57" s="5"/>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3" t="s">
+      <c r="D58" s="5"/>
+      <c r="E58" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3" t="s">
+      <c r="F58" s="5"/>
+      <c r="G58" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H58" s="3"/>
+      <c r="H58" s="5"/>
       <c r="K58" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3" t="s">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3" t="s">
+      <c r="F59" s="5"/>
+      <c r="G59" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H59" s="3"/>
+      <c r="H59" s="5"/>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63" s="2" t="s">
@@ -1740,46 +2004,46 @@
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3" t="s">
+      <c r="D77" s="5"/>
+      <c r="E77" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3" t="s">
+      <c r="F77" s="5"/>
+      <c r="G77" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="3"/>
+      <c r="H77" s="5"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3" t="s">
+      <c r="D78" s="5"/>
+      <c r="E78" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="3"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="5"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3" t="s">
+      <c r="D79" s="5"/>
+      <c r="E79" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" s="3"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="5"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
@@ -1787,46 +2051,46 @@
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3" t="s">
+      <c r="D83" s="5"/>
+      <c r="E83" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3" t="s">
+      <c r="F83" s="5"/>
+      <c r="G83" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="3"/>
+      <c r="H83" s="5"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3" t="s">
+      <c r="D84" s="5"/>
+      <c r="E84" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" s="3"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="5"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3" t="s">
+      <c r="D85" s="5"/>
+      <c r="E85" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" s="3"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="5"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
@@ -1878,32 +2142,32 @@
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3" t="s">
+      <c r="D110" s="5"/>
+      <c r="E110" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3" t="s">
+      <c r="F110" s="5"/>
+      <c r="G110" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H110" s="3"/>
+      <c r="H110" s="5"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3" t="s">
+      <c r="D111" s="5"/>
+      <c r="E111" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H111" s="3"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="5"/>
     </row>
     <row r="114" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="2:11" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1926,32 +2190,32 @@
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3" t="s">
+      <c r="D122" s="5"/>
+      <c r="E122" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3" t="s">
+      <c r="F122" s="5"/>
+      <c r="G122" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H122" s="3"/>
+      <c r="H122" s="5"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3" t="s">
+      <c r="D123" s="5"/>
+      <c r="E123" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123" s="3"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="5"/>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
@@ -1959,193 +2223,193 @@
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3" t="s">
+      <c r="D127" s="5"/>
+      <c r="E127" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3" t="s">
+      <c r="F127" s="5"/>
+      <c r="G127" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3" t="s">
+      <c r="H127" s="5"/>
+      <c r="I127" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3" t="s">
+      <c r="D128" s="5"/>
+      <c r="E128" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3" t="s">
+      <c r="F128" s="5"/>
+      <c r="G128" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3" t="s">
+      <c r="D129" s="5"/>
+      <c r="E129" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3" t="s">
+      <c r="F129" s="5"/>
+      <c r="G129" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3" t="s">
+      <c r="D130" s="5"/>
+      <c r="E130" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3" t="s">
+      <c r="F130" s="5"/>
+      <c r="G130" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3" t="s">
+      <c r="D131" s="5"/>
+      <c r="E131" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3" t="s">
+      <c r="F131" s="5"/>
+      <c r="G131" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3" t="s">
+      <c r="D132" s="5"/>
+      <c r="E132" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3" t="s">
+      <c r="F132" s="5"/>
+      <c r="G132" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3" t="s">
+      <c r="D133" s="5"/>
+      <c r="E133" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3" t="s">
+      <c r="F133" s="5"/>
+      <c r="G133" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3" t="s">
+      <c r="D134" s="5"/>
+      <c r="E134" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3" t="s">
+      <c r="F134" s="5"/>
+      <c r="G134" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
       <c r="M134" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3" t="s">
+      <c r="D135" s="5"/>
+      <c r="E135" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3" t="s">
+      <c r="D136" s="5"/>
+      <c r="E136" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H136" s="3"/>
-      <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
-      <c r="K136" s="3"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
@@ -2154,6 +2418,130 @@
     </row>
   </sheetData>
   <mergeCells count="148">
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:K136"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:K134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:K135"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:K132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:K133"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:K130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:K128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="I129:K129"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
     <mergeCell ref="A3:XFD3"/>
     <mergeCell ref="A69:XFD69"/>
     <mergeCell ref="A114:XFD114"/>
@@ -2178,130 +2566,524 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:H55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="67">
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="I128:K128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="I129:K129"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:K132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:K133"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:K130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="I136:K136"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:K134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:K135"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/后台接口设计.xlsx
+++ b/后台接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="接口一览" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="141">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -522,6 +522,66 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户申请发货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/manage/userApplyDeliverPrize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>awardId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户获奖记录ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>List(String)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:待发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表.id=请求参数.awardId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数.consignee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数.telephone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数.message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数.address</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -529,7 +589,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +614,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -604,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -613,11 +681,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1200,6 +1274,91 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD0569E-5714-4BD2-BE18-D083BA690BA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="13670280"/>
+          <a:ext cx="3040380" cy="922020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnCode": "200",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnDesc": "OK"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1479,9 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1546,9 +1703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M140"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1557,7 +1712,7 @@
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -1578,46 +1733,46 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -1625,60 +1780,60 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="4"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
@@ -1710,88 +1865,88 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5" t="s">
+      <c r="F39" s="4"/>
+      <c r="G39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="5"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5" t="s">
+      <c r="F40" s="4"/>
+      <c r="G40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="5"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5" t="s">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="5"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5" t="s">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="5"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5" t="s">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5" t="s">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="5"/>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5" t="s">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="5"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="4"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
@@ -1808,182 +1963,182 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5" t="s">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5" t="s">
+      <c r="F48" s="4"/>
+      <c r="G48" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H48" s="5"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5" t="s">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5" t="s">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="5"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5" t="s">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5" t="s">
+      <c r="F50" s="4"/>
+      <c r="G50" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="5"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5" t="s">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5" t="s">
+      <c r="F51" s="4"/>
+      <c r="G51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H51" s="5"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5" t="s">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5" t="s">
+      <c r="F52" s="4"/>
+      <c r="G52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="5"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5" t="s">
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5" t="s">
+      <c r="F53" s="4"/>
+      <c r="G53" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="5"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5" t="s">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5" t="s">
+      <c r="F54" s="4"/>
+      <c r="G54" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H54" s="5"/>
+      <c r="H54" s="4"/>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5" t="s">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5" t="s">
+      <c r="F55" s="4"/>
+      <c r="G55" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H55" s="5"/>
+      <c r="H55" s="4"/>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5" t="s">
+      <c r="D56" s="4"/>
+      <c r="E56" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5" t="s">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="5"/>
+      <c r="H56" s="4"/>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5" t="s">
+      <c r="D57" s="4"/>
+      <c r="E57" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5" t="s">
+      <c r="F57" s="4"/>
+      <c r="G57" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="5"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5" t="s">
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5" t="s">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H58" s="5"/>
+      <c r="H58" s="4"/>
       <c r="K58" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5" t="s">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5" t="s">
+      <c r="F59" s="4"/>
+      <c r="G59" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H59" s="5"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="2:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
@@ -2004,46 +2159,46 @@
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5" t="s">
+      <c r="D77" s="4"/>
+      <c r="E77" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5" t="s">
+      <c r="F77" s="4"/>
+      <c r="G77" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="5"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5" t="s">
+      <c r="D78" s="4"/>
+      <c r="E78" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="5"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="4"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5" t="s">
+      <c r="D79" s="4"/>
+      <c r="E79" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" s="5"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="4"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
@@ -2051,46 +2206,46 @@
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5" t="s">
+      <c r="D83" s="4"/>
+      <c r="E83" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5" t="s">
+      <c r="F83" s="4"/>
+      <c r="G83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="5"/>
+      <c r="H83" s="4"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5" t="s">
+      <c r="D84" s="4"/>
+      <c r="E84" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" s="5"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="4"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5" t="s">
+      <c r="D85" s="4"/>
+      <c r="E85" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" s="5"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="4"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
@@ -2142,34 +2297,34 @@
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5" t="s">
+      <c r="D110" s="4"/>
+      <c r="E110" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5" t="s">
+      <c r="F110" s="4"/>
+      <c r="G110" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H110" s="5"/>
+      <c r="H110" s="4"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5" t="s">
+      <c r="D111" s="4"/>
+      <c r="E111" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H111" s="5"/>
-    </row>
-    <row r="114" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="114" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="2:11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
@@ -2190,32 +2345,32 @@
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5" t="s">
+      <c r="D122" s="4"/>
+      <c r="E122" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5" t="s">
+      <c r="F122" s="4"/>
+      <c r="G122" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H122" s="5"/>
+      <c r="H122" s="4"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5" t="s">
+      <c r="D123" s="4"/>
+      <c r="E123" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123" s="5"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="4"/>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
@@ -2223,193 +2378,193 @@
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C127" s="5" t="s">
+      <c r="C127" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5" t="s">
+      <c r="D127" s="4"/>
+      <c r="E127" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5" t="s">
+      <c r="F127" s="4"/>
+      <c r="G127" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5" t="s">
+      <c r="H127" s="4"/>
+      <c r="I127" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5" t="s">
+      <c r="D128" s="4"/>
+      <c r="E128" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5" t="s">
+      <c r="F128" s="4"/>
+      <c r="G128" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5" t="s">
+      <c r="D129" s="4"/>
+      <c r="E129" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5" t="s">
+      <c r="F129" s="4"/>
+      <c r="G129" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5" t="s">
+      <c r="D130" s="4"/>
+      <c r="E130" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5" t="s">
+      <c r="F130" s="4"/>
+      <c r="G130" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C131" s="5" t="s">
+      <c r="C131" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5" t="s">
+      <c r="D131" s="4"/>
+      <c r="E131" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H131" s="5"/>
-      <c r="I131" s="5" t="s">
+      <c r="F131" s="4"/>
+      <c r="G131" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J131" s="5"/>
-      <c r="K131" s="5"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5" t="s">
+      <c r="D132" s="4"/>
+      <c r="E132" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5" t="s">
+      <c r="F132" s="4"/>
+      <c r="G132" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J132" s="5"/>
-      <c r="K132" s="5"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C133" s="5" t="s">
+      <c r="C133" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5" t="s">
+      <c r="D133" s="4"/>
+      <c r="E133" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5" t="s">
+      <c r="F133" s="4"/>
+      <c r="G133" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J133" s="5"/>
-      <c r="K133" s="5"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5" t="s">
+      <c r="D134" s="4"/>
+      <c r="E134" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5" t="s">
+      <c r="F134" s="4"/>
+      <c r="G134" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J134" s="5"/>
-      <c r="K134" s="5"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
       <c r="M134" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5" t="s">
+      <c r="D135" s="4"/>
+      <c r="E135" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
-      <c r="K135" s="5"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5" t="s">
+      <c r="D136" s="4"/>
+      <c r="E136" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
@@ -2418,130 +2573,6 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="I136:K136"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:K134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:K135"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:K132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:K133"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:K130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="I128:K128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="I129:K129"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
     <mergeCell ref="A3:XFD3"/>
     <mergeCell ref="A69:XFD69"/>
     <mergeCell ref="A114:XFD114"/>
@@ -2566,6 +2597,130 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:K128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="I129:K129"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:K132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:K133"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:K130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:K136"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:K134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:K135"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2576,18 +2731,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H55"/>
+  <dimension ref="B3:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -2608,46 +2761,46 @@
       </c>
     </row>
     <row r="10" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2658,46 +2811,46 @@
       </c>
     </row>
     <row r="17" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2773,233 +2926,233 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5" t="s">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5" t="s">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="5"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5" t="s">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="5"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5" t="s">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="5"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5" t="s">
+      <c r="F39" s="4"/>
+      <c r="G39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H39" s="5"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5" t="s">
+      <c r="F40" s="4"/>
+      <c r="G40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="5"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5" t="s">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="5"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5" t="s">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="5"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5" t="s">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="5"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5" t="s">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5" t="s">
+      <c r="F44" s="4"/>
+      <c r="G44" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H44" s="5"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5" t="s">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="5"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5" t="s">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="5"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5" t="s">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="5"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5" t="s">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="5" t="s">
+      <c r="F48" s="4"/>
+      <c r="G48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5" t="s">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="5" t="s">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5" t="s">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="5" t="s">
+      <c r="F50" s="4"/>
+      <c r="G50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5" t="s">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5" t="s">
+      <c r="F51" s="4"/>
+      <c r="G51" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="4"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
         <v>116</v>
       </c>
@@ -3007,7 +3160,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
         <v>117</v>
       </c>
@@ -3015,26 +3168,444 @@
         <v>118</v>
       </c>
     </row>
+    <row r="59" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="7"/>
+    </row>
+    <row r="75" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="2"/>
+      <c r="C94" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D97" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D98" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D99" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="2"/>
+      <c r="C103" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C104" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C105" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C106" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C107" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C108" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
+  <mergeCells count="116">
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A59:XFD59"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="G45:H45"/>
@@ -3051,39 +3622,24 @@
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="E50:F50"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/后台接口设计.xlsx
+++ b/后台接口设计.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="169">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -565,10 +565,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>表.id=请求参数.awardId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>请求参数.consignee</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -582,6 +578,122 @@
   </si>
   <si>
     <t>请求参数.address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表.status=1:寄存中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>courierNumber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>courierCompany</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/manage/deliverPrizeHandle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表.id=请求参数.awardId(List)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表.status=2:待发货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:已发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数.courierCompany</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数.courierNumber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户确认收货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表.status=3:已发货</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>is</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功标志</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端传入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“1”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作条件：成功标志=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器获奖记录表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine_award_records</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.user_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_base(个人资料表)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/manage/userConfirmReceiving</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:已签收</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该接口已包含在发货管理模块中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +701,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,6 +739,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -642,7 +760,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -665,6 +783,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -672,7 +816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -681,18 +825,41 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1149,13 +1316,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1234,13 +1401,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>308668</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>167016</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1278,13 +1445,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1357,6 +1524,220 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE54C30B-EBE4-4EB0-BC70-C753784D0E15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="23309580"/>
+          <a:ext cx="3040380" cy="922020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnCode": "200",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnDesc": "OK"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6171C0B8-8BF5-46FC-A00C-07ACA4259958}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="31546800"/>
+          <a:ext cx="3040380" cy="922020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnCode": "200",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnDesc": "OK"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>265371</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>144499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09A1D18-7BE8-4F61-90F4-EF3D81FDCB86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="10340340"/>
+          <a:ext cx="10628571" cy="2247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1683,6 +2064,9 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -1733,46 +2117,46 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="4"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="6"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -1780,60 +2164,60 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="4"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="4"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="4"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="6"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
@@ -1865,88 +2249,88 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4" t="s">
+      <c r="F39" s="6"/>
+      <c r="G39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="4"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4" t="s">
+      <c r="F40" s="6"/>
+      <c r="G40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="4"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="4"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4" t="s">
+      <c r="D42" s="6"/>
+      <c r="E42" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="4"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4" t="s">
+      <c r="F43" s="6"/>
+      <c r="G43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="4"/>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4" t="s">
+      <c r="D44" s="6"/>
+      <c r="E44" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="4"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="6"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
@@ -1963,175 +2347,175 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4" t="s">
+      <c r="F48" s="6"/>
+      <c r="G48" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H48" s="4"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
+      <c r="D49" s="6"/>
+      <c r="E49" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4" t="s">
+      <c r="F49" s="6"/>
+      <c r="G49" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="4"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4" t="s">
+      <c r="F50" s="6"/>
+      <c r="G50" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="4"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4" t="s">
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4" t="s">
+      <c r="F51" s="6"/>
+      <c r="G51" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H51" s="4"/>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4" t="s">
+      <c r="D52" s="6"/>
+      <c r="E52" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4" t="s">
+      <c r="F52" s="6"/>
+      <c r="G52" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="4"/>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
+      <c r="D53" s="6"/>
+      <c r="E53" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4" t="s">
+      <c r="F53" s="6"/>
+      <c r="G53" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="4"/>
+      <c r="H53" s="6"/>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4" t="s">
+      <c r="D54" s="6"/>
+      <c r="E54" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4" t="s">
+      <c r="F54" s="6"/>
+      <c r="G54" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H54" s="4"/>
+      <c r="H54" s="6"/>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4" t="s">
+      <c r="D55" s="6"/>
+      <c r="E55" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4" t="s">
+      <c r="F55" s="6"/>
+      <c r="G55" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H55" s="4"/>
+      <c r="H55" s="6"/>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4" t="s">
+      <c r="D56" s="6"/>
+      <c r="E56" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4" t="s">
+      <c r="F56" s="6"/>
+      <c r="G56" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="4"/>
+      <c r="H56" s="6"/>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4" t="s">
+      <c r="D57" s="6"/>
+      <c r="E57" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4" t="s">
+      <c r="F57" s="6"/>
+      <c r="G57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="4"/>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4" t="s">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4" t="s">
+      <c r="F58" s="6"/>
+      <c r="G58" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H58" s="4"/>
+      <c r="H58" s="6"/>
       <c r="K58" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4" t="s">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4" t="s">
+      <c r="F59" s="6"/>
+      <c r="G59" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H59" s="4"/>
+      <c r="H59" s="6"/>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63" s="2" t="s">
@@ -2159,46 +2543,46 @@
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4" t="s">
+      <c r="D77" s="6"/>
+      <c r="E77" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4" t="s">
+      <c r="F77" s="6"/>
+      <c r="G77" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="4"/>
+      <c r="H77" s="6"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4" t="s">
+      <c r="D78" s="6"/>
+      <c r="E78" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="4"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="6"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4" t="s">
+      <c r="D79" s="6"/>
+      <c r="E79" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" s="4"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="6"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
@@ -2206,46 +2590,46 @@
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4" t="s">
+      <c r="D83" s="6"/>
+      <c r="E83" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4" t="s">
+      <c r="F83" s="6"/>
+      <c r="G83" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="4"/>
+      <c r="H83" s="6"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4" t="s">
+      <c r="D84" s="6"/>
+      <c r="E84" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" s="4"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="6"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4" t="s">
+      <c r="D85" s="6"/>
+      <c r="E85" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" s="4"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="6"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
@@ -2297,32 +2681,32 @@
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4" t="s">
+      <c r="D110" s="6"/>
+      <c r="E110" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4" t="s">
+      <c r="F110" s="6"/>
+      <c r="G110" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H110" s="4"/>
+      <c r="H110" s="6"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4" t="s">
+      <c r="D111" s="6"/>
+      <c r="E111" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H111" s="4"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="6"/>
     </row>
     <row r="114" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="2:11" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2345,32 +2729,32 @@
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4" t="s">
+      <c r="D122" s="6"/>
+      <c r="E122" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4" t="s">
+      <c r="F122" s="6"/>
+      <c r="G122" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H122" s="4"/>
+      <c r="H122" s="6"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4" t="s">
+      <c r="D123" s="6"/>
+      <c r="E123" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123" s="4"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="6"/>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
@@ -2378,193 +2762,193 @@
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4" t="s">
+      <c r="D127" s="6"/>
+      <c r="E127" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4" t="s">
+      <c r="F127" s="6"/>
+      <c r="G127" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4" t="s">
+      <c r="H127" s="6"/>
+      <c r="I127" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4" t="s">
+      <c r="D128" s="6"/>
+      <c r="E128" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4" t="s">
+      <c r="F128" s="6"/>
+      <c r="G128" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4" t="s">
+      <c r="D129" s="6"/>
+      <c r="E129" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4" t="s">
+      <c r="F129" s="6"/>
+      <c r="G129" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4" t="s">
+      <c r="D130" s="6"/>
+      <c r="E130" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4" t="s">
+      <c r="F130" s="6"/>
+      <c r="G130" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4" t="s">
+      <c r="D131" s="6"/>
+      <c r="E131" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4" t="s">
+      <c r="F131" s="6"/>
+      <c r="G131" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4" t="s">
+      <c r="D132" s="6"/>
+      <c r="E132" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4" t="s">
+      <c r="F132" s="6"/>
+      <c r="G132" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4" t="s">
+      <c r="D133" s="6"/>
+      <c r="E133" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4" t="s">
+      <c r="F133" s="6"/>
+      <c r="G133" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4" t="s">
+      <c r="D134" s="6"/>
+      <c r="E134" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4" t="s">
+      <c r="F134" s="6"/>
+      <c r="G134" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
       <c r="M134" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4" t="s">
+      <c r="D135" s="6"/>
+      <c r="E135" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4" t="s">
+      <c r="D136" s="6"/>
+      <c r="E136" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
@@ -2573,6 +2957,130 @@
     </row>
   </sheetData>
   <mergeCells count="148">
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:K136"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:K134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:K135"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:K132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:K133"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:K130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:K128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="I129:K129"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
     <mergeCell ref="A3:XFD3"/>
     <mergeCell ref="A69:XFD69"/>
     <mergeCell ref="A114:XFD114"/>
@@ -2597,130 +3105,6 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="I128:K128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="I129:K129"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:K132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:K133"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:K130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="I136:K136"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:K134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:K135"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2731,7 +3115,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H108"/>
+  <dimension ref="B3:J227"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2740,8 +3124,8 @@
     <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -2749,128 +3133,149 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
+    <row r="10" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
+    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="4" t="s">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2878,46 +3283,22 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" s="2"/>
-    </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2926,653 +3307,1510 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
-      <c r="C36" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="4"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
-      <c r="C37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" s="4"/>
+      <c r="C37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
-      <c r="C38" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="4"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
+      <c r="D42" s="6"/>
+      <c r="E42" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4" t="s">
+      <c r="F42" s="6"/>
+      <c r="G42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="4" t="s">
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4" t="s">
+      <c r="F43" s="6"/>
+      <c r="G43" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="4" t="s">
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
+      <c r="D44" s="6"/>
+      <c r="E44" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="4" t="s">
+      <c r="F44" s="6"/>
+      <c r="G44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4" t="s">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="4" t="s">
+      <c r="F45" s="6"/>
+      <c r="G45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4" t="s">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="4" t="s">
+      <c r="F46" s="6"/>
+      <c r="G46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4" t="s">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4" t="s">
+      <c r="F47" s="6"/>
+      <c r="G47" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="4" t="s">
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4" t="s">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="4" t="s">
+      <c r="F48" s="6"/>
+      <c r="G48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
+      <c r="D49" s="6"/>
+      <c r="E49" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="4" t="s">
+      <c r="F49" s="6"/>
+      <c r="G49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="4" t="s">
+      <c r="F50" s="6"/>
+      <c r="G50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="4" t="s">
+      <c r="F51" s="6"/>
+      <c r="G51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
+      <c r="D52" s="6"/>
+      <c r="E52" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="4" t="s">
+      <c r="F52" s="6"/>
+      <c r="G52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
+      <c r="D53" s="6"/>
+      <c r="E53" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="4" t="s">
+      <c r="F53" s="6"/>
+      <c r="G53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4" t="s">
+      <c r="D54" s="6"/>
+      <c r="E54" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4" t="s">
+      <c r="F54" s="6"/>
+      <c r="G54" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="3" t="s">
+      <c r="H54" s="6"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="3" t="s">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C66" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C67" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C68" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
+    <row r="80" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
+    <row r="81" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="4" t="s">
+    <row r="83" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4" t="s">
+      <c r="D83" s="6"/>
+      <c r="E83" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4" t="s">
+      <c r="F83" s="6"/>
+      <c r="G83" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="4" t="s">
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4" t="s">
+      <c r="D84" s="6"/>
+      <c r="E84" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="4" t="s">
+      <c r="F84" s="6"/>
+      <c r="G84" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4" t="s">
+      <c r="D85" s="6"/>
+      <c r="E85" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4" t="s">
+      <c r="F85" s="6"/>
+      <c r="G85" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="4" t="s">
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4" t="s">
+      <c r="D86" s="6"/>
+      <c r="E86" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="4" t="s">
+      <c r="F86" s="6"/>
+      <c r="G86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4" t="s">
+      <c r="D87" s="6"/>
+      <c r="E87" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="4" t="s">
+      <c r="F87" s="6"/>
+      <c r="G87" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4" t="s">
+      <c r="D88" s="6"/>
+      <c r="E88" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="4" t="s">
+      <c r="F88" s="6"/>
+      <c r="G88" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4" t="s">
+      <c r="D89" s="6"/>
+      <c r="E89" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="7"/>
-    </row>
-    <row r="75" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="2" t="s">
+      <c r="F89" s="6"/>
+      <c r="G89" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="4" t="s">
+    <row r="94" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4" t="s">
+      <c r="D94" s="6"/>
+      <c r="E94" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4" t="s">
+      <c r="F94" s="6"/>
+      <c r="G94" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="4" t="s">
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4" t="s">
+      <c r="D95" s="6"/>
+      <c r="E95" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="4" t="s">
+      <c r="F95" s="6"/>
+      <c r="G95" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4" t="s">
+      <c r="D96" s="6"/>
+      <c r="E96" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="2" t="s">
+      <c r="F96" s="6"/>
+      <c r="G96" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="2"/>
-      <c r="C92" s="2" t="s">
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="2"/>
-      <c r="C94" s="2" t="s">
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="2"/>
+      <c r="C111" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2" t="s">
+      <c r="E111" s="2"/>
+      <c r="F111" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H94" s="2"/>
-    </row>
-    <row r="95" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="2" t="s">
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C113" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D97" s="2" t="s">
+    <row r="114" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D114" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D98" s="2" t="s">
+    <row r="115" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D115" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D116" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D117" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C119" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="2"/>
+      <c r="C121" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C122" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C123" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="99" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D99" s="2" t="s">
+      <c r="F123" s="6"/>
+      <c r="G123" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C124" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C125" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C126" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="129" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C136" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137" s="6"/>
+    </row>
+    <row r="138" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H138" s="6"/>
+    </row>
+    <row r="139" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" s="6"/>
+    </row>
+    <row r="140" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H140" s="6"/>
+    </row>
+    <row r="141" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="4"/>
+    </row>
+    <row r="143" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" s="6"/>
+    </row>
+    <row r="146" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C146" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" s="6"/>
+    </row>
+    <row r="147" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C147" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" s="6"/>
+    </row>
+    <row r="148" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C151"/>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B158" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B160" s="2"/>
+      <c r="C160" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B162" s="2"/>
+      <c r="C162" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H162" s="2"/>
+    </row>
+    <row r="163" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C164" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D165" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D166" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D167" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D168" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="2" t="s">
+    <row r="169" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C170" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="2"/>
-      <c r="C103" s="4" t="s">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B172" s="2"/>
+      <c r="C172" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4" t="s">
+      <c r="D172" s="6"/>
+      <c r="E172" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4" t="s">
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H103" s="4"/>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C104" s="4" t="s">
+      <c r="I172" s="9"/>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C173" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H104" s="4"/>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C105" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H105" s="4"/>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C106" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H106" s="4"/>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C107" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H107" s="4"/>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C108" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H108" s="4"/>
-    </row>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="9"/>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C174" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I174" s="9"/>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C175" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I175" s="9"/>
+    </row>
+    <row r="178" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C185" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H185" s="6"/>
+    </row>
+    <row r="186" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C186" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H186" s="6"/>
+    </row>
+    <row r="187" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C187" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H187" s="6"/>
+    </row>
+    <row r="188" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C189" s="4"/>
+    </row>
+    <row r="190" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C192" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H192" s="6"/>
+    </row>
+    <row r="193" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C193" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H193" s="6"/>
+    </row>
+    <row r="194" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C194" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H194" s="6"/>
+    </row>
+    <row r="195" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B205" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B207" s="2"/>
+      <c r="C207" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="2"/>
+      <c r="C209" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H209" s="2"/>
+    </row>
+    <row r="210" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C211" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D212" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D213" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D214" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D215" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C217" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="10"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
+      <c r="H218" s="10"/>
+    </row>
+    <row r="219" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="12"/>
+      <c r="C219" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D219" s="13"/>
+      <c r="E219" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F219" s="13"/>
+      <c r="G219" s="13"/>
+      <c r="H219" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I219" s="15"/>
+    </row>
+    <row r="220" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C220" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D220" s="13"/>
+      <c r="E220" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F220" s="13"/>
+      <c r="G220" s="13"/>
+      <c r="H220" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I220" s="15"/>
+    </row>
+    <row r="221" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="116">
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
+  <mergeCells count="206">
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:F68"/>
     <mergeCell ref="G68:H68"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A59:XFD59"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="E220:G220"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="E219:G219"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="A178:XFD178"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="E174:G174"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="E67:F67"/>
     <mergeCell ref="G67:H67"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A76:XFD76"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
     <mergeCell ref="A3:XFD3"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
@@ -3580,66 +4818,58 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="C121:D121"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/后台接口设计.xlsx
+++ b/后台接口设计.xlsx
@@ -397,14 +397,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>插入用户获奖记录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口访问地址：/manage/insertUserAwardRecords</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>macId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -695,6 +687,14 @@
   <si>
     <t>该接口已包含在发货管理模块中</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/manage/insertAwardRecords</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入用户、机器的获奖记录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -828,10 +828,27 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -843,23 +860,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2065,7 +2065,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -2117,46 +2117,46 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="6"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="6"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="9"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -2164,60 +2164,60 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="6"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="6"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="6"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="9"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
@@ -2249,88 +2249,88 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6" t="s">
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6" t="s">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="6"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6" t="s">
+      <c r="F40" s="9"/>
+      <c r="G40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
+      <c r="D41" s="9"/>
+      <c r="E41" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="6"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="6"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6" t="s">
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6" t="s">
+      <c r="F43" s="9"/>
+      <c r="G43" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="6"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
+      <c r="D44" s="9"/>
+      <c r="E44" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="6"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="9"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
@@ -2347,182 +2347,182 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6" t="s">
+      <c r="D48" s="9"/>
+      <c r="E48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6" t="s">
+      <c r="F48" s="9"/>
+      <c r="G48" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H48" s="6"/>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6" t="s">
+      <c r="D49" s="9"/>
+      <c r="E49" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6" t="s">
+      <c r="F49" s="9"/>
+      <c r="G49" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="6"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6" t="s">
+      <c r="D50" s="9"/>
+      <c r="E50" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6" t="s">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="6"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6" t="s">
+      <c r="D51" s="9"/>
+      <c r="E51" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H51" s="6"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6" t="s">
+      <c r="D52" s="9"/>
+      <c r="E52" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6" t="s">
+      <c r="F52" s="9"/>
+      <c r="G52" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="6"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
+      <c r="D53" s="9"/>
+      <c r="E53" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6" t="s">
+      <c r="F53" s="9"/>
+      <c r="G53" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="6"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
+      <c r="D54" s="9"/>
+      <c r="E54" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6" t="s">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H54" s="6"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6" t="s">
+      <c r="D55" s="9"/>
+      <c r="E55" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6" t="s">
+      <c r="F55" s="9"/>
+      <c r="G55" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H55" s="6"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6" t="s">
+      <c r="D56" s="9"/>
+      <c r="E56" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6" t="s">
+      <c r="F56" s="9"/>
+      <c r="G56" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="6"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6" t="s">
+      <c r="D57" s="9"/>
+      <c r="E57" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6" t="s">
+      <c r="F57" s="9"/>
+      <c r="G57" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="6"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6" t="s">
+      <c r="D58" s="9"/>
+      <c r="E58" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6" t="s">
+      <c r="F58" s="9"/>
+      <c r="G58" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H58" s="6"/>
+      <c r="H58" s="9"/>
       <c r="K58" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6" t="s">
+      <c r="D59" s="9"/>
+      <c r="E59" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6" t="s">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H59" s="6"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="2:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
@@ -2543,46 +2543,46 @@
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6" t="s">
+      <c r="D77" s="9"/>
+      <c r="E77" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6" t="s">
+      <c r="F77" s="9"/>
+      <c r="G77" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="6"/>
+      <c r="H77" s="9"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6" t="s">
+      <c r="D78" s="9"/>
+      <c r="E78" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="6"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="9"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6" t="s">
+      <c r="D79" s="9"/>
+      <c r="E79" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" s="6"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="9"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
@@ -2590,46 +2590,46 @@
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6" t="s">
+      <c r="D83" s="9"/>
+      <c r="E83" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6" t="s">
+      <c r="F83" s="9"/>
+      <c r="G83" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="6"/>
+      <c r="H83" s="9"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6" t="s">
+      <c r="D84" s="9"/>
+      <c r="E84" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" s="6"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="9"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6" t="s">
+      <c r="D85" s="9"/>
+      <c r="E85" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" s="6"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="9"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
@@ -2681,34 +2681,34 @@
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6" t="s">
+      <c r="D110" s="9"/>
+      <c r="E110" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6" t="s">
+      <c r="F110" s="9"/>
+      <c r="G110" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H110" s="6"/>
+      <c r="H110" s="9"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6" t="s">
+      <c r="D111" s="9"/>
+      <c r="E111" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H111" s="6"/>
-    </row>
-    <row r="114" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="9"/>
+    </row>
+    <row r="114" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="2:11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
@@ -2729,32 +2729,32 @@
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6" t="s">
+      <c r="D122" s="9"/>
+      <c r="E122" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6" t="s">
+      <c r="F122" s="9"/>
+      <c r="G122" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H122" s="6"/>
+      <c r="H122" s="9"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C123" s="6" t="s">
+      <c r="C123" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6" t="s">
+      <c r="D123" s="9"/>
+      <c r="E123" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123" s="6"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="9"/>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
@@ -2762,193 +2762,193 @@
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6" t="s">
+      <c r="D127" s="9"/>
+      <c r="E127" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6" t="s">
+      <c r="F127" s="9"/>
+      <c r="G127" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6" t="s">
+      <c r="H127" s="9"/>
+      <c r="I127" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="J127" s="6"/>
-      <c r="K127" s="6"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C128" s="6" t="s">
+      <c r="C128" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6" t="s">
+      <c r="D128" s="9"/>
+      <c r="E128" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6" t="s">
+      <c r="F128" s="9"/>
+      <c r="G128" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J128" s="6"/>
-      <c r="K128" s="6"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6" t="s">
+      <c r="D129" s="9"/>
+      <c r="E129" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6" t="s">
+      <c r="F129" s="9"/>
+      <c r="G129" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J129" s="6"/>
-      <c r="K129" s="6"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C130" s="6" t="s">
+      <c r="C130" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6" t="s">
+      <c r="D130" s="9"/>
+      <c r="E130" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F130" s="6"/>
-      <c r="G130" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6" t="s">
+      <c r="F130" s="9"/>
+      <c r="G130" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J130" s="6"/>
-      <c r="K130" s="6"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C131" s="6" t="s">
+      <c r="C131" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6" t="s">
+      <c r="D131" s="9"/>
+      <c r="E131" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6" t="s">
+      <c r="F131" s="9"/>
+      <c r="G131" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J131" s="6"/>
-      <c r="K131" s="6"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6" t="s">
+      <c r="D132" s="9"/>
+      <c r="E132" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6" t="s">
+      <c r="F132" s="9"/>
+      <c r="G132" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J132" s="6"/>
-      <c r="K132" s="6"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C133" s="6" t="s">
+      <c r="C133" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6" t="s">
+      <c r="D133" s="9"/>
+      <c r="E133" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6" t="s">
+      <c r="F133" s="9"/>
+      <c r="G133" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J133" s="6"/>
-      <c r="K133" s="6"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6" t="s">
+      <c r="D134" s="9"/>
+      <c r="E134" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6" t="s">
+      <c r="F134" s="9"/>
+      <c r="G134" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
       <c r="M134" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6" t="s">
+      <c r="D135" s="9"/>
+      <c r="E135" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6" t="s">
+      <c r="D136" s="9"/>
+      <c r="E136" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
@@ -2957,130 +2957,6 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="I136:K136"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:K134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:K135"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:K132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:K133"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:K130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="I128:K128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="I129:K129"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
     <mergeCell ref="A3:XFD3"/>
     <mergeCell ref="A69:XFD69"/>
     <mergeCell ref="A114:XFD114"/>
@@ -3105,6 +2981,130 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:K128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="I129:K129"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:K132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:K133"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:K130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:K136"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:K134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:K135"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3124,18 +3124,18 @@
     <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3145,76 +3145,76 @@
       </c>
     </row>
     <row r="10" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3225,46 +3225,46 @@
       </c>
     </row>
     <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="6"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="6"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3286,7 +3286,7 @@
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -3320,14 +3320,14 @@
         <v>31</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -3342,246 +3342,246 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6" t="s">
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6" t="s">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="6"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6" t="s">
+      <c r="F40" s="9"/>
+      <c r="G40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
-      <c r="C41" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6" t="s">
+      <c r="C41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="6"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
+      <c r="D44" s="9"/>
+      <c r="E44" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="6" t="s">
+      <c r="F44" s="9"/>
+      <c r="G44" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6" t="s">
+      <c r="D45" s="9"/>
+      <c r="E45" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="6" t="s">
+      <c r="F47" s="9"/>
+      <c r="G47" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6" t="s">
+      <c r="D48" s="9"/>
+      <c r="E48" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6" t="s">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H54" s="6"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
@@ -3597,14 +3597,14 @@
         <v>31</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E60" s="2"/>
       <c r="G60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
@@ -3616,139 +3616,139 @@
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6" t="s">
+      <c r="D62" s="9"/>
+      <c r="E62" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6" t="s">
+      <c r="F62" s="9"/>
+      <c r="G62" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H62" s="6"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6" t="s">
+      <c r="D63" s="9"/>
+      <c r="E63" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6" t="s">
+      <c r="F63" s="9"/>
+      <c r="G63" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H63" s="6"/>
+      <c r="H63" s="9"/>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" s="9"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6" t="s">
+      <c r="D65" s="9"/>
+      <c r="E65" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C66" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6" t="s">
+      <c r="D66" s="9"/>
+      <c r="E66" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C65" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C66" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H66" s="6"/>
+      <c r="H66" s="9"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C67" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="6"/>
+      <c r="C67" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="9"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C68" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H68" s="6"/>
+      <c r="C68" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H68" s="9"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C71" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C72" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C73" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3758,102 +3758,102 @@
       </c>
     </row>
     <row r="83" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6" t="s">
+      <c r="D83" s="9"/>
+      <c r="E83" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6" t="s">
+      <c r="F83" s="9"/>
+      <c r="G83" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="6"/>
+      <c r="H83" s="9"/>
     </row>
     <row r="84" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6" t="s">
+      <c r="D84" s="9"/>
+      <c r="E84" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" s="6"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="9"/>
     </row>
     <row r="85" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6" t="s">
+      <c r="H85" s="9"/>
+    </row>
+    <row r="86" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6" t="s">
+      <c r="F86" s="9"/>
+      <c r="G86" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="9"/>
+    </row>
+    <row r="87" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H85" s="6"/>
-    </row>
-    <row r="86" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="6" t="s">
+      <c r="F87" s="9"/>
+      <c r="G87" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="9"/>
+    </row>
+    <row r="88" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6" t="s">
+      <c r="D88" s="9"/>
+      <c r="E88" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" s="6"/>
-    </row>
-    <row r="87" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="6" t="s">
+      <c r="F88" s="9"/>
+      <c r="G88" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" s="9"/>
+    </row>
+    <row r="89" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6" t="s">
+      <c r="D89" s="9"/>
+      <c r="E89" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H87" s="6"/>
-    </row>
-    <row r="88" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H88" s="6"/>
-    </row>
-    <row r="89" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H89" s="6"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="9"/>
     </row>
     <row r="90" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3866,46 +3866,46 @@
       </c>
     </row>
     <row r="94" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6" t="s">
+      <c r="D94" s="9"/>
+      <c r="E94" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6" t="s">
+      <c r="F94" s="9"/>
+      <c r="G94" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H94" s="6"/>
+      <c r="H94" s="9"/>
     </row>
     <row r="95" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6" t="s">
+      <c r="D95" s="9"/>
+      <c r="E95" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H95" s="6"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="9"/>
     </row>
     <row r="96" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6" t="s">
+      <c r="D96" s="9"/>
+      <c r="E96" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H96" s="6"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="9"/>
     </row>
     <row r="97" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3959,14 +3959,14 @@
         <v>31</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H111" s="2"/>
     </row>
@@ -3983,12 +3983,12 @@
     </row>
     <row r="115" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D115" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D116" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4013,101 +4013,101 @@
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6" t="s">
+      <c r="D121" s="9"/>
+      <c r="E121" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6" t="s">
+      <c r="F121" s="9"/>
+      <c r="G121" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H121" s="6"/>
+      <c r="H121" s="9"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C122" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6" t="s">
+      <c r="C122" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="9"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C123" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="9"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C124" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H122" s="6"/>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C123" s="6" t="s">
+      <c r="F124" s="9"/>
+      <c r="G124" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" s="9"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C125" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6" t="s">
+      <c r="D125" s="9"/>
+      <c r="E125" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123" s="6"/>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C124" s="6" t="s">
+      <c r="F125" s="9"/>
+      <c r="G125" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H125" s="9"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C126" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6" t="s">
+      <c r="D126" s="9"/>
+      <c r="E126" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H124" s="6"/>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C125" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H125" s="6"/>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C126" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H126" s="6"/>
-    </row>
-    <row r="129" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" s="9"/>
+    </row>
+    <row r="129" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4117,74 +4117,74 @@
       </c>
     </row>
     <row r="136" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6" t="s">
+      <c r="D136" s="9"/>
+      <c r="E136" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6" t="s">
+      <c r="F136" s="9"/>
+      <c r="G136" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H136" s="6"/>
+      <c r="H136" s="9"/>
     </row>
     <row r="137" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="6" t="s">
+      <c r="C137" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6" t="s">
+      <c r="D137" s="9"/>
+      <c r="E137" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H137" s="6"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137" s="9"/>
     </row>
     <row r="138" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="6" t="s">
+      <c r="C138" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H138" s="6"/>
+      <c r="H138" s="9"/>
     </row>
     <row r="139" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" s="9"/>
+    </row>
+    <row r="140" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H139" s="6"/>
-    </row>
-    <row r="140" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C140" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H140" s="6"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H140" s="9"/>
     </row>
     <row r="141" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="142" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4197,46 +4197,46 @@
       </c>
     </row>
     <row r="145" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="6" t="s">
+      <c r="C145" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6" t="s">
+      <c r="D145" s="9"/>
+      <c r="E145" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6" t="s">
+      <c r="F145" s="9"/>
+      <c r="G145" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="6"/>
+      <c r="H145" s="9"/>
     </row>
     <row r="146" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="6" t="s">
+      <c r="C146" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6" t="s">
+      <c r="D146" s="9"/>
+      <c r="E146" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H146" s="6"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" s="9"/>
     </row>
     <row r="147" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C147" s="6" t="s">
+      <c r="C147" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6" t="s">
+      <c r="D147" s="9"/>
+      <c r="E147" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H147" s="6"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" s="9"/>
     </row>
     <row r="148" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="149" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4293,14 +4293,14 @@
         <v>31</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H162" s="2"/>
     </row>
@@ -4317,12 +4317,12 @@
     </row>
     <row r="166" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D166" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="167" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D167" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="168" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4347,77 +4347,77 @@
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
-      <c r="C172" s="6" t="s">
+      <c r="C172" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6" t="s">
+      <c r="D172" s="9"/>
+      <c r="E172" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="8" t="s">
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I172" s="9"/>
+      <c r="I172" s="16"/>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C173" s="6" t="s">
+      <c r="C173" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="16"/>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C174" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6" t="s">
+      <c r="D174" s="9"/>
+      <c r="E174" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I174" s="16"/>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C175" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
-      <c r="H173" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I173" s="9"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C174" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F174" s="6"/>
-      <c r="G174" s="6"/>
-      <c r="H174" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I174" s="9"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C175" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F175" s="6"/>
-      <c r="G175" s="6"/>
-      <c r="H175" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I175" s="9"/>
-    </row>
-    <row r="178" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I175" s="16"/>
+    </row>
+    <row r="178" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="181" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="182" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B182" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="183" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4427,46 +4427,46 @@
       </c>
     </row>
     <row r="185" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C185" s="6" t="s">
+      <c r="C185" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6" t="s">
+      <c r="D185" s="9"/>
+      <c r="E185" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F185" s="6"/>
-      <c r="G185" s="6" t="s">
+      <c r="F185" s="9"/>
+      <c r="G185" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H185" s="6"/>
+      <c r="H185" s="9"/>
     </row>
     <row r="186" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C186" s="6" t="s">
+      <c r="C186" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6" t="s">
+      <c r="D186" s="9"/>
+      <c r="E186" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F186" s="6"/>
-      <c r="G186" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H186" s="6"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H186" s="9"/>
     </row>
     <row r="187" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C187" s="6" t="s">
+      <c r="C187" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F187" s="6"/>
-      <c r="G187" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H187" s="6"/>
+      <c r="H187" s="9"/>
     </row>
     <row r="188" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="189" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4479,46 +4479,46 @@
       </c>
     </row>
     <row r="192" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C192" s="6" t="s">
+      <c r="C192" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D192" s="6"/>
-      <c r="E192" s="6" t="s">
+      <c r="D192" s="9"/>
+      <c r="E192" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F192" s="6"/>
-      <c r="G192" s="6" t="s">
+      <c r="F192" s="9"/>
+      <c r="G192" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H192" s="6"/>
+      <c r="H192" s="9"/>
     </row>
     <row r="193" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C193" s="6" t="s">
+      <c r="C193" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D193" s="6"/>
-      <c r="E193" s="6" t="s">
+      <c r="D193" s="9"/>
+      <c r="E193" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F193" s="6"/>
-      <c r="G193" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H193" s="6"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H193" s="9"/>
     </row>
     <row r="194" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C194" s="6" t="s">
+      <c r="C194" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D194" s="6"/>
-      <c r="E194" s="6" t="s">
+      <c r="D194" s="9"/>
+      <c r="E194" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F194" s="6"/>
-      <c r="G194" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H194" s="6"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H194" s="9"/>
     </row>
     <row r="195" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="196" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4572,14 +4572,14 @@
         <v>31</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H209" s="2"/>
     </row>
@@ -4596,12 +4596,12 @@
     </row>
     <row r="213" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D213" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="214" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D214" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="215" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4615,156 +4615,128 @@
         <v>77</v>
       </c>
     </row>
-    <row r="218" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="10"/>
-      <c r="C218" s="10"/>
-      <c r="D218" s="10"/>
-      <c r="E218" s="10"/>
-      <c r="F218" s="10"/>
-      <c r="G218" s="10"/>
-      <c r="H218" s="10"/>
-    </row>
-    <row r="219" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="12"/>
-      <c r="C219" s="13" t="s">
+    <row r="218" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+    </row>
+    <row r="219" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="7"/>
+      <c r="C219" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D219" s="13"/>
-      <c r="E219" s="13" t="s">
+      <c r="D219" s="11"/>
+      <c r="E219" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F219" s="13"/>
-      <c r="G219" s="13"/>
-      <c r="H219" s="14" t="s">
+      <c r="F219" s="11"/>
+      <c r="G219" s="11"/>
+      <c r="H219" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I219" s="15"/>
-    </row>
-    <row r="220" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C220" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D220" s="13"/>
-      <c r="E220" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="F220" s="13"/>
-      <c r="G220" s="13"/>
-      <c r="H220" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I220" s="15"/>
-    </row>
-    <row r="221" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="I219" s="13"/>
+    </row>
+    <row r="220" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C220" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F220" s="11"/>
+      <c r="G220" s="11"/>
+      <c r="H220" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I220" s="13"/>
+    </row>
+    <row r="221" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="206">
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="E220:G220"/>
-    <mergeCell ref="H220:I220"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="E219:G219"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="A178:XFD178"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="E174:G174"/>
-    <mergeCell ref="E175:G175"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
@@ -4789,21 +4761,22 @@
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
     <mergeCell ref="A76:XFD76"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="E83:F83"/>
@@ -4811,65 +4784,92 @@
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="E84:F84"/>
     <mergeCell ref="G84:H84"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="E121:F121"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="E174:G174"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="A178:XFD178"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="E220:G220"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="E219:G219"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/后台接口设计.xlsx
+++ b/后台接口设计.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="接口一览" sheetId="2" r:id="rId1"/>
-    <sheet name="个人中心" sheetId="3" r:id="rId2"/>
-    <sheet name="发货管理" sheetId="4" r:id="rId3"/>
+    <sheet name="进入房间信息" sheetId="5" r:id="rId2"/>
+    <sheet name="个人中心" sheetId="3" r:id="rId3"/>
+    <sheet name="发货管理" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="226">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -695,6 +696,229 @@
   <si>
     <t>插入用户、机器的获奖记录</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间奖品详情展示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/room/roomDetailShow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户获奖信息展示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/user/showUseRawardInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>machineId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prizeId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prizeName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prizeNumber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户获奖记录表（user_award_records）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        List</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序：以【抓取时间】降序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过状态值名称对应列表转换</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态值名称对应列表：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:寄存中</t>
+  </si>
+  <si>
+    <t>2:待邮寄</t>
+  </si>
+  <si>
+    <t>3:邮寄中</t>
+  </si>
+  <si>
+    <t>4:已签收</t>
+  </si>
+  <si>
+    <t>5:已兑换</t>
+  </si>
+  <si>
+    <t>值:名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品介绍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品价值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入参</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先做单条记录的发货申请</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先做单条记录的确认收货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先做单条记录的发货处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该房间的最近抓中记录展示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/room/roomLatelyAwardRecordsShow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品表(prize)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户昵称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器获奖记录表(machine_award_records)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分兑换金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有最后一个未开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -746,7 +970,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -759,8 +983,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -809,6 +1039,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -816,7 +1075,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -836,10 +1095,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,21 +1119,85 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -879,6 +1211,409 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0933EB6B-5C2A-4EB3-9268-9DDBCDC16827}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="4732020"/>
+          <a:ext cx="3596640" cy="2240280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnCode": "200",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnDesc": "OK",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"data": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		"roomId": "321",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		"prizeId": "43",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		"prizeName": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>努比兔</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		"introduce": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>可爱</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		"exchange": "195",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		"consume": "39"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="右大括号 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95965EC-652A-4937-A7F0-27253C79BE2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7917180" y="9814560"/>
+          <a:ext cx="251460" cy="701040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41418633-A80E-4333-82D0-85B82EAF00AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="11391900"/>
+          <a:ext cx="4191000" cy="3177540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnCode": "200",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnDesc": "OK",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"data": [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"userId": "123456",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"machineId": "234",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"prizeId": "342",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"userName": "lisa"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"userId": "123456",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"machineId": "235",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"prizeId": "345",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"userName": "yani"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -995,7 +1730,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>328264</xdr:colOff>
+      <xdr:colOff>114904</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>72111</xdr:rowOff>
     </xdr:to>
@@ -1039,7 +1774,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>324456</xdr:colOff>
+      <xdr:colOff>111096</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>155798</xdr:rowOff>
     </xdr:to>
@@ -1307,10 +2042,347 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="右大括号 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D70AECA-45C9-4CE1-A6B5-595429FFD406}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7985760" y="30015180"/>
+          <a:ext cx="251460" cy="1127760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0691EF5D-8A98-46B2-A604-01A27F7588F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="32598360"/>
+          <a:ext cx="5143500" cy="4632960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnCode": "200",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnDesc": "OK",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"data": [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"userId": "123456",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"machineId": "234",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"prizeId": "342",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"prizeName": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>努比兔</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"prizeNumber": "342",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"status": "1",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"statusName": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>寄存中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"createTime": "2017-12-03 19:29:24"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"userId": "123456",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"machineId": "235",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"prizeId": "345",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"prizeName": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>哆啦</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>梦</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"prizeNumber": "345",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"status": "2",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"statusName": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>待邮寄</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"createTime": "2017-11-07 22:22:09"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1744,11 +2816,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2" displayName="表2" ref="C4:D10" totalsRowShown="0">
-  <autoFilter ref="C4:D10"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2" displayName="表2" ref="C4:G11" totalsRowShown="0">
+  <autoFilter ref="C4:G11"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="接口名"/>
     <tableColumn id="3" name="备注"/>
+    <tableColumn id="2" name="设计状态" dataCellStyle="常规 2"/>
+    <tableColumn id="4" name="开发状态" dataCellStyle="常规 2"/>
+    <tableColumn id="5" name="开发备注" dataCellStyle="常规 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="R176:R181" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3" headerRowCellStyle="常规 2" dataCellStyle="常规 2">
+  <autoFilter ref="R176:R181"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="值:名称" dataDxfId="2" dataCellStyle="常规 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2017,7 +3102,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:D10"/>
+  <dimension ref="C4:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2026,51 +3111,112 @@
     <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="6" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2085,7 +3231,534 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M140"/>
+  <dimension ref="B3:N64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+    </row>
+    <row r="57" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+    </row>
+    <row r="58" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+    </row>
+    <row r="59" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+    </row>
+    <row r="61" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+    </row>
+    <row r="62" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+    </row>
+    <row r="64" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="76">
+    <mergeCell ref="I58:M58"/>
+    <mergeCell ref="I59:M59"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="I56:M56"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:M62"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I57:M57"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B3:R185"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2093,10 +3766,12 @@
   <cols>
     <col min="1" max="4" width="8.88671875" style="2"/>
     <col min="5" max="6" width="13.6640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="7" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="12" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -2117,46 +3792,46 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="10"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -2164,60 +3839,60 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="10"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
@@ -2249,88 +3924,88 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9" t="s">
+      <c r="F39" s="10"/>
+      <c r="G39" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="10"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9" t="s">
+      <c r="F40" s="10"/>
+      <c r="G40" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="9"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="9"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9" t="s">
+      <c r="F43" s="10"/>
+      <c r="G43" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="9"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="9"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="10"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
@@ -2347,182 +4022,182 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9" t="s">
+      <c r="F48" s="10"/>
+      <c r="G48" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H48" s="9"/>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9" t="s">
+      <c r="F49" s="10"/>
+      <c r="G49" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="9"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9" t="s">
+      <c r="F50" s="10"/>
+      <c r="G50" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="9"/>
+      <c r="H50" s="10"/>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9" t="s">
+      <c r="F51" s="10"/>
+      <c r="G51" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H51" s="9"/>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9" t="s">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9" t="s">
+      <c r="F52" s="10"/>
+      <c r="G52" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="9"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9" t="s">
+      <c r="F53" s="10"/>
+      <c r="G53" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="9"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9" t="s">
+      <c r="F54" s="10"/>
+      <c r="G54" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H54" s="9"/>
+      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="10"/>
+      <c r="E55" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9" t="s">
+      <c r="F55" s="10"/>
+      <c r="G55" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H55" s="9"/>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
+      <c r="D56" s="10"/>
+      <c r="E56" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9" t="s">
+      <c r="F56" s="10"/>
+      <c r="G56" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="9"/>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
+      <c r="D57" s="10"/>
+      <c r="E57" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9" t="s">
+      <c r="F57" s="10"/>
+      <c r="G57" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="9"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9" t="s">
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9" t="s">
+      <c r="F58" s="10"/>
+      <c r="G58" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H58" s="9"/>
+      <c r="H58" s="10"/>
       <c r="K58" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
+      <c r="D59" s="10"/>
+      <c r="E59" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9" t="s">
+      <c r="F59" s="10"/>
+      <c r="G59" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H59" s="9"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="2:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
@@ -2543,46 +4218,46 @@
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
+      <c r="D77" s="10"/>
+      <c r="E77" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9" t="s">
+      <c r="F77" s="10"/>
+      <c r="G77" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="9"/>
+      <c r="H77" s="10"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
+      <c r="D78" s="10"/>
+      <c r="E78" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="9"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="10"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9" t="s">
+      <c r="D79" s="10"/>
+      <c r="E79" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" s="9"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="10"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
@@ -2590,46 +4265,46 @@
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
+      <c r="D83" s="10"/>
+      <c r="E83" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9" t="s">
+      <c r="F83" s="10"/>
+      <c r="G83" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="9"/>
+      <c r="H83" s="10"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9" t="s">
+      <c r="D84" s="10"/>
+      <c r="E84" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" s="9"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="10"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
+      <c r="D85" s="10"/>
+      <c r="E85" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" s="9"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="10"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
@@ -2681,34 +4356,34 @@
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9" t="s">
+      <c r="D110" s="10"/>
+      <c r="E110" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9" t="s">
+      <c r="F110" s="10"/>
+      <c r="G110" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H110" s="9"/>
+      <c r="H110" s="10"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9" t="s">
+      <c r="D111" s="10"/>
+      <c r="E111" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H111" s="9"/>
-    </row>
-    <row r="114" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="10"/>
+    </row>
+    <row r="114" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="2:11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
@@ -2729,32 +4404,32 @@
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9" t="s">
+      <c r="D122" s="10"/>
+      <c r="E122" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9" t="s">
+      <c r="F122" s="10"/>
+      <c r="G122" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H122" s="9"/>
+      <c r="H122" s="10"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9" t="s">
+      <c r="D123" s="10"/>
+      <c r="E123" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123" s="9"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="10"/>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
@@ -2762,201 +4437,681 @@
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9" t="s">
+      <c r="D127" s="10"/>
+      <c r="E127" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9" t="s">
+      <c r="F127" s="10"/>
+      <c r="G127" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9" t="s">
+      <c r="H127" s="10"/>
+      <c r="I127" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="J127" s="9"/>
-      <c r="K127" s="9"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="10"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9" t="s">
+      <c r="D128" s="10"/>
+      <c r="E128" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9" t="s">
+      <c r="F128" s="10"/>
+      <c r="G128" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J128" s="9"/>
-      <c r="K128" s="9"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="10"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9" t="s">
+      <c r="D129" s="10"/>
+      <c r="E129" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9" t="s">
+      <c r="F129" s="10"/>
+      <c r="G129" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J129" s="9"/>
-      <c r="K129" s="9"/>
+      <c r="J129" s="10"/>
+      <c r="K129" s="10"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9" t="s">
+      <c r="D130" s="10"/>
+      <c r="E130" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9" t="s">
+      <c r="F130" s="10"/>
+      <c r="G130" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J130" s="9"/>
-      <c r="K130" s="9"/>
+      <c r="J130" s="10"/>
+      <c r="K130" s="10"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9" t="s">
+      <c r="D131" s="10"/>
+      <c r="E131" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9" t="s">
+      <c r="F131" s="10"/>
+      <c r="G131" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="10"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9" t="s">
+      <c r="D132" s="10"/>
+      <c r="E132" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9" t="s">
+      <c r="F132" s="10"/>
+      <c r="G132" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="10"/>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C133" s="9" t="s">
+      <c r="C133" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9" t="s">
+      <c r="D133" s="10"/>
+      <c r="E133" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9" t="s">
+      <c r="F133" s="10"/>
+      <c r="G133" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J133" s="9"/>
-      <c r="K133" s="9"/>
+      <c r="J133" s="10"/>
+      <c r="K133" s="10"/>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9" t="s">
+      <c r="D134" s="10"/>
+      <c r="E134" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9" t="s">
+      <c r="F134" s="10"/>
+      <c r="G134" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J134" s="9"/>
-      <c r="K134" s="9"/>
+      <c r="J134" s="10"/>
+      <c r="K134" s="10"/>
       <c r="M134" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C135" s="9" t="s">
+      <c r="C135" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9" t="s">
+      <c r="D135" s="10"/>
+      <c r="E135" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H135" s="9"/>
-      <c r="I135" s="9"/>
-      <c r="J135" s="9"/>
-      <c r="K135" s="9"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="10"/>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9" t="s">
+      <c r="D136" s="10"/>
+      <c r="E136" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H136" s="9"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="9"/>
-      <c r="K136" s="9"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10"/>
+      <c r="K136" s="10"/>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="158" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="163" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="164" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C166" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H166" s="14"/>
+    </row>
+    <row r="167" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C167" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D167" s="14"/>
+      <c r="E167" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H167" s="14"/>
+    </row>
+    <row r="168" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B170" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C171" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" s="10"/>
+      <c r="I171" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J171" s="10"/>
+      <c r="K171" s="10"/>
+      <c r="L171" s="10"/>
+    </row>
+    <row r="172" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C172" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H172" s="10"/>
+      <c r="I172" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J172" s="10"/>
+      <c r="K172" s="10"/>
+      <c r="L172" s="10"/>
+    </row>
+    <row r="173" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C173" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H173" s="10"/>
+      <c r="I173" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J173" s="10"/>
+      <c r="K173" s="10"/>
+      <c r="L173" s="10"/>
+    </row>
+    <row r="174" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C174" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H174" s="10"/>
+      <c r="I174" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J174" s="10"/>
+      <c r="K174" s="10"/>
+      <c r="L174" s="10"/>
+    </row>
+    <row r="175" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C175" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H175" s="10"/>
+      <c r="I175" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J175" s="10"/>
+      <c r="K175" s="10"/>
+      <c r="L175" s="10"/>
+      <c r="M175" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P175" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="176" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C176" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H176" s="10"/>
+      <c r="I176" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J176" s="10"/>
+      <c r="K176" s="10"/>
+      <c r="L176" s="10"/>
+      <c r="R176" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="177" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C177" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J177" s="10"/>
+      <c r="K177" s="10"/>
+      <c r="L177" s="10"/>
+      <c r="R177" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="178" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C178" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H178" s="10"/>
+      <c r="I178" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="J178" s="10"/>
+      <c r="K178" s="10"/>
+      <c r="L178" s="10"/>
+      <c r="R178" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="179" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C179" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J179" s="10"/>
+      <c r="K179" s="10"/>
+      <c r="L179" s="10"/>
+      <c r="R179" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="180" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C180" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="10"/>
+      <c r="K180" s="10"/>
+      <c r="L180" s="10"/>
+      <c r="R180" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="181" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C181" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H181" s="10"/>
+      <c r="I181" s="10"/>
+      <c r="J181" s="10"/>
+      <c r="K181" s="10"/>
+      <c r="L181" s="10"/>
+      <c r="R181" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="183" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C183" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B185" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="148">
+  <mergeCells count="198">
+    <mergeCell ref="I178:L178"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="I171:L171"/>
+    <mergeCell ref="I172:L172"/>
+    <mergeCell ref="I173:L173"/>
+    <mergeCell ref="I174:L174"/>
+    <mergeCell ref="I175:L175"/>
+    <mergeCell ref="I176:L176"/>
+    <mergeCell ref="I179:L179"/>
+    <mergeCell ref="I180:L180"/>
+    <mergeCell ref="I181:L181"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="I177:L177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:K136"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:K134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:K135"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:K132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:K133"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:K130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:K128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="I129:K129"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
     <mergeCell ref="A3:XFD3"/>
     <mergeCell ref="A69:XFD69"/>
     <mergeCell ref="A114:XFD114"/>
@@ -2981,139 +5136,18 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="I128:K128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="I129:K129"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:K132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:K133"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:K130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="I136:K136"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:K134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:K135"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J227"/>
   <sheetViews>
@@ -3124,7 +5158,7 @@
     <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -3145,76 +5179,76 @@
       </c>
     </row>
     <row r="10" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9" t="s">
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3225,46 +5259,46 @@
       </c>
     </row>
     <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3342,231 +5376,231 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9" t="s">
+      <c r="F39" s="10"/>
+      <c r="G39" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="10"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9" t="s">
+      <c r="F40" s="10"/>
+      <c r="G40" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9" t="s">
+      <c r="F41" s="10"/>
+      <c r="G41" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="9"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9" t="s">
+      <c r="F42" s="10"/>
+      <c r="G42" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="9"/>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9" t="s">
+      <c r="F43" s="10"/>
+      <c r="G43" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="9"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="9"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="9"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="9"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9" t="s">
+      <c r="F47" s="10"/>
+      <c r="G47" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H47" s="9"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="9"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="9"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="9"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="10"/>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="9"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9" t="s">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="9"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="9"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9" t="s">
+      <c r="F54" s="10"/>
+      <c r="G54" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H54" s="9"/>
+      <c r="H54" s="10"/>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
@@ -3616,102 +5650,102 @@
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
+      <c r="D62" s="10"/>
+      <c r="E62" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9" t="s">
+      <c r="F62" s="10"/>
+      <c r="G62" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H62" s="9"/>
+      <c r="H62" s="10"/>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9" t="s">
+      <c r="D63" s="10"/>
+      <c r="E63" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9" t="s">
+      <c r="F63" s="10"/>
+      <c r="G63" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H63" s="9"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
+      <c r="D64" s="10"/>
+      <c r="E64" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9" t="s">
+      <c r="F64" s="10"/>
+      <c r="G64" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H64" s="9"/>
+      <c r="H64" s="10"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9" t="s">
+      <c r="F65" s="10"/>
+      <c r="G65" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H65" s="9"/>
+      <c r="H65" s="10"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
+      <c r="D66" s="10"/>
+      <c r="E66" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9" t="s">
+      <c r="F66" s="10"/>
+      <c r="G66" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="9"/>
+      <c r="H66" s="10"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
+      <c r="D67" s="10"/>
+      <c r="E67" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="9"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="10"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
+      <c r="D68" s="10"/>
+      <c r="E68" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9" t="s">
+      <c r="F68" s="10"/>
+      <c r="G68" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H68" s="9"/>
+      <c r="H68" s="10"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C71" s="3" t="s">
@@ -3737,7 +5771,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:8" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>9</v>
@@ -3751,161 +5785,164 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="9" t="s">
+    <row r="83" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
+      <c r="D83" s="10"/>
+      <c r="E83" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9" t="s">
+      <c r="F83" s="10"/>
+      <c r="G83" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="9"/>
-    </row>
-    <row r="84" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="9" t="s">
+      <c r="H83" s="10"/>
+    </row>
+    <row r="84" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9" t="s">
+      <c r="D84" s="10"/>
+      <c r="E84" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" s="9"/>
-    </row>
-    <row r="85" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="9" t="s">
+      <c r="F84" s="10"/>
+      <c r="G84" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="10"/>
+    </row>
+    <row r="85" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
+      <c r="D85" s="10"/>
+      <c r="E85" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9" t="s">
+      <c r="F85" s="10"/>
+      <c r="G85" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="H85" s="9"/>
-    </row>
-    <row r="86" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="9" t="s">
+      <c r="H85" s="10"/>
+      <c r="J85" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9" t="s">
+      <c r="D86" s="10"/>
+      <c r="E86" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" s="9"/>
-    </row>
-    <row r="87" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="9" t="s">
+      <c r="F86" s="10"/>
+      <c r="G86" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="10"/>
+    </row>
+    <row r="87" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
+      <c r="D87" s="10"/>
+      <c r="E87" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H87" s="9"/>
-    </row>
-    <row r="88" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="9" t="s">
+      <c r="F87" s="10"/>
+      <c r="G87" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="10"/>
+    </row>
+    <row r="88" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9" t="s">
+      <c r="D88" s="10"/>
+      <c r="E88" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H88" s="9"/>
-    </row>
-    <row r="89" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="9" t="s">
+      <c r="F88" s="10"/>
+      <c r="G88" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" s="10"/>
+    </row>
+    <row r="89" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
+      <c r="D89" s="10"/>
+      <c r="E89" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H89" s="9"/>
-    </row>
-    <row r="90" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F89" s="10"/>
+      <c r="G89" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="10"/>
+    </row>
+    <row r="90" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C91" s="4"/>
     </row>
-    <row r="92" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="9" t="s">
+    <row r="94" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9" t="s">
+      <c r="D94" s="10"/>
+      <c r="E94" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9" t="s">
+      <c r="F94" s="10"/>
+      <c r="G94" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H94" s="9"/>
-    </row>
-    <row r="95" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="9" t="s">
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9" t="s">
+      <c r="D95" s="10"/>
+      <c r="E95" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H95" s="9"/>
-    </row>
-    <row r="96" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="9" t="s">
+      <c r="F95" s="10"/>
+      <c r="G95" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="10"/>
+    </row>
+    <row r="96" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9" t="s">
+      <c r="D96" s="10"/>
+      <c r="E96" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H96" s="9"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="10"/>
     </row>
     <row r="97" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4013,91 +6050,91 @@
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9" t="s">
+      <c r="D121" s="10"/>
+      <c r="E121" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9" t="s">
+      <c r="F121" s="10"/>
+      <c r="G121" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H121" s="9"/>
+      <c r="H121" s="10"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9" t="s">
+      <c r="D122" s="10"/>
+      <c r="E122" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H122" s="9"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="10"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9" t="s">
+      <c r="D123" s="10"/>
+      <c r="E123" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123" s="9"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="10"/>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9" t="s">
+      <c r="D124" s="10"/>
+      <c r="E124" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H124" s="9"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" s="10"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9" t="s">
+      <c r="D125" s="10"/>
+      <c r="E125" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H125" s="9"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H125" s="10"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9" t="s">
+      <c r="D126" s="10"/>
+      <c r="E126" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H126" s="9"/>
-    </row>
-    <row r="129" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F126" s="10"/>
+      <c r="G126" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" s="10"/>
+    </row>
+    <row r="129" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="2" t="s">
         <v>9</v>
       </c>
@@ -4105,138 +6142,141 @@
         <v>139</v>
       </c>
     </row>
-    <row r="133" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="9" t="s">
+    <row r="136" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C136" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9" t="s">
+      <c r="D136" s="10"/>
+      <c r="E136" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9" t="s">
+      <c r="F136" s="10"/>
+      <c r="G136" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H136" s="9"/>
-    </row>
-    <row r="137" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="9" t="s">
+      <c r="H136" s="10"/>
+    </row>
+    <row r="137" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9" t="s">
+      <c r="D137" s="10"/>
+      <c r="E137" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H137" s="9"/>
-    </row>
-    <row r="138" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="9" t="s">
+      <c r="F137" s="10"/>
+      <c r="G137" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137" s="10"/>
+    </row>
+    <row r="138" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9" t="s">
+      <c r="D138" s="10"/>
+      <c r="E138" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9" t="s">
+      <c r="F138" s="10"/>
+      <c r="G138" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="H138" s="9"/>
-    </row>
-    <row r="139" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="9" t="s">
+      <c r="H138" s="10"/>
+      <c r="J138" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9" t="s">
+      <c r="D139" s="10"/>
+      <c r="E139" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H139" s="9"/>
-    </row>
-    <row r="140" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C140" s="9" t="s">
+      <c r="F139" s="10"/>
+      <c r="G139" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" s="10"/>
+    </row>
+    <row r="140" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9" t="s">
+      <c r="D140" s="10"/>
+      <c r="E140" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H140" s="9"/>
-    </row>
-    <row r="141" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F140" s="10"/>
+      <c r="G140" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H140" s="10"/>
+    </row>
+    <row r="141" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C142" s="4"/>
     </row>
-    <row r="143" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="145" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="9" t="s">
+      <c r="C145" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9" t="s">
+      <c r="D145" s="10"/>
+      <c r="E145" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9" t="s">
+      <c r="F145" s="10"/>
+      <c r="G145" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="9"/>
+      <c r="H145" s="10"/>
     </row>
     <row r="146" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="9" t="s">
+      <c r="C146" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9" t="s">
+      <c r="D146" s="10"/>
+      <c r="E146" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H146" s="9"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" s="10"/>
     </row>
     <row r="147" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C147" s="9" t="s">
+      <c r="C147" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9" t="s">
+      <c r="D147" s="10"/>
+      <c r="E147" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H147" s="9"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" s="10"/>
     </row>
     <row r="148" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="149" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4347,67 +6387,67 @@
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
-      <c r="C172" s="9" t="s">
+      <c r="C172" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D172" s="9"/>
-      <c r="E172" s="9" t="s">
+      <c r="D172" s="10"/>
+      <c r="E172" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F172" s="9"/>
-      <c r="G172" s="9"/>
-      <c r="H172" s="15" t="s">
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I172" s="16"/>
+      <c r="I172" s="13"/>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C173" s="9" t="s">
+      <c r="C173" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9" t="s">
+      <c r="D173" s="10"/>
+      <c r="E173" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F173" s="9"/>
-      <c r="G173" s="9"/>
-      <c r="H173" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I173" s="16"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="13"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C174" s="9" t="s">
+      <c r="C174" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D174" s="9"/>
-      <c r="E174" s="9" t="s">
+      <c r="D174" s="10"/>
+      <c r="E174" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I174" s="16"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I174" s="13"/>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C175" s="9" t="s">
+      <c r="C175" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D175" s="9"/>
-      <c r="E175" s="9" t="s">
+      <c r="D175" s="10"/>
+      <c r="E175" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I175" s="16"/>
-    </row>
-    <row r="178" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I175" s="13"/>
+    </row>
+    <row r="178" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B181" s="2" t="s">
         <v>9</v>
       </c>
@@ -4415,110 +6455,113 @@
         <v>150</v>
       </c>
     </row>
-    <row r="182" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B182" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="183" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B184" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C185" s="9" t="s">
+    <row r="185" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C185" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D185" s="9"/>
-      <c r="E185" s="9" t="s">
+      <c r="D185" s="10"/>
+      <c r="E185" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F185" s="9"/>
-      <c r="G185" s="9" t="s">
+      <c r="F185" s="10"/>
+      <c r="G185" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H185" s="9"/>
-    </row>
-    <row r="186" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C186" s="9" t="s">
+      <c r="H185" s="10"/>
+    </row>
+    <row r="186" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C186" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D186" s="9"/>
-      <c r="E186" s="9" t="s">
+      <c r="D186" s="10"/>
+      <c r="E186" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F186" s="9"/>
-      <c r="G186" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H186" s="9"/>
-    </row>
-    <row r="187" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C187" s="9" t="s">
+      <c r="F186" s="10"/>
+      <c r="G186" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H186" s="10"/>
+    </row>
+    <row r="187" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C187" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D187" s="9"/>
-      <c r="E187" s="9" t="s">
+      <c r="D187" s="10"/>
+      <c r="E187" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F187" s="9"/>
-      <c r="G187" s="9" t="s">
+      <c r="F187" s="10"/>
+      <c r="G187" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="H187" s="9"/>
-    </row>
-    <row r="188" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H187" s="10"/>
+      <c r="J187" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C189" s="4"/>
     </row>
-    <row r="190" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B191" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C192" s="9" t="s">
+    <row r="192" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C192" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D192" s="9"/>
-      <c r="E192" s="9" t="s">
+      <c r="D192" s="10"/>
+      <c r="E192" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F192" s="9"/>
-      <c r="G192" s="9" t="s">
+      <c r="F192" s="10"/>
+      <c r="G192" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H192" s="9"/>
+      <c r="H192" s="10"/>
     </row>
     <row r="193" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C193" s="9" t="s">
+      <c r="C193" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D193" s="9"/>
-      <c r="E193" s="9" t="s">
+      <c r="D193" s="10"/>
+      <c r="E193" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F193" s="9"/>
-      <c r="G193" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H193" s="9"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H193" s="10"/>
     </row>
     <row r="194" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C194" s="9" t="s">
+      <c r="C194" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D194" s="9"/>
-      <c r="E194" s="9" t="s">
+      <c r="D194" s="10"/>
+      <c r="E194" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F194" s="9"/>
-      <c r="G194" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H194" s="9"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H194" s="10"/>
     </row>
     <row r="195" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="196" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4626,34 +6669,34 @@
     </row>
     <row r="219" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B219" s="7"/>
-      <c r="C219" s="11" t="s">
+      <c r="C219" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D219" s="11"/>
-      <c r="E219" s="11" t="s">
+      <c r="D219" s="14"/>
+      <c r="E219" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F219" s="11"/>
-      <c r="G219" s="11"/>
-      <c r="H219" s="12" t="s">
+      <c r="F219" s="14"/>
+      <c r="G219" s="14"/>
+      <c r="H219" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I219" s="13"/>
+      <c r="I219" s="16"/>
     </row>
     <row r="220" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C220" s="11" t="s">
+      <c r="C220" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D220" s="11"/>
-      <c r="E220" s="11" t="s">
+      <c r="D220" s="14"/>
+      <c r="E220" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="F220" s="11"/>
-      <c r="G220" s="11"/>
-      <c r="H220" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I220" s="13"/>
+      <c r="F220" s="14"/>
+      <c r="G220" s="14"/>
+      <c r="H220" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I220" s="16"/>
     </row>
     <row r="221" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="222" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4664,6 +6707,188 @@
     <row r="227" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="206">
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="E220:G220"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="E219:G219"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="E174:G174"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="A178:XFD178"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="A76:XFD76"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
     <mergeCell ref="G88:H88"/>
     <mergeCell ref="C126:D126"/>
     <mergeCell ref="E126:F126"/>
@@ -4688,188 +6913,6 @@
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="E96:F96"/>
     <mergeCell ref="G96:H96"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="A76:XFD76"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="E174:G174"/>
-    <mergeCell ref="E175:G175"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="A178:XFD178"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="E220:G220"/>
-    <mergeCell ref="H220:I220"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="E219:G219"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/后台接口设计.xlsx
+++ b/后台接口设计.xlsx
@@ -11,6 +11,7 @@
     <sheet name="进入房间信息" sheetId="5" r:id="rId2"/>
     <sheet name="个人中心" sheetId="3" r:id="rId3"/>
     <sheet name="发货管理" sheetId="4" r:id="rId4"/>
+    <sheet name="加解密" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="261">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -918,6 +919,146 @@
   </si>
   <si>
     <t>开发备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成loginToken</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginToken</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成的token</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>idName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成过程：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需参数：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由即构提供</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“ver":</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hash":</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“nonce":</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"expired":</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//int类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>710a5199398176a316ebcc88bc5b4470,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//字符串类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash的获得：通过MD5加密(app_id+app_key_32+id_name+nonce+expired)得出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_key_32: 通过app_key运算获得，算法：剔除app_key里的"0x", ","字符后，获取前面32字节即为app_key_32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机串，需要保证同一USER_ID在失效时间内不重复, 建议按guid生成, //字符串类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效时间，unix_timestamp  //int64类型，单位秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把以上json内容通过base64加密，最后得出loginToken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成configToken</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/encode/loginToken</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/encode/configEncode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓中时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序：以【抓中时间】降序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取记录条数：10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1075,7 +1216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1095,30 +1236,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1138,19 +1255,40 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1176,13 +1314,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1196,6 +1327,20 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1380,7 +1525,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1396,7 +1541,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7917180" y="9814560"/>
-          <a:ext cx="251460" cy="701040"/>
+          <a:ext cx="251460" cy="830580"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -1431,13 +1576,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1453,8 +1598,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="11391900"/>
-          <a:ext cx="4191000" cy="3177540"/>
+          <a:off x="1219200" y="12092940"/>
+          <a:ext cx="5173980" cy="3177540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1539,7 +1684,22 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>			"userName": "lisa"</a:t>
+            <a:t>			"userName": "lisa",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>createTime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>":"2017-11-09 15:34:54"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1578,11 +1738,40 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>			"userName": "yani"</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"createTime":"2017-11-19 19:34:54"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2815,9 +3004,86 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B300D21-32A8-4625-9B00-37EBF9A32C28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="3855720"/>
+          <a:ext cx="3040380" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>生成的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>token"}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2" displayName="表2" ref="C4:G11" totalsRowShown="0">
-  <autoFilter ref="C4:G11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2" displayName="表2" ref="C4:G12" totalsRowShown="0">
+  <autoFilter ref="C4:G12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="接口名"/>
     <tableColumn id="3" name="备注"/>
@@ -2830,10 +3096,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="R176:R181" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3" headerRowCellStyle="常规 2" dataCellStyle="常规 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="R176:R181" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" totalsRowBorderDxfId="1" headerRowCellStyle="常规 2" dataCellStyle="常规 2">
   <autoFilter ref="R176:R181"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="值:名称" dataDxfId="2" dataCellStyle="常规 2"/>
+    <tableColumn id="1" name="值:名称" dataDxfId="0" dataCellStyle="常规 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3102,7 +3368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:G11"/>
+  <dimension ref="C4:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3155,7 +3421,7 @@
         <v>223</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
@@ -3180,7 +3446,7 @@
         <v>223</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
@@ -3198,15 +3464,15 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
@@ -3218,6 +3484,18 @@
       <c r="F11" s="1" t="s">
         <v>222</v>
       </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3231,7 +3509,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N64"/>
+  <dimension ref="B3:N68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3240,7 +3518,7 @@
     <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -3261,32 +3539,32 @@
       </c>
     </row>
     <row r="10" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="10"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3297,162 +3575,162 @@
       </c>
     </row>
     <row r="16" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10" t="s">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
+      <c r="H16" s="16"/>
+      <c r="I16" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10" t="s">
+      <c r="H17" s="16"/>
+      <c r="I17" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="J17" s="10"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10" t="s">
+      <c r="H18" s="16"/>
+      <c r="I18" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="J18" s="10"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10" t="s">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="J20" s="10"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10" t="s">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10" t="s">
+      <c r="H21" s="16"/>
+      <c r="I21" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="J21" s="10"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10" t="s">
+      <c r="H22" s="16"/>
+      <c r="I22" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="J22" s="10"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3460,7 +3738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>9</v>
@@ -3481,32 +3759,32 @@
       </c>
     </row>
     <row r="50" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10" t="s">
+      <c r="D50" s="16"/>
+      <c r="E50" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10" t="s">
+      <c r="F50" s="16"/>
+      <c r="G50" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="10"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10" t="s">
+      <c r="D51" s="16"/>
+      <c r="E51" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="10"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="16"/>
     </row>
     <row r="52" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3517,170 +3795,246 @@
       </c>
     </row>
     <row r="56" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10" t="s">
+      <c r="D56" s="16"/>
+      <c r="E56" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10" t="s">
+      <c r="F56" s="16"/>
+      <c r="G56" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10" t="s">
+      <c r="H56" s="16"/>
+      <c r="I56" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
     </row>
     <row r="57" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10" t="s">
+      <c r="D57" s="16"/>
+      <c r="E57" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10" t="s">
+      <c r="F57" s="16"/>
+      <c r="G57" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10" t="s">
+      <c r="H57" s="16"/>
+      <c r="I57" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
     </row>
     <row r="58" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10" t="s">
+      <c r="D58" s="16"/>
+      <c r="E58" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10" t="s">
+      <c r="F58" s="16"/>
+      <c r="G58" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10" t="s">
+      <c r="H58" s="16"/>
+      <c r="I58" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
     </row>
     <row r="59" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10" t="s">
+      <c r="D59" s="16"/>
+      <c r="E59" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10" t="s">
+      <c r="F59" s="16"/>
+      <c r="G59" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10" t="s">
+      <c r="H59" s="16"/>
+      <c r="I59" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
       <c r="N59" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="60" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10" t="s">
+      <c r="D60" s="16"/>
+      <c r="E60" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10" t="s">
+      <c r="F60" s="16"/>
+      <c r="G60" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
     </row>
     <row r="61" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+    </row>
+    <row r="62" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10" t="s">
+      <c r="D62" s="16"/>
+      <c r="E62" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-    </row>
-    <row r="62" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="10" t="s">
+      <c r="F62" s="16"/>
+      <c r="G62" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+    </row>
+    <row r="63" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10" t="s">
+      <c r="D63" s="16"/>
+      <c r="E63" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-    </row>
-    <row r="64" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
+      <c r="F63" s="16"/>
+      <c r="G63" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+    </row>
+    <row r="65" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="I58:M58"/>
-    <mergeCell ref="I59:M59"/>
-    <mergeCell ref="I60:M60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:M61"/>
+  <mergeCells count="80">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I57:M57"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
     <mergeCell ref="I56:M56"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:M62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:M63"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="E60:F60"/>
     <mergeCell ref="G60:H60"/>
@@ -3692,59 +4046,18 @@
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:M58"/>
+    <mergeCell ref="I59:M59"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:M62"/>
     <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I57:M57"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:M61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3771,7 +4084,7 @@
     <col min="19" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -3792,46 +4105,46 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="10"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="10"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="16"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -3839,60 +4152,60 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="10"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="10"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="10"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="10"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="16"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
@@ -3924,88 +4237,88 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10" t="s">
+      <c r="D39" s="16"/>
+      <c r="E39" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10" t="s">
+      <c r="F39" s="16"/>
+      <c r="G39" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="10"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10" t="s">
+      <c r="D40" s="16"/>
+      <c r="E40" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10" t="s">
+      <c r="F40" s="16"/>
+      <c r="G40" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="10"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10" t="s">
+      <c r="D41" s="16"/>
+      <c r="E41" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="10"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10" t="s">
+      <c r="D42" s="16"/>
+      <c r="E42" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="10"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10" t="s">
+      <c r="D43" s="16"/>
+      <c r="E43" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10" t="s">
+      <c r="F43" s="16"/>
+      <c r="G43" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="10"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10" t="s">
+      <c r="D44" s="16"/>
+      <c r="E44" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="10"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="16"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
@@ -4022,182 +4335,182 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10" t="s">
+      <c r="D48" s="16"/>
+      <c r="E48" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10" t="s">
+      <c r="F48" s="16"/>
+      <c r="G48" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H48" s="10"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10" t="s">
+      <c r="D49" s="16"/>
+      <c r="E49" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10" t="s">
+      <c r="F49" s="16"/>
+      <c r="G49" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="10"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10" t="s">
+      <c r="D50" s="16"/>
+      <c r="E50" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10" t="s">
+      <c r="F50" s="16"/>
+      <c r="G50" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="10"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10" t="s">
+      <c r="D51" s="16"/>
+      <c r="E51" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10" t="s">
+      <c r="F51" s="16"/>
+      <c r="G51" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H51" s="10"/>
+      <c r="H51" s="16"/>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10" t="s">
+      <c r="D52" s="16"/>
+      <c r="E52" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10" t="s">
+      <c r="F52" s="16"/>
+      <c r="G52" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="10"/>
+      <c r="H52" s="16"/>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10" t="s">
+      <c r="D53" s="16"/>
+      <c r="E53" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10" t="s">
+      <c r="F53" s="16"/>
+      <c r="G53" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="10"/>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10" t="s">
+      <c r="D54" s="16"/>
+      <c r="E54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10" t="s">
+      <c r="F54" s="16"/>
+      <c r="G54" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H54" s="10"/>
+      <c r="H54" s="16"/>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10" t="s">
+      <c r="D55" s="16"/>
+      <c r="E55" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10" t="s">
+      <c r="F55" s="16"/>
+      <c r="G55" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H55" s="10"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10" t="s">
+      <c r="D56" s="16"/>
+      <c r="E56" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10" t="s">
+      <c r="F56" s="16"/>
+      <c r="G56" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="10"/>
+      <c r="H56" s="16"/>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10" t="s">
+      <c r="D57" s="16"/>
+      <c r="E57" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10" t="s">
+      <c r="F57" s="16"/>
+      <c r="G57" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="10"/>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10" t="s">
+      <c r="D58" s="16"/>
+      <c r="E58" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10" t="s">
+      <c r="F58" s="16"/>
+      <c r="G58" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H58" s="10"/>
+      <c r="H58" s="16"/>
       <c r="K58" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10" t="s">
+      <c r="D59" s="16"/>
+      <c r="E59" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10" t="s">
+      <c r="F59" s="16"/>
+      <c r="G59" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H59" s="10"/>
+      <c r="H59" s="16"/>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="2:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
@@ -4218,46 +4531,46 @@
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10" t="s">
+      <c r="D77" s="16"/>
+      <c r="E77" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10" t="s">
+      <c r="F77" s="16"/>
+      <c r="G77" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="10"/>
+      <c r="H77" s="16"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10" t="s">
+      <c r="D78" s="16"/>
+      <c r="E78" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="10"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="16"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10" t="s">
+      <c r="D79" s="16"/>
+      <c r="E79" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" s="10"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="16"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
@@ -4265,46 +4578,46 @@
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10" t="s">
+      <c r="D83" s="16"/>
+      <c r="E83" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10" t="s">
+      <c r="F83" s="16"/>
+      <c r="G83" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="10"/>
+      <c r="H83" s="16"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10" t="s">
+      <c r="D84" s="16"/>
+      <c r="E84" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" s="10"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="16"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10" t="s">
+      <c r="D85" s="16"/>
+      <c r="E85" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" s="10"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="16"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
@@ -4356,34 +4669,34 @@
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10" t="s">
+      <c r="D110" s="16"/>
+      <c r="E110" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10" t="s">
+      <c r="F110" s="16"/>
+      <c r="G110" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H110" s="10"/>
+      <c r="H110" s="16"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10" t="s">
+      <c r="D111" s="16"/>
+      <c r="E111" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H111" s="10"/>
-    </row>
-    <row r="114" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="16"/>
+    </row>
+    <row r="114" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="2:11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
@@ -4404,32 +4717,32 @@
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10" t="s">
+      <c r="D122" s="16"/>
+      <c r="E122" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10" t="s">
+      <c r="F122" s="16"/>
+      <c r="G122" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H122" s="10"/>
+      <c r="H122" s="16"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10" t="s">
+      <c r="D123" s="16"/>
+      <c r="E123" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123" s="10"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="16"/>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
@@ -4437,201 +4750,201 @@
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10" t="s">
+      <c r="D127" s="16"/>
+      <c r="E127" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10" t="s">
+      <c r="F127" s="16"/>
+      <c r="G127" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H127" s="10"/>
-      <c r="I127" s="10" t="s">
+      <c r="H127" s="16"/>
+      <c r="I127" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J127" s="10"/>
-      <c r="K127" s="10"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="16"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10" t="s">
+      <c r="D128" s="16"/>
+      <c r="E128" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10" t="s">
+      <c r="F128" s="16"/>
+      <c r="G128" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="16"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10" t="s">
+      <c r="D129" s="16"/>
+      <c r="E129" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10" t="s">
+      <c r="F129" s="16"/>
+      <c r="G129" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10" t="s">
+      <c r="D130" s="16"/>
+      <c r="E130" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10" t="s">
+      <c r="F130" s="16"/>
+      <c r="G130" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" s="16"/>
+      <c r="I130" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="16"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10" t="s">
+      <c r="D131" s="16"/>
+      <c r="E131" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H131" s="10"/>
-      <c r="I131" s="10" t="s">
+      <c r="F131" s="16"/>
+      <c r="G131" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="J131" s="10"/>
-      <c r="K131" s="10"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="16"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C132" s="10" t="s">
+      <c r="C132" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D132" s="10"/>
-      <c r="E132" s="10" t="s">
+      <c r="D132" s="16"/>
+      <c r="E132" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H132" s="10"/>
-      <c r="I132" s="10" t="s">
+      <c r="F132" s="16"/>
+      <c r="G132" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="J132" s="10"/>
-      <c r="K132" s="10"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="16"/>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C133" s="10" t="s">
+      <c r="C133" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10" t="s">
+      <c r="D133" s="16"/>
+      <c r="E133" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H133" s="10"/>
-      <c r="I133" s="10" t="s">
+      <c r="F133" s="16"/>
+      <c r="G133" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="16"/>
+      <c r="I133" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="J133" s="10"/>
-      <c r="K133" s="10"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="16"/>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10" t="s">
+      <c r="D134" s="16"/>
+      <c r="E134" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10" t="s">
+      <c r="F134" s="16"/>
+      <c r="G134" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="J134" s="10"/>
-      <c r="K134" s="10"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="16"/>
       <c r="M134" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C135" s="10" t="s">
+      <c r="C135" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10" t="s">
+      <c r="D135" s="16"/>
+      <c r="E135" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10"/>
-      <c r="J135" s="10"/>
-      <c r="K135" s="10"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="16"/>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10" t="s">
+      <c r="D136" s="16"/>
+      <c r="E136" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="10"/>
-      <c r="K136" s="10"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="158" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="161" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="162" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
@@ -4653,32 +4966,32 @@
       </c>
     </row>
     <row r="166" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C166" s="14" t="s">
+      <c r="C166" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14" t="s">
+      <c r="D166" s="17"/>
+      <c r="E166" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14" t="s">
+      <c r="F166" s="17"/>
+      <c r="G166" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H166" s="14"/>
+      <c r="H166" s="17"/>
     </row>
     <row r="167" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C167" s="14" t="s">
+      <c r="C167" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D167" s="14"/>
-      <c r="E167" s="14" t="s">
+      <c r="D167" s="17"/>
+      <c r="E167" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H167" s="14"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H167" s="17"/>
     </row>
     <row r="168" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="170" spans="2:18" x14ac:dyDescent="0.25">
@@ -4687,104 +5000,104 @@
       </c>
     </row>
     <row r="171" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D171" s="10"/>
-      <c r="E171" s="10" t="s">
+      <c r="D171" s="16"/>
+      <c r="E171" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F171" s="10"/>
-      <c r="G171" s="10" t="s">
+      <c r="F171" s="16"/>
+      <c r="G171" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H171" s="10"/>
-      <c r="I171" s="10" t="s">
+      <c r="H171" s="16"/>
+      <c r="I171" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J171" s="10"/>
-      <c r="K171" s="10"/>
-      <c r="L171" s="10"/>
+      <c r="J171" s="16"/>
+      <c r="K171" s="16"/>
+      <c r="L171" s="16"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D172" s="10"/>
-      <c r="E172" s="10" t="s">
+      <c r="D172" s="16"/>
+      <c r="E172" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F172" s="10"/>
-      <c r="G172" s="10" t="s">
+      <c r="F172" s="16"/>
+      <c r="G172" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H172" s="10"/>
-      <c r="I172" s="10" t="s">
+      <c r="H172" s="16"/>
+      <c r="I172" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="J172" s="10"/>
-      <c r="K172" s="10"/>
-      <c r="L172" s="10"/>
+      <c r="J172" s="16"/>
+      <c r="K172" s="16"/>
+      <c r="L172" s="16"/>
     </row>
     <row r="173" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C173" s="10" t="s">
+      <c r="C173" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10" t="s">
+      <c r="D173" s="16"/>
+      <c r="E173" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="F173" s="10"/>
-      <c r="G173" s="10" t="s">
+      <c r="F173" s="16"/>
+      <c r="G173" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H173" s="10"/>
-      <c r="I173" s="10" t="s">
+      <c r="H173" s="16"/>
+      <c r="I173" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="J173" s="10"/>
-      <c r="K173" s="10"/>
-      <c r="L173" s="10"/>
+      <c r="J173" s="16"/>
+      <c r="K173" s="16"/>
+      <c r="L173" s="16"/>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C174" s="10" t="s">
+      <c r="C174" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10" t="s">
+      <c r="D174" s="16"/>
+      <c r="E174" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="F174" s="10"/>
-      <c r="G174" s="10" t="s">
+      <c r="F174" s="16"/>
+      <c r="G174" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H174" s="10"/>
-      <c r="I174" s="10" t="s">
+      <c r="H174" s="16"/>
+      <c r="I174" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="J174" s="10"/>
-      <c r="K174" s="10"/>
-      <c r="L174" s="10"/>
+      <c r="J174" s="16"/>
+      <c r="K174" s="16"/>
+      <c r="L174" s="16"/>
     </row>
     <row r="175" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C175" s="10" t="s">
+      <c r="C175" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10" t="s">
+      <c r="D175" s="16"/>
+      <c r="E175" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F175" s="10"/>
-      <c r="G175" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H175" s="10"/>
-      <c r="I175" s="10" t="s">
+      <c r="F175" s="16"/>
+      <c r="G175" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H175" s="16"/>
+      <c r="I175" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="J175" s="10"/>
-      <c r="K175" s="10"/>
-      <c r="L175" s="10"/>
+      <c r="J175" s="16"/>
+      <c r="K175" s="16"/>
+      <c r="L175" s="16"/>
       <c r="M175" s="2" t="s">
         <v>186</v>
       </c>
@@ -4793,136 +5106,136 @@
       </c>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C176" s="10" t="s">
+      <c r="C176" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="D176" s="10"/>
-      <c r="E176" s="10" t="s">
+      <c r="D176" s="16"/>
+      <c r="E176" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="F176" s="10"/>
-      <c r="G176" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H176" s="10"/>
-      <c r="I176" s="10" t="s">
+      <c r="F176" s="16"/>
+      <c r="G176" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H176" s="16"/>
+      <c r="I176" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="J176" s="10"/>
-      <c r="K176" s="10"/>
-      <c r="L176" s="10"/>
-      <c r="R176" s="21" t="s">
+      <c r="J176" s="16"/>
+      <c r="K176" s="16"/>
+      <c r="L176" s="16"/>
+      <c r="R176" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="177" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C177" s="10" t="s">
+      <c r="C177" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D177" s="10"/>
-      <c r="E177" s="10" t="s">
+      <c r="D177" s="16"/>
+      <c r="E177" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="F177" s="10"/>
-      <c r="G177" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H177" s="10"/>
-      <c r="I177" s="10" t="s">
+      <c r="F177" s="16"/>
+      <c r="G177" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H177" s="16"/>
+      <c r="I177" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="J177" s="10"/>
-      <c r="K177" s="10"/>
-      <c r="L177" s="10"/>
-      <c r="R177" s="20" t="s">
+      <c r="J177" s="16"/>
+      <c r="K177" s="16"/>
+      <c r="L177" s="16"/>
+      <c r="R177" s="12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="178" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C178" s="10" t="s">
+      <c r="C178" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="10"/>
-      <c r="E178" s="10" t="s">
+      <c r="D178" s="16"/>
+      <c r="E178" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H178" s="10"/>
-      <c r="I178" s="10" t="s">
+      <c r="F178" s="16"/>
+      <c r="G178" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H178" s="16"/>
+      <c r="I178" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="J178" s="10"/>
-      <c r="K178" s="10"/>
-      <c r="L178" s="10"/>
-      <c r="R178" s="20" t="s">
+      <c r="J178" s="16"/>
+      <c r="K178" s="16"/>
+      <c r="L178" s="16"/>
+      <c r="R178" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="179" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C179" s="10" t="s">
+      <c r="C179" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D179" s="10"/>
-      <c r="E179" s="10" t="s">
+      <c r="D179" s="16"/>
+      <c r="E179" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="F179" s="10"/>
-      <c r="G179" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H179" s="10"/>
-      <c r="I179" s="10" t="s">
+      <c r="F179" s="16"/>
+      <c r="G179" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="H179" s="16"/>
+      <c r="I179" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="J179" s="10"/>
-      <c r="K179" s="10"/>
-      <c r="L179" s="10"/>
-      <c r="R179" s="20" t="s">
+      <c r="J179" s="16"/>
+      <c r="K179" s="16"/>
+      <c r="L179" s="16"/>
+      <c r="R179" s="12" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="180" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C180" s="10" t="s">
+      <c r="C180" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D180" s="10"/>
-      <c r="E180" s="10" t="s">
+      <c r="D180" s="16"/>
+      <c r="E180" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H180" s="10"/>
-      <c r="I180" s="10"/>
-      <c r="J180" s="10"/>
-      <c r="K180" s="10"/>
-      <c r="L180" s="10"/>
-      <c r="R180" s="20" t="s">
+      <c r="F180" s="16"/>
+      <c r="G180" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H180" s="16"/>
+      <c r="I180" s="16"/>
+      <c r="J180" s="16"/>
+      <c r="K180" s="16"/>
+      <c r="L180" s="16"/>
+      <c r="R180" s="12" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="181" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C181" s="10" t="s">
+      <c r="C181" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D181" s="10"/>
-      <c r="E181" s="10" t="s">
+      <c r="D181" s="16"/>
+      <c r="E181" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H181" s="10"/>
-      <c r="I181" s="10"/>
-      <c r="J181" s="10"/>
-      <c r="K181" s="10"/>
-      <c r="L181" s="10"/>
-      <c r="R181" s="22" t="s">
+      <c r="F181" s="16"/>
+      <c r="G181" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H181" s="16"/>
+      <c r="I181" s="16"/>
+      <c r="J181" s="16"/>
+      <c r="K181" s="16"/>
+      <c r="L181" s="16"/>
+      <c r="R181" s="14" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4938,6 +5251,180 @@
     </row>
   </sheetData>
   <mergeCells count="198">
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A69:XFD69"/>
+    <mergeCell ref="A114:XFD114"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:K128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="I129:K129"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:K132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:K133"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:K130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:K136"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:K134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:K135"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="G176:H176"/>
     <mergeCell ref="I178:L178"/>
     <mergeCell ref="C181:D181"/>
     <mergeCell ref="E181:F181"/>
@@ -4962,180 +5449,6 @@
     <mergeCell ref="E179:F179"/>
     <mergeCell ref="G179:H179"/>
     <mergeCell ref="C180:D180"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="I136:K136"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:K134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:K135"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:K132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:K133"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:K130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="I128:K128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="I129:K129"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="A69:XFD69"/>
-    <mergeCell ref="A114:XFD114"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5158,7 +5471,7 @@
     <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:10" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -5179,76 +5492,76 @@
       </c>
     </row>
     <row r="10" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10" t="s">
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5259,46 +5572,46 @@
       </c>
     </row>
     <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="10"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="10"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5376,231 +5689,231 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10" t="s">
+      <c r="D39" s="16"/>
+      <c r="E39" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10" t="s">
+      <c r="F39" s="16"/>
+      <c r="G39" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="10"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10" t="s">
+      <c r="D40" s="16"/>
+      <c r="E40" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10" t="s">
+      <c r="F40" s="16"/>
+      <c r="G40" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="10"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10" t="s">
+      <c r="D41" s="16"/>
+      <c r="E41" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10" t="s">
+      <c r="F41" s="16"/>
+      <c r="G41" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="10"/>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10" t="s">
+      <c r="D42" s="16"/>
+      <c r="E42" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10" t="s">
+      <c r="F42" s="16"/>
+      <c r="G42" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="10"/>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10" t="s">
+      <c r="D43" s="16"/>
+      <c r="E43" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10" t="s">
+      <c r="F43" s="16"/>
+      <c r="G43" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="10"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10" t="s">
+      <c r="D44" s="16"/>
+      <c r="E44" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="10"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10" t="s">
+      <c r="D45" s="16"/>
+      <c r="E45" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="10"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10" t="s">
+      <c r="D46" s="16"/>
+      <c r="E46" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="10"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="16"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10" t="s">
+      <c r="D47" s="16"/>
+      <c r="E47" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10" t="s">
+      <c r="F47" s="16"/>
+      <c r="G47" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="H47" s="10"/>
+      <c r="H47" s="16"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10" t="s">
+      <c r="D48" s="16"/>
+      <c r="E48" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="10"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10" t="s">
+      <c r="D49" s="16"/>
+      <c r="E49" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="10"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10" t="s">
+      <c r="D50" s="16"/>
+      <c r="E50" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="10"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10" t="s">
+      <c r="D51" s="16"/>
+      <c r="E51" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="10"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="16"/>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10" t="s">
+      <c r="D52" s="16"/>
+      <c r="E52" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="10"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="16"/>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10" t="s">
+      <c r="D53" s="16"/>
+      <c r="E53" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="10"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10" t="s">
+      <c r="D54" s="16"/>
+      <c r="E54" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10" t="s">
+      <c r="F54" s="16"/>
+      <c r="G54" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="H54" s="10"/>
+      <c r="H54" s="16"/>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
@@ -5650,102 +5963,102 @@
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10" t="s">
+      <c r="D62" s="16"/>
+      <c r="E62" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10" t="s">
+      <c r="F62" s="16"/>
+      <c r="G62" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H62" s="10"/>
+      <c r="H62" s="16"/>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10" t="s">
+      <c r="D63" s="16"/>
+      <c r="E63" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10" t="s">
+      <c r="F63" s="16"/>
+      <c r="G63" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H63" s="10"/>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10" t="s">
+      <c r="D64" s="16"/>
+      <c r="E64" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10" t="s">
+      <c r="F64" s="16"/>
+      <c r="G64" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H64" s="10"/>
+      <c r="H64" s="16"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10" t="s">
+      <c r="D65" s="16"/>
+      <c r="E65" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10" t="s">
+      <c r="F65" s="16"/>
+      <c r="G65" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H65" s="10"/>
+      <c r="H65" s="16"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10" t="s">
+      <c r="D66" s="16"/>
+      <c r="E66" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10" t="s">
+      <c r="F66" s="16"/>
+      <c r="G66" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="10"/>
+      <c r="H66" s="16"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10" t="s">
+      <c r="D67" s="16"/>
+      <c r="E67" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="10"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="16"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10" t="s">
+      <c r="D68" s="16"/>
+      <c r="E68" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10" t="s">
+      <c r="F68" s="16"/>
+      <c r="G68" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="H68" s="10"/>
+      <c r="H68" s="16"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C71" s="3" t="s">
@@ -5771,7 +6084,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="2:8" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>9</v>
@@ -5792,105 +6105,105 @@
       </c>
     </row>
     <row r="83" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10" t="s">
+      <c r="D83" s="16"/>
+      <c r="E83" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10" t="s">
+      <c r="F83" s="16"/>
+      <c r="G83" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="10"/>
+      <c r="H83" s="16"/>
     </row>
     <row r="84" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10" t="s">
+      <c r="D84" s="16"/>
+      <c r="E84" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" s="10"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="16"/>
     </row>
     <row r="85" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10" t="s">
+      <c r="D85" s="16"/>
+      <c r="E85" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10" t="s">
+      <c r="F85" s="16"/>
+      <c r="G85" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="H85" s="10"/>
+      <c r="H85" s="16"/>
       <c r="J85" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="86" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10" t="s">
+      <c r="D86" s="16"/>
+      <c r="E86" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" s="10"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="16"/>
     </row>
     <row r="87" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10" t="s">
+      <c r="D87" s="16"/>
+      <c r="E87" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H87" s="10"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="16"/>
     </row>
     <row r="88" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10" t="s">
+      <c r="D88" s="16"/>
+      <c r="E88" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H88" s="10"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" s="16"/>
     </row>
     <row r="89" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10" t="s">
+      <c r="D89" s="16"/>
+      <c r="E89" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H89" s="10"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="16"/>
     </row>
     <row r="90" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5903,46 +6216,46 @@
       </c>
     </row>
     <row r="94" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10" t="s">
+      <c r="D94" s="16"/>
+      <c r="E94" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10" t="s">
+      <c r="F94" s="16"/>
+      <c r="G94" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H94" s="10"/>
+      <c r="H94" s="16"/>
     </row>
     <row r="95" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10" t="s">
+      <c r="D95" s="16"/>
+      <c r="E95" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H95" s="10"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="16"/>
     </row>
     <row r="96" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10" t="s">
+      <c r="D96" s="16"/>
+      <c r="E96" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H96" s="10"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="16"/>
     </row>
     <row r="97" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6050,90 +6363,90 @@
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10" t="s">
+      <c r="D121" s="16"/>
+      <c r="E121" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10" t="s">
+      <c r="F121" s="16"/>
+      <c r="G121" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H121" s="10"/>
+      <c r="H121" s="16"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10" t="s">
+      <c r="D122" s="16"/>
+      <c r="E122" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H122" s="10"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="16"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10" t="s">
+      <c r="D123" s="16"/>
+      <c r="E123" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123" s="10"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="16"/>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10" t="s">
+      <c r="D124" s="16"/>
+      <c r="E124" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H124" s="10"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" s="16"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10" t="s">
+      <c r="D125" s="16"/>
+      <c r="E125" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H125" s="10"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H125" s="16"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10" t="s">
+      <c r="D126" s="16"/>
+      <c r="E126" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H126" s="10"/>
-    </row>
-    <row r="129" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" s="16"/>
+    </row>
+    <row r="129" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="2" t="s">
         <v>9</v>
@@ -6154,77 +6467,77 @@
       </c>
     </row>
     <row r="136" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10" t="s">
+      <c r="D136" s="16"/>
+      <c r="E136" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10" t="s">
+      <c r="F136" s="16"/>
+      <c r="G136" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H136" s="10"/>
+      <c r="H136" s="16"/>
     </row>
     <row r="137" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="10" t="s">
+      <c r="C137" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10" t="s">
+      <c r="D137" s="16"/>
+      <c r="E137" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H137" s="10"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137" s="16"/>
     </row>
     <row r="138" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10" t="s">
+      <c r="D138" s="16"/>
+      <c r="E138" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10" t="s">
+      <c r="F138" s="16"/>
+      <c r="G138" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="H138" s="10"/>
+      <c r="H138" s="16"/>
       <c r="J138" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="139" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="10" t="s">
+      <c r="C139" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10" t="s">
+      <c r="D139" s="16"/>
+      <c r="E139" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H139" s="10"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" s="16"/>
     </row>
     <row r="140" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C140" s="10" t="s">
+      <c r="C140" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10" t="s">
+      <c r="D140" s="16"/>
+      <c r="E140" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H140" s="10"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H140" s="16"/>
     </row>
     <row r="141" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="142" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6237,46 +6550,46 @@
       </c>
     </row>
     <row r="145" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="10" t="s">
+      <c r="C145" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10" t="s">
+      <c r="D145" s="16"/>
+      <c r="E145" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10" t="s">
+      <c r="F145" s="16"/>
+      <c r="G145" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="10"/>
+      <c r="H145" s="16"/>
     </row>
     <row r="146" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="10" t="s">
+      <c r="C146" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10" t="s">
+      <c r="D146" s="16"/>
+      <c r="E146" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H146" s="10"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" s="16"/>
     </row>
     <row r="147" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C147" s="10" t="s">
+      <c r="C147" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10" t="s">
+      <c r="D147" s="16"/>
+      <c r="E147" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H147" s="10"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" s="16"/>
     </row>
     <row r="148" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="149" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6387,66 +6700,66 @@
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D172" s="10"/>
-      <c r="E172" s="10" t="s">
+      <c r="D172" s="16"/>
+      <c r="E172" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F172" s="10"/>
-      <c r="G172" s="10"/>
-      <c r="H172" s="12" t="s">
+      <c r="F172" s="16"/>
+      <c r="G172" s="16"/>
+      <c r="H172" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I172" s="13"/>
+      <c r="I172" s="22"/>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C173" s="10" t="s">
+      <c r="C173" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10" t="s">
+      <c r="D173" s="16"/>
+      <c r="E173" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
-      <c r="H173" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I173" s="13"/>
+      <c r="F173" s="16"/>
+      <c r="G173" s="16"/>
+      <c r="H173" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="22"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C174" s="10" t="s">
+      <c r="C174" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10" t="s">
+      <c r="D174" s="16"/>
+      <c r="E174" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="F174" s="10"/>
-      <c r="G174" s="10"/>
-      <c r="H174" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I174" s="13"/>
+      <c r="F174" s="16"/>
+      <c r="G174" s="16"/>
+      <c r="H174" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I174" s="22"/>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C175" s="10" t="s">
+      <c r="C175" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10" t="s">
+      <c r="D175" s="16"/>
+      <c r="E175" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="F175" s="10"/>
-      <c r="G175" s="10"/>
-      <c r="H175" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I175" s="13"/>
-    </row>
-    <row r="178" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="F175" s="16"/>
+      <c r="G175" s="16"/>
+      <c r="H175" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I175" s="22"/>
+    </row>
+    <row r="178" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="181" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B181" s="2" t="s">
         <v>9</v>
@@ -6467,46 +6780,46 @@
       </c>
     </row>
     <row r="185" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C185" s="10" t="s">
+      <c r="C185" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D185" s="10"/>
-      <c r="E185" s="10" t="s">
+      <c r="D185" s="16"/>
+      <c r="E185" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F185" s="10"/>
-      <c r="G185" s="10" t="s">
+      <c r="F185" s="16"/>
+      <c r="G185" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H185" s="10"/>
+      <c r="H185" s="16"/>
     </row>
     <row r="186" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C186" s="10" t="s">
+      <c r="C186" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D186" s="10"/>
-      <c r="E186" s="10" t="s">
+      <c r="D186" s="16"/>
+      <c r="E186" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F186" s="10"/>
-      <c r="G186" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H186" s="10"/>
+      <c r="F186" s="16"/>
+      <c r="G186" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H186" s="16"/>
     </row>
     <row r="187" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C187" s="10" t="s">
+      <c r="C187" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D187" s="10"/>
-      <c r="E187" s="10" t="s">
+      <c r="D187" s="16"/>
+      <c r="E187" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F187" s="10"/>
-      <c r="G187" s="10" t="s">
+      <c r="F187" s="16"/>
+      <c r="G187" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="H187" s="10"/>
+      <c r="H187" s="16"/>
       <c r="J187" s="4" t="s">
         <v>209</v>
       </c>
@@ -6522,46 +6835,46 @@
       </c>
     </row>
     <row r="192" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C192" s="10" t="s">
+      <c r="C192" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D192" s="10"/>
-      <c r="E192" s="10" t="s">
+      <c r="D192" s="16"/>
+      <c r="E192" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F192" s="10"/>
-      <c r="G192" s="10" t="s">
+      <c r="F192" s="16"/>
+      <c r="G192" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H192" s="10"/>
+      <c r="H192" s="16"/>
     </row>
     <row r="193" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C193" s="10" t="s">
+      <c r="C193" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D193" s="10"/>
-      <c r="E193" s="10" t="s">
+      <c r="D193" s="16"/>
+      <c r="E193" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F193" s="10"/>
-      <c r="G193" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H193" s="10"/>
+      <c r="F193" s="16"/>
+      <c r="G193" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H193" s="16"/>
     </row>
     <row r="194" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C194" s="10" t="s">
+      <c r="C194" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D194" s="10"/>
-      <c r="E194" s="10" t="s">
+      <c r="D194" s="16"/>
+      <c r="E194" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H194" s="10"/>
+      <c r="F194" s="16"/>
+      <c r="G194" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H194" s="16"/>
     </row>
     <row r="195" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="196" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6669,34 +6982,34 @@
     </row>
     <row r="219" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B219" s="7"/>
-      <c r="C219" s="14" t="s">
+      <c r="C219" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D219" s="14"/>
-      <c r="E219" s="14" t="s">
+      <c r="D219" s="17"/>
+      <c r="E219" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F219" s="14"/>
-      <c r="G219" s="14"/>
-      <c r="H219" s="15" t="s">
+      <c r="F219" s="17"/>
+      <c r="G219" s="17"/>
+      <c r="H219" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I219" s="16"/>
+      <c r="I219" s="20"/>
     </row>
     <row r="220" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C220" s="14" t="s">
+      <c r="C220" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D220" s="14"/>
-      <c r="E220" s="14" t="s">
+      <c r="D220" s="17"/>
+      <c r="E220" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="F220" s="14"/>
-      <c r="G220" s="14"/>
-      <c r="H220" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I220" s="16"/>
+      <c r="F220" s="17"/>
+      <c r="G220" s="17"/>
+      <c r="H220" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I220" s="20"/>
     </row>
     <row r="221" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="222" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -6707,6 +7020,188 @@
     <row r="227" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="206">
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="A76:XFD76"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="E174:G174"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="A178:XFD178"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="E220:G220"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="E219:G219"/>
+    <mergeCell ref="H219:I219"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:F68"/>
     <mergeCell ref="G68:H68"/>
@@ -6731,188 +7226,348 @@
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="E220:G220"/>
-    <mergeCell ref="H220:I220"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="E219:G219"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="E174:G174"/>
-    <mergeCell ref="E175:G175"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="A178:XFD178"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="A76:XFD76"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="E121:F121"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B3:J65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D39" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="16"/>
+    </row>
+    <row r="60" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="16"/>
+    </row>
+    <row r="61" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/后台接口设计.xlsx
+++ b/后台接口设计.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="348">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1012,10 +1012,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>生成configToken</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>接口访问地址：/encode/loginToken</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1024,10 +1020,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>未完</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>createTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1048,10 +1040,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>信令交互</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1301,6 +1289,126 @@
   </si>
   <si>
     <t>还有第一个未开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理说明：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>从sission中取得。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密后的config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成config信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeStamp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>session ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 确认上机, 0: 放弃上机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间戳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>64位长整型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据房间ID取游戏相关配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom_token：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>encryptedResult</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密结果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>娃娃机将上机结果进行加密后的内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200"、"000"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"校验游戏结果成功"、"校验游戏结果失败"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/encode/resultDecode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>把加密的结果解密后，JSON格式如上图所示，将参数组成JSON内容与解密后的明文进行比较，相等就返回成功，否则返回失败。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1308,7 +1416,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1351,6 +1459,20 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1458,7 +1580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1497,17 +1619,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1516,14 +1646,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3852,6 +3982,303 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>token"}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>313295</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>86809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940BA957-6D8E-449E-A798-8238681B974E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="11567160"/>
+          <a:ext cx="8238095" cy="6571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>113295</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>81335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D9D083-03F8-44CD-8341-800CCB427C4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="10866120"/>
+          <a:ext cx="8038095" cy="4638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3466BAF-2664-428B-BB54-679F5B7D6B24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="3505200"/>
+          <a:ext cx="3040380" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>加密后的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>config"}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>103771</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>58456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8463F583-16BB-4F68-8F2D-603F133D5F98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="30144720"/>
+          <a:ext cx="8028571" cy="4790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C42A54-3752-4A7E-B6B3-69DA7EA5C3FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="36103560"/>
+          <a:ext cx="3040380" cy="922020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnCode": "200",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnDesc": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>校验游戏结果成功</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -8502,7 +8929,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -8512,7 +8939,7 @@
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -8529,7 +8956,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -8540,7 +8967,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
@@ -8554,7 +8981,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7">
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
@@ -8565,10 +8992,10 @@
         <v>221</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
@@ -8579,7 +9006,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7">
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
@@ -8593,7 +9020,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7">
       <c r="C10" s="15" t="s">
         <v>8</v>
       </c>
@@ -8604,7 +9031,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7">
       <c r="C11" s="1" t="s">
         <v>217</v>
       </c>
@@ -8615,17 +9042,17 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:7">
       <c r="C12" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="G12" s="17"/>
+        <v>255</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8643,12 +9070,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="3" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" s="9" customFormat="1"/>
+    <row r="4" spans="2:10" s="3" customFormat="1"/>
+    <row r="5" spans="2:10" s="3" customFormat="1"/>
+    <row r="6" spans="2:10" s="2" customFormat="1">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -8656,255 +9083,295 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="2" customFormat="1">
       <c r="B7" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="2" customFormat="1"/>
+    <row r="9" spans="2:10" s="2" customFormat="1">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" s="2" customFormat="1">
       <c r="C10" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="2" customFormat="1"/>
+    <row r="14" spans="2:10" s="2" customFormat="1">
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="18" t="s">
+    <row r="15" spans="2:10" s="2" customFormat="1">
+      <c r="C15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="18" t="s">
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="2:10" s="2" customFormat="1">
+      <c r="C16" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:11" s="2" customFormat="1">
+      <c r="C17" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="2:11" s="2" customFormat="1">
+      <c r="C18" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="2:11" s="2" customFormat="1">
+      <c r="C19" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="2:11" s="2" customFormat="1">
+      <c r="C20" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="J20" s="18"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="J20" s="17"/>
       <c r="K20" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="18" t="s">
+    <row r="21" spans="2:11" s="2" customFormat="1">
+      <c r="C21" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="2:11" s="2" customFormat="1">
+      <c r="C22" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="2:11" s="2" customFormat="1">
+      <c r="C23" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="2:11" s="2" customFormat="1">
+      <c r="C24" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18" t="s">
+      <c r="F24" s="17"/>
+      <c r="G24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18" t="s">
+      <c r="H24" s="17"/>
+      <c r="I24" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18" t="s">
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="2:11" s="2" customFormat="1">
+      <c r="C25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18" t="s">
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="2:11" s="2" customFormat="1">
+      <c r="C26" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="28" spans="2:11" s="2" customFormat="1">
+      <c r="C28" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="28" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:11" s="2" customFormat="1">
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:H25"/>
@@ -8913,46 +9380,6 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8967,13 +9394,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" s="9" customFormat="1"/>
+    <row r="6" spans="2:10" s="2" customFormat="1">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -8981,219 +9408,219 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="2" customFormat="1">
       <c r="B7" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" s="2" customFormat="1"/>
+    <row r="9" spans="2:10" s="2" customFormat="1">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+    <row r="10" spans="2:10" s="2" customFormat="1">
+      <c r="C10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="2:10" s="2" customFormat="1">
+      <c r="C11" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="2:10" s="2" customFormat="1"/>
+    <row r="13" spans="2:10" s="2" customFormat="1"/>
+    <row r="14" spans="2:10" s="2" customFormat="1"/>
+    <row r="15" spans="2:10" s="2" customFormat="1">
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="18" t="s">
+    <row r="16" spans="2:10" s="2" customFormat="1">
+      <c r="C16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="18" t="s">
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:10" s="2" customFormat="1">
+      <c r="C17" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18" t="s">
+      <c r="H17" s="17"/>
+      <c r="I17" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="2:10" s="2" customFormat="1">
+      <c r="C18" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="2:10" s="2" customFormat="1">
+      <c r="C19" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18" t="s">
+      <c r="H19" s="17"/>
+      <c r="I19" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="2:10" s="2" customFormat="1">
+      <c r="C20" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18" t="s">
+      <c r="H20" s="17"/>
+      <c r="I20" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="18" t="s">
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="2:10" s="2" customFormat="1">
+      <c r="C21" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18" t="s">
+      <c r="F21" s="17"/>
+      <c r="G21" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18" t="s">
+      <c r="H21" s="17"/>
+      <c r="I21" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="18" t="s">
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="2:10" s="2" customFormat="1">
+      <c r="C22" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18" t="s">
+      <c r="H22" s="17"/>
+      <c r="I22" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="18" t="s">
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="2:10" s="2" customFormat="1">
+      <c r="C23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18" t="s">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="18" t="s">
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="2:10" s="2" customFormat="1">
+      <c r="C24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18" t="s">
+      <c r="F24" s="17"/>
+      <c r="G24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="2:10" s="2" customFormat="1"/>
+    <row r="26" spans="2:10" s="2" customFormat="1">
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:3" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" s="9" customFormat="1"/>
+    <row r="46" spans="2:3" s="2" customFormat="1">
       <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
@@ -9201,267 +9628,272 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" s="2" customFormat="1">
       <c r="B47" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" s="2" customFormat="1"/>
+    <row r="49" spans="2:14" s="2" customFormat="1">
       <c r="B49" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="18" t="s">
+    <row r="50" spans="2:14" s="2" customFormat="1">
+      <c r="C50" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18" t="s">
+      <c r="D50" s="17"/>
+      <c r="E50" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18" t="s">
+      <c r="F50" s="17"/>
+      <c r="G50" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="18"/>
-    </row>
-    <row r="51" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="18" t="s">
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="2:14" s="2" customFormat="1">
+      <c r="C51" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18" t="s">
+      <c r="D51" s="17"/>
+      <c r="E51" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18" t="s">
+      <c r="F51" s="17"/>
+      <c r="G51" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="18"/>
-    </row>
-    <row r="52" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="2:14" s="2" customFormat="1"/>
+    <row r="53" spans="2:14" s="2" customFormat="1"/>
+    <row r="54" spans="2:14" s="2" customFormat="1"/>
+    <row r="55" spans="2:14" s="2" customFormat="1">
       <c r="B55" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="18" t="s">
+    <row r="56" spans="2:14" s="2" customFormat="1">
+      <c r="C56" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18" t="s">
+      <c r="D56" s="17"/>
+      <c r="E56" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18" t="s">
+      <c r="F56" s="17"/>
+      <c r="G56" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18" t="s">
+      <c r="H56" s="17"/>
+      <c r="I56" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-    </row>
-    <row r="57" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="18" t="s">
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+    </row>
+    <row r="57" spans="2:14" s="2" customFormat="1">
+      <c r="C57" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18" t="s">
+      <c r="D57" s="17"/>
+      <c r="E57" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18" t="s">
+      <c r="F57" s="17"/>
+      <c r="G57" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18" t="s">
+      <c r="H57" s="17"/>
+      <c r="I57" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-    </row>
-    <row r="58" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="18" t="s">
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+    </row>
+    <row r="58" spans="2:14" s="2" customFormat="1">
+      <c r="C58" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18" t="s">
+      <c r="D58" s="17"/>
+      <c r="E58" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18" t="s">
+      <c r="F58" s="17"/>
+      <c r="G58" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18" t="s">
+      <c r="H58" s="17"/>
+      <c r="I58" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-    </row>
-    <row r="59" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="18" t="s">
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+    </row>
+    <row r="59" spans="2:14" s="2" customFormat="1">
+      <c r="C59" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18" t="s">
+      <c r="D59" s="17"/>
+      <c r="E59" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18" t="s">
+      <c r="F59" s="17"/>
+      <c r="G59" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18" t="s">
+      <c r="H59" s="17"/>
+      <c r="I59" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
       <c r="N59" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="18" t="s">
+    <row r="60" spans="2:14" s="2" customFormat="1">
+      <c r="C60" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18" t="s">
+      <c r="D60" s="17"/>
+      <c r="E60" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18" t="s">
+      <c r="F60" s="17"/>
+      <c r="G60" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18" t="s">
+      <c r="H60" s="17"/>
+      <c r="I60" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-    </row>
-    <row r="61" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="18" t="s">
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+    </row>
+    <row r="61" spans="2:14" s="2" customFormat="1">
+      <c r="C61" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18" t="s">
+      <c r="H61" s="17"/>
+      <c r="I61" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+    </row>
+    <row r="62" spans="2:14" s="2" customFormat="1">
+      <c r="C62" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+    </row>
+    <row r="63" spans="2:14" s="2" customFormat="1">
+      <c r="C63" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+    </row>
+    <row r="65" spans="2:3" s="2" customFormat="1">
+      <c r="C65" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18" t="s">
+    </row>
+    <row r="66" spans="2:3">
+      <c r="C66" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-    </row>
-    <row r="62" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-    </row>
-    <row r="63" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-    </row>
-    <row r="65" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:3" s="2" customFormat="1">
       <c r="B68" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:M58"/>
+    <mergeCell ref="I59:M59"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:M63"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:M62"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="I57:M57"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:M56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
@@ -9477,41 +9909,36 @@
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I57:M57"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:M56"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:M63"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:M58"/>
-    <mergeCell ref="I59:M59"/>
-    <mergeCell ref="I60:M60"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:M62"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9529,7 +9956,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="4" width="8.88671875" style="2"/>
     <col min="5" max="6" width="13.6640625" style="2" customWidth="1"/>
@@ -9538,10 +9965,10 @@
     <col min="19" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:8" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" s="18" customFormat="1"/>
+    <row r="4" spans="2:8" customFormat="1"/>
+    <row r="5" spans="2:8" s="11" customFormat="1"/>
+    <row r="6" spans="2:8" s="7" customFormat="1">
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -9549,135 +9976,135 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" s="7" customFormat="1">
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+    <row r="10" spans="2:8">
+      <c r="C10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="C11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="18" t="s">
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="C12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="17"/>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="18" t="s">
+    <row r="17" spans="2:8">
+      <c r="C17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="C18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="C19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="C20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="17"/>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8">
       <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8">
       <c r="C35" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8">
       <c r="C37" s="2" t="s">
         <v>31</v>
       </c>
@@ -9691,91 +10118,91 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="18" t="s">
+    <row r="39" spans="2:8">
+      <c r="C39" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18" t="s">
+      <c r="D39" s="17"/>
+      <c r="E39" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18" t="s">
+      <c r="F39" s="17"/>
+      <c r="G39" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="18" t="s">
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="C40" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18" t="s">
+      <c r="D40" s="17"/>
+      <c r="E40" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18" t="s">
+      <c r="F40" s="17"/>
+      <c r="G40" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="18" t="s">
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="C41" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18" t="s">
+      <c r="D41" s="17"/>
+      <c r="E41" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18" t="s">
+      <c r="F41" s="17"/>
+      <c r="G41" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="18" t="s">
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="C42" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18" t="s">
+      <c r="D42" s="17"/>
+      <c r="E42" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18" t="s">
+      <c r="F42" s="17"/>
+      <c r="G42" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="18" t="s">
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="C43" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18" t="s">
+      <c r="D43" s="17"/>
+      <c r="E43" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18" t="s">
+      <c r="F43" s="17"/>
+      <c r="G43" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="18" t="s">
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="C44" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18" t="s">
+      <c r="D44" s="17"/>
+      <c r="E44" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18" t="s">
+      <c r="F44" s="17"/>
+      <c r="G44" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="17"/>
+    </row>
+    <row r="46" spans="2:8">
       <c r="C46" s="2" t="s">
         <v>48</v>
       </c>
@@ -9789,185 +10216,185 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="18" t="s">
+    <row r="48" spans="2:8">
+      <c r="C48" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18" t="s">
+      <c r="F48" s="17"/>
+      <c r="G48" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="18" t="s">
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="3:11">
+      <c r="C49" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18" t="s">
+      <c r="D49" s="17"/>
+      <c r="E49" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18" t="s">
+      <c r="F49" s="17"/>
+      <c r="G49" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="18" t="s">
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="3:11">
+      <c r="C50" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18" t="s">
+      <c r="D50" s="17"/>
+      <c r="E50" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18" t="s">
+      <c r="F50" s="17"/>
+      <c r="G50" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="18"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="18" t="s">
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="3:11">
+      <c r="C51" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18" t="s">
+      <c r="D51" s="17"/>
+      <c r="E51" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18" t="s">
+      <c r="F51" s="17"/>
+      <c r="G51" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H51" s="18"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="18" t="s">
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="3:11">
+      <c r="C52" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18" t="s">
+      <c r="D52" s="17"/>
+      <c r="E52" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18" t="s">
+      <c r="F52" s="17"/>
+      <c r="G52" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="18"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="18" t="s">
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" spans="3:11">
+      <c r="C53" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18" t="s">
+      <c r="D53" s="17"/>
+      <c r="E53" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18" t="s">
+      <c r="F53" s="17"/>
+      <c r="G53" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="18" t="s">
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" spans="3:11">
+      <c r="C54" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18" t="s">
+      <c r="D54" s="17"/>
+      <c r="E54" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18" t="s">
+      <c r="F54" s="17"/>
+      <c r="G54" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H54" s="18"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="18" t="s">
+      <c r="H54" s="17"/>
+    </row>
+    <row r="55" spans="3:11">
+      <c r="C55" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18" t="s">
+      <c r="D55" s="17"/>
+      <c r="E55" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18" t="s">
+      <c r="F55" s="17"/>
+      <c r="G55" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H55" s="18"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C56" s="18" t="s">
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56" spans="3:11">
+      <c r="C56" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18" t="s">
+      <c r="D56" s="17"/>
+      <c r="E56" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18" t="s">
+      <c r="F56" s="17"/>
+      <c r="G56" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="18"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="18" t="s">
+      <c r="H56" s="17"/>
+    </row>
+    <row r="57" spans="3:11">
+      <c r="C57" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18" t="s">
+      <c r="D57" s="17"/>
+      <c r="E57" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18" t="s">
+      <c r="F57" s="17"/>
+      <c r="G57" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="18"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C58" s="18" t="s">
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58" spans="3:11">
+      <c r="C58" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18" t="s">
+      <c r="D58" s="17"/>
+      <c r="E58" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18" t="s">
+      <c r="F58" s="17"/>
+      <c r="G58" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H58" s="18"/>
+      <c r="H58" s="17"/>
       <c r="K58" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="18" t="s">
+    <row r="59" spans="3:11">
+      <c r="C59" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18" t="s">
+      <c r="D59" s="17"/>
+      <c r="E59" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18" t="s">
+      <c r="F59" s="17"/>
+      <c r="G59" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H59" s="18"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H59" s="17"/>
+    </row>
+    <row r="63" spans="3:11">
       <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="2:8" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="2:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" s="18" customFormat="1"/>
+    <row r="71" spans="2:8" customFormat="1"/>
+    <row r="73" spans="2:8">
       <c r="B73" s="2" t="s">
         <v>9</v>
       </c>
@@ -9975,121 +10402,121 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8">
       <c r="B74" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8">
       <c r="B76" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C77" s="18" t="s">
+    <row r="77" spans="2:8">
+      <c r="C77" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18" t="s">
+      <c r="D77" s="17"/>
+      <c r="E77" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18" t="s">
+      <c r="F77" s="17"/>
+      <c r="G77" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="18"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C78" s="18" t="s">
+      <c r="H77" s="17"/>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="C78" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18" t="s">
+      <c r="D78" s="17"/>
+      <c r="E78" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18" t="s">
+      <c r="F78" s="17"/>
+      <c r="G78" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H78" s="18"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C79" s="18" t="s">
+      <c r="H78" s="17"/>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="C79" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18" t="s">
+      <c r="D79" s="17"/>
+      <c r="E79" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18" t="s">
+      <c r="F79" s="17"/>
+      <c r="G79" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H79" s="18"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H79" s="17"/>
+    </row>
+    <row r="82" spans="2:8">
       <c r="B82" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C83" s="18" t="s">
+    <row r="83" spans="2:8">
+      <c r="C83" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18" t="s">
+      <c r="D83" s="17"/>
+      <c r="E83" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18" t="s">
+      <c r="F83" s="17"/>
+      <c r="G83" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="18"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C84" s="18" t="s">
+      <c r="H83" s="17"/>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="C84" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18" t="s">
+      <c r="D84" s="17"/>
+      <c r="E84" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18" t="s">
+      <c r="F84" s="17"/>
+      <c r="G84" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H84" s="18"/>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C85" s="18" t="s">
+      <c r="H84" s="17"/>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="C85" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18" t="s">
+      <c r="D85" s="17"/>
+      <c r="E85" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18" t="s">
+      <c r="F85" s="17"/>
+      <c r="G85" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H85" s="18"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H85" s="17"/>
+    </row>
+    <row r="87" spans="2:8">
       <c r="B87" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8">
       <c r="B98" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8">
       <c r="C100" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8">
       <c r="C102" s="2" t="s">
         <v>48</v>
       </c>
@@ -10103,57 +10530,57 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8">
       <c r="C104" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8">
       <c r="D105" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8">
       <c r="D106" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8">
       <c r="C108" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C110" s="18" t="s">
+    <row r="110" spans="2:8">
+      <c r="C110" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18" t="s">
+      <c r="D110" s="17"/>
+      <c r="E110" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18" t="s">
+      <c r="F110" s="17"/>
+      <c r="G110" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H110" s="18"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C111" s="18" t="s">
+      <c r="H110" s="17"/>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="C111" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18" t="s">
+      <c r="D111" s="17"/>
+      <c r="E111" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18" t="s">
+      <c r="F111" s="17"/>
+      <c r="G111" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H111" s="18"/>
-    </row>
-    <row r="114" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="2:11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H111" s="17"/>
+    </row>
+    <row r="114" spans="2:11" s="18" customFormat="1"/>
+    <row r="116" spans="2:11" customFormat="1"/>
+    <row r="118" spans="2:11">
       <c r="B118" s="2" t="s">
         <v>9</v>
       </c>
@@ -10161,247 +10588,247 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:11">
       <c r="B119" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:11">
       <c r="B121" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C122" s="18" t="s">
+    <row r="122" spans="2:11">
+      <c r="C122" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18" t="s">
+      <c r="D122" s="17"/>
+      <c r="E122" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18" t="s">
+      <c r="F122" s="17"/>
+      <c r="G122" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H122" s="18"/>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C123" s="18" t="s">
+      <c r="H122" s="17"/>
+    </row>
+    <row r="123" spans="2:11">
+      <c r="C123" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18" t="s">
+      <c r="D123" s="17"/>
+      <c r="E123" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18" t="s">
+      <c r="F123" s="17"/>
+      <c r="G123" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H123" s="18"/>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H123" s="17"/>
+    </row>
+    <row r="126" spans="2:11">
       <c r="B126" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C127" s="18" t="s">
+    <row r="127" spans="2:11">
+      <c r="C127" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18" t="s">
+      <c r="D127" s="17"/>
+      <c r="E127" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18" t="s">
+      <c r="F127" s="17"/>
+      <c r="G127" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H127" s="18"/>
-      <c r="I127" s="18" t="s">
+      <c r="H127" s="17"/>
+      <c r="I127" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J127" s="18"/>
-      <c r="K127" s="18"/>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C128" s="18" t="s">
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
+    </row>
+    <row r="128" spans="2:11">
+      <c r="C128" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18" t="s">
+      <c r="D128" s="17"/>
+      <c r="E128" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18" t="s">
+      <c r="F128" s="17"/>
+      <c r="G128" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H128" s="18"/>
-      <c r="I128" s="18" t="s">
+      <c r="H128" s="17"/>
+      <c r="I128" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="J128" s="18"/>
-      <c r="K128" s="18"/>
-    </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C129" s="18" t="s">
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
+    </row>
+    <row r="129" spans="2:13">
+      <c r="C129" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18" t="s">
+      <c r="D129" s="17"/>
+      <c r="E129" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18" t="s">
+      <c r="F129" s="17"/>
+      <c r="G129" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H129" s="18"/>
-      <c r="I129" s="18" t="s">
+      <c r="H129" s="17"/>
+      <c r="I129" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="J129" s="18"/>
-      <c r="K129" s="18"/>
-    </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C130" s="18" t="s">
+      <c r="J129" s="17"/>
+      <c r="K129" s="17"/>
+    </row>
+    <row r="130" spans="2:13">
+      <c r="C130" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18" t="s">
+      <c r="D130" s="17"/>
+      <c r="E130" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18" t="s">
+      <c r="F130" s="17"/>
+      <c r="G130" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18" t="s">
+      <c r="H130" s="17"/>
+      <c r="I130" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="J130" s="18"/>
-      <c r="K130" s="18"/>
-    </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C131" s="18" t="s">
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+    </row>
+    <row r="131" spans="2:13">
+      <c r="C131" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18" t="s">
+      <c r="D131" s="17"/>
+      <c r="E131" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18" t="s">
+      <c r="F131" s="17"/>
+      <c r="G131" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H131" s="18"/>
-      <c r="I131" s="18" t="s">
+      <c r="H131" s="17"/>
+      <c r="I131" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="J131" s="18"/>
-      <c r="K131" s="18"/>
-    </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C132" s="18" t="s">
+      <c r="J131" s="17"/>
+      <c r="K131" s="17"/>
+    </row>
+    <row r="132" spans="2:13">
+      <c r="C132" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18" t="s">
+      <c r="D132" s="17"/>
+      <c r="E132" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18" t="s">
+      <c r="F132" s="17"/>
+      <c r="G132" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H132" s="18"/>
-      <c r="I132" s="18" t="s">
+      <c r="H132" s="17"/>
+      <c r="I132" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="J132" s="18"/>
-      <c r="K132" s="18"/>
-    </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C133" s="18" t="s">
+      <c r="J132" s="17"/>
+      <c r="K132" s="17"/>
+    </row>
+    <row r="133" spans="2:13">
+      <c r="C133" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18" t="s">
+      <c r="D133" s="17"/>
+      <c r="E133" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18" t="s">
+      <c r="F133" s="17"/>
+      <c r="G133" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="18"/>
-      <c r="I133" s="18" t="s">
+      <c r="H133" s="17"/>
+      <c r="I133" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="J133" s="18"/>
-      <c r="K133" s="18"/>
-    </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C134" s="18" t="s">
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+    </row>
+    <row r="134" spans="2:13">
+      <c r="C134" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18" t="s">
+      <c r="D134" s="17"/>
+      <c r="E134" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18" t="s">
+      <c r="F134" s="17"/>
+      <c r="G134" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H134" s="18"/>
-      <c r="I134" s="18" t="s">
+      <c r="H134" s="17"/>
+      <c r="I134" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="J134" s="18"/>
-      <c r="K134" s="18"/>
+      <c r="J134" s="17"/>
+      <c r="K134" s="17"/>
       <c r="M134" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C135" s="18" t="s">
+    <row r="135" spans="2:13">
+      <c r="C135" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18" t="s">
+      <c r="D135" s="17"/>
+      <c r="E135" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18" t="s">
+      <c r="F135" s="17"/>
+      <c r="G135" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H135" s="18"/>
-      <c r="I135" s="18"/>
-      <c r="J135" s="18"/>
-      <c r="K135" s="18"/>
-    </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C136" s="18" t="s">
+      <c r="H135" s="17"/>
+      <c r="I135" s="17"/>
+      <c r="J135" s="17"/>
+      <c r="K135" s="17"/>
+    </row>
+    <row r="136" spans="2:13">
+      <c r="C136" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18" t="s">
+      <c r="D136" s="17"/>
+      <c r="E136" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18" t="s">
+      <c r="F136" s="17"/>
+      <c r="G136" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H136" s="18"/>
-      <c r="I136" s="18"/>
-      <c r="J136" s="18"/>
-      <c r="K136" s="18"/>
-    </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H136" s="17"/>
+      <c r="I136" s="17"/>
+      <c r="J136" s="17"/>
+      <c r="K136" s="17"/>
+    </row>
+    <row r="140" spans="2:13">
       <c r="B140" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" s="10" customFormat="1"/>
+    <row r="160" s="7" customFormat="1"/>
+    <row r="161" spans="2:18" s="7" customFormat="1"/>
+    <row r="162" spans="2:18" s="7" customFormat="1">
       <c r="B162" s="7" t="s">
         <v>9</v>
       </c>
@@ -10409,18 +10836,18 @@
         <v>171</v>
       </c>
     </row>
-    <row r="163" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:18" s="7" customFormat="1">
       <c r="B163" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="164" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="164" spans="2:18" s="7" customFormat="1"/>
+    <row r="165" spans="2:18" s="7" customFormat="1">
       <c r="B165" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:18" s="7" customFormat="1">
       <c r="C166" s="19" t="s">
         <v>13</v>
       </c>
@@ -10434,7 +10861,7 @@
       </c>
       <c r="H166" s="19"/>
     </row>
-    <row r="167" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:18" s="7" customFormat="1">
       <c r="C167" s="19" t="s">
         <v>22</v>
       </c>
@@ -10448,111 +10875,111 @@
       </c>
       <c r="H167" s="19"/>
     </row>
-    <row r="168" spans="2:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:18" s="7" customFormat="1"/>
+    <row r="170" spans="2:18">
       <c r="B170" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C171" s="18" t="s">
+    <row r="171" spans="2:18">
+      <c r="C171" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18" t="s">
+      <c r="D171" s="17"/>
+      <c r="E171" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18" t="s">
+      <c r="F171" s="17"/>
+      <c r="G171" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H171" s="18"/>
-      <c r="I171" s="18" t="s">
+      <c r="H171" s="17"/>
+      <c r="I171" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J171" s="18"/>
-      <c r="K171" s="18"/>
-      <c r="L171" s="18"/>
-    </row>
-    <row r="172" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C172" s="18" t="s">
+      <c r="J171" s="17"/>
+      <c r="K171" s="17"/>
+      <c r="L171" s="17"/>
+    </row>
+    <row r="172" spans="2:18">
+      <c r="C172" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D172" s="18"/>
-      <c r="E172" s="18" t="s">
+      <c r="D172" s="17"/>
+      <c r="E172" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18" t="s">
+      <c r="F172" s="17"/>
+      <c r="G172" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H172" s="18"/>
-      <c r="I172" s="18" t="s">
+      <c r="H172" s="17"/>
+      <c r="I172" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="J172" s="18"/>
-      <c r="K172" s="18"/>
-      <c r="L172" s="18"/>
-    </row>
-    <row r="173" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C173" s="18" t="s">
+      <c r="J172" s="17"/>
+      <c r="K172" s="17"/>
+      <c r="L172" s="17"/>
+    </row>
+    <row r="173" spans="2:18">
+      <c r="C173" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18" t="s">
+      <c r="D173" s="17"/>
+      <c r="E173" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18" t="s">
+      <c r="F173" s="17"/>
+      <c r="G173" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H173" s="18"/>
-      <c r="I173" s="18" t="s">
+      <c r="H173" s="17"/>
+      <c r="I173" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="J173" s="18"/>
-      <c r="K173" s="18"/>
-      <c r="L173" s="18"/>
-    </row>
-    <row r="174" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C174" s="18" t="s">
+      <c r="J173" s="17"/>
+      <c r="K173" s="17"/>
+      <c r="L173" s="17"/>
+    </row>
+    <row r="174" spans="2:18">
+      <c r="C174" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18" t="s">
+      <c r="D174" s="17"/>
+      <c r="E174" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18" t="s">
+      <c r="F174" s="17"/>
+      <c r="G174" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H174" s="18"/>
-      <c r="I174" s="18" t="s">
+      <c r="H174" s="17"/>
+      <c r="I174" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="J174" s="18"/>
-      <c r="K174" s="18"/>
-      <c r="L174" s="18"/>
-    </row>
-    <row r="175" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C175" s="18" t="s">
+      <c r="J174" s="17"/>
+      <c r="K174" s="17"/>
+      <c r="L174" s="17"/>
+    </row>
+    <row r="175" spans="2:18">
+      <c r="C175" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D175" s="18"/>
-      <c r="E175" s="18" t="s">
+      <c r="D175" s="17"/>
+      <c r="E175" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="F175" s="18"/>
-      <c r="G175" s="18" t="s">
+      <c r="F175" s="17"/>
+      <c r="G175" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H175" s="18"/>
-      <c r="I175" s="18" t="s">
+      <c r="H175" s="17"/>
+      <c r="I175" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="J175" s="18"/>
-      <c r="K175" s="18"/>
-      <c r="L175" s="18"/>
+      <c r="J175" s="17"/>
+      <c r="K175" s="17"/>
+      <c r="L175" s="17"/>
       <c r="M175" s="2" t="s">
         <v>185</v>
       </c>
@@ -10560,152 +10987,326 @@
         <v>190</v>
       </c>
     </row>
-    <row r="176" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C176" s="18" t="s">
+    <row r="176" spans="2:18">
+      <c r="C176" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D176" s="18"/>
-      <c r="E176" s="18" t="s">
+      <c r="D176" s="17"/>
+      <c r="E176" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="F176" s="18"/>
-      <c r="G176" s="18" t="s">
+      <c r="F176" s="17"/>
+      <c r="G176" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H176" s="18"/>
-      <c r="I176" s="18" t="s">
+      <c r="H176" s="17"/>
+      <c r="I176" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="J176" s="18"/>
-      <c r="K176" s="18"/>
-      <c r="L176" s="18"/>
+      <c r="J176" s="17"/>
+      <c r="K176" s="17"/>
+      <c r="L176" s="17"/>
       <c r="R176" s="13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="177" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C177" s="18" t="s">
+    <row r="177" spans="2:18">
+      <c r="C177" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18" t="s">
+      <c r="D177" s="17"/>
+      <c r="E177" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="F177" s="18"/>
-      <c r="G177" s="18" t="s">
+      <c r="F177" s="17"/>
+      <c r="G177" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H177" s="18"/>
-      <c r="I177" s="18" t="s">
+      <c r="H177" s="17"/>
+      <c r="I177" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="J177" s="18"/>
-      <c r="K177" s="18"/>
-      <c r="L177" s="18"/>
+      <c r="J177" s="17"/>
+      <c r="K177" s="17"/>
+      <c r="L177" s="17"/>
       <c r="R177" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="178" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C178" s="18" t="s">
+    <row r="178" spans="2:18">
+      <c r="C178" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D178" s="18"/>
-      <c r="E178" s="18" t="s">
+      <c r="D178" s="17"/>
+      <c r="E178" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F178" s="18"/>
-      <c r="G178" s="18" t="s">
+      <c r="F178" s="17"/>
+      <c r="G178" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H178" s="18"/>
-      <c r="I178" s="18" t="s">
+      <c r="H178" s="17"/>
+      <c r="I178" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="J178" s="18"/>
-      <c r="K178" s="18"/>
-      <c r="L178" s="18"/>
+      <c r="J178" s="17"/>
+      <c r="K178" s="17"/>
+      <c r="L178" s="17"/>
       <c r="R178" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="179" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C179" s="18" t="s">
+    <row r="179" spans="2:18">
+      <c r="C179" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D179" s="18"/>
-      <c r="E179" s="18" t="s">
+      <c r="D179" s="17"/>
+      <c r="E179" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F179" s="18"/>
-      <c r="G179" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="H179" s="18"/>
-      <c r="I179" s="18" t="s">
+      <c r="F179" s="17"/>
+      <c r="G179" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="H179" s="17"/>
+      <c r="I179" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="J179" s="18"/>
-      <c r="K179" s="18"/>
-      <c r="L179" s="18"/>
+      <c r="J179" s="17"/>
+      <c r="K179" s="17"/>
+      <c r="L179" s="17"/>
       <c r="R179" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="180" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C180" s="18" t="s">
+    <row r="180" spans="2:18">
+      <c r="C180" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18" t="s">
+      <c r="D180" s="17"/>
+      <c r="E180" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F180" s="18"/>
-      <c r="G180" s="18" t="s">
+      <c r="F180" s="17"/>
+      <c r="G180" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H180" s="18"/>
-      <c r="I180" s="18"/>
-      <c r="J180" s="18"/>
-      <c r="K180" s="18"/>
-      <c r="L180" s="18"/>
+      <c r="H180" s="17"/>
+      <c r="I180" s="17"/>
+      <c r="J180" s="17"/>
+      <c r="K180" s="17"/>
+      <c r="L180" s="17"/>
       <c r="R180" s="12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="181" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C181" s="18" t="s">
+    <row r="181" spans="2:18">
+      <c r="C181" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D181" s="18"/>
-      <c r="E181" s="18" t="s">
+      <c r="D181" s="17"/>
+      <c r="E181" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F181" s="18"/>
-      <c r="G181" s="18" t="s">
+      <c r="F181" s="17"/>
+      <c r="G181" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H181" s="18"/>
-      <c r="I181" s="18"/>
-      <c r="J181" s="18"/>
-      <c r="K181" s="18"/>
-      <c r="L181" s="18"/>
+      <c r="H181" s="17"/>
+      <c r="I181" s="17"/>
+      <c r="J181" s="17"/>
+      <c r="K181" s="17"/>
+      <c r="L181" s="17"/>
       <c r="R181" s="14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="183" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:18">
       <c r="C183" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="185" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:18">
       <c r="B185" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="198">
+    <mergeCell ref="I178:L178"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="I171:L171"/>
+    <mergeCell ref="I172:L172"/>
+    <mergeCell ref="I173:L173"/>
+    <mergeCell ref="I174:L174"/>
+    <mergeCell ref="I175:L175"/>
+    <mergeCell ref="I176:L176"/>
+    <mergeCell ref="I179:L179"/>
+    <mergeCell ref="I180:L180"/>
+    <mergeCell ref="I181:L181"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="I177:L177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:K136"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:K134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:K135"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:K132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:K133"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:K130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:K128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="I129:K129"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
     <mergeCell ref="A3:XFD3"/>
     <mergeCell ref="A69:XFD69"/>
     <mergeCell ref="A114:XFD114"/>
@@ -10730,180 +11331,6 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="I128:K128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="I129:K129"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:K132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:K133"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:K130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="I136:K136"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:K134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:K135"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="I178:L178"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="I171:L171"/>
-    <mergeCell ref="I172:L172"/>
-    <mergeCell ref="I173:L173"/>
-    <mergeCell ref="I174:L174"/>
-    <mergeCell ref="I175:L175"/>
-    <mergeCell ref="I176:L176"/>
-    <mergeCell ref="I179:L179"/>
-    <mergeCell ref="I180:L180"/>
-    <mergeCell ref="I181:L181"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="I177:L177"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="C180:D180"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10921,13 +11348,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" s="18" customFormat="1"/>
+    <row r="6" spans="2:10" s="2" customFormat="1">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -10935,146 +11362,146 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="2" customFormat="1">
       <c r="B7" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" s="2" customFormat="1"/>
+    <row r="9" spans="2:10" s="2" customFormat="1">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+    <row r="10" spans="2:10" s="2" customFormat="1">
+      <c r="C10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="2:10" s="2" customFormat="1">
+      <c r="C11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="18" t="s">
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="2:10" s="2" customFormat="1">
+      <c r="C12" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="18" t="s">
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="2:10" s="2" customFormat="1">
+      <c r="C13" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18" t="s">
+      <c r="H13" s="17"/>
+      <c r="I13" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="2:10" s="2" customFormat="1"/>
+    <row r="15" spans="2:10" s="2" customFormat="1"/>
+    <row r="16" spans="2:10" s="2" customFormat="1"/>
+    <row r="17" spans="2:8" s="2" customFormat="1">
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
+    <row r="18" spans="2:8" s="2" customFormat="1">
+      <c r="C18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="2:8" s="2" customFormat="1">
+      <c r="C19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="2:8" s="2" customFormat="1">
+      <c r="C20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="2:8" s="2" customFormat="1"/>
+    <row r="22" spans="2:8" s="2" customFormat="1">
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
@@ -11085,7 +11512,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8">
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
         <v>157</v>
@@ -11096,7 +11523,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8">
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>30</v>
@@ -11107,7 +11534,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -11116,7 +11543,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8">
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
         <v>31</v>
@@ -11133,7 +11560,7 @@
       </c>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -11142,235 +11569,235 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8">
       <c r="B39" s="2"/>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18" t="s">
+      <c r="D39" s="17"/>
+      <c r="E39" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18" t="s">
+      <c r="F39" s="17"/>
+      <c r="G39" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="2:8">
       <c r="B40" s="2"/>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18" t="s">
+      <c r="D40" s="17"/>
+      <c r="E40" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18" t="s">
+      <c r="F40" s="17"/>
+      <c r="G40" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41" s="2"/>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18" t="s">
+      <c r="D41" s="17"/>
+      <c r="E41" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18" t="s">
+      <c r="F41" s="17"/>
+      <c r="G41" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="2:8">
       <c r="B42" s="2"/>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18" t="s">
+      <c r="D42" s="17"/>
+      <c r="E42" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18" t="s">
+      <c r="F42" s="17"/>
+      <c r="G42" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="18" t="s">
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="C43" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18" t="s">
+      <c r="D43" s="17"/>
+      <c r="E43" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18" t="s">
+      <c r="F43" s="17"/>
+      <c r="G43" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="18" t="s">
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="C44" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18" t="s">
+      <c r="D44" s="17"/>
+      <c r="E44" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18" t="s">
+      <c r="F44" s="17"/>
+      <c r="G44" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="18" t="s">
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="C45" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18" t="s">
+      <c r="D45" s="17"/>
+      <c r="E45" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18" t="s">
+      <c r="F45" s="17"/>
+      <c r="G45" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="18" t="s">
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="C46" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18" t="s">
+      <c r="D46" s="17"/>
+      <c r="E46" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18" t="s">
+      <c r="F46" s="17"/>
+      <c r="G46" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="18"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="18" t="s">
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="C47" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18" t="s">
+      <c r="D47" s="17"/>
+      <c r="E47" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18" t="s">
+      <c r="F47" s="17"/>
+      <c r="G47" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="H47" s="18"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="18" t="s">
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="C48" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18" t="s">
+      <c r="F48" s="17"/>
+      <c r="G48" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="18" t="s">
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18" t="s">
+      <c r="D49" s="17"/>
+      <c r="E49" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18" t="s">
+      <c r="F49" s="17"/>
+      <c r="G49" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="18" t="s">
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="C50" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18" t="s">
+      <c r="D50" s="17"/>
+      <c r="E50" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18" t="s">
+      <c r="F50" s="17"/>
+      <c r="G50" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H50" s="18"/>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="18" t="s">
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18" t="s">
+      <c r="D51" s="17"/>
+      <c r="E51" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18" t="s">
+      <c r="F51" s="17"/>
+      <c r="G51" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="18"/>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="18" t="s">
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18" t="s">
+      <c r="D52" s="17"/>
+      <c r="E52" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18" t="s">
+      <c r="F52" s="17"/>
+      <c r="G52" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="18"/>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="18" t="s">
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18" t="s">
+      <c r="D53" s="17"/>
+      <c r="E53" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18" t="s">
+      <c r="F53" s="17"/>
+      <c r="G53" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="18" t="s">
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18" t="s">
+      <c r="D54" s="17"/>
+      <c r="E54" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18" t="s">
+      <c r="F54" s="17"/>
+      <c r="G54" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="H54" s="18"/>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="17"/>
+    </row>
+    <row r="57" spans="3:8">
       <c r="C57" s="3" t="s">
         <v>114</v>
       </c>
@@ -11378,7 +11805,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:8">
       <c r="C58" s="3" t="s">
         <v>115</v>
       </c>
@@ -11386,7 +11813,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:8">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -11394,7 +11821,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:8">
       <c r="C60" s="2" t="s">
         <v>31</v>
       </c>
@@ -11409,7 +11836,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:8">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -11417,105 +11844,105 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="18" t="s">
+    <row r="62" spans="3:8">
+      <c r="C62" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18" t="s">
+      <c r="D62" s="17"/>
+      <c r="E62" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18" t="s">
+      <c r="F62" s="17"/>
+      <c r="G62" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H62" s="18"/>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="18" t="s">
+      <c r="H62" s="17"/>
+    </row>
+    <row r="63" spans="3:8">
+      <c r="C63" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18" t="s">
+      <c r="D63" s="17"/>
+      <c r="E63" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18" t="s">
+      <c r="F63" s="17"/>
+      <c r="G63" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H63" s="18"/>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C64" s="18" t="s">
+      <c r="H63" s="17"/>
+    </row>
+    <row r="64" spans="3:8">
+      <c r="C64" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18" t="s">
+      <c r="D64" s="17"/>
+      <c r="E64" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18" t="s">
+      <c r="F64" s="17"/>
+      <c r="G64" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H64" s="18"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C65" s="18" t="s">
+      <c r="H64" s="17"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="C65" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18" t="s">
+      <c r="D65" s="17"/>
+      <c r="E65" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18" t="s">
+      <c r="F65" s="17"/>
+      <c r="G65" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H65" s="18"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C66" s="18" t="s">
+      <c r="H65" s="17"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="C66" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18" t="s">
+      <c r="D66" s="17"/>
+      <c r="E66" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18" t="s">
+      <c r="F66" s="17"/>
+      <c r="G66" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="18"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C67" s="18" t="s">
+      <c r="H66" s="17"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="C67" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18" t="s">
+      <c r="D67" s="17"/>
+      <c r="E67" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18" t="s">
+      <c r="F67" s="17"/>
+      <c r="G67" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H67" s="18"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C68" s="18" t="s">
+      <c r="H67" s="17"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="C68" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18" t="s">
+      <c r="D68" s="17"/>
+      <c r="E68" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18" t="s">
+      <c r="F68" s="17"/>
+      <c r="G68" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="H68" s="18"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H68" s="17"/>
+    </row>
+    <row r="71" spans="2:8">
       <c r="C71" s="3" t="s">
         <v>114</v>
       </c>
@@ -11523,7 +11950,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8">
       <c r="C72" s="3" t="s">
         <v>115</v>
       </c>
@@ -11531,7 +11958,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8">
       <c r="C73" s="3" t="s">
         <v>162</v>
       </c>
@@ -11539,8 +11966,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" s="20" customFormat="1"/>
+    <row r="79" spans="2:8" s="2" customFormat="1">
       <c r="B79" s="2" t="s">
         <v>9</v>
       </c>
@@ -11548,177 +11975,177 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" s="2" customFormat="1">
       <c r="B80" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" s="2" customFormat="1"/>
+    <row r="82" spans="2:10" s="2" customFormat="1">
       <c r="B82" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="18" t="s">
+    <row r="83" spans="2:10" s="2" customFormat="1">
+      <c r="C83" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18" t="s">
+      <c r="D83" s="17"/>
+      <c r="E83" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18" t="s">
+      <c r="F83" s="17"/>
+      <c r="G83" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="18"/>
-    </row>
-    <row r="84" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="18" t="s">
+      <c r="H83" s="17"/>
+    </row>
+    <row r="84" spans="2:10" s="2" customFormat="1">
+      <c r="C84" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18" t="s">
+      <c r="D84" s="17"/>
+      <c r="E84" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18" t="s">
+      <c r="F84" s="17"/>
+      <c r="G84" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H84" s="18"/>
-    </row>
-    <row r="85" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="18" t="s">
+      <c r="H84" s="17"/>
+    </row>
+    <row r="85" spans="2:10" s="2" customFormat="1">
+      <c r="C85" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18" t="s">
+      <c r="D85" s="17"/>
+      <c r="E85" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18" t="s">
+      <c r="F85" s="17"/>
+      <c r="G85" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="H85" s="18"/>
+      <c r="H85" s="17"/>
       <c r="J85" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="18" t="s">
+    <row r="86" spans="2:10" s="2" customFormat="1">
+      <c r="C86" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18" t="s">
+      <c r="D86" s="17"/>
+      <c r="E86" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18" t="s">
+      <c r="F86" s="17"/>
+      <c r="G86" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H86" s="18"/>
-    </row>
-    <row r="87" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="18" t="s">
+      <c r="H86" s="17"/>
+    </row>
+    <row r="87" spans="2:10" s="2" customFormat="1">
+      <c r="C87" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18" t="s">
+      <c r="D87" s="17"/>
+      <c r="E87" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18" t="s">
+      <c r="F87" s="17"/>
+      <c r="G87" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H87" s="18"/>
-    </row>
-    <row r="88" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="18" t="s">
+      <c r="H87" s="17"/>
+    </row>
+    <row r="88" spans="2:10" s="2" customFormat="1">
+      <c r="C88" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18" t="s">
+      <c r="D88" s="17"/>
+      <c r="E88" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18" t="s">
+      <c r="F88" s="17"/>
+      <c r="G88" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H88" s="18"/>
-    </row>
-    <row r="89" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="18" t="s">
+      <c r="H88" s="17"/>
+    </row>
+    <row r="89" spans="2:10" s="2" customFormat="1">
+      <c r="C89" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18" t="s">
+      <c r="D89" s="17"/>
+      <c r="E89" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18" t="s">
+      <c r="F89" s="17"/>
+      <c r="G89" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H89" s="18"/>
-    </row>
-    <row r="90" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H89" s="17"/>
+    </row>
+    <row r="90" spans="2:10" s="2" customFormat="1"/>
+    <row r="91" spans="2:10" s="2" customFormat="1">
       <c r="C91" s="4"/>
     </row>
-    <row r="92" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10" s="2" customFormat="1"/>
+    <row r="93" spans="2:10" s="2" customFormat="1">
       <c r="B93" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="18" t="s">
+    <row r="94" spans="2:10" s="2" customFormat="1">
+      <c r="C94" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18" t="s">
+      <c r="D94" s="17"/>
+      <c r="E94" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18" t="s">
+      <c r="F94" s="17"/>
+      <c r="G94" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H94" s="18"/>
-    </row>
-    <row r="95" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="18" t="s">
+      <c r="H94" s="17"/>
+    </row>
+    <row r="95" spans="2:10" s="2" customFormat="1">
+      <c r="C95" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18" t="s">
+      <c r="D95" s="17"/>
+      <c r="E95" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18" t="s">
+      <c r="F95" s="17"/>
+      <c r="G95" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H95" s="18"/>
-    </row>
-    <row r="96" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="18" t="s">
+      <c r="H95" s="17"/>
+    </row>
+    <row r="96" spans="2:10" s="2" customFormat="1">
+      <c r="C96" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18" t="s">
+      <c r="D96" s="17"/>
+      <c r="E96" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18" t="s">
+      <c r="F96" s="17"/>
+      <c r="G96" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H96" s="18"/>
-    </row>
-    <row r="97" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H96" s="17"/>
+    </row>
+    <row r="97" spans="2:8" s="2" customFormat="1"/>
+    <row r="98" spans="2:8" s="2" customFormat="1">
       <c r="B98" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8">
       <c r="B107" s="2" t="s">
         <v>29</v>
       </c>
@@ -11729,7 +12156,7 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -11738,7 +12165,7 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8">
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
         <v>73</v>
@@ -11749,7 +12176,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -11758,7 +12185,7 @@
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8">
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
         <v>31</v>
@@ -11775,39 +12202,39 @@
       </c>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" s="2" customFormat="1"/>
+    <row r="113" spans="2:8" s="2" customFormat="1">
       <c r="C113" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" s="2" customFormat="1">
       <c r="D114" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" s="2" customFormat="1">
       <c r="D115" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" s="2" customFormat="1">
       <c r="D116" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" s="2" customFormat="1">
       <c r="D117" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" s="2" customFormat="1"/>
+    <row r="119" spans="2:8" s="2" customFormat="1">
       <c r="C119" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -11816,93 +12243,93 @@
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8">
       <c r="B121" s="2"/>
-      <c r="C121" s="18" t="s">
+      <c r="C121" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18" t="s">
+      <c r="D121" s="17"/>
+      <c r="E121" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18" t="s">
+      <c r="F121" s="17"/>
+      <c r="G121" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H121" s="18"/>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C122" s="18" t="s">
+      <c r="H121" s="17"/>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="C122" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18" t="s">
+      <c r="D122" s="17"/>
+      <c r="E122" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18" t="s">
+      <c r="F122" s="17"/>
+      <c r="G122" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H122" s="18"/>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C123" s="18" t="s">
+      <c r="H122" s="17"/>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="C123" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18" t="s">
+      <c r="D123" s="17"/>
+      <c r="E123" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18" t="s">
+      <c r="F123" s="17"/>
+      <c r="G123" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H123" s="18"/>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C124" s="18" t="s">
+      <c r="H123" s="17"/>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="C124" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18" t="s">
+      <c r="D124" s="17"/>
+      <c r="E124" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18" t="s">
+      <c r="F124" s="17"/>
+      <c r="G124" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H124" s="18"/>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C125" s="18" t="s">
+      <c r="H124" s="17"/>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="C125" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18" t="s">
+      <c r="D125" s="17"/>
+      <c r="E125" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18" t="s">
+      <c r="F125" s="17"/>
+      <c r="G125" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H125" s="18"/>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C126" s="18" t="s">
+      <c r="H125" s="17"/>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="C126" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18" t="s">
+      <c r="D126" s="17"/>
+      <c r="E126" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18" t="s">
+      <c r="F126" s="17"/>
+      <c r="G126" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H126" s="18"/>
-    </row>
-    <row r="129" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H126" s="17"/>
+    </row>
+    <row r="129" spans="2:10" s="20" customFormat="1"/>
+    <row r="132" spans="2:10" s="2" customFormat="1">
       <c r="B132" s="2" t="s">
         <v>9</v>
       </c>
@@ -11910,152 +12337,152 @@
         <v>139</v>
       </c>
     </row>
-    <row r="133" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:10" s="2" customFormat="1">
       <c r="B133" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:10" s="2" customFormat="1"/>
+    <row r="135" spans="2:10" s="2" customFormat="1">
       <c r="B135" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="18" t="s">
+    <row r="136" spans="2:10" s="2" customFormat="1">
+      <c r="C136" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18" t="s">
+      <c r="D136" s="17"/>
+      <c r="E136" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18" t="s">
+      <c r="F136" s="17"/>
+      <c r="G136" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H136" s="18"/>
-    </row>
-    <row r="137" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="18" t="s">
+      <c r="H136" s="17"/>
+    </row>
+    <row r="137" spans="2:10" s="2" customFormat="1">
+      <c r="C137" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18" t="s">
+      <c r="D137" s="17"/>
+      <c r="E137" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F137" s="18"/>
-      <c r="G137" s="18" t="s">
+      <c r="F137" s="17"/>
+      <c r="G137" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H137" s="18"/>
-    </row>
-    <row r="138" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="18" t="s">
+      <c r="H137" s="17"/>
+    </row>
+    <row r="138" spans="2:10" s="2" customFormat="1">
+      <c r="C138" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18" t="s">
+      <c r="D138" s="17"/>
+      <c r="E138" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18" t="s">
+      <c r="F138" s="17"/>
+      <c r="G138" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="H138" s="18"/>
+      <c r="H138" s="17"/>
       <c r="J138" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="139" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="18" t="s">
+    <row r="139" spans="2:10" s="2" customFormat="1">
+      <c r="C139" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18" t="s">
+      <c r="D139" s="17"/>
+      <c r="E139" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18" t="s">
+      <c r="F139" s="17"/>
+      <c r="G139" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H139" s="18"/>
-    </row>
-    <row r="140" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C140" s="18" t="s">
+      <c r="H139" s="17"/>
+    </row>
+    <row r="140" spans="2:10" s="2" customFormat="1">
+      <c r="C140" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18" t="s">
+      <c r="D140" s="17"/>
+      <c r="E140" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18" t="s">
+      <c r="F140" s="17"/>
+      <c r="G140" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H140" s="18"/>
-    </row>
-    <row r="141" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H140" s="17"/>
+    </row>
+    <row r="141" spans="2:10" s="2" customFormat="1"/>
+    <row r="142" spans="2:10" s="2" customFormat="1">
       <c r="C142" s="4"/>
     </row>
-    <row r="143" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:10" s="2" customFormat="1"/>
+    <row r="144" spans="2:10" s="2" customFormat="1">
       <c r="B144" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="18" t="s">
+    <row r="145" spans="2:8" s="2" customFormat="1">
+      <c r="C145" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D145" s="18"/>
-      <c r="E145" s="18" t="s">
+      <c r="D145" s="17"/>
+      <c r="E145" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F145" s="18"/>
-      <c r="G145" s="18" t="s">
+      <c r="F145" s="17"/>
+      <c r="G145" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="18"/>
-    </row>
-    <row r="146" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="18" t="s">
+      <c r="H145" s="17"/>
+    </row>
+    <row r="146" spans="2:8" s="2" customFormat="1">
+      <c r="C146" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18" t="s">
+      <c r="D146" s="17"/>
+      <c r="E146" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F146" s="18"/>
-      <c r="G146" s="18" t="s">
+      <c r="F146" s="17"/>
+      <c r="G146" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H146" s="18"/>
-    </row>
-    <row r="147" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C147" s="18" t="s">
+      <c r="H146" s="17"/>
+    </row>
+    <row r="147" spans="2:8" s="2" customFormat="1">
+      <c r="C147" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18" t="s">
+      <c r="D147" s="17"/>
+      <c r="E147" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18" t="s">
+      <c r="F147" s="17"/>
+      <c r="G147" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H147" s="18"/>
-    </row>
-    <row r="148" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H147" s="17"/>
+    </row>
+    <row r="148" spans="2:8" s="2" customFormat="1"/>
+    <row r="149" spans="2:8" s="2" customFormat="1">
       <c r="B149" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8">
       <c r="C151"/>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8">
       <c r="B158" s="2" t="s">
         <v>29</v>
       </c>
@@ -12066,7 +12493,7 @@
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -12075,7 +12502,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8">
       <c r="B160" s="2"/>
       <c r="C160" s="2" t="s">
         <v>73</v>
@@ -12086,7 +12513,7 @@
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -12095,7 +12522,7 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9">
       <c r="B162" s="2"/>
       <c r="C162" s="2" t="s">
         <v>31</v>
@@ -12112,39 +12539,39 @@
       </c>
       <c r="H162" s="2"/>
     </row>
-    <row r="163" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" s="2" customFormat="1"/>
+    <row r="164" spans="2:9" s="2" customFormat="1">
       <c r="C164" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" s="2" customFormat="1">
       <c r="D165" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="166" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" s="2" customFormat="1">
       <c r="D166" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="167" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" s="2" customFormat="1">
       <c r="D167" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="168" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" s="2" customFormat="1">
       <c r="D168" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" s="2" customFormat="1"/>
+    <row r="170" spans="2:9" s="2" customFormat="1">
       <c r="C170" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -12153,69 +12580,69 @@
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9">
       <c r="B172" s="2"/>
-      <c r="C172" s="18" t="s">
+      <c r="C172" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D172" s="18"/>
-      <c r="E172" s="18" t="s">
+      <c r="D172" s="17"/>
+      <c r="E172" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
-      <c r="H172" s="23" t="s">
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I172" s="24"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C173" s="18" t="s">
+      <c r="I172" s="22"/>
+    </row>
+    <row r="173" spans="2:9">
+      <c r="C173" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18" t="s">
+      <c r="D173" s="17"/>
+      <c r="E173" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18"/>
-      <c r="H173" s="23" t="s">
+      <c r="F173" s="17"/>
+      <c r="G173" s="17"/>
+      <c r="H173" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I173" s="24"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C174" s="18" t="s">
+      <c r="I173" s="22"/>
+    </row>
+    <row r="174" spans="2:9">
+      <c r="C174" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18" t="s">
+      <c r="D174" s="17"/>
+      <c r="E174" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
-      <c r="H174" s="23" t="s">
+      <c r="F174" s="17"/>
+      <c r="G174" s="17"/>
+      <c r="H174" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I174" s="24"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C175" s="18" t="s">
+      <c r="I174" s="22"/>
+    </row>
+    <row r="175" spans="2:9">
+      <c r="C175" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D175" s="18"/>
-      <c r="E175" s="18" t="s">
+      <c r="D175" s="17"/>
+      <c r="E175" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="F175" s="18"/>
-      <c r="G175" s="18"/>
-      <c r="H175" s="23" t="s">
+      <c r="F175" s="17"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I175" s="24"/>
-    </row>
-    <row r="178" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I175" s="22"/>
+    </row>
+    <row r="178" spans="2:10" s="20" customFormat="1"/>
+    <row r="181" spans="2:10" s="2" customFormat="1">
       <c r="B181" s="2" t="s">
         <v>9</v>
       </c>
@@ -12223,121 +12650,121 @@
         <v>150</v>
       </c>
     </row>
-    <row r="182" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:10" s="2" customFormat="1">
       <c r="B182" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="183" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:10" s="2" customFormat="1"/>
+    <row r="184" spans="2:10" s="2" customFormat="1">
       <c r="B184" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C185" s="18" t="s">
+    <row r="185" spans="2:10" s="2" customFormat="1">
+      <c r="C185" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D185" s="18"/>
-      <c r="E185" s="18" t="s">
+      <c r="D185" s="17"/>
+      <c r="E185" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F185" s="18"/>
-      <c r="G185" s="18" t="s">
+      <c r="F185" s="17"/>
+      <c r="G185" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H185" s="18"/>
-    </row>
-    <row r="186" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C186" s="18" t="s">
+      <c r="H185" s="17"/>
+    </row>
+    <row r="186" spans="2:10" s="2" customFormat="1">
+      <c r="C186" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D186" s="18"/>
-      <c r="E186" s="18" t="s">
+      <c r="D186" s="17"/>
+      <c r="E186" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F186" s="18"/>
-      <c r="G186" s="18" t="s">
+      <c r="F186" s="17"/>
+      <c r="G186" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H186" s="18"/>
-    </row>
-    <row r="187" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C187" s="18" t="s">
+      <c r="H186" s="17"/>
+    </row>
+    <row r="187" spans="2:10" s="2" customFormat="1">
+      <c r="C187" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D187" s="18"/>
-      <c r="E187" s="18" t="s">
+      <c r="D187" s="17"/>
+      <c r="E187" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F187" s="18"/>
-      <c r="G187" s="18" t="s">
+      <c r="F187" s="17"/>
+      <c r="G187" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="H187" s="18"/>
+      <c r="H187" s="17"/>
       <c r="J187" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="188" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:10" s="2" customFormat="1"/>
+    <row r="189" spans="2:10" s="2" customFormat="1">
       <c r="C189" s="4"/>
     </row>
-    <row r="190" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:10" s="2" customFormat="1"/>
+    <row r="191" spans="2:10" s="2" customFormat="1">
       <c r="B191" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C192" s="18" t="s">
+    <row r="192" spans="2:10" s="2" customFormat="1">
+      <c r="C192" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D192" s="18"/>
-      <c r="E192" s="18" t="s">
+      <c r="D192" s="17"/>
+      <c r="E192" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F192" s="18"/>
-      <c r="G192" s="18" t="s">
+      <c r="F192" s="17"/>
+      <c r="G192" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H192" s="18"/>
-    </row>
-    <row r="193" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C193" s="18" t="s">
+      <c r="H192" s="17"/>
+    </row>
+    <row r="193" spans="2:8" s="2" customFormat="1">
+      <c r="C193" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D193" s="18"/>
-      <c r="E193" s="18" t="s">
+      <c r="D193" s="17"/>
+      <c r="E193" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F193" s="18"/>
-      <c r="G193" s="18" t="s">
+      <c r="F193" s="17"/>
+      <c r="G193" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H193" s="18"/>
-    </row>
-    <row r="194" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C194" s="18" t="s">
+      <c r="H193" s="17"/>
+    </row>
+    <row r="194" spans="2:8" s="2" customFormat="1">
+      <c r="C194" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D194" s="18"/>
-      <c r="E194" s="18" t="s">
+      <c r="D194" s="17"/>
+      <c r="E194" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F194" s="18"/>
-      <c r="G194" s="18" t="s">
+      <c r="F194" s="17"/>
+      <c r="G194" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H194" s="18"/>
-    </row>
-    <row r="195" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H194" s="17"/>
+    </row>
+    <row r="195" spans="2:8" s="2" customFormat="1"/>
+    <row r="196" spans="2:8" s="2" customFormat="1">
       <c r="B196" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:8">
       <c r="B205" s="2" t="s">
         <v>29</v>
       </c>
@@ -12348,7 +12775,7 @@
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:8">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -12357,7 +12784,7 @@
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:8">
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
         <v>73</v>
@@ -12368,7 +12795,7 @@
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:8">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -12377,7 +12804,7 @@
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:9">
       <c r="B209" s="2"/>
       <c r="C209" s="2" t="s">
         <v>31</v>
@@ -12394,39 +12821,39 @@
       </c>
       <c r="H209" s="2"/>
     </row>
-    <row r="210" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:9" s="2" customFormat="1"/>
+    <row r="211" spans="2:9" s="2" customFormat="1">
       <c r="C211" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="212" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:9" s="2" customFormat="1">
       <c r="D212" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="213" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:9" s="2" customFormat="1">
       <c r="D213" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="214" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:9" s="2" customFormat="1">
       <c r="D214" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="215" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:9" s="2" customFormat="1">
       <c r="D215" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="216" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:9" s="2" customFormat="1"/>
+    <row r="217" spans="2:9" s="2" customFormat="1">
       <c r="C217" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="218" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:9" s="6" customFormat="1">
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
@@ -12435,7 +12862,7 @@
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
     </row>
-    <row r="219" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:9" s="8" customFormat="1">
       <c r="B219" s="7"/>
       <c r="C219" s="19" t="s">
         <v>35</v>
@@ -12446,12 +12873,12 @@
       </c>
       <c r="F219" s="19"/>
       <c r="G219" s="19"/>
-      <c r="H219" s="21" t="s">
+      <c r="H219" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I219" s="22"/>
-    </row>
-    <row r="220" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I219" s="24"/>
+    </row>
+    <row r="220" spans="2:9" s="8" customFormat="1">
       <c r="C220" s="19" t="s">
         <v>104</v>
       </c>
@@ -12461,93 +12888,129 @@
       </c>
       <c r="F220" s="19"/>
       <c r="G220" s="19"/>
-      <c r="H220" s="21" t="s">
+      <c r="H220" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I220" s="22"/>
-    </row>
-    <row r="221" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="I220" s="24"/>
+    </row>
+    <row r="221" spans="2:9" s="8" customFormat="1"/>
+    <row r="222" spans="2:9" s="8" customFormat="1"/>
+    <row r="223" spans="2:9" s="8" customFormat="1"/>
+    <row r="224" spans="2:9" s="8" customFormat="1"/>
+    <row r="225" s="8" customFormat="1"/>
+    <row r="226" s="8" customFormat="1"/>
+    <row r="227" s="8" customFormat="1"/>
   </sheetData>
   <mergeCells count="206">
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="E220:G220"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="E219:G219"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="E174:G174"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="A178:XFD178"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="A76:XFD76"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="E121:F121"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
@@ -12572,115 +13035,79 @@
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="A76:XFD76"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="E174:G174"/>
-    <mergeCell ref="E175:G175"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="A178:XFD178"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="E220:G220"/>
-    <mergeCell ref="H220:I220"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="E219:G219"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12691,20 +13118,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="B3:J65"/>
+  <dimension ref="B3:P205"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" s="9" customFormat="1"/>
+    <row r="6" spans="2:10" s="2" customFormat="1">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -12712,106 +13136,106 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="2" customFormat="1">
       <c r="B7" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="2" customFormat="1"/>
+    <row r="9" spans="2:10" s="2" customFormat="1">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+    <row r="10" spans="2:10" s="2" customFormat="1">
+      <c r="C10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="2:10" s="2" customFormat="1">
+      <c r="C11" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="2:10" s="2" customFormat="1"/>
+    <row r="13" spans="2:10" s="2" customFormat="1"/>
+    <row r="14" spans="2:10" s="2" customFormat="1"/>
+    <row r="15" spans="2:10" s="2" customFormat="1">
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="18" t="s">
+    <row r="16" spans="2:10" s="2" customFormat="1">
+      <c r="C16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="18" t="s">
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="2:8" s="2" customFormat="1">
+      <c r="C17" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" s="2" customFormat="1"/>
+    <row r="19" spans="2:8" s="2" customFormat="1">
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="C27" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="D28" s="3" t="s">
         <v>230</v>
       </c>
@@ -12819,7 +13243,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="D29" s="3" t="s">
         <v>232</v>
       </c>
@@ -12827,12 +13251,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="D31" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="D32" s="3" t="s">
         <v>234</v>
       </c>
@@ -12843,7 +13267,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:9">
       <c r="D33" s="3" t="s">
         <v>235</v>
       </c>
@@ -12854,7 +13278,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:9">
       <c r="D34" s="3" t="s">
         <v>236</v>
       </c>
@@ -12862,7 +13286,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:9">
       <c r="D35" s="3" t="s">
         <v>237</v>
       </c>
@@ -12870,151 +13294,571 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:9">
       <c r="D36" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:9">
       <c r="D38" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:9">
       <c r="D39" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:9">
       <c r="D42" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="4:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:9" s="9" customFormat="1"/>
+    <row r="49" spans="2:13" s="2" customFormat="1">
       <c r="B49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" s="2" customFormat="1">
       <c r="B50" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" s="2" customFormat="1"/>
+    <row r="52" spans="2:13" s="2" customFormat="1">
       <c r="B52" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="18" t="s">
+    <row r="53" spans="2:13" s="2" customFormat="1">
+      <c r="C53" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18" t="s">
+      <c r="D53" s="17"/>
+      <c r="E53" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18" t="s">
+      <c r="F53" s="17"/>
+      <c r="G53" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18" t="s">
+      <c r="H53" s="17"/>
+      <c r="I53" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="J53" s="18"/>
-    </row>
-    <row r="54" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18" t="s">
+      <c r="J53" s="17"/>
+      <c r="K53" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+    </row>
+    <row r="54" spans="2:13" s="2" customFormat="1">
+      <c r="C54" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18" t="s">
+      <c r="H54" s="17"/>
+      <c r="I54" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="J54" s="18"/>
-    </row>
-    <row r="55" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
+      <c r="J54" s="17"/>
+      <c r="K54" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+    </row>
+    <row r="55" spans="2:13" s="2" customFormat="1">
+      <c r="C55" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+    </row>
+    <row r="56" spans="2:13" s="2" customFormat="1">
+      <c r="C56" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+    </row>
+    <row r="57" spans="2:13" s="2" customFormat="1">
+      <c r="C57" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+    </row>
+    <row r="58" spans="2:13" s="2" customFormat="1"/>
+    <row r="59" spans="2:13" s="2" customFormat="1">
+      <c r="E59" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" s="2" customFormat="1"/>
+    <row r="61" spans="2:13" s="2" customFormat="1">
+      <c r="B61" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="18" t="s">
+    <row r="62" spans="2:13" s="2" customFormat="1">
+      <c r="C62" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18" t="s">
+      <c r="D62" s="17"/>
+      <c r="E62" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18" t="s">
+      <c r="F62" s="17"/>
+      <c r="G62" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H59" s="18"/>
-    </row>
-    <row r="60" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18" t="s">
+      <c r="H62" s="17"/>
+    </row>
+    <row r="63" spans="2:13" s="2" customFormat="1">
+      <c r="C63" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H60" s="18"/>
-    </row>
-    <row r="61" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
+      <c r="H63" s="17"/>
+    </row>
+    <row r="64" spans="2:13" s="2" customFormat="1"/>
+    <row r="65" spans="2:2" s="2" customFormat="1"/>
+    <row r="66" spans="2:2" s="2" customFormat="1"/>
+    <row r="67" spans="2:2" s="2" customFormat="1"/>
+    <row r="68" spans="2:2" s="2" customFormat="1">
+      <c r="B68" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" s="2" customFormat="1"/>
+    <row r="139" spans="2:2" s="2" customFormat="1">
+      <c r="B139" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="16" t="s">
-        <v>251</v>
+    <row r="147" spans="2:15" s="9" customFormat="1"/>
+    <row r="150" spans="2:15" s="2" customFormat="1">
+      <c r="B150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="2:15" s="2" customFormat="1">
+      <c r="B151" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="152" spans="2:15" s="2" customFormat="1"/>
+    <row r="153" spans="2:15" s="2" customFormat="1">
+      <c r="B153" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="2:15" s="2" customFormat="1">
+      <c r="C154" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" s="17"/>
+      <c r="G154" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" s="17"/>
+      <c r="I154" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J154" s="17"/>
+      <c r="K154" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="L154" s="17"/>
+      <c r="M154" s="17"/>
+      <c r="N154" s="17"/>
+      <c r="O154" s="27"/>
+    </row>
+    <row r="155" spans="2:15" s="2" customFormat="1">
+      <c r="C155" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="F155" s="17"/>
+      <c r="G155" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H155" s="17"/>
+      <c r="I155" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J155" s="17"/>
+      <c r="K155" s="17"/>
+      <c r="L155" s="17"/>
+      <c r="M155" s="17"/>
+      <c r="N155" s="17"/>
+    </row>
+    <row r="156" spans="2:15" s="2" customFormat="1">
+      <c r="C156" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="F156" s="17"/>
+      <c r="G156" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H156" s="17"/>
+      <c r="I156" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J156" s="17"/>
+      <c r="K156" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="L156" s="17"/>
+      <c r="M156" s="17"/>
+      <c r="N156" s="17"/>
+    </row>
+    <row r="157" spans="2:15" s="2" customFormat="1">
+      <c r="C157" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F157" s="17"/>
+      <c r="G157" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H157" s="17"/>
+      <c r="I157" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J157" s="17"/>
+      <c r="K157" s="17"/>
+      <c r="L157" s="17"/>
+      <c r="M157" s="17"/>
+      <c r="N157" s="17"/>
+    </row>
+    <row r="158" spans="2:15" s="2" customFormat="1">
+      <c r="C158" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="F158" s="17"/>
+      <c r="G158" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H158" s="17"/>
+      <c r="I158" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J158" s="17"/>
+      <c r="K158" s="17"/>
+      <c r="L158" s="17"/>
+      <c r="M158" s="17"/>
+      <c r="N158" s="17"/>
+    </row>
+    <row r="159" spans="2:15" s="2" customFormat="1">
+      <c r="C159" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="F159" s="17"/>
+      <c r="G159" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="H159" s="17"/>
+      <c r="I159" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J159" s="17"/>
+      <c r="K159" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="L159" s="17"/>
+      <c r="M159" s="17"/>
+      <c r="N159" s="17"/>
+    </row>
+    <row r="160" spans="2:15" s="2" customFormat="1">
+      <c r="C160" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="F160" s="17"/>
+      <c r="G160" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H160" s="17"/>
+      <c r="I160" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J160" s="17"/>
+      <c r="K160" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="L160" s="17"/>
+      <c r="M160" s="17"/>
+      <c r="N160" s="17"/>
+    </row>
+    <row r="161" spans="2:16" s="2" customFormat="1"/>
+    <row r="162" spans="2:16" s="2" customFormat="1">
+      <c r="E162" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F162" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="G162" s="25"/>
+      <c r="H162" s="25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="163" spans="2:16" s="2" customFormat="1"/>
+    <row r="164" spans="2:16" s="2" customFormat="1">
+      <c r="B164" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165" spans="2:16" s="2" customFormat="1">
+      <c r="C165" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" s="17"/>
+      <c r="I165" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="J165" s="17"/>
+      <c r="K165" s="17"/>
+      <c r="L165" s="17"/>
+      <c r="M165" s="17"/>
+    </row>
+    <row r="166" spans="2:16" s="2" customFormat="1">
+      <c r="C166" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H166" s="17"/>
+      <c r="I166" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="J166" s="17"/>
+      <c r="K166" s="17"/>
+      <c r="L166" s="17"/>
+      <c r="M166" s="17"/>
+    </row>
+    <row r="167" spans="2:16" s="2" customFormat="1">
+      <c r="C167" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F167" s="17"/>
+      <c r="G167" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H167" s="17"/>
+      <c r="I167" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="J167" s="17"/>
+      <c r="K167" s="17"/>
+      <c r="L167" s="17"/>
+      <c r="M167" s="17"/>
+    </row>
+    <row r="168" spans="2:16" s="2" customFormat="1"/>
+    <row r="169" spans="2:16" s="2" customFormat="1"/>
+    <row r="170" spans="2:16" s="2" customFormat="1">
+      <c r="P170" s="26"/>
+    </row>
+    <row r="171" spans="2:16" s="2" customFormat="1"/>
+    <row r="172" spans="2:16" s="2" customFormat="1">
+      <c r="B172" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3">
+      <c r="C202" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" s="2" customFormat="1">
+      <c r="B205" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I53:J53"/>
+  <mergeCells count="92">
+    <mergeCell ref="I165:M165"/>
+    <mergeCell ref="I166:M166"/>
+    <mergeCell ref="I167:M167"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="I160:J160"/>
+    <mergeCell ref="K160:N160"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="I159:J159"/>
+    <mergeCell ref="K159:N159"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="I158:J158"/>
+    <mergeCell ref="K158:N158"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="I157:J157"/>
+    <mergeCell ref="K157:N157"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="I156:J156"/>
+    <mergeCell ref="K156:N156"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="I155:J155"/>
+    <mergeCell ref="K155:N155"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="I154:J154"/>
+    <mergeCell ref="K154:N154"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="G54:H54"/>
     <mergeCell ref="I54:J54"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
@@ -13023,6 +13867,28 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13033,188 +13899,185 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="D3:P203"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="9:13">
       <c r="I3" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="9:13">
+      <c r="M10" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13">
+      <c r="K19" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13">
+      <c r="D23" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="4:13">
+      <c r="D24" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13">
+      <c r="K27" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="M10" s="3" t="s">
+    <row r="39" spans="4:13">
+      <c r="I39" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13">
+      <c r="D41" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13">
+      <c r="K46" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="11:13">
+      <c r="K55" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="K19" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D23" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D24" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="K27" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="I39" s="3" t="s">
+      <c r="M55" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D41" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="K46" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="M46" s="3" t="s">
+    <row r="67" spans="9:13">
+      <c r="I67" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="9:13">
+      <c r="K74" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="55" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K55" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="M55" s="3" t="s">
+      <c r="M74" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="11:13">
+      <c r="K83" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="67" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I67" s="3" t="s">
+      <c r="M83" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101" spans="9:13">
+      <c r="K101" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="103" spans="9:13">
+      <c r="I103" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="110" spans="9:13">
+      <c r="K110" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="11:13">
+      <c r="K119" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="M119" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="74" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="K74" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="83" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K83" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="101" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="K101" s="3" t="s">
+    <row r="131" spans="9:12">
+      <c r="I131" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="138" spans="9:12">
+      <c r="L138" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="147" spans="9:12">
+      <c r="L147" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="159" spans="9:12">
+      <c r="I159" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="166" spans="11:13">
+      <c r="K166" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="M166" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="103" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I103" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="110" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="K110" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="M110" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="119" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K119" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="M119" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="131" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I131" s="3" t="s">
+    <row r="175" spans="11:13">
+      <c r="K175" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="M175" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="L138" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="147" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="L147" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="159" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I159" s="3" t="s">
+    <row r="187" spans="9:9">
+      <c r="I187" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="194" spans="11:16">
+      <c r="K194" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M194" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="P194" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="203" spans="11:16">
+      <c r="K203" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="M203" s="3" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="166" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K166" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="M166" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="175" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K175" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="M175" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I187" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="194" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K194" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="M194" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="P194" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="203" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K203" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="M203" s="3" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/后台接口设计.xlsx
+++ b/后台接口设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="接口一览" sheetId="2" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="发货管理" sheetId="4" r:id="rId5"/>
     <sheet name="信令交互" sheetId="6" r:id="rId6"/>
     <sheet name="信令交互流程图" sheetId="7" r:id="rId7"/>
+    <sheet name="积分兑换" sheetId="10" r:id="rId8"/>
+    <sheet name="积分兑换流程图" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="410">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1410,6 +1412,254 @@
   <si>
     <t>把加密的结果解密后，JSON格式如上图所示，将参数组成JSON内容与解密后的明文进行比较，相等就返回成功，否则返回失败。</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣减成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣减失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/point/pointHomePage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>packageNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actualGold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>payAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户金币值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户积分值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币套餐表(gold_package)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料表(user_base)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序：以【套餐编号】升序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/point/pointExchange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分兑换处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分兑换首页展示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPoint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方用户ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户金币数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户积分值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户积分兑换账单查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/point/getUserPointExchangeRecords</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值支付id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>billExplain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值方式名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kindName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付状态名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值记录表(user_recharge_records)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值方式名： 0-支付宝;1-微信支付;2-积分兑换;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付状态名：1-支付成功，0-支付失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分兑换时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取记录数：积分兑换时间在一年内的所有记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序：以【积分兑换时间】降序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1495,7 +1745,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1573,6 +1823,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1580,7 +1839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1622,6 +1881,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1646,14 +1914,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8633,6 +8895,2176 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="右大括号 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B01C56E-688D-4355-8480-AB3D207D6CFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6728460" y="2865120"/>
+          <a:ext cx="251460" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E3D0BF-F624-4F56-860E-35A0012144F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="5082540"/>
+          <a:ext cx="4465320" cy="3558540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnCode": "200",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnDesc": "OK",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"point":"3000",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"gold":"2000",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"data": [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"id": "7",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"packageNo": "10",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"actualGold": "60",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"payAmt": "6.00"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"id": "8",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"packageNo": "11",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"actualGold": "300",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"payAmt": "30.00"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E38E8F-7D2E-48E5-8ACE-069C6B308DF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="13319760"/>
+          <a:ext cx="3040380" cy="1165860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"gold":"3500",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"userPoint":"2700",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnCode": "200",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnDesc": "OK"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="右大括号 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C2A4AE-89EA-447A-8689-ABFCA79E6675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7940040" y="17426940"/>
+          <a:ext cx="251460" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C4462F-EE08-4457-9122-8ED40B0C78CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="20505420"/>
+          <a:ext cx="4465320" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnCode": "200",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnDesc": "OK",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"data": [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"id": "7",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"":"",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"":"",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"":"",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"":"",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"":"",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"":"",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"":"",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"":"",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"":""</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"id": "8",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"packageNo": "11",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"actualGold": "300",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"payAmt": "30.00"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="流程图: 终止 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC9AB553-07F6-4DFA-82DE-FB9561C22B6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="800100"/>
+          <a:ext cx="1813560" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>进入积分兑换金币页面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419102</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251462</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="箭头: 下 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BB4A47-F5B6-491E-AF2B-5054CF1DA673}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295902" y="1424940"/>
+          <a:ext cx="441960" cy="1417320"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="流程图: 过程 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375029C-1927-448D-A4E8-96532096A3F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4579620" y="2849880"/>
+          <a:ext cx="1897380" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用后台接口：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、查询积分兑换套餐一览；</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>调用第三方接口来查询获得当前用户积分数</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="流程图: 显示 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB499B5C-D9B7-4F0D-AABC-43A762369137}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="2689860"/>
+          <a:ext cx="1607820" cy="1059180"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>页面显示：用户积分数，积分兑换套餐一览</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>434342</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266702</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="箭头: 下 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA960360-E199-4376-A5A3-A1ACAA7DA87C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5311142" y="3749040"/>
+          <a:ext cx="441960" cy="1417320"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="流程图: 决策 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37AC7231-0C22-4B0C-8F79-2E495473FA40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="5173980"/>
+          <a:ext cx="2689860" cy="1379220"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>选择一个兑换套餐后，点击</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>兑换</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>按钮</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129697</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>27053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="箭头: 直角上 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EFDAA00-EA59-43AB-95E4-52B127DBF0E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="5616097" y="4058033"/>
+          <a:ext cx="4167983" cy="1062606"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25000"/>
+            <a:gd name="adj2" fmla="val 28157"/>
+            <a:gd name="adj3" fmla="val 32072"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="流程图: 决策 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB326943-ECD8-49EB-9E62-CB406E24373B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8138160" y="5128260"/>
+          <a:ext cx="2689860" cy="1379220"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>点击右上角的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>账单</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>按钮</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449582</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>281942</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="箭头: 下 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51258BBB-1C60-438D-96D5-4C3C46862DC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5326382" y="6568440"/>
+          <a:ext cx="441960" cy="1417320"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>121922</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>563882</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="箭头: 下 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A61DC38-34AB-44E8-B26A-06E1AB02735D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9265922" y="6515100"/>
+          <a:ext cx="441960" cy="1417320"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="流程图: 过程 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2002FEC4-98E1-4DC7-BBA8-CD6BE79F2C0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4602480" y="7993380"/>
+          <a:ext cx="1897380" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用后台接口：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、调用第三方扣减积分接口</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449582</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>281942</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="箭头: 下 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{591B4099-D229-4949-8C84-4CC8C8A081B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5326382" y="8892540"/>
+          <a:ext cx="441960" cy="1417320"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="流程图: 过程 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0524498-1FFE-4A2B-A25D-A15A9F6B2DF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4602480" y="10325100"/>
+          <a:ext cx="1897380" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用后台接口：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、调用自系统后台的扣减积分、增加金币、增加兑换记录的接口。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419257</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>88013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>99059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="箭头: 直角上 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA5D5E8-E73B-489E-AFD6-C1E9D11FB9F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="6515257" y="8325233"/>
+          <a:ext cx="1661003" cy="1062606"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25000"/>
+            <a:gd name="adj2" fmla="val 28157"/>
+            <a:gd name="adj3" fmla="val 32072"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="流程图: 过程 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E182EB6-082E-4556-B310-C5CEA9AA1DB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="9403080"/>
+          <a:ext cx="1897380" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>返回兑换失败</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>441962</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274322</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="箭头: 下 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3FA0D0-602F-4B5D-9DF4-198642DEC045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5318762" y="11216640"/>
+          <a:ext cx="441960" cy="1417320"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>411637</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>110873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="箭头: 直角上 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D70078-32AC-48FA-B7FF-9D3652D59A20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="6507637" y="10626473"/>
+          <a:ext cx="1661003" cy="1062606"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25000"/>
+            <a:gd name="adj2" fmla="val 28157"/>
+            <a:gd name="adj3" fmla="val 32072"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="流程图: 过程 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA418226-4045-4DD7-BA58-742E5FAF0A6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4594860" y="12649200"/>
+          <a:ext cx="1897380" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>返回：兑换成功标志、最新金币数、最新积分数。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="流程图: 过程 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C88049A-B44F-4CF6-B507-C56D72307632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6926580" y="11689080"/>
+          <a:ext cx="1897380" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>返回兑换失败</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="流程图: 过程 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D3ACDE-DAA9-4832-B048-041F71E0CFDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8542020" y="7947660"/>
+          <a:ext cx="1897380" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用查询该用户的兑换记录（一年内的）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8927,7 +11359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -9068,7 +11500,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
@@ -9106,219 +11540,219 @@
       </c>
     </row>
     <row r="15" spans="2:10" s="2" customFormat="1">
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17" t="s">
+      <c r="H15" s="20"/>
+      <c r="I15" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="J15" s="17"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="2:10" s="2" customFormat="1">
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17" t="s">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17" t="s">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="J16" s="17"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:11" s="2" customFormat="1">
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17" t="s">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17" t="s">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="J17" s="17"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="2:11" s="2" customFormat="1">
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17" t="s">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="J18" s="17"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="2:11" s="2" customFormat="1">
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17" t="s">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="J19" s="17"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:11" s="2" customFormat="1">
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17" t="s">
+      <c r="F20" s="20"/>
+      <c r="G20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17" t="s">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="J20" s="17"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="21" spans="2:11" s="2" customFormat="1">
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17" t="s">
+      <c r="F21" s="20"/>
+      <c r="G21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17" t="s">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="J21" s="17"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:11" s="2" customFormat="1">
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17" t="s">
+      <c r="F22" s="20"/>
+      <c r="G22" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17" t="s">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="J22" s="17"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="2:11" s="2" customFormat="1">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17" t="s">
+      <c r="F23" s="20"/>
+      <c r="G23" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17" t="s">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="J23" s="17"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="2:11" s="2" customFormat="1">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17" t="s">
+      <c r="F24" s="20"/>
+      <c r="G24" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17" t="s">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="J24" s="17"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="2:11" s="2" customFormat="1">
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17" t="s">
+      <c r="F25" s="20"/>
+      <c r="G25" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="2:11" s="2" customFormat="1">
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17" t="s">
+      <c r="F26" s="20"/>
+      <c r="G26" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="28" spans="2:11" s="2" customFormat="1">
       <c r="C28" s="2" t="s">
@@ -9392,7 +11826,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="N69" sqref="N69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -9420,32 +11856,32 @@
       </c>
     </row>
     <row r="10" spans="2:10" s="2" customFormat="1">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="2:10" s="2" customFormat="1">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="2:10" s="2" customFormat="1"/>
     <row r="13" spans="2:10" s="2" customFormat="1"/>
@@ -9456,162 +11892,162 @@
       </c>
     </row>
     <row r="16" spans="2:10" s="2" customFormat="1">
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17" t="s">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17" t="s">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="J16" s="17"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" s="2" customFormat="1">
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17" t="s">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17" t="s">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="J17" s="17"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="2:10" s="2" customFormat="1">
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17" t="s">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="J18" s="17"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="2:10" s="2" customFormat="1">
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17" t="s">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="J19" s="17"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10" s="2" customFormat="1">
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17" t="s">
+      <c r="F20" s="20"/>
+      <c r="G20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17" t="s">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="J20" s="17"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="2:10" s="2" customFormat="1">
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17" t="s">
+      <c r="F21" s="20"/>
+      <c r="G21" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17" t="s">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="J21" s="17"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:10" s="2" customFormat="1">
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17" t="s">
+      <c r="F22" s="20"/>
+      <c r="G22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17" t="s">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="J22" s="17"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="2:10" s="2" customFormat="1">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17" t="s">
+      <c r="F23" s="20"/>
+      <c r="G23" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="2:10" s="2" customFormat="1">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17" t="s">
+      <c r="F24" s="20"/>
+      <c r="G24" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="2:10" s="2" customFormat="1"/>
     <row r="26" spans="2:10" s="2" customFormat="1">
@@ -9640,32 +12076,32 @@
       </c>
     </row>
     <row r="50" spans="2:14" s="2" customFormat="1">
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17" t="s">
+      <c r="D50" s="20"/>
+      <c r="E50" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17" t="s">
+      <c r="F50" s="20"/>
+      <c r="G50" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="17"/>
+      <c r="H50" s="20"/>
     </row>
     <row r="51" spans="2:14" s="2" customFormat="1">
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17" t="s">
+      <c r="D51" s="20"/>
+      <c r="E51" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17" t="s">
+      <c r="F51" s="20"/>
+      <c r="G51" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="17"/>
+      <c r="H51" s="20"/>
     </row>
     <row r="52" spans="2:14" s="2" customFormat="1"/>
     <row r="53" spans="2:14" s="2" customFormat="1"/>
@@ -9676,171 +12112,171 @@
       </c>
     </row>
     <row r="56" spans="2:14" s="2" customFormat="1">
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17" t="s">
+      <c r="D56" s="20"/>
+      <c r="E56" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17" t="s">
+      <c r="F56" s="20"/>
+      <c r="G56" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17" t="s">
+      <c r="H56" s="20"/>
+      <c r="I56" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
     </row>
     <row r="57" spans="2:14" s="2" customFormat="1">
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17" t="s">
+      <c r="D57" s="20"/>
+      <c r="E57" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17" t="s">
+      <c r="F57" s="20"/>
+      <c r="G57" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17" t="s">
+      <c r="H57" s="20"/>
+      <c r="I57" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
     </row>
     <row r="58" spans="2:14" s="2" customFormat="1">
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17" t="s">
+      <c r="D58" s="20"/>
+      <c r="E58" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17" t="s">
+      <c r="F58" s="20"/>
+      <c r="G58" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17" t="s">
+      <c r="H58" s="20"/>
+      <c r="I58" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
     </row>
     <row r="59" spans="2:14" s="2" customFormat="1">
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17" t="s">
+      <c r="D59" s="20"/>
+      <c r="E59" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17" t="s">
+      <c r="F59" s="20"/>
+      <c r="G59" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17" t="s">
+      <c r="H59" s="20"/>
+      <c r="I59" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
       <c r="N59" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="60" spans="2:14" s="2" customFormat="1">
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17" t="s">
+      <c r="D60" s="20"/>
+      <c r="E60" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17" t="s">
+      <c r="F60" s="20"/>
+      <c r="G60" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17" t="s">
+      <c r="H60" s="20"/>
+      <c r="I60" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
     </row>
     <row r="61" spans="2:14" s="2" customFormat="1">
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17" t="s">
+      <c r="D61" s="20"/>
+      <c r="E61" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17" t="s">
+      <c r="F61" s="20"/>
+      <c r="G61" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17" t="s">
+      <c r="H61" s="20"/>
+      <c r="I61" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
     </row>
     <row r="62" spans="2:14" s="2" customFormat="1">
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17" t="s">
+      <c r="D62" s="20"/>
+      <c r="E62" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17" t="s">
+      <c r="F62" s="20"/>
+      <c r="G62" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
     </row>
     <row r="63" spans="2:14" s="2" customFormat="1">
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17" t="s">
+      <c r="D63" s="20"/>
+      <c r="E63" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17" t="s">
+      <c r="F63" s="20"/>
+      <c r="G63" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
     </row>
     <row r="65" spans="2:3" s="2" customFormat="1">
       <c r="C65" s="2" t="s">
@@ -9954,7 +12390,9 @@
   </sheetPr>
   <dimension ref="B3:R185"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="N201" sqref="N201"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -9965,7 +12403,7 @@
     <col min="19" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="18" customFormat="1"/>
+    <row r="3" spans="2:8" s="21" customFormat="1"/>
     <row r="4" spans="2:8" customFormat="1"/>
     <row r="5" spans="2:8" s="11" customFormat="1"/>
     <row r="6" spans="2:8" s="7" customFormat="1">
@@ -9987,46 +12425,46 @@
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="2" t="s">
@@ -10034,60 +12472,60 @@
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17" t="s">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="17"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="17"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="17"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17" t="s">
+      <c r="F20" s="20"/>
+      <c r="G20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="17"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="2" t="s">
@@ -10119,88 +12557,88 @@
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17" t="s">
+      <c r="F39" s="20"/>
+      <c r="G39" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="17"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17" t="s">
+      <c r="D40" s="20"/>
+      <c r="E40" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17" t="s">
+      <c r="F40" s="20"/>
+      <c r="G40" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="17"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17" t="s">
+      <c r="D41" s="20"/>
+      <c r="E41" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17" t="s">
+      <c r="F41" s="20"/>
+      <c r="G41" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="17"/>
+      <c r="H41" s="20"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17" t="s">
+      <c r="D42" s="20"/>
+      <c r="E42" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17" t="s">
+      <c r="F42" s="20"/>
+      <c r="G42" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="17"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17" t="s">
+      <c r="D43" s="20"/>
+      <c r="E43" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17" t="s">
+      <c r="F43" s="20"/>
+      <c r="G43" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="17"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17" t="s">
+      <c r="F44" s="20"/>
+      <c r="G44" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="17"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="46" spans="2:8">
       <c r="C46" s="2" t="s">
@@ -10217,182 +12655,182 @@
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17" t="s">
+      <c r="D48" s="20"/>
+      <c r="E48" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17" t="s">
+      <c r="F48" s="20"/>
+      <c r="G48" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H48" s="17"/>
+      <c r="H48" s="20"/>
     </row>
     <row r="49" spans="3:11">
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17" t="s">
+      <c r="D49" s="20"/>
+      <c r="E49" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17" t="s">
+      <c r="F49" s="20"/>
+      <c r="G49" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="17"/>
+      <c r="H49" s="20"/>
     </row>
     <row r="50" spans="3:11">
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17" t="s">
+      <c r="D50" s="20"/>
+      <c r="E50" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17" t="s">
+      <c r="F50" s="20"/>
+      <c r="G50" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="17"/>
+      <c r="H50" s="20"/>
     </row>
     <row r="51" spans="3:11">
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17" t="s">
+      <c r="D51" s="20"/>
+      <c r="E51" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17" t="s">
+      <c r="F51" s="20"/>
+      <c r="G51" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H51" s="17"/>
+      <c r="H51" s="20"/>
     </row>
     <row r="52" spans="3:11">
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17" t="s">
+      <c r="D52" s="20"/>
+      <c r="E52" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17" t="s">
+      <c r="F52" s="20"/>
+      <c r="G52" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="17"/>
+      <c r="H52" s="20"/>
     </row>
     <row r="53" spans="3:11">
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17" t="s">
+      <c r="D53" s="20"/>
+      <c r="E53" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17" t="s">
+      <c r="F53" s="20"/>
+      <c r="G53" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="17"/>
+      <c r="H53" s="20"/>
     </row>
     <row r="54" spans="3:11">
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17" t="s">
+      <c r="D54" s="20"/>
+      <c r="E54" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17" t="s">
+      <c r="F54" s="20"/>
+      <c r="G54" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H54" s="17"/>
+      <c r="H54" s="20"/>
     </row>
     <row r="55" spans="3:11">
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17" t="s">
+      <c r="D55" s="20"/>
+      <c r="E55" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17" t="s">
+      <c r="F55" s="20"/>
+      <c r="G55" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H55" s="17"/>
+      <c r="H55" s="20"/>
     </row>
     <row r="56" spans="3:11">
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17" t="s">
+      <c r="D56" s="20"/>
+      <c r="E56" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17" t="s">
+      <c r="F56" s="20"/>
+      <c r="G56" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="17"/>
+      <c r="H56" s="20"/>
     </row>
     <row r="57" spans="3:11">
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17" t="s">
+      <c r="D57" s="20"/>
+      <c r="E57" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17" t="s">
+      <c r="F57" s="20"/>
+      <c r="G57" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="17"/>
+      <c r="H57" s="20"/>
     </row>
     <row r="58" spans="3:11">
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17" t="s">
+      <c r="D58" s="20"/>
+      <c r="E58" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17" t="s">
+      <c r="F58" s="20"/>
+      <c r="G58" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H58" s="17"/>
+      <c r="H58" s="20"/>
       <c r="K58" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="3:11">
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17" t="s">
+      <c r="D59" s="20"/>
+      <c r="E59" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17" t="s">
+      <c r="F59" s="20"/>
+      <c r="G59" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H59" s="17"/>
+      <c r="H59" s="20"/>
     </row>
     <row r="63" spans="3:11">
       <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="2:8" s="18" customFormat="1"/>
+    <row r="69" spans="2:8" s="21" customFormat="1"/>
     <row r="71" spans="2:8" customFormat="1"/>
     <row r="73" spans="2:8">
       <c r="B73" s="2" t="s">
@@ -10413,46 +12851,46 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17" t="s">
+      <c r="D77" s="20"/>
+      <c r="E77" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17" t="s">
+      <c r="F77" s="20"/>
+      <c r="G77" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="17"/>
+      <c r="H77" s="20"/>
     </row>
     <row r="78" spans="2:8">
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17" t="s">
+      <c r="D78" s="20"/>
+      <c r="E78" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17" t="s">
+      <c r="F78" s="20"/>
+      <c r="G78" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H78" s="17"/>
+      <c r="H78" s="20"/>
     </row>
     <row r="79" spans="2:8">
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17" t="s">
+      <c r="D79" s="20"/>
+      <c r="E79" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17" t="s">
+      <c r="F79" s="20"/>
+      <c r="G79" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H79" s="17"/>
+      <c r="H79" s="20"/>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="2" t="s">
@@ -10460,46 +12898,46 @@
       </c>
     </row>
     <row r="83" spans="2:8">
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17" t="s">
+      <c r="D83" s="20"/>
+      <c r="E83" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17" t="s">
+      <c r="F83" s="20"/>
+      <c r="G83" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="17"/>
+      <c r="H83" s="20"/>
     </row>
     <row r="84" spans="2:8">
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17" t="s">
+      <c r="D84" s="20"/>
+      <c r="E84" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17" t="s">
+      <c r="F84" s="20"/>
+      <c r="G84" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H84" s="17"/>
+      <c r="H84" s="20"/>
     </row>
     <row r="85" spans="2:8">
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17" t="s">
+      <c r="D85" s="20"/>
+      <c r="E85" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17" t="s">
+      <c r="F85" s="20"/>
+      <c r="G85" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H85" s="17"/>
+      <c r="H85" s="20"/>
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="2" t="s">
@@ -10551,34 +12989,34 @@
       </c>
     </row>
     <row r="110" spans="2:8">
-      <c r="C110" s="17" t="s">
+      <c r="C110" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17" t="s">
+      <c r="D110" s="20"/>
+      <c r="E110" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17" t="s">
+      <c r="F110" s="20"/>
+      <c r="G110" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H110" s="17"/>
+      <c r="H110" s="20"/>
     </row>
     <row r="111" spans="2:8">
-      <c r="C111" s="17" t="s">
+      <c r="C111" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17" t="s">
+      <c r="D111" s="20"/>
+      <c r="E111" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17" t="s">
+      <c r="F111" s="20"/>
+      <c r="G111" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H111" s="17"/>
-    </row>
-    <row r="114" spans="2:11" s="18" customFormat="1"/>
+      <c r="H111" s="20"/>
+    </row>
+    <row r="114" spans="2:11" s="21" customFormat="1"/>
     <row r="116" spans="2:11" customFormat="1"/>
     <row r="118" spans="2:11">
       <c r="B118" s="2" t="s">
@@ -10599,32 +13037,32 @@
       </c>
     </row>
     <row r="122" spans="2:11">
-      <c r="C122" s="17" t="s">
+      <c r="C122" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17" t="s">
+      <c r="D122" s="20"/>
+      <c r="E122" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17" t="s">
+      <c r="F122" s="20"/>
+      <c r="G122" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H122" s="17"/>
+      <c r="H122" s="20"/>
     </row>
     <row r="123" spans="2:11">
-      <c r="C123" s="17" t="s">
+      <c r="C123" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17" t="s">
+      <c r="D123" s="20"/>
+      <c r="E123" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17" t="s">
+      <c r="F123" s="20"/>
+      <c r="G123" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H123" s="17"/>
+      <c r="H123" s="20"/>
     </row>
     <row r="126" spans="2:11">
       <c r="B126" s="2" t="s">
@@ -10632,193 +13070,193 @@
       </c>
     </row>
     <row r="127" spans="2:11">
-      <c r="C127" s="17" t="s">
+      <c r="C127" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17" t="s">
+      <c r="D127" s="20"/>
+      <c r="E127" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F127" s="17"/>
-      <c r="G127" s="17" t="s">
+      <c r="F127" s="20"/>
+      <c r="G127" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H127" s="17"/>
-      <c r="I127" s="17" t="s">
+      <c r="H127" s="20"/>
+      <c r="I127" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="J127" s="17"/>
-      <c r="K127" s="17"/>
+      <c r="J127" s="20"/>
+      <c r="K127" s="20"/>
     </row>
     <row r="128" spans="2:11">
-      <c r="C128" s="17" t="s">
+      <c r="C128" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17" t="s">
+      <c r="D128" s="20"/>
+      <c r="E128" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17" t="s">
+      <c r="F128" s="20"/>
+      <c r="G128" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H128" s="17"/>
-      <c r="I128" s="17" t="s">
+      <c r="H128" s="20"/>
+      <c r="I128" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="J128" s="17"/>
-      <c r="K128" s="17"/>
+      <c r="J128" s="20"/>
+      <c r="K128" s="20"/>
     </row>
     <row r="129" spans="2:13">
-      <c r="C129" s="17" t="s">
+      <c r="C129" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17" t="s">
+      <c r="D129" s="20"/>
+      <c r="E129" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F129" s="17"/>
-      <c r="G129" s="17" t="s">
+      <c r="F129" s="20"/>
+      <c r="G129" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H129" s="17"/>
-      <c r="I129" s="17" t="s">
+      <c r="H129" s="20"/>
+      <c r="I129" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="J129" s="17"/>
-      <c r="K129" s="17"/>
+      <c r="J129" s="20"/>
+      <c r="K129" s="20"/>
     </row>
     <row r="130" spans="2:13">
-      <c r="C130" s="17" t="s">
+      <c r="C130" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17" t="s">
+      <c r="D130" s="20"/>
+      <c r="E130" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="F130" s="17"/>
-      <c r="G130" s="17" t="s">
+      <c r="F130" s="20"/>
+      <c r="G130" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H130" s="17"/>
-      <c r="I130" s="17" t="s">
+      <c r="H130" s="20"/>
+      <c r="I130" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="J130" s="17"/>
-      <c r="K130" s="17"/>
+      <c r="J130" s="20"/>
+      <c r="K130" s="20"/>
     </row>
     <row r="131" spans="2:13">
-      <c r="C131" s="17" t="s">
+      <c r="C131" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17" t="s">
+      <c r="D131" s="20"/>
+      <c r="E131" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F131" s="17"/>
-      <c r="G131" s="17" t="s">
+      <c r="F131" s="20"/>
+      <c r="G131" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H131" s="17"/>
-      <c r="I131" s="17" t="s">
+      <c r="H131" s="20"/>
+      <c r="I131" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="J131" s="17"/>
-      <c r="K131" s="17"/>
+      <c r="J131" s="20"/>
+      <c r="K131" s="20"/>
     </row>
     <row r="132" spans="2:13">
-      <c r="C132" s="17" t="s">
+      <c r="C132" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D132" s="17"/>
-      <c r="E132" s="17" t="s">
+      <c r="D132" s="20"/>
+      <c r="E132" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F132" s="17"/>
-      <c r="G132" s="17" t="s">
+      <c r="F132" s="20"/>
+      <c r="G132" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H132" s="17"/>
-      <c r="I132" s="17" t="s">
+      <c r="H132" s="20"/>
+      <c r="I132" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="J132" s="17"/>
-      <c r="K132" s="17"/>
+      <c r="J132" s="20"/>
+      <c r="K132" s="20"/>
     </row>
     <row r="133" spans="2:13">
-      <c r="C133" s="17" t="s">
+      <c r="C133" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D133" s="17"/>
-      <c r="E133" s="17" t="s">
+      <c r="D133" s="20"/>
+      <c r="E133" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F133" s="17"/>
-      <c r="G133" s="17" t="s">
+      <c r="F133" s="20"/>
+      <c r="G133" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="17"/>
-      <c r="I133" s="17" t="s">
+      <c r="H133" s="20"/>
+      <c r="I133" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="J133" s="17"/>
-      <c r="K133" s="17"/>
+      <c r="J133" s="20"/>
+      <c r="K133" s="20"/>
     </row>
     <row r="134" spans="2:13">
-      <c r="C134" s="17" t="s">
+      <c r="C134" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D134" s="17"/>
-      <c r="E134" s="17" t="s">
+      <c r="D134" s="20"/>
+      <c r="E134" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F134" s="17"/>
-      <c r="G134" s="17" t="s">
+      <c r="F134" s="20"/>
+      <c r="G134" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H134" s="17"/>
-      <c r="I134" s="17" t="s">
+      <c r="H134" s="20"/>
+      <c r="I134" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="J134" s="17"/>
-      <c r="K134" s="17"/>
+      <c r="J134" s="20"/>
+      <c r="K134" s="20"/>
       <c r="M134" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="135" spans="2:13">
-      <c r="C135" s="17" t="s">
+      <c r="C135" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D135" s="17"/>
-      <c r="E135" s="17" t="s">
+      <c r="D135" s="20"/>
+      <c r="E135" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F135" s="17"/>
-      <c r="G135" s="17" t="s">
+      <c r="F135" s="20"/>
+      <c r="G135" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H135" s="17"/>
-      <c r="I135" s="17"/>
-      <c r="J135" s="17"/>
-      <c r="K135" s="17"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="20"/>
+      <c r="K135" s="20"/>
     </row>
     <row r="136" spans="2:13">
-      <c r="C136" s="17" t="s">
+      <c r="C136" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D136" s="17"/>
-      <c r="E136" s="17" t="s">
+      <c r="D136" s="20"/>
+      <c r="E136" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F136" s="17"/>
-      <c r="G136" s="17" t="s">
+      <c r="F136" s="20"/>
+      <c r="G136" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H136" s="17"/>
-      <c r="I136" s="17"/>
-      <c r="J136" s="17"/>
-      <c r="K136" s="17"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="20"/>
+      <c r="K136" s="20"/>
     </row>
     <row r="140" spans="2:13">
       <c r="B140" s="2" t="s">
@@ -10848,32 +13286,32 @@
       </c>
     </row>
     <row r="166" spans="2:18" s="7" customFormat="1">
-      <c r="C166" s="19" t="s">
+      <c r="C166" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19" t="s">
+      <c r="D166" s="22"/>
+      <c r="E166" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F166" s="19"/>
-      <c r="G166" s="19" t="s">
+      <c r="F166" s="22"/>
+      <c r="G166" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H166" s="19"/>
+      <c r="H166" s="22"/>
     </row>
     <row r="167" spans="2:18" s="7" customFormat="1">
-      <c r="C167" s="19" t="s">
+      <c r="C167" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19" t="s">
+      <c r="D167" s="22"/>
+      <c r="E167" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19" t="s">
+      <c r="F167" s="22"/>
+      <c r="G167" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H167" s="19"/>
+      <c r="H167" s="22"/>
     </row>
     <row r="168" spans="2:18" s="7" customFormat="1"/>
     <row r="170" spans="2:18">
@@ -10882,104 +13320,104 @@
       </c>
     </row>
     <row r="171" spans="2:18">
-      <c r="C171" s="17" t="s">
+      <c r="C171" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17" t="s">
+      <c r="D171" s="20"/>
+      <c r="E171" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F171" s="17"/>
-      <c r="G171" s="17" t="s">
+      <c r="F171" s="20"/>
+      <c r="G171" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H171" s="17"/>
-      <c r="I171" s="17" t="s">
+      <c r="H171" s="20"/>
+      <c r="I171" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="J171" s="17"/>
-      <c r="K171" s="17"/>
-      <c r="L171" s="17"/>
+      <c r="J171" s="20"/>
+      <c r="K171" s="20"/>
+      <c r="L171" s="20"/>
     </row>
     <row r="172" spans="2:18">
-      <c r="C172" s="17" t="s">
+      <c r="C172" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D172" s="17"/>
-      <c r="E172" s="17" t="s">
+      <c r="D172" s="20"/>
+      <c r="E172" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F172" s="17"/>
-      <c r="G172" s="17" t="s">
+      <c r="F172" s="20"/>
+      <c r="G172" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H172" s="17"/>
-      <c r="I172" s="17" t="s">
+      <c r="H172" s="20"/>
+      <c r="I172" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="J172" s="17"/>
-      <c r="K172" s="17"/>
-      <c r="L172" s="17"/>
+      <c r="J172" s="20"/>
+      <c r="K172" s="20"/>
+      <c r="L172" s="20"/>
     </row>
     <row r="173" spans="2:18">
-      <c r="C173" s="17" t="s">
+      <c r="C173" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D173" s="17"/>
-      <c r="E173" s="17" t="s">
+      <c r="D173" s="20"/>
+      <c r="E173" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="F173" s="17"/>
-      <c r="G173" s="17" t="s">
+      <c r="F173" s="20"/>
+      <c r="G173" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H173" s="17"/>
-      <c r="I173" s="17" t="s">
+      <c r="H173" s="20"/>
+      <c r="I173" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="J173" s="17"/>
-      <c r="K173" s="17"/>
-      <c r="L173" s="17"/>
+      <c r="J173" s="20"/>
+      <c r="K173" s="20"/>
+      <c r="L173" s="20"/>
     </row>
     <row r="174" spans="2:18">
-      <c r="C174" s="17" t="s">
+      <c r="C174" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D174" s="17"/>
-      <c r="E174" s="17" t="s">
+      <c r="D174" s="20"/>
+      <c r="E174" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="F174" s="17"/>
-      <c r="G174" s="17" t="s">
+      <c r="F174" s="20"/>
+      <c r="G174" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H174" s="17"/>
-      <c r="I174" s="17" t="s">
+      <c r="H174" s="20"/>
+      <c r="I174" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="J174" s="17"/>
-      <c r="K174" s="17"/>
-      <c r="L174" s="17"/>
+      <c r="J174" s="20"/>
+      <c r="K174" s="20"/>
+      <c r="L174" s="20"/>
     </row>
     <row r="175" spans="2:18">
-      <c r="C175" s="17" t="s">
+      <c r="C175" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D175" s="17"/>
-      <c r="E175" s="17" t="s">
+      <c r="D175" s="20"/>
+      <c r="E175" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="F175" s="17"/>
-      <c r="G175" s="17" t="s">
+      <c r="F175" s="20"/>
+      <c r="G175" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H175" s="17"/>
-      <c r="I175" s="17" t="s">
+      <c r="H175" s="20"/>
+      <c r="I175" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="J175" s="17"/>
-      <c r="K175" s="17"/>
-      <c r="L175" s="17"/>
+      <c r="J175" s="20"/>
+      <c r="K175" s="20"/>
+      <c r="L175" s="20"/>
       <c r="M175" s="2" t="s">
         <v>185</v>
       </c>
@@ -10988,135 +13426,135 @@
       </c>
     </row>
     <row r="176" spans="2:18">
-      <c r="C176" s="17" t="s">
+      <c r="C176" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D176" s="17"/>
-      <c r="E176" s="17" t="s">
+      <c r="D176" s="20"/>
+      <c r="E176" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F176" s="17"/>
-      <c r="G176" s="17" t="s">
+      <c r="F176" s="20"/>
+      <c r="G176" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H176" s="17"/>
-      <c r="I176" s="17" t="s">
+      <c r="H176" s="20"/>
+      <c r="I176" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="J176" s="17"/>
-      <c r="K176" s="17"/>
-      <c r="L176" s="17"/>
+      <c r="J176" s="20"/>
+      <c r="K176" s="20"/>
+      <c r="L176" s="20"/>
       <c r="R176" s="13" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="177" spans="2:18">
-      <c r="C177" s="17" t="s">
+      <c r="C177" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="D177" s="17"/>
-      <c r="E177" s="17" t="s">
+      <c r="D177" s="20"/>
+      <c r="E177" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="F177" s="17"/>
-      <c r="G177" s="17" t="s">
+      <c r="F177" s="20"/>
+      <c r="G177" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H177" s="17"/>
-      <c r="I177" s="17" t="s">
+      <c r="H177" s="20"/>
+      <c r="I177" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="J177" s="17"/>
-      <c r="K177" s="17"/>
-      <c r="L177" s="17"/>
+      <c r="J177" s="20"/>
+      <c r="K177" s="20"/>
+      <c r="L177" s="20"/>
       <c r="R177" s="12" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="178" spans="2:18">
-      <c r="C178" s="17" t="s">
+      <c r="C178" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17" t="s">
+      <c r="D178" s="20"/>
+      <c r="E178" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F178" s="17"/>
-      <c r="G178" s="17" t="s">
+      <c r="F178" s="20"/>
+      <c r="G178" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H178" s="17"/>
-      <c r="I178" s="17" t="s">
+      <c r="H178" s="20"/>
+      <c r="I178" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="J178" s="17"/>
-      <c r="K178" s="17"/>
-      <c r="L178" s="17"/>
+      <c r="J178" s="20"/>
+      <c r="K178" s="20"/>
+      <c r="L178" s="20"/>
       <c r="R178" s="12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="179" spans="2:18">
-      <c r="C179" s="17" t="s">
+      <c r="C179" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D179" s="17"/>
-      <c r="E179" s="17" t="s">
+      <c r="D179" s="20"/>
+      <c r="E179" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="F179" s="17"/>
-      <c r="G179" s="17" t="s">
+      <c r="F179" s="20"/>
+      <c r="G179" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="H179" s="17"/>
-      <c r="I179" s="17" t="s">
+      <c r="H179" s="20"/>
+      <c r="I179" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="J179" s="17"/>
-      <c r="K179" s="17"/>
-      <c r="L179" s="17"/>
+      <c r="J179" s="20"/>
+      <c r="K179" s="20"/>
+      <c r="L179" s="20"/>
       <c r="R179" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="180" spans="2:18">
-      <c r="C180" s="17" t="s">
+      <c r="C180" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D180" s="17"/>
-      <c r="E180" s="17" t="s">
+      <c r="D180" s="20"/>
+      <c r="E180" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F180" s="17"/>
-      <c r="G180" s="17" t="s">
+      <c r="F180" s="20"/>
+      <c r="G180" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H180" s="17"/>
-      <c r="I180" s="17"/>
-      <c r="J180" s="17"/>
-      <c r="K180" s="17"/>
-      <c r="L180" s="17"/>
+      <c r="H180" s="20"/>
+      <c r="I180" s="20"/>
+      <c r="J180" s="20"/>
+      <c r="K180" s="20"/>
+      <c r="L180" s="20"/>
       <c r="R180" s="12" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="181" spans="2:18">
-      <c r="C181" s="17" t="s">
+      <c r="C181" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D181" s="17"/>
-      <c r="E181" s="17" t="s">
+      <c r="D181" s="20"/>
+      <c r="E181" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F181" s="17"/>
-      <c r="G181" s="17" t="s">
+      <c r="F181" s="20"/>
+      <c r="G181" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H181" s="17"/>
-      <c r="I181" s="17"/>
-      <c r="J181" s="17"/>
-      <c r="K181" s="17"/>
-      <c r="L181" s="17"/>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
+      <c r="J181" s="20"/>
+      <c r="K181" s="20"/>
+      <c r="L181" s="20"/>
       <c r="R181" s="14" t="s">
         <v>195</v>
       </c>
@@ -11346,14 +13784,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J227"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="M148" sqref="M148"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" s="18" customFormat="1"/>
+    <row r="3" spans="2:10" s="21" customFormat="1"/>
     <row r="6" spans="2:10" s="2" customFormat="1">
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -11374,76 +13814,76 @@
       </c>
     </row>
     <row r="10" spans="2:10" s="2" customFormat="1">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="J10" s="17"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="2:10" s="2" customFormat="1">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17" t="s">
+      <c r="H11" s="20"/>
+      <c r="I11" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="2:10" s="2" customFormat="1">
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17" t="s">
+      <c r="H12" s="20"/>
+      <c r="I12" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J12" s="17"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="2:10" s="2" customFormat="1">
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17" t="s">
+      <c r="H13" s="20"/>
+      <c r="I13" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="J13" s="17"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="2:10" s="2" customFormat="1"/>
     <row r="15" spans="2:10" s="2" customFormat="1"/>
@@ -11454,46 +13894,46 @@
       </c>
     </row>
     <row r="18" spans="2:8" s="2" customFormat="1">
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="17"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="2:8" s="2" customFormat="1">
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="17"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="2:8" s="2" customFormat="1">
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17" t="s">
+      <c r="F20" s="20"/>
+      <c r="G20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="17"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="2:8" s="2" customFormat="1"/>
     <row r="22" spans="2:8" s="2" customFormat="1">
@@ -11571,231 +14011,231 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="2"/>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17" t="s">
+      <c r="F39" s="20"/>
+      <c r="G39" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="17"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="2"/>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17" t="s">
+      <c r="D40" s="20"/>
+      <c r="E40" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17" t="s">
+      <c r="F40" s="20"/>
+      <c r="G40" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="17"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="2"/>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17" t="s">
+      <c r="D41" s="20"/>
+      <c r="E41" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17" t="s">
+      <c r="F41" s="20"/>
+      <c r="G41" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="17"/>
+      <c r="H41" s="20"/>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="2"/>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17" t="s">
+      <c r="D42" s="20"/>
+      <c r="E42" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17" t="s">
+      <c r="F42" s="20"/>
+      <c r="G42" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="17"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17" t="s">
+      <c r="D43" s="20"/>
+      <c r="E43" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17" t="s">
+      <c r="F43" s="20"/>
+      <c r="G43" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="17"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17" t="s">
+      <c r="F44" s="20"/>
+      <c r="G44" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="17"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17" t="s">
+      <c r="F45" s="20"/>
+      <c r="G45" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="17"/>
+      <c r="H45" s="20"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17" t="s">
+      <c r="D46" s="20"/>
+      <c r="E46" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17" t="s">
+      <c r="F46" s="20"/>
+      <c r="G46" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="17"/>
+      <c r="H46" s="20"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17" t="s">
+      <c r="D47" s="20"/>
+      <c r="E47" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17" t="s">
+      <c r="F47" s="20"/>
+      <c r="G47" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H47" s="17"/>
+      <c r="H47" s="20"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17" t="s">
+      <c r="D48" s="20"/>
+      <c r="E48" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17" t="s">
+      <c r="F48" s="20"/>
+      <c r="G48" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="17"/>
+      <c r="H48" s="20"/>
     </row>
     <row r="49" spans="3:8">
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17" t="s">
+      <c r="D49" s="20"/>
+      <c r="E49" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17" t="s">
+      <c r="F49" s="20"/>
+      <c r="G49" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H49" s="17"/>
+      <c r="H49" s="20"/>
     </row>
     <row r="50" spans="3:8">
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17" t="s">
+      <c r="D50" s="20"/>
+      <c r="E50" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17" t="s">
+      <c r="F50" s="20"/>
+      <c r="G50" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H50" s="17"/>
+      <c r="H50" s="20"/>
     </row>
     <row r="51" spans="3:8">
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17" t="s">
+      <c r="D51" s="20"/>
+      <c r="E51" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17" t="s">
+      <c r="F51" s="20"/>
+      <c r="G51" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="17"/>
+      <c r="H51" s="20"/>
     </row>
     <row r="52" spans="3:8">
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17" t="s">
+      <c r="D52" s="20"/>
+      <c r="E52" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17" t="s">
+      <c r="F52" s="20"/>
+      <c r="G52" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="17"/>
+      <c r="H52" s="20"/>
     </row>
     <row r="53" spans="3:8">
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17" t="s">
+      <c r="D53" s="20"/>
+      <c r="E53" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17" t="s">
+      <c r="F53" s="20"/>
+      <c r="G53" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H53" s="17"/>
+      <c r="H53" s="20"/>
     </row>
     <row r="54" spans="3:8">
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17" t="s">
+      <c r="D54" s="20"/>
+      <c r="E54" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17" t="s">
+      <c r="F54" s="20"/>
+      <c r="G54" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H54" s="17"/>
+      <c r="H54" s="20"/>
     </row>
     <row r="57" spans="3:8">
       <c r="C57" s="3" t="s">
@@ -11845,102 +14285,102 @@
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="3:8">
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17" t="s">
+      <c r="D62" s="20"/>
+      <c r="E62" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17" t="s">
+      <c r="F62" s="20"/>
+      <c r="G62" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H62" s="17"/>
+      <c r="H62" s="20"/>
     </row>
     <row r="63" spans="3:8">
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17" t="s">
+      <c r="D63" s="20"/>
+      <c r="E63" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17" t="s">
+      <c r="F63" s="20"/>
+      <c r="G63" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H63" s="17"/>
+      <c r="H63" s="20"/>
     </row>
     <row r="64" spans="3:8">
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17" t="s">
+      <c r="D64" s="20"/>
+      <c r="E64" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17" t="s">
+      <c r="F64" s="20"/>
+      <c r="G64" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H64" s="17"/>
+      <c r="H64" s="20"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17" t="s">
+      <c r="D65" s="20"/>
+      <c r="E65" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17" t="s">
+      <c r="F65" s="20"/>
+      <c r="G65" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H65" s="17"/>
+      <c r="H65" s="20"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17" t="s">
+      <c r="D66" s="20"/>
+      <c r="E66" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17" t="s">
+      <c r="F66" s="20"/>
+      <c r="G66" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="17"/>
+      <c r="H66" s="20"/>
     </row>
     <row r="67" spans="2:8">
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17" t="s">
+      <c r="D67" s="20"/>
+      <c r="E67" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17" t="s">
+      <c r="F67" s="20"/>
+      <c r="G67" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H67" s="17"/>
+      <c r="H67" s="20"/>
     </row>
     <row r="68" spans="2:8">
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17" t="s">
+      <c r="D68" s="20"/>
+      <c r="E68" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17" t="s">
+      <c r="F68" s="20"/>
+      <c r="G68" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H68" s="17"/>
+      <c r="H68" s="20"/>
     </row>
     <row r="71" spans="2:8">
       <c r="C71" s="3" t="s">
@@ -11966,7 +14406,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="2:8" s="20" customFormat="1"/>
+    <row r="76" spans="2:8" s="23" customFormat="1"/>
     <row r="79" spans="2:8" s="2" customFormat="1">
       <c r="B79" s="2" t="s">
         <v>9</v>
@@ -11987,105 +14427,105 @@
       </c>
     </row>
     <row r="83" spans="2:10" s="2" customFormat="1">
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17" t="s">
+      <c r="D83" s="20"/>
+      <c r="E83" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17" t="s">
+      <c r="F83" s="20"/>
+      <c r="G83" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="17"/>
+      <c r="H83" s="20"/>
     </row>
     <row r="84" spans="2:10" s="2" customFormat="1">
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17" t="s">
+      <c r="D84" s="20"/>
+      <c r="E84" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17" t="s">
+      <c r="F84" s="20"/>
+      <c r="G84" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H84" s="17"/>
+      <c r="H84" s="20"/>
     </row>
     <row r="85" spans="2:10" s="2" customFormat="1">
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17" t="s">
+      <c r="D85" s="20"/>
+      <c r="E85" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17" t="s">
+      <c r="F85" s="20"/>
+      <c r="G85" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="H85" s="17"/>
+      <c r="H85" s="20"/>
       <c r="J85" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="86" spans="2:10" s="2" customFormat="1">
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17" t="s">
+      <c r="D86" s="20"/>
+      <c r="E86" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17" t="s">
+      <c r="F86" s="20"/>
+      <c r="G86" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H86" s="17"/>
+      <c r="H86" s="20"/>
     </row>
     <row r="87" spans="2:10" s="2" customFormat="1">
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17" t="s">
+      <c r="D87" s="20"/>
+      <c r="E87" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17" t="s">
+      <c r="F87" s="20"/>
+      <c r="G87" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H87" s="17"/>
+      <c r="H87" s="20"/>
     </row>
     <row r="88" spans="2:10" s="2" customFormat="1">
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17" t="s">
+      <c r="D88" s="20"/>
+      <c r="E88" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17" t="s">
+      <c r="F88" s="20"/>
+      <c r="G88" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H88" s="17"/>
+      <c r="H88" s="20"/>
     </row>
     <row r="89" spans="2:10" s="2" customFormat="1">
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17" t="s">
+      <c r="D89" s="20"/>
+      <c r="E89" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17" t="s">
+      <c r="F89" s="20"/>
+      <c r="G89" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H89" s="17"/>
+      <c r="H89" s="20"/>
     </row>
     <row r="90" spans="2:10" s="2" customFormat="1"/>
     <row r="91" spans="2:10" s="2" customFormat="1">
@@ -12098,46 +14538,46 @@
       </c>
     </row>
     <row r="94" spans="2:10" s="2" customFormat="1">
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17" t="s">
+      <c r="D94" s="20"/>
+      <c r="E94" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17" t="s">
+      <c r="F94" s="20"/>
+      <c r="G94" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H94" s="17"/>
+      <c r="H94" s="20"/>
     </row>
     <row r="95" spans="2:10" s="2" customFormat="1">
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17" t="s">
+      <c r="D95" s="20"/>
+      <c r="E95" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17" t="s">
+      <c r="F95" s="20"/>
+      <c r="G95" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H95" s="17"/>
+      <c r="H95" s="20"/>
     </row>
     <row r="96" spans="2:10" s="2" customFormat="1">
-      <c r="C96" s="17" t="s">
+      <c r="C96" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17" t="s">
+      <c r="D96" s="20"/>
+      <c r="E96" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17" t="s">
+      <c r="F96" s="20"/>
+      <c r="G96" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H96" s="17"/>
+      <c r="H96" s="20"/>
     </row>
     <row r="97" spans="2:8" s="2" customFormat="1"/>
     <row r="98" spans="2:8" s="2" customFormat="1">
@@ -12245,90 +14685,90 @@
     </row>
     <row r="121" spans="2:8">
       <c r="B121" s="2"/>
-      <c r="C121" s="17" t="s">
+      <c r="C121" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17" t="s">
+      <c r="D121" s="20"/>
+      <c r="E121" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17" t="s">
+      <c r="F121" s="20"/>
+      <c r="G121" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H121" s="17"/>
+      <c r="H121" s="20"/>
     </row>
     <row r="122" spans="2:8">
-      <c r="C122" s="17" t="s">
+      <c r="C122" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17" t="s">
+      <c r="D122" s="20"/>
+      <c r="E122" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17" t="s">
+      <c r="F122" s="20"/>
+      <c r="G122" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H122" s="17"/>
+      <c r="H122" s="20"/>
     </row>
     <row r="123" spans="2:8">
-      <c r="C123" s="17" t="s">
+      <c r="C123" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17" t="s">
+      <c r="D123" s="20"/>
+      <c r="E123" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17" t="s">
+      <c r="F123" s="20"/>
+      <c r="G123" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H123" s="17"/>
+      <c r="H123" s="20"/>
     </row>
     <row r="124" spans="2:8">
-      <c r="C124" s="17" t="s">
+      <c r="C124" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17" t="s">
+      <c r="D124" s="20"/>
+      <c r="E124" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17" t="s">
+      <c r="F124" s="20"/>
+      <c r="G124" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H124" s="17"/>
+      <c r="H124" s="20"/>
     </row>
     <row r="125" spans="2:8">
-      <c r="C125" s="17" t="s">
+      <c r="C125" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17" t="s">
+      <c r="D125" s="20"/>
+      <c r="E125" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F125" s="17"/>
-      <c r="G125" s="17" t="s">
+      <c r="F125" s="20"/>
+      <c r="G125" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H125" s="17"/>
+      <c r="H125" s="20"/>
     </row>
     <row r="126" spans="2:8">
-      <c r="C126" s="17" t="s">
+      <c r="C126" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17" t="s">
+      <c r="D126" s="20"/>
+      <c r="E126" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="F126" s="17"/>
-      <c r="G126" s="17" t="s">
+      <c r="F126" s="20"/>
+      <c r="G126" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H126" s="17"/>
-    </row>
-    <row r="129" spans="2:10" s="20" customFormat="1"/>
+      <c r="H126" s="20"/>
+    </row>
+    <row r="129" spans="2:10" s="23" customFormat="1"/>
     <row r="132" spans="2:10" s="2" customFormat="1">
       <c r="B132" s="2" t="s">
         <v>9</v>
@@ -12349,77 +14789,77 @@
       </c>
     </row>
     <row r="136" spans="2:10" s="2" customFormat="1">
-      <c r="C136" s="17" t="s">
+      <c r="C136" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D136" s="17"/>
-      <c r="E136" s="17" t="s">
+      <c r="D136" s="20"/>
+      <c r="E136" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F136" s="17"/>
-      <c r="G136" s="17" t="s">
+      <c r="F136" s="20"/>
+      <c r="G136" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H136" s="17"/>
+      <c r="H136" s="20"/>
     </row>
     <row r="137" spans="2:10" s="2" customFormat="1">
-      <c r="C137" s="17" t="s">
+      <c r="C137" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D137" s="17"/>
-      <c r="E137" s="17" t="s">
+      <c r="D137" s="20"/>
+      <c r="E137" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F137" s="17"/>
-      <c r="G137" s="17" t="s">
+      <c r="F137" s="20"/>
+      <c r="G137" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H137" s="17"/>
+      <c r="H137" s="20"/>
     </row>
     <row r="138" spans="2:10" s="2" customFormat="1">
-      <c r="C138" s="17" t="s">
+      <c r="C138" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17" t="s">
+      <c r="D138" s="20"/>
+      <c r="E138" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F138" s="17"/>
-      <c r="G138" s="17" t="s">
+      <c r="F138" s="20"/>
+      <c r="G138" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="H138" s="17"/>
+      <c r="H138" s="20"/>
       <c r="J138" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="139" spans="2:10" s="2" customFormat="1">
-      <c r="C139" s="17" t="s">
+      <c r="C139" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D139" s="17"/>
-      <c r="E139" s="17" t="s">
+      <c r="D139" s="20"/>
+      <c r="E139" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="F139" s="17"/>
-      <c r="G139" s="17" t="s">
+      <c r="F139" s="20"/>
+      <c r="G139" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H139" s="17"/>
+      <c r="H139" s="20"/>
     </row>
     <row r="140" spans="2:10" s="2" customFormat="1">
-      <c r="C140" s="17" t="s">
+      <c r="C140" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="D140" s="17"/>
-      <c r="E140" s="17" t="s">
+      <c r="D140" s="20"/>
+      <c r="E140" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="F140" s="17"/>
-      <c r="G140" s="17" t="s">
+      <c r="F140" s="20"/>
+      <c r="G140" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H140" s="17"/>
+      <c r="H140" s="20"/>
     </row>
     <row r="141" spans="2:10" s="2" customFormat="1"/>
     <row r="142" spans="2:10" s="2" customFormat="1">
@@ -12432,46 +14872,46 @@
       </c>
     </row>
     <row r="145" spans="2:8" s="2" customFormat="1">
-      <c r="C145" s="17" t="s">
+      <c r="C145" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D145" s="17"/>
-      <c r="E145" s="17" t="s">
+      <c r="D145" s="20"/>
+      <c r="E145" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F145" s="17"/>
-      <c r="G145" s="17" t="s">
+      <c r="F145" s="20"/>
+      <c r="G145" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="17"/>
+      <c r="H145" s="20"/>
     </row>
     <row r="146" spans="2:8" s="2" customFormat="1">
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D146" s="17"/>
-      <c r="E146" s="17" t="s">
+      <c r="D146" s="20"/>
+      <c r="E146" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F146" s="17"/>
-      <c r="G146" s="17" t="s">
+      <c r="F146" s="20"/>
+      <c r="G146" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H146" s="17"/>
+      <c r="H146" s="20"/>
     </row>
     <row r="147" spans="2:8" s="2" customFormat="1">
-      <c r="C147" s="17" t="s">
+      <c r="C147" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17" t="s">
+      <c r="D147" s="20"/>
+      <c r="E147" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F147" s="17"/>
-      <c r="G147" s="17" t="s">
+      <c r="F147" s="20"/>
+      <c r="G147" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H147" s="17"/>
+      <c r="H147" s="20"/>
     </row>
     <row r="148" spans="2:8" s="2" customFormat="1"/>
     <row r="149" spans="2:8" s="2" customFormat="1">
@@ -12582,66 +15022,66 @@
     </row>
     <row r="172" spans="2:9">
       <c r="B172" s="2"/>
-      <c r="C172" s="17" t="s">
+      <c r="C172" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D172" s="17"/>
-      <c r="E172" s="17" t="s">
+      <c r="D172" s="20"/>
+      <c r="E172" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F172" s="17"/>
-      <c r="G172" s="17"/>
-      <c r="H172" s="21" t="s">
+      <c r="F172" s="20"/>
+      <c r="G172" s="20"/>
+      <c r="H172" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I172" s="22"/>
+      <c r="I172" s="25"/>
     </row>
     <row r="173" spans="2:9">
-      <c r="C173" s="17" t="s">
+      <c r="C173" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D173" s="17"/>
-      <c r="E173" s="17" t="s">
+      <c r="D173" s="20"/>
+      <c r="E173" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="F173" s="17"/>
-      <c r="G173" s="17"/>
-      <c r="H173" s="21" t="s">
+      <c r="F173" s="20"/>
+      <c r="G173" s="20"/>
+      <c r="H173" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I173" s="22"/>
+      <c r="I173" s="25"/>
     </row>
     <row r="174" spans="2:9">
-      <c r="C174" s="17" t="s">
+      <c r="C174" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D174" s="17"/>
-      <c r="E174" s="17" t="s">
+      <c r="D174" s="20"/>
+      <c r="E174" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="F174" s="17"/>
-      <c r="G174" s="17"/>
-      <c r="H174" s="21" t="s">
+      <c r="F174" s="20"/>
+      <c r="G174" s="20"/>
+      <c r="H174" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I174" s="22"/>
+      <c r="I174" s="25"/>
     </row>
     <row r="175" spans="2:9">
-      <c r="C175" s="17" t="s">
+      <c r="C175" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D175" s="17"/>
-      <c r="E175" s="17" t="s">
+      <c r="D175" s="20"/>
+      <c r="E175" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="F175" s="17"/>
-      <c r="G175" s="17"/>
-      <c r="H175" s="21" t="s">
+      <c r="F175" s="20"/>
+      <c r="G175" s="20"/>
+      <c r="H175" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I175" s="22"/>
-    </row>
-    <row r="178" spans="2:10" s="20" customFormat="1"/>
+      <c r="I175" s="25"/>
+    </row>
+    <row r="178" spans="2:10" s="23" customFormat="1"/>
     <row r="181" spans="2:10" s="2" customFormat="1">
       <c r="B181" s="2" t="s">
         <v>9</v>
@@ -12662,46 +15102,46 @@
       </c>
     </row>
     <row r="185" spans="2:10" s="2" customFormat="1">
-      <c r="C185" s="17" t="s">
+      <c r="C185" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D185" s="17"/>
-      <c r="E185" s="17" t="s">
+      <c r="D185" s="20"/>
+      <c r="E185" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F185" s="17"/>
-      <c r="G185" s="17" t="s">
+      <c r="F185" s="20"/>
+      <c r="G185" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H185" s="17"/>
+      <c r="H185" s="20"/>
     </row>
     <row r="186" spans="2:10" s="2" customFormat="1">
-      <c r="C186" s="17" t="s">
+      <c r="C186" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D186" s="17"/>
-      <c r="E186" s="17" t="s">
+      <c r="D186" s="20"/>
+      <c r="E186" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F186" s="17"/>
-      <c r="G186" s="17" t="s">
+      <c r="F186" s="20"/>
+      <c r="G186" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H186" s="17"/>
+      <c r="H186" s="20"/>
     </row>
     <row r="187" spans="2:10" s="2" customFormat="1">
-      <c r="C187" s="17" t="s">
+      <c r="C187" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D187" s="17"/>
-      <c r="E187" s="17" t="s">
+      <c r="D187" s="20"/>
+      <c r="E187" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F187" s="17"/>
-      <c r="G187" s="17" t="s">
+      <c r="F187" s="20"/>
+      <c r="G187" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="H187" s="17"/>
+      <c r="H187" s="20"/>
       <c r="J187" s="4" t="s">
         <v>208</v>
       </c>
@@ -12717,46 +15157,46 @@
       </c>
     </row>
     <row r="192" spans="2:10" s="2" customFormat="1">
-      <c r="C192" s="17" t="s">
+      <c r="C192" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D192" s="17"/>
-      <c r="E192" s="17" t="s">
+      <c r="D192" s="20"/>
+      <c r="E192" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F192" s="17"/>
-      <c r="G192" s="17" t="s">
+      <c r="F192" s="20"/>
+      <c r="G192" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H192" s="17"/>
+      <c r="H192" s="20"/>
     </row>
     <row r="193" spans="2:8" s="2" customFormat="1">
-      <c r="C193" s="17" t="s">
+      <c r="C193" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D193" s="17"/>
-      <c r="E193" s="17" t="s">
+      <c r="D193" s="20"/>
+      <c r="E193" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F193" s="17"/>
-      <c r="G193" s="17" t="s">
+      <c r="F193" s="20"/>
+      <c r="G193" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H193" s="17"/>
+      <c r="H193" s="20"/>
     </row>
     <row r="194" spans="2:8" s="2" customFormat="1">
-      <c r="C194" s="17" t="s">
+      <c r="C194" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D194" s="17"/>
-      <c r="E194" s="17" t="s">
+      <c r="D194" s="20"/>
+      <c r="E194" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F194" s="17"/>
-      <c r="G194" s="17" t="s">
+      <c r="F194" s="20"/>
+      <c r="G194" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H194" s="17"/>
+      <c r="H194" s="20"/>
     </row>
     <row r="195" spans="2:8" s="2" customFormat="1"/>
     <row r="196" spans="2:8" s="2" customFormat="1">
@@ -12864,34 +15304,34 @@
     </row>
     <row r="219" spans="2:9" s="8" customFormat="1">
       <c r="B219" s="7"/>
-      <c r="C219" s="19" t="s">
+      <c r="C219" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D219" s="19"/>
-      <c r="E219" s="19" t="s">
+      <c r="D219" s="22"/>
+      <c r="E219" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F219" s="19"/>
-      <c r="G219" s="19"/>
-      <c r="H219" s="23" t="s">
+      <c r="F219" s="22"/>
+      <c r="G219" s="22"/>
+      <c r="H219" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I219" s="24"/>
+      <c r="I219" s="27"/>
     </row>
     <row r="220" spans="2:9" s="8" customFormat="1">
-      <c r="C220" s="19" t="s">
+      <c r="C220" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D220" s="19"/>
-      <c r="E220" s="19" t="s">
+      <c r="D220" s="22"/>
+      <c r="E220" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="F220" s="19"/>
-      <c r="G220" s="19"/>
-      <c r="H220" s="23" t="s">
+      <c r="F220" s="22"/>
+      <c r="G220" s="22"/>
+      <c r="H220" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I220" s="24"/>
+      <c r="I220" s="27"/>
     </row>
     <row r="221" spans="2:9" s="8" customFormat="1"/>
     <row r="222" spans="2:9" s="8" customFormat="1"/>
@@ -13120,7 +15560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P205"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -13148,40 +15590,40 @@
       </c>
     </row>
     <row r="10" spans="2:10" s="2" customFormat="1">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="J10" s="17"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="2:10" s="2" customFormat="1">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17" t="s">
+      <c r="H11" s="20"/>
+      <c r="I11" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="2:10" s="2" customFormat="1"/>
     <row r="13" spans="2:10" s="2" customFormat="1"/>
@@ -13192,32 +15634,32 @@
       </c>
     </row>
     <row r="16" spans="2:10" s="2" customFormat="1">
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17" t="s">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="2:8" s="2" customFormat="1">
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17" t="s">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="17"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="2:8" s="2" customFormat="1"/>
     <row r="19" spans="2:8" s="2" customFormat="1">
@@ -13335,128 +15777,128 @@
       </c>
     </row>
     <row r="53" spans="2:13" s="2" customFormat="1">
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17" t="s">
+      <c r="D53" s="20"/>
+      <c r="E53" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17" t="s">
+      <c r="F53" s="20"/>
+      <c r="G53" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17" t="s">
+      <c r="H53" s="20"/>
+      <c r="I53" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17" t="s">
+      <c r="J53" s="20"/>
+      <c r="K53" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
     </row>
     <row r="54" spans="2:13" s="2" customFormat="1">
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17" t="s">
+      <c r="D54" s="20"/>
+      <c r="E54" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17" t="s">
+      <c r="F54" s="20"/>
+      <c r="G54" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17" t="s">
+      <c r="H54" s="20"/>
+      <c r="I54" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17" t="s">
+      <c r="J54" s="20"/>
+      <c r="K54" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
     </row>
     <row r="55" spans="2:13" s="2" customFormat="1">
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17" t="s">
+      <c r="D55" s="20"/>
+      <c r="E55" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17" t="s">
+      <c r="F55" s="20"/>
+      <c r="G55" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17" t="s">
+      <c r="H55" s="20"/>
+      <c r="I55" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
     </row>
     <row r="56" spans="2:13" s="2" customFormat="1">
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17" t="s">
+      <c r="D56" s="20"/>
+      <c r="E56" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17" t="s">
+      <c r="F56" s="20"/>
+      <c r="G56" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17" t="s">
+      <c r="H56" s="20"/>
+      <c r="I56" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17" t="s">
+      <c r="J56" s="20"/>
+      <c r="K56" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
     </row>
     <row r="57" spans="2:13" s="2" customFormat="1">
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17" t="s">
+      <c r="D57" s="20"/>
+      <c r="E57" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17" t="s">
+      <c r="F57" s="20"/>
+      <c r="G57" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17" t="s">
+      <c r="H57" s="20"/>
+      <c r="I57" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17" t="s">
+      <c r="J57" s="20"/>
+      <c r="K57" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
     </row>
     <row r="58" spans="2:13" s="2" customFormat="1"/>
     <row r="59" spans="2:13" s="2" customFormat="1">
       <c r="E59" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F59" s="25" t="s">
+      <c r="F59" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25" t="s">
+      <c r="G59" s="17"/>
+      <c r="H59" s="17" t="s">
         <v>319</v>
       </c>
     </row>
@@ -13467,32 +15909,32 @@
       </c>
     </row>
     <row r="62" spans="2:13" s="2" customFormat="1">
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17" t="s">
+      <c r="D62" s="20"/>
+      <c r="E62" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17" t="s">
+      <c r="F62" s="20"/>
+      <c r="G62" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H62" s="17"/>
+      <c r="H62" s="20"/>
     </row>
     <row r="63" spans="2:13" s="2" customFormat="1">
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17" t="s">
+      <c r="D63" s="20"/>
+      <c r="E63" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17" t="s">
+      <c r="F63" s="20"/>
+      <c r="G63" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H63" s="17"/>
+      <c r="H63" s="20"/>
     </row>
     <row r="64" spans="2:13" s="2" customFormat="1"/>
     <row r="65" spans="2:2" s="2" customFormat="1"/>
@@ -13530,178 +15972,178 @@
       </c>
     </row>
     <row r="154" spans="2:15" s="2" customFormat="1">
-      <c r="C154" s="17" t="s">
+      <c r="C154" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D154" s="17"/>
-      <c r="E154" s="17" t="s">
+      <c r="D154" s="20"/>
+      <c r="E154" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F154" s="17"/>
-      <c r="G154" s="17" t="s">
+      <c r="F154" s="20"/>
+      <c r="G154" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H154" s="17"/>
-      <c r="I154" s="17" t="s">
+      <c r="H154" s="20"/>
+      <c r="I154" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="J154" s="17"/>
-      <c r="K154" s="17" t="s">
+      <c r="J154" s="20"/>
+      <c r="K154" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="L154" s="17"/>
-      <c r="M154" s="17"/>
-      <c r="N154" s="17"/>
-      <c r="O154" s="27"/>
+      <c r="L154" s="20"/>
+      <c r="M154" s="20"/>
+      <c r="N154" s="20"/>
+      <c r="O154" s="19"/>
     </row>
     <row r="155" spans="2:15" s="2" customFormat="1">
-      <c r="C155" s="17" t="s">
+      <c r="C155" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17" t="s">
+      <c r="D155" s="20"/>
+      <c r="E155" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="F155" s="17"/>
-      <c r="G155" s="17" t="s">
+      <c r="F155" s="20"/>
+      <c r="G155" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H155" s="17"/>
-      <c r="I155" s="17" t="s">
+      <c r="H155" s="20"/>
+      <c r="I155" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J155" s="17"/>
-      <c r="K155" s="17"/>
-      <c r="L155" s="17"/>
-      <c r="M155" s="17"/>
-      <c r="N155" s="17"/>
+      <c r="J155" s="20"/>
+      <c r="K155" s="20"/>
+      <c r="L155" s="20"/>
+      <c r="M155" s="20"/>
+      <c r="N155" s="20"/>
     </row>
     <row r="156" spans="2:15" s="2" customFormat="1">
-      <c r="C156" s="17" t="s">
+      <c r="C156" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="D156" s="17"/>
-      <c r="E156" s="17" t="s">
+      <c r="D156" s="20"/>
+      <c r="E156" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="F156" s="17"/>
-      <c r="G156" s="17" t="s">
+      <c r="F156" s="20"/>
+      <c r="G156" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H156" s="17"/>
-      <c r="I156" s="17" t="s">
+      <c r="H156" s="20"/>
+      <c r="I156" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J156" s="17"/>
-      <c r="K156" s="17" t="s">
+      <c r="J156" s="20"/>
+      <c r="K156" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="L156" s="17"/>
-      <c r="M156" s="17"/>
-      <c r="N156" s="17"/>
+      <c r="L156" s="20"/>
+      <c r="M156" s="20"/>
+      <c r="N156" s="20"/>
     </row>
     <row r="157" spans="2:15" s="2" customFormat="1">
-      <c r="C157" s="17" t="s">
+      <c r="C157" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="D157" s="17"/>
-      <c r="E157" s="17" t="s">
+      <c r="D157" s="20"/>
+      <c r="E157" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="F157" s="17"/>
-      <c r="G157" s="17" t="s">
+      <c r="F157" s="20"/>
+      <c r="G157" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H157" s="17"/>
-      <c r="I157" s="17" t="s">
+      <c r="H157" s="20"/>
+      <c r="I157" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J157" s="17"/>
-      <c r="K157" s="17"/>
-      <c r="L157" s="17"/>
-      <c r="M157" s="17"/>
-      <c r="N157" s="17"/>
+      <c r="J157" s="20"/>
+      <c r="K157" s="20"/>
+      <c r="L157" s="20"/>
+      <c r="M157" s="20"/>
+      <c r="N157" s="20"/>
     </row>
     <row r="158" spans="2:15" s="2" customFormat="1">
-      <c r="C158" s="17" t="s">
+      <c r="C158" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="D158" s="17"/>
-      <c r="E158" s="17" t="s">
+      <c r="D158" s="20"/>
+      <c r="E158" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="F158" s="17"/>
-      <c r="G158" s="17" t="s">
+      <c r="F158" s="20"/>
+      <c r="G158" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H158" s="17"/>
-      <c r="I158" s="17" t="s">
+      <c r="H158" s="20"/>
+      <c r="I158" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J158" s="17"/>
-      <c r="K158" s="17"/>
-      <c r="L158" s="17"/>
-      <c r="M158" s="17"/>
-      <c r="N158" s="17"/>
+      <c r="J158" s="20"/>
+      <c r="K158" s="20"/>
+      <c r="L158" s="20"/>
+      <c r="M158" s="20"/>
+      <c r="N158" s="20"/>
     </row>
     <row r="159" spans="2:15" s="2" customFormat="1">
-      <c r="C159" s="17" t="s">
+      <c r="C159" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="D159" s="17"/>
-      <c r="E159" s="17" t="s">
+      <c r="D159" s="20"/>
+      <c r="E159" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="F159" s="17"/>
-      <c r="G159" s="17" t="s">
+      <c r="F159" s="20"/>
+      <c r="G159" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="H159" s="17"/>
-      <c r="I159" s="17" t="s">
+      <c r="H159" s="20"/>
+      <c r="I159" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J159" s="17"/>
-      <c r="K159" s="17" t="s">
+      <c r="J159" s="20"/>
+      <c r="K159" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="L159" s="17"/>
-      <c r="M159" s="17"/>
-      <c r="N159" s="17"/>
+      <c r="L159" s="20"/>
+      <c r="M159" s="20"/>
+      <c r="N159" s="20"/>
     </row>
     <row r="160" spans="2:15" s="2" customFormat="1">
-      <c r="C160" s="17" t="s">
+      <c r="C160" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17" t="s">
+      <c r="D160" s="20"/>
+      <c r="E160" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="F160" s="17"/>
-      <c r="G160" s="17" t="s">
+      <c r="F160" s="20"/>
+      <c r="G160" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H160" s="17"/>
-      <c r="I160" s="17" t="s">
+      <c r="H160" s="20"/>
+      <c r="I160" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J160" s="17"/>
-      <c r="K160" s="17" t="s">
+      <c r="J160" s="20"/>
+      <c r="K160" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="L160" s="17"/>
-      <c r="M160" s="17"/>
-      <c r="N160" s="17"/>
+      <c r="L160" s="20"/>
+      <c r="M160" s="20"/>
+      <c r="N160" s="20"/>
     </row>
     <row r="161" spans="2:16" s="2" customFormat="1"/>
     <row r="162" spans="2:16" s="2" customFormat="1">
       <c r="E162" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F162" s="25" t="s">
+      <c r="F162" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="G162" s="25"/>
-      <c r="H162" s="25" t="s">
+      <c r="G162" s="17"/>
+      <c r="H162" s="17" t="s">
         <v>319</v>
       </c>
     </row>
@@ -13712,72 +16154,72 @@
       </c>
     </row>
     <row r="165" spans="2:16" s="2" customFormat="1">
-      <c r="C165" s="17" t="s">
+      <c r="C165" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D165" s="17"/>
-      <c r="E165" s="17" t="s">
+      <c r="D165" s="20"/>
+      <c r="E165" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F165" s="17"/>
-      <c r="G165" s="17" t="s">
+      <c r="F165" s="20"/>
+      <c r="G165" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H165" s="17"/>
-      <c r="I165" s="17" t="s">
+      <c r="H165" s="20"/>
+      <c r="I165" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="J165" s="17"/>
-      <c r="K165" s="17"/>
-      <c r="L165" s="17"/>
-      <c r="M165" s="17"/>
+      <c r="J165" s="20"/>
+      <c r="K165" s="20"/>
+      <c r="L165" s="20"/>
+      <c r="M165" s="20"/>
     </row>
     <row r="166" spans="2:16" s="2" customFormat="1">
-      <c r="C166" s="17" t="s">
+      <c r="C166" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D166" s="17"/>
-      <c r="E166" s="17" t="s">
+      <c r="D166" s="20"/>
+      <c r="E166" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F166" s="17"/>
-      <c r="G166" s="17" t="s">
+      <c r="F166" s="20"/>
+      <c r="G166" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H166" s="17"/>
-      <c r="I166" s="17" t="s">
+      <c r="H166" s="20"/>
+      <c r="I166" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="J166" s="17"/>
-      <c r="K166" s="17"/>
-      <c r="L166" s="17"/>
-      <c r="M166" s="17"/>
+      <c r="J166" s="20"/>
+      <c r="K166" s="20"/>
+      <c r="L166" s="20"/>
+      <c r="M166" s="20"/>
     </row>
     <row r="167" spans="2:16" s="2" customFormat="1">
-      <c r="C167" s="17" t="s">
+      <c r="C167" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17" t="s">
+      <c r="D167" s="20"/>
+      <c r="E167" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F167" s="17"/>
-      <c r="G167" s="17" t="s">
+      <c r="F167" s="20"/>
+      <c r="G167" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H167" s="17"/>
-      <c r="I167" s="17" t="s">
+      <c r="H167" s="20"/>
+      <c r="I167" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="J167" s="17"/>
-      <c r="K167" s="17"/>
-      <c r="L167" s="17"/>
-      <c r="M167" s="17"/>
+      <c r="J167" s="20"/>
+      <c r="K167" s="20"/>
+      <c r="L167" s="20"/>
+      <c r="M167" s="20"/>
     </row>
     <row r="168" spans="2:16" s="2" customFormat="1"/>
     <row r="169" spans="2:16" s="2" customFormat="1"/>
     <row r="170" spans="2:16" s="2" customFormat="1">
-      <c r="P170" s="26"/>
+      <c r="P170" s="18"/>
     </row>
     <row r="171" spans="2:16" s="2" customFormat="1"/>
     <row r="172" spans="2:16" s="2" customFormat="1">
@@ -13797,6 +16239,7 @@
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="K159:N159"/>
     <mergeCell ref="I165:M165"/>
     <mergeCell ref="I166:M166"/>
     <mergeCell ref="I167:M167"/>
@@ -13811,18 +16254,17 @@
     <mergeCell ref="C167:D167"/>
     <mergeCell ref="E167:F167"/>
     <mergeCell ref="G167:H167"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="I159:J159"/>
-    <mergeCell ref="K159:N159"/>
     <mergeCell ref="C165:D165"/>
-    <mergeCell ref="E165:F165"/>
     <mergeCell ref="G165:H165"/>
     <mergeCell ref="C158:D158"/>
     <mergeCell ref="E158:F158"/>
     <mergeCell ref="G158:H158"/>
     <mergeCell ref="I158:J158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="I159:J159"/>
+    <mergeCell ref="E165:F165"/>
     <mergeCell ref="K158:N158"/>
     <mergeCell ref="C157:D157"/>
     <mergeCell ref="E157:F157"/>
@@ -13855,6 +16297,8 @@
     <mergeCell ref="K57:M57"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I55:J55"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="G57:H57"/>
@@ -13876,11 +16320,9 @@
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I53:J53"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="G62:H62"/>
@@ -14086,4 +16528,1009 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:N138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="M127" sqref="M127"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="3" spans="2:11" s="9" customFormat="1"/>
+    <row r="4" spans="2:11" s="3" customFormat="1"/>
+    <row r="5" spans="2:11" s="3" customFormat="1"/>
+    <row r="6" spans="2:11" s="2" customFormat="1">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="2" customFormat="1">
+      <c r="B7" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="2" customFormat="1"/>
+    <row r="9" spans="2:11" s="2" customFormat="1">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="2" customFormat="1">
+      <c r="C10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="2:11" s="2" customFormat="1">
+      <c r="C11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="2:11" s="2" customFormat="1"/>
+    <row r="13" spans="2:11" s="2" customFormat="1"/>
+    <row r="14" spans="2:11" s="2" customFormat="1"/>
+    <row r="15" spans="2:11" s="2" customFormat="1">
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" s="2" customFormat="1">
+      <c r="C16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="2:12" s="2" customFormat="1">
+      <c r="C17" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="2:12" s="2" customFormat="1">
+      <c r="C18" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="2" customFormat="1">
+      <c r="C19" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="2:12" s="2" customFormat="1">
+      <c r="C20" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="2:12" s="2" customFormat="1">
+      <c r="C21" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="2:12" s="2" customFormat="1">
+      <c r="C22" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="2:12" s="2" customFormat="1">
+      <c r="C23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="2:12" s="2" customFormat="1">
+      <c r="C24" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="26" spans="2:12" s="2" customFormat="1">
+      <c r="C26" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" s="2" customFormat="1">
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" s="2" customFormat="1"/>
+    <row r="30" spans="2:12" s="2" customFormat="1"/>
+    <row r="31" spans="2:12" s="2" customFormat="1"/>
+    <row r="32" spans="2:12" s="2" customFormat="1"/>
+    <row r="33" s="2" customFormat="1"/>
+    <row r="34" s="2" customFormat="1"/>
+    <row r="35" s="2" customFormat="1"/>
+    <row r="36" s="2" customFormat="1"/>
+    <row r="37" s="2" customFormat="1"/>
+    <row r="38" s="2" customFormat="1"/>
+    <row r="39" s="2" customFormat="1"/>
+    <row r="40" s="2" customFormat="1"/>
+    <row r="41" s="2" customFormat="1"/>
+    <row r="42" s="2" customFormat="1"/>
+    <row r="43" s="2" customFormat="1"/>
+    <row r="44" s="2" customFormat="1"/>
+    <row r="45" s="2" customFormat="1"/>
+    <row r="46" s="2" customFormat="1"/>
+    <row r="47" s="2" customFormat="1"/>
+    <row r="48" s="2" customFormat="1"/>
+    <row r="49" spans="2:8" s="2" customFormat="1"/>
+    <row r="50" spans="2:8" s="2" customFormat="1"/>
+    <row r="51" spans="2:8" s="2" customFormat="1"/>
+    <row r="52" spans="2:8" s="2" customFormat="1"/>
+    <row r="53" spans="2:8" s="9" customFormat="1"/>
+    <row r="54" spans="2:8" s="3" customFormat="1"/>
+    <row r="55" spans="2:8" s="3" customFormat="1"/>
+    <row r="56" spans="2:8" s="2" customFormat="1">
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" s="2" customFormat="1">
+      <c r="B57" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" s="2" customFormat="1"/>
+    <row r="59" spans="2:8" s="2" customFormat="1">
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" s="2" customFormat="1">
+      <c r="C60" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="20"/>
+    </row>
+    <row r="61" spans="2:8" s="2" customFormat="1">
+      <c r="C61" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="20"/>
+    </row>
+    <row r="62" spans="2:8" s="2" customFormat="1">
+      <c r="C62" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="20"/>
+    </row>
+    <row r="63" spans="2:8" s="2" customFormat="1">
+      <c r="C63" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" s="20"/>
+    </row>
+    <row r="64" spans="2:8" s="2" customFormat="1">
+      <c r="C64" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" s="20"/>
+    </row>
+    <row r="65" spans="2:8" s="2" customFormat="1"/>
+    <row r="66" spans="2:8" s="2" customFormat="1"/>
+    <row r="67" spans="2:8" s="2" customFormat="1"/>
+    <row r="68" spans="2:8" s="2" customFormat="1">
+      <c r="B68" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" s="2" customFormat="1">
+      <c r="C69" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="20"/>
+    </row>
+    <row r="70" spans="2:8" s="2" customFormat="1">
+      <c r="C70" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H70" s="20"/>
+    </row>
+    <row r="71" spans="2:8" s="2" customFormat="1">
+      <c r="C71" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H71" s="20"/>
+    </row>
+    <row r="72" spans="2:8" s="2" customFormat="1">
+      <c r="C72" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="20"/>
+    </row>
+    <row r="73" spans="2:8" s="2" customFormat="1">
+      <c r="C73" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="20"/>
+    </row>
+    <row r="74" spans="2:8" s="2" customFormat="1"/>
+    <row r="75" spans="2:8" s="2" customFormat="1">
+      <c r="B75" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" s="3" customFormat="1"/>
+    <row r="77" spans="2:8" s="3" customFormat="1">
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="2:8" s="3" customFormat="1"/>
+    <row r="79" spans="2:8" s="3" customFormat="1"/>
+    <row r="80" spans="2:8" s="3" customFormat="1"/>
+    <row r="81" spans="2:8" s="3" customFormat="1"/>
+    <row r="82" spans="2:8" s="3" customFormat="1"/>
+    <row r="83" spans="2:8" s="2" customFormat="1"/>
+    <row r="84" spans="2:8" s="2" customFormat="1"/>
+    <row r="85" spans="2:8" s="2" customFormat="1"/>
+    <row r="86" spans="2:8" s="9" customFormat="1"/>
+    <row r="87" spans="2:8" s="3" customFormat="1"/>
+    <row r="88" spans="2:8" s="3" customFormat="1"/>
+    <row r="89" spans="2:8" s="2" customFormat="1">
+      <c r="B89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" s="2" customFormat="1">
+      <c r="B90" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" s="2" customFormat="1"/>
+    <row r="92" spans="2:8" s="2" customFormat="1">
+      <c r="B92" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" s="2" customFormat="1">
+      <c r="C93" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" s="20"/>
+    </row>
+    <row r="94" spans="2:8" s="2" customFormat="1">
+      <c r="C94" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="20"/>
+    </row>
+    <row r="95" spans="2:8" s="2" customFormat="1"/>
+    <row r="98" spans="2:14" s="2" customFormat="1">
+      <c r="B98" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" s="2" customFormat="1">
+      <c r="C99" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
+      <c r="M99" s="20"/>
+    </row>
+    <row r="100" spans="2:14" s="2" customFormat="1">
+      <c r="C100" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="20"/>
+    </row>
+    <row r="101" spans="2:14" s="2" customFormat="1">
+      <c r="C101" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="J101" s="20"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="20"/>
+      <c r="M101" s="20"/>
+    </row>
+    <row r="102" spans="2:14" s="2" customFormat="1">
+      <c r="C102" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="20"/>
+    </row>
+    <row r="103" spans="2:14" s="2" customFormat="1">
+      <c r="C103" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="J103" s="20"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+    </row>
+    <row r="104" spans="2:14" s="2" customFormat="1">
+      <c r="C104" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="J104" s="20"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
+      <c r="M104" s="20"/>
+      <c r="N104" s="28" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" s="2" customFormat="1">
+      <c r="C105" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="J105" s="20"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="20"/>
+      <c r="M105" s="20"/>
+      <c r="N105" s="28"/>
+    </row>
+    <row r="106" spans="2:14" s="2" customFormat="1">
+      <c r="C106" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20"/>
+      <c r="M106" s="20"/>
+    </row>
+    <row r="107" spans="2:14" s="2" customFormat="1">
+      <c r="C107" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="J107" s="20"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="20"/>
+      <c r="M107" s="20"/>
+    </row>
+    <row r="108" spans="2:14" s="2" customFormat="1">
+      <c r="C108" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="J108" s="20"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="20"/>
+      <c r="M108" s="20"/>
+    </row>
+    <row r="109" spans="2:14" s="2" customFormat="1">
+      <c r="C109" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
+      <c r="K109" s="20"/>
+      <c r="L109" s="20"/>
+      <c r="M109" s="20"/>
+    </row>
+    <row r="110" spans="2:14" s="2" customFormat="1">
+      <c r="C110" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="20"/>
+      <c r="K110" s="20"/>
+      <c r="L110" s="20"/>
+      <c r="M110" s="20"/>
+    </row>
+    <row r="111" spans="2:14" s="2" customFormat="1">
+      <c r="C111" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="20"/>
+      <c r="M111" s="20"/>
+    </row>
+    <row r="112" spans="2:14" s="3" customFormat="1"/>
+    <row r="113" spans="2:3" s="2" customFormat="1">
+      <c r="C113" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" s="3" customFormat="1">
+      <c r="C114" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" s="2" customFormat="1">
+      <c r="B116" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" s="2" customFormat="1"/>
+    <row r="118" spans="2:3" s="2" customFormat="1"/>
+    <row r="119" spans="2:3" s="2" customFormat="1"/>
+    <row r="120" spans="2:3" s="2" customFormat="1"/>
+    <row r="121" spans="2:3" s="2" customFormat="1"/>
+    <row r="122" spans="2:3" s="2" customFormat="1"/>
+    <row r="123" spans="2:3" s="2" customFormat="1"/>
+    <row r="124" spans="2:3" s="2" customFormat="1"/>
+    <row r="125" spans="2:3" s="2" customFormat="1"/>
+    <row r="126" spans="2:3" s="2" customFormat="1"/>
+    <row r="127" spans="2:3" s="2" customFormat="1"/>
+    <row r="128" spans="2:3" s="2" customFormat="1"/>
+    <row r="129" s="2" customFormat="1"/>
+    <row r="130" s="2" customFormat="1"/>
+    <row r="131" s="2" customFormat="1"/>
+    <row r="132" s="2" customFormat="1"/>
+    <row r="133" s="2" customFormat="1"/>
+    <row r="134" s="2" customFormat="1"/>
+    <row r="135" s="2" customFormat="1"/>
+    <row r="136" s="2" customFormat="1"/>
+    <row r="137" s="2" customFormat="1"/>
+    <row r="138" s="2" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="132">
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="I109:M109"/>
+    <mergeCell ref="N104:N105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="I106:M106"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="I108:M108"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="I107:M107"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="I110:M110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="I111:M111"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I103:M103"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="I105:M105"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="I104:M104"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:M101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:M102"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:M99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:M100"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I47:L68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="47" spans="12:12">
+      <c r="L47" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="55" spans="9:12">
+      <c r="I55" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63" spans="9:12">
+      <c r="L63" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9">
+      <c r="I68" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/后台接口设计.xlsx
+++ b/后台接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="接口一览" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="414">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1606,10 +1606,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>支付状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1659,6 +1655,26 @@
   </si>
   <si>
     <t>排序：以【积分兑换时间】降序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actualGold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>payAmt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值实际金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigDecimal</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1893,14 +1909,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1908,11 +1927,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9161,13 +9177,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9260,13 +9276,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9318,13 +9334,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9341,7 +9357,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1219200" y="20505420"/>
-          <a:ext cx="4465320" cy="5600700"/>
+          <a:ext cx="5806440" cy="5600700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9411,7 +9427,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>			"":"",</a:t>
+            <a:t>			"userId":"234",</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
@@ -9428,7 +9444,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>			"":"",</a:t>
+            <a:t>			"amt":"-6.00",</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
@@ -9445,7 +9461,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>			"":"",</a:t>
+            <a:t>			"number":"9pay1zww166609",</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
@@ -9462,13 +9478,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>			"":"",</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
+            <a:t>			"billExplain":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>娃娃币</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
@@ -9479,7 +9502,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>			"":"",</a:t>
+            <a:t>X60",</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
@@ -9496,7 +9519,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>			"":"",</a:t>
+            <a:t>			"kind":"2",</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
@@ -9513,7 +9536,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>			"":"",</a:t>
+            <a:t>			"status":"1",</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
@@ -9530,13 +9553,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>			"":"",</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
+            <a:t>			"kindName":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>积分兑换</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
@@ -9547,7 +9577,65 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>			"":""</a:t>
+            <a:t>",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"statusName":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>支付成功</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"updateTime":"2017-11-20 10:25:37"</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -9569,32 +9657,236 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>			"id": "8",</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>			"packageNo": "11",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>			"actualGold": "300",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>			"payAmt": "30.00"</a:t>
-          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"userId":"234",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"amt":"-30.00",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"number":"9pay1zww368516",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"billExplain":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>娃娃币</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>X300",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"kind":"2",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"status":"0",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"kindName":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>积分兑换</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"statusName":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>支付失败</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"updateTime":"2017-11-15 01:25:37"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -11359,7 +11651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -11500,9 +11792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
@@ -11766,6 +12056,46 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
@@ -11774,46 +12104,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11826,9 +12116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N68"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="N69" sqref="N69"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -12295,15 +12583,62 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:M58"/>
-    <mergeCell ref="I59:M59"/>
-    <mergeCell ref="I60:M60"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I57:M57"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:M56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="G63:H63"/>
@@ -12319,62 +12654,15 @@
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="G61:H61"/>
     <mergeCell ref="I61:M61"/>
-    <mergeCell ref="I57:M57"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:M56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:M58"/>
+    <mergeCell ref="I59:M59"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="G59:H59"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12390,9 +12678,7 @@
   </sheetPr>
   <dimension ref="B3:R185"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="N201" sqref="N201"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -12403,7 +12689,7 @@
     <col min="19" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="21" customFormat="1"/>
+    <row r="3" spans="2:8" s="22" customFormat="1"/>
     <row r="4" spans="2:8" customFormat="1"/>
     <row r="5" spans="2:8" s="11" customFormat="1"/>
     <row r="6" spans="2:8" s="7" customFormat="1">
@@ -12830,7 +13116,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="2:8" s="21" customFormat="1"/>
+    <row r="69" spans="2:8" s="22" customFormat="1"/>
     <row r="71" spans="2:8" customFormat="1"/>
     <row r="73" spans="2:8">
       <c r="B73" s="2" t="s">
@@ -13016,7 +13302,7 @@
       </c>
       <c r="H111" s="20"/>
     </row>
-    <row r="114" spans="2:11" s="21" customFormat="1"/>
+    <row r="114" spans="2:11" s="22" customFormat="1"/>
     <row r="116" spans="2:11" customFormat="1"/>
     <row r="118" spans="2:11">
       <c r="B118" s="2" t="s">
@@ -13286,32 +13572,32 @@
       </c>
     </row>
     <row r="166" spans="2:18" s="7" customFormat="1">
-      <c r="C166" s="22" t="s">
+      <c r="C166" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D166" s="22"/>
-      <c r="E166" s="22" t="s">
+      <c r="D166" s="21"/>
+      <c r="E166" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F166" s="22"/>
-      <c r="G166" s="22" t="s">
+      <c r="F166" s="21"/>
+      <c r="G166" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H166" s="22"/>
+      <c r="H166" s="21"/>
     </row>
     <row r="167" spans="2:18" s="7" customFormat="1">
-      <c r="C167" s="22" t="s">
+      <c r="C167" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D167" s="22"/>
-      <c r="E167" s="22" t="s">
+      <c r="D167" s="21"/>
+      <c r="E167" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F167" s="22"/>
-      <c r="G167" s="22" t="s">
+      <c r="F167" s="21"/>
+      <c r="G167" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H167" s="22"/>
+      <c r="H167" s="21"/>
     </row>
     <row r="168" spans="2:18" s="7" customFormat="1"/>
     <row r="170" spans="2:18">
@@ -13571,6 +13857,180 @@
     </row>
   </sheetData>
   <mergeCells count="198">
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A69:XFD69"/>
+    <mergeCell ref="A114:XFD114"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:K128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="I129:K129"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:K132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:K133"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:K130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:K136"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:K134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:K135"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="G176:H176"/>
     <mergeCell ref="I178:L178"/>
     <mergeCell ref="C181:D181"/>
     <mergeCell ref="E181:F181"/>
@@ -13595,180 +14055,6 @@
     <mergeCell ref="E179:F179"/>
     <mergeCell ref="G179:H179"/>
     <mergeCell ref="C180:D180"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="I136:K136"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:K134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:K135"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:K132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:K133"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:K130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="I128:K128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="I129:K129"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="A69:XFD69"/>
-    <mergeCell ref="A114:XFD114"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13784,16 +14070,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J227"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="M148" sqref="M148"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" s="21" customFormat="1"/>
+    <row r="3" spans="2:10" s="22" customFormat="1"/>
     <row r="6" spans="2:10" s="2" customFormat="1">
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -14406,7 +14690,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="2:8" s="23" customFormat="1"/>
+    <row r="76" spans="2:8" s="27" customFormat="1"/>
     <row r="79" spans="2:8" s="2" customFormat="1">
       <c r="B79" s="2" t="s">
         <v>9</v>
@@ -14768,7 +15052,7 @@
       </c>
       <c r="H126" s="20"/>
     </row>
-    <row r="129" spans="2:10" s="23" customFormat="1"/>
+    <row r="129" spans="2:10" s="27" customFormat="1"/>
     <row r="132" spans="2:10" s="2" customFormat="1">
       <c r="B132" s="2" t="s">
         <v>9</v>
@@ -15031,10 +15315,10 @@
       </c>
       <c r="F172" s="20"/>
       <c r="G172" s="20"/>
-      <c r="H172" s="24" t="s">
+      <c r="H172" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I172" s="25"/>
+      <c r="I172" s="26"/>
     </row>
     <row r="173" spans="2:9">
       <c r="C173" s="20" t="s">
@@ -15046,10 +15330,10 @@
       </c>
       <c r="F173" s="20"/>
       <c r="G173" s="20"/>
-      <c r="H173" s="24" t="s">
+      <c r="H173" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I173" s="25"/>
+      <c r="I173" s="26"/>
     </row>
     <row r="174" spans="2:9">
       <c r="C174" s="20" t="s">
@@ -15061,10 +15345,10 @@
       </c>
       <c r="F174" s="20"/>
       <c r="G174" s="20"/>
-      <c r="H174" s="24" t="s">
+      <c r="H174" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I174" s="25"/>
+      <c r="I174" s="26"/>
     </row>
     <row r="175" spans="2:9">
       <c r="C175" s="20" t="s">
@@ -15076,12 +15360,12 @@
       </c>
       <c r="F175" s="20"/>
       <c r="G175" s="20"/>
-      <c r="H175" s="24" t="s">
+      <c r="H175" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I175" s="25"/>
-    </row>
-    <row r="178" spans="2:10" s="23" customFormat="1"/>
+      <c r="I175" s="26"/>
+    </row>
+    <row r="178" spans="2:10" s="27" customFormat="1"/>
     <row r="181" spans="2:10" s="2" customFormat="1">
       <c r="B181" s="2" t="s">
         <v>9</v>
@@ -15304,34 +15588,34 @@
     </row>
     <row r="219" spans="2:9" s="8" customFormat="1">
       <c r="B219" s="7"/>
-      <c r="C219" s="22" t="s">
+      <c r="C219" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D219" s="22"/>
-      <c r="E219" s="22" t="s">
+      <c r="D219" s="21"/>
+      <c r="E219" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F219" s="22"/>
-      <c r="G219" s="22"/>
-      <c r="H219" s="26" t="s">
+      <c r="F219" s="21"/>
+      <c r="G219" s="21"/>
+      <c r="H219" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I219" s="27"/>
+      <c r="I219" s="24"/>
     </row>
     <row r="220" spans="2:9" s="8" customFormat="1">
-      <c r="C220" s="22" t="s">
+      <c r="C220" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D220" s="22"/>
-      <c r="E220" s="22" t="s">
+      <c r="D220" s="21"/>
+      <c r="E220" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="F220" s="22"/>
-      <c r="G220" s="22"/>
-      <c r="H220" s="26" t="s">
+      <c r="F220" s="21"/>
+      <c r="G220" s="21"/>
+      <c r="H220" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I220" s="27"/>
+      <c r="I220" s="24"/>
     </row>
     <row r="221" spans="2:9" s="8" customFormat="1"/>
     <row r="222" spans="2:9" s="8" customFormat="1"/>
@@ -15342,6 +15626,188 @@
     <row r="227" s="8" customFormat="1"/>
   </sheetData>
   <mergeCells count="206">
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="A76:XFD76"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="E174:G174"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="A178:XFD178"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="E220:G220"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="E219:G219"/>
+    <mergeCell ref="H219:I219"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:F68"/>
     <mergeCell ref="G68:H68"/>
@@ -15366,188 +15832,6 @@
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="E220:G220"/>
-    <mergeCell ref="H220:I220"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="E219:G219"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="E174:G174"/>
-    <mergeCell ref="E175:G175"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="A178:XFD178"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="A76:XFD76"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15560,9 +15844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P205"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -16239,6 +16521,82 @@
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="I154:J154"/>
+    <mergeCell ref="K154:N154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="I155:J155"/>
+    <mergeCell ref="K155:N155"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="I156:J156"/>
+    <mergeCell ref="K156:N156"/>
+    <mergeCell ref="K158:N158"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="I157:J157"/>
+    <mergeCell ref="K157:N157"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="I158:J158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="I159:J159"/>
+    <mergeCell ref="E165:F165"/>
     <mergeCell ref="K159:N159"/>
     <mergeCell ref="I165:M165"/>
     <mergeCell ref="I166:M166"/>
@@ -16255,82 +16613,6 @@
     <mergeCell ref="E167:F167"/>
     <mergeCell ref="G167:H167"/>
     <mergeCell ref="C165:D165"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="I158:J158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="I159:J159"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="K158:N158"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="I157:J157"/>
-    <mergeCell ref="K157:N157"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="I156:J156"/>
-    <mergeCell ref="K156:N156"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="I155:J155"/>
-    <mergeCell ref="K155:N155"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="I154:J154"/>
-    <mergeCell ref="K154:N154"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16532,11 +16814,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N138"/>
+  <dimension ref="B3:N140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="M127" sqref="M127"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
@@ -16895,215 +17175,201 @@
       </c>
       <c r="H64" s="20"/>
     </row>
-    <row r="65" spans="2:8" s="2" customFormat="1"/>
-    <row r="66" spans="2:8" s="2" customFormat="1"/>
+    <row r="65" spans="2:8" s="2" customFormat="1">
+      <c r="C65" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" s="20"/>
+    </row>
+    <row r="66" spans="2:8" s="2" customFormat="1">
+      <c r="C66" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="H66" s="20"/>
+    </row>
     <row r="67" spans="2:8" s="2" customFormat="1"/>
-    <row r="68" spans="2:8" s="2" customFormat="1">
-      <c r="B68" s="2" t="s">
+    <row r="68" spans="2:8" s="2" customFormat="1"/>
+    <row r="69" spans="2:8" s="2" customFormat="1"/>
+    <row r="70" spans="2:8" s="2" customFormat="1">
+      <c r="B70" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="69" spans="2:8" s="2" customFormat="1">
-      <c r="C69" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="20"/>
-    </row>
-    <row r="70" spans="2:8" s="2" customFormat="1">
-      <c r="C70" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H70" s="20"/>
     </row>
     <row r="71" spans="2:8" s="2" customFormat="1">
       <c r="C71" s="20" t="s">
-        <v>378</v>
+        <v>13</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="20" t="s">
-        <v>359</v>
+        <v>14</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="20" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="H71" s="20"/>
     </row>
     <row r="72" spans="2:8" s="2" customFormat="1">
       <c r="C72" s="20" t="s">
-        <v>24</v>
+        <v>357</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="20" t="s">
-        <v>25</v>
+        <v>379</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="20" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="H72" s="20"/>
     </row>
     <row r="73" spans="2:8" s="2" customFormat="1">
       <c r="C73" s="20" t="s">
-        <v>26</v>
+        <v>378</v>
       </c>
       <c r="D73" s="20"/>
       <c r="E73" s="20" t="s">
-        <v>27</v>
+        <v>359</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H73" s="20"/>
+    </row>
+    <row r="74" spans="2:8" s="2" customFormat="1">
+      <c r="C74" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H73" s="20"/>
-    </row>
-    <row r="74" spans="2:8" s="2" customFormat="1"/>
+      <c r="H74" s="20"/>
+    </row>
     <row r="75" spans="2:8" s="2" customFormat="1">
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" s="20"/>
+    </row>
+    <row r="76" spans="2:8" s="2" customFormat="1"/>
+    <row r="77" spans="2:8" s="2" customFormat="1">
+      <c r="B77" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="2:8" s="3" customFormat="1"/>
-    <row r="77" spans="2:8" s="3" customFormat="1">
-      <c r="C77"/>
-    </row>
     <row r="78" spans="2:8" s="3" customFormat="1"/>
-    <row r="79" spans="2:8" s="3" customFormat="1"/>
+    <row r="79" spans="2:8" s="3" customFormat="1">
+      <c r="C79"/>
+    </row>
     <row r="80" spans="2:8" s="3" customFormat="1"/>
     <row r="81" spans="2:8" s="3" customFormat="1"/>
     <row r="82" spans="2:8" s="3" customFormat="1"/>
-    <row r="83" spans="2:8" s="2" customFormat="1"/>
-    <row r="84" spans="2:8" s="2" customFormat="1"/>
+    <row r="83" spans="2:8" s="3" customFormat="1"/>
+    <row r="84" spans="2:8" s="3" customFormat="1"/>
     <row r="85" spans="2:8" s="2" customFormat="1"/>
-    <row r="86" spans="2:8" s="9" customFormat="1"/>
-    <row r="87" spans="2:8" s="3" customFormat="1"/>
-    <row r="88" spans="2:8" s="3" customFormat="1"/>
-    <row r="89" spans="2:8" s="2" customFormat="1">
-      <c r="B89" s="2" t="s">
+    <row r="86" spans="2:8" s="2" customFormat="1"/>
+    <row r="87" spans="2:8" s="2" customFormat="1"/>
+    <row r="88" spans="2:8" s="9" customFormat="1"/>
+    <row r="89" spans="2:8" s="3" customFormat="1"/>
+    <row r="90" spans="2:8" s="3" customFormat="1"/>
+    <row r="91" spans="2:8" s="2" customFormat="1">
+      <c r="B91" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="90" spans="2:8" s="2" customFormat="1">
-      <c r="B90" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" s="2" customFormat="1"/>
     <row r="92" spans="2:8" s="2" customFormat="1">
       <c r="B92" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" s="2" customFormat="1"/>
+    <row r="94" spans="2:8" s="2" customFormat="1">
+      <c r="B94" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="2:8" s="2" customFormat="1">
-      <c r="C93" s="20" t="s">
+    <row r="95" spans="2:8" s="2" customFormat="1">
+      <c r="C95" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20" t="s">
+      <c r="D95" s="20"/>
+      <c r="E95" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20" t="s">
+      <c r="F95" s="20"/>
+      <c r="G95" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H93" s="20"/>
-    </row>
-    <row r="94" spans="2:8" s="2" customFormat="1">
-      <c r="C94" s="20" t="s">
+      <c r="H95" s="20"/>
+    </row>
+    <row r="96" spans="2:8" s="2" customFormat="1">
+      <c r="C96" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20" t="s">
+      <c r="D96" s="20"/>
+      <c r="E96" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20" t="s">
+      <c r="F96" s="20"/>
+      <c r="G96" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H94" s="20"/>
-    </row>
-    <row r="95" spans="2:8" s="2" customFormat="1"/>
-    <row r="98" spans="2:14" s="2" customFormat="1">
-      <c r="B98" s="2" t="s">
+      <c r="H96" s="20"/>
+    </row>
+    <row r="97" spans="2:14" s="2" customFormat="1"/>
+    <row r="100" spans="2:14" s="2" customFormat="1">
+      <c r="B100" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="99" spans="2:14" s="2" customFormat="1">
-      <c r="C99" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
-      <c r="M99" s="20"/>
-    </row>
-    <row r="100" spans="2:14" s="2" customFormat="1">
-      <c r="C100" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="H100" s="20"/>
-      <c r="I100" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="J100" s="20"/>
-      <c r="K100" s="20"/>
-      <c r="L100" s="20"/>
-      <c r="M100" s="20"/>
     </row>
     <row r="101" spans="2:14" s="2" customFormat="1">
       <c r="C101" s="20" t="s">
-        <v>383</v>
+        <v>13</v>
       </c>
       <c r="D101" s="20"/>
       <c r="E101" s="20" t="s">
-        <v>385</v>
+        <v>14</v>
       </c>
       <c r="F101" s="20"/>
       <c r="G101" s="20" t="s">
-        <v>386</v>
+        <v>15</v>
       </c>
       <c r="H101" s="20"/>
       <c r="I101" s="20" t="s">
-        <v>402</v>
+        <v>206</v>
       </c>
       <c r="J101" s="20"/>
       <c r="K101" s="20"/>
@@ -17112,19 +17378,19 @@
     </row>
     <row r="102" spans="2:14" s="2" customFormat="1">
       <c r="C102" s="20" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D102" s="20"/>
       <c r="E102" s="20" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F102" s="20"/>
       <c r="G102" s="20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H102" s="20"/>
       <c r="I102" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J102" s="20"/>
       <c r="K102" s="20"/>
@@ -17133,11 +17399,11 @@
     </row>
     <row r="103" spans="2:14" s="2" customFormat="1">
       <c r="C103" s="20" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D103" s="20"/>
       <c r="E103" s="20" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F103" s="20"/>
       <c r="G103" s="20" t="s">
@@ -17145,7 +17411,7 @@
       </c>
       <c r="H103" s="20"/>
       <c r="I103" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J103" s="20"/>
       <c r="K103" s="20"/>
@@ -17154,35 +17420,32 @@
     </row>
     <row r="104" spans="2:14" s="2" customFormat="1">
       <c r="C104" s="20" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D104" s="20"/>
       <c r="E104" s="20" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F104" s="20"/>
       <c r="G104" s="20" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H104" s="20"/>
       <c r="I104" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J104" s="20"/>
       <c r="K104" s="20"/>
       <c r="L104" s="20"/>
       <c r="M104" s="20"/>
-      <c r="N104" s="28" t="s">
-        <v>403</v>
-      </c>
     </row>
     <row r="105" spans="2:14" s="2" customFormat="1">
       <c r="C105" s="20" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D105" s="20"/>
       <c r="E105" s="20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F105" s="20"/>
       <c r="G105" s="20" t="s">
@@ -17190,21 +17453,20 @@
       </c>
       <c r="H105" s="20"/>
       <c r="I105" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J105" s="20"/>
       <c r="K105" s="20"/>
       <c r="L105" s="20"/>
       <c r="M105" s="20"/>
-      <c r="N105" s="28"/>
     </row>
     <row r="106" spans="2:14" s="2" customFormat="1">
       <c r="C106" s="20" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D106" s="20"/>
       <c r="E106" s="20" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F106" s="20"/>
       <c r="G106" s="20" t="s">
@@ -17212,20 +17474,23 @@
       </c>
       <c r="H106" s="20"/>
       <c r="I106" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J106" s="20"/>
       <c r="K106" s="20"/>
       <c r="L106" s="20"/>
       <c r="M106" s="20"/>
+      <c r="N106" s="28" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="107" spans="2:14" s="2" customFormat="1">
       <c r="C107" s="20" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D107" s="20"/>
       <c r="E107" s="20" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F107" s="20"/>
       <c r="G107" s="20" t="s">
@@ -17233,20 +17498,21 @@
       </c>
       <c r="H107" s="20"/>
       <c r="I107" s="20" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J107" s="20"/>
       <c r="K107" s="20"/>
       <c r="L107" s="20"/>
       <c r="M107" s="20"/>
+      <c r="N107" s="28"/>
     </row>
     <row r="108" spans="2:14" s="2" customFormat="1">
       <c r="C108" s="20" t="s">
-        <v>400</v>
+        <v>104</v>
       </c>
       <c r="D108" s="20"/>
       <c r="E108" s="20" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F108" s="20"/>
       <c r="G108" s="20" t="s">
@@ -17254,7 +17520,7 @@
       </c>
       <c r="H108" s="20"/>
       <c r="I108" s="20" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="J108" s="20"/>
       <c r="K108" s="20"/>
@@ -17263,18 +17529,20 @@
     </row>
     <row r="109" spans="2:14" s="2" customFormat="1">
       <c r="C109" s="20" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D109" s="20"/>
       <c r="E109" s="20" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F109" s="20"/>
       <c r="G109" s="20" t="s">
-        <v>18</v>
+        <v>386</v>
       </c>
       <c r="H109" s="20"/>
-      <c r="I109" s="20"/>
+      <c r="I109" s="20" t="s">
+        <v>403</v>
+      </c>
       <c r="J109" s="20"/>
       <c r="K109" s="20"/>
       <c r="L109" s="20"/>
@@ -17282,18 +17550,20 @@
     </row>
     <row r="110" spans="2:14" s="2" customFormat="1">
       <c r="C110" s="20" t="s">
-        <v>24</v>
+        <v>399</v>
       </c>
       <c r="D110" s="20"/>
       <c r="E110" s="20" t="s">
-        <v>25</v>
+        <v>400</v>
       </c>
       <c r="F110" s="20"/>
       <c r="G110" s="20" t="s">
-        <v>18</v>
+        <v>386</v>
       </c>
       <c r="H110" s="20"/>
-      <c r="I110" s="20"/>
+      <c r="I110" s="20" t="s">
+        <v>404</v>
+      </c>
       <c r="J110" s="20"/>
       <c r="K110" s="20"/>
       <c r="L110" s="20"/>
@@ -17301,11 +17571,11 @@
     </row>
     <row r="111" spans="2:14" s="2" customFormat="1">
       <c r="C111" s="20" t="s">
-        <v>26</v>
+        <v>405</v>
       </c>
       <c r="D111" s="20"/>
       <c r="E111" s="20" t="s">
-        <v>27</v>
+        <v>406</v>
       </c>
       <c r="F111" s="20"/>
       <c r="G111" s="20" t="s">
@@ -17318,34 +17588,70 @@
       <c r="L111" s="20"/>
       <c r="M111" s="20"/>
     </row>
-    <row r="112" spans="2:14" s="3" customFormat="1"/>
-    <row r="113" spans="2:3" s="2" customFormat="1">
-      <c r="C113" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" s="3" customFormat="1">
-      <c r="C114" s="3" t="s">
+    <row r="112" spans="2:14" s="2" customFormat="1">
+      <c r="C112" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="20"/>
+      <c r="M112" s="20"/>
+    </row>
+    <row r="113" spans="2:13" s="2" customFormat="1">
+      <c r="C113" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="20"/>
+      <c r="K113" s="20"/>
+      <c r="L113" s="20"/>
+      <c r="M113" s="20"/>
+    </row>
+    <row r="114" spans="2:13" s="3" customFormat="1"/>
+    <row r="115" spans="2:13" s="2" customFormat="1">
+      <c r="C115" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="116" spans="2:3" s="2" customFormat="1">
-      <c r="B116" s="2" t="s">
+    <row r="116" spans="2:13" s="3" customFormat="1">
+      <c r="C116" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" s="2" customFormat="1">
+      <c r="B118" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="2:3" s="2" customFormat="1"/>
-    <row r="118" spans="2:3" s="2" customFormat="1"/>
-    <row r="119" spans="2:3" s="2" customFormat="1"/>
-    <row r="120" spans="2:3" s="2" customFormat="1"/>
-    <row r="121" spans="2:3" s="2" customFormat="1"/>
-    <row r="122" spans="2:3" s="2" customFormat="1"/>
-    <row r="123" spans="2:3" s="2" customFormat="1"/>
-    <row r="124" spans="2:3" s="2" customFormat="1"/>
-    <row r="125" spans="2:3" s="2" customFormat="1"/>
-    <row r="126" spans="2:3" s="2" customFormat="1"/>
-    <row r="127" spans="2:3" s="2" customFormat="1"/>
-    <row r="128" spans="2:3" s="2" customFormat="1"/>
+    <row r="119" spans="2:13" s="2" customFormat="1"/>
+    <row r="120" spans="2:13" s="2" customFormat="1"/>
+    <row r="121" spans="2:13" s="2" customFormat="1"/>
+    <row r="122" spans="2:13" s="2" customFormat="1"/>
+    <row r="123" spans="2:13" s="2" customFormat="1"/>
+    <row r="124" spans="2:13" s="2" customFormat="1"/>
+    <row r="125" spans="2:13" s="2" customFormat="1"/>
+    <row r="126" spans="2:13" s="2" customFormat="1"/>
+    <row r="127" spans="2:13" s="2" customFormat="1"/>
+    <row r="128" spans="2:13" s="2" customFormat="1"/>
     <row r="129" s="2" customFormat="1"/>
     <row r="130" s="2" customFormat="1"/>
     <row r="131" s="2" customFormat="1"/>
@@ -17356,95 +17662,46 @@
     <row r="136" s="2" customFormat="1"/>
     <row r="137" s="2" customFormat="1"/>
     <row r="138" s="2" customFormat="1"/>
+    <row r="139" s="2" customFormat="1"/>
+    <row r="140" s="2" customFormat="1"/>
   </sheetData>
-  <mergeCells count="132">
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="I109:M109"/>
-    <mergeCell ref="N104:N105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="I106:M106"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="I108:M108"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="I107:M107"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="I110:M110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="I111:M111"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="I103:M103"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="I105:M105"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="I104:M104"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I101:M101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="I102:M102"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:M99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I100:M100"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:K24"/>
+  <mergeCells count="138">
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="E60:F60"/>
@@ -17460,40 +17717,98 @@
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I103:M103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="I104:M104"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:M101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:M102"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="I112:M112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="I113:M113"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="I105:M105"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="I107:M107"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="I106:M106"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="I111:M111"/>
+    <mergeCell ref="N106:N107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="I108:M108"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="I110:M110"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="I109:M109"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17501,9 +17816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I47:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>

--- a/后台接口设计.xlsx
+++ b/后台接口设计.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="425">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1687,6 +1687,38 @@
   </si>
   <si>
     <t>已合并到信令交互接口中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/room/updateRoomUserCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间ID,对接即构用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间名,对接即构用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       List</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2026,8 +2058,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2043,7 +2075,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6118860" y="2697480"/>
-          <a:ext cx="251460" cy="1463040"/>
+          <a:ext cx="251460" cy="1981200"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -2078,14 +2110,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2100,8 +2132,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="5433060"/>
-          <a:ext cx="7383780" cy="4853940"/>
+          <a:off x="1219200" y="5958840"/>
+          <a:ext cx="7383780" cy="5989320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2327,7 +2359,100 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>"push2":"rtmp://14516.livepush.myqcloud.com/live/14516_2_1?"</a:t>
+            <a:t>"push2":"rtmp://14516.livepush.myqcloud.com/live/14516_2_1?",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"total":3,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"roomId":"JIGOU_001",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"roomName":"JIGOU_001"</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -2510,6 +2635,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
@@ -2520,7 +2646,60 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>			"push2":"rtmp://14516.livepush.myqcloud.com/live/14516_16_1?"</a:t>
+            <a:t>			"push2":"rtmp://14516.livepush.myqcloud.com/live/14516_16_1?",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"total":4,</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"roomId":"JIGOU_002",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"roomName":"JIGOU_002"</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -2983,6 +3162,91 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>	]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4C910B2-CFE5-4638-8875-CE08ACF2B4B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="19103340"/>
+          <a:ext cx="3596640" cy="2240280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnCode": "200",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnDesc": "OK"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -11787,7 +12051,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K30"/>
+  <dimension ref="B3:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11846,7 +12110,7 @@
     </row>
     <row r="16" spans="2:10" s="2" customFormat="1">
       <c r="C16" s="19" t="s">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19" t="s">
@@ -11862,7 +12126,7 @@
       </c>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="2:11" s="2" customFormat="1">
+    <row r="17" spans="3:11" s="2" customFormat="1">
       <c r="C17" s="19" t="s">
         <v>177</v>
       </c>
@@ -11880,7 +12144,7 @@
       </c>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="2:11" s="2" customFormat="1">
+    <row r="18" spans="3:11" s="2" customFormat="1">
       <c r="C18" s="19" t="s">
         <v>296</v>
       </c>
@@ -11898,7 +12162,7 @@
       </c>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="2:11" s="2" customFormat="1">
+    <row r="19" spans="3:11" s="2" customFormat="1">
       <c r="C19" s="19" t="s">
         <v>297</v>
       </c>
@@ -11916,7 +12180,7 @@
       </c>
       <c r="J19" s="19"/>
     </row>
-    <row r="20" spans="2:11" s="2" customFormat="1">
+    <row r="20" spans="3:11" s="2" customFormat="1">
       <c r="C20" s="19" t="s">
         <v>178</v>
       </c>
@@ -11933,11 +12197,8 @@
         <v>312</v>
       </c>
       <c r="J20" s="19"/>
-      <c r="K20" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" s="2" customFormat="1">
+    </row>
+    <row r="21" spans="3:11" s="2" customFormat="1">
       <c r="C21" s="19" t="s">
         <v>298</v>
       </c>
@@ -11954,8 +12215,11 @@
         <v>312</v>
       </c>
       <c r="J21" s="19"/>
-    </row>
-    <row r="22" spans="2:11" s="2" customFormat="1">
+      <c r="K21" s="27" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" s="2" customFormat="1">
       <c r="C22" s="19" t="s">
         <v>299</v>
       </c>
@@ -11972,8 +12236,9 @@
         <v>312</v>
       </c>
       <c r="J22" s="19"/>
-    </row>
-    <row r="23" spans="2:11" s="2" customFormat="1">
+      <c r="K22" s="27"/>
+    </row>
+    <row r="23" spans="3:11" s="2" customFormat="1">
       <c r="C23" s="19" t="s">
         <v>300</v>
       </c>
@@ -11991,7 +12256,7 @@
       </c>
       <c r="J23" s="19"/>
     </row>
-    <row r="24" spans="2:11" s="2" customFormat="1">
+    <row r="24" spans="3:11" s="2" customFormat="1">
       <c r="C24" s="19" t="s">
         <v>301</v>
       </c>
@@ -12009,50 +12274,115 @@
       </c>
       <c r="J24" s="19"/>
     </row>
-    <row r="25" spans="2:11" s="2" customFormat="1">
+    <row r="25" spans="3:11" s="2" customFormat="1">
       <c r="C25" s="19" t="s">
-        <v>23</v>
+        <v>417</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19" t="s">
-        <v>24</v>
+        <v>420</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
     </row>
-    <row r="26" spans="2:11" s="2" customFormat="1">
+    <row r="26" spans="3:11" s="2" customFormat="1">
       <c r="C26" s="19" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19" t="s">
-        <v>26</v>
+        <v>421</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19" t="s">
         <v>17</v>
       </c>
       <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
+      <c r="I26" s="19" t="s">
+        <v>311</v>
+      </c>
       <c r="J26" s="19"/>
     </row>
-    <row r="28" spans="2:11" s="2" customFormat="1">
-      <c r="C28" s="2" t="s">
+    <row r="27" spans="3:11" s="2" customFormat="1">
+      <c r="C27" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" spans="3:11" s="2" customFormat="1">
+      <c r="C28" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29" spans="3:11" s="2" customFormat="1">
+      <c r="C29" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+    </row>
+    <row r="31" spans="3:11" s="2" customFormat="1">
+      <c r="C31" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="2:11" s="2" customFormat="1">
-      <c r="B30" s="2" t="s">
+    <row r="33" spans="2:2" s="2" customFormat="1">
+      <c r="B33" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="61">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
@@ -12093,14 +12423,14 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12111,7 +12441,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N68"/>
+  <dimension ref="B3:N108"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12578,8 +12908,126 @@
         <v>27</v>
       </c>
     </row>
+    <row r="90" spans="2:3" s="9" customFormat="1"/>
+    <row r="93" spans="2:3" s="2" customFormat="1">
+      <c r="B93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" s="2" customFormat="1">
+      <c r="B94" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" s="2" customFormat="1"/>
+    <row r="96" spans="2:3" s="2" customFormat="1">
+      <c r="B96" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" s="2" customFormat="1">
+      <c r="C97" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="19"/>
+    </row>
+    <row r="98" spans="2:8" s="2" customFormat="1">
+      <c r="C98" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" s="19"/>
+    </row>
+    <row r="99" spans="2:8" s="2" customFormat="1">
+      <c r="C99" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="19"/>
+    </row>
+    <row r="100" spans="2:8" s="2" customFormat="1"/>
+    <row r="101" spans="2:8" s="2" customFormat="1"/>
+    <row r="102" spans="2:8" s="2" customFormat="1"/>
+    <row r="103" spans="2:8" s="2" customFormat="1">
+      <c r="B103" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" s="2" customFormat="1">
+      <c r="C104" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="19"/>
+    </row>
+    <row r="105" spans="2:8" s="2" customFormat="1">
+      <c r="C105" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" s="19"/>
+    </row>
+    <row r="106" spans="2:8" s="2" customFormat="1">
+      <c r="C106" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" s="19"/>
+    </row>
+    <row r="107" spans="2:8" s="2" customFormat="1"/>
+    <row r="108" spans="2:8" s="2" customFormat="1">
+      <c r="B108" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="98">
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="I58:M58"/>
@@ -12660,6 +13108,24 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:H104"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/后台接口设计.xlsx
+++ b/后台接口设计.xlsx
@@ -16,6 +16,7 @@
     <sheet name="信令交互流程图" sheetId="7" r:id="rId7"/>
     <sheet name="积分兑换" sheetId="10" r:id="rId8"/>
     <sheet name="积分兑换流程图" sheetId="9" r:id="rId9"/>
+    <sheet name="支付" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="427">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1286,10 +1287,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>从sission中取得。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>config</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1346,14 +1343,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>注：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>custom_token：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>result</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1710,15 +1699,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>roomName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>房间名,对接即构用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">       List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zegoRoomId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zegoRoomName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/pay/userPay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户支付</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1950,6 +1959,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1969,9 +1981,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2421,7 +2430,25 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>			"roomId":"JIGOU_001",</a:t>
+            <a:t>			"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>zegoRoomId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>":"JIGOU_001",</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2452,7 +2479,25 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>			"roomName":"JIGOU_001"</a:t>
+            <a:t>			"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>zegoRoomName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>":"JIGOU_001"</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -2682,13 +2727,14 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>			"roomId":"JIGOU_002",</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
+            <a:t>			"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>zegoRoomId</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
@@ -2699,7 +2745,42 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>			"roomName":"JIGOU_002"</a:t>
+            <a:t>":"JIGOU_002",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>zegoRoomName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>":"JIGOU_002"</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -4530,13 +4611,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>313295</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>86809</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4574,13 +4655,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>113295</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>81335</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4618,13 +4699,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4690,13 +4771,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>103771</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>58456</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4734,13 +4815,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11621,9 +11702,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6480C669-7527-4056-9706-D640B05BD22F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="36454080"/>
+          <a:ext cx="3040380" cy="922020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnCode": "200",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnDesc": "OK"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2" displayName="表2" ref="C4:G12" totalsRowShown="0">
-  <autoFilter ref="C4:G12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2" displayName="表2" ref="C4:G13" totalsRowShown="0">
+  <autoFilter ref="C4:G13"/>
   <tableColumns count="5">
     <tableColumn id="1" name="接口名"/>
     <tableColumn id="3" name="备注"/>
@@ -11908,7 +12079,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:G12"/>
+  <dimension ref="C4:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11975,7 +12146,7 @@
         <v>220</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="3:7">
@@ -12013,7 +12184,7 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="3:7">
@@ -12038,6 +12209,18 @@
         <v>220</v>
       </c>
       <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="G13" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -12046,6 +12229,179 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" s="9" customFormat="1"/>
+    <row r="6" spans="2:8" s="2" customFormat="1">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="2" customFormat="1">
+      <c r="B7" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="2" customFormat="1"/>
+    <row r="9" spans="2:8" s="2" customFormat="1">
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="2" customFormat="1">
+      <c r="C10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="2:8" s="2" customFormat="1">
+      <c r="C11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="2:8" s="2" customFormat="1">
+      <c r="C12" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="2:8" s="2" customFormat="1">
+      <c r="C13" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="2:8" s="2" customFormat="1"/>
+    <row r="15" spans="2:8" s="2" customFormat="1"/>
+    <row r="16" spans="2:8" s="2" customFormat="1"/>
+    <row r="17" spans="2:8" s="2" customFormat="1">
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="2" customFormat="1">
+      <c r="C18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="2:8" s="2" customFormat="1">
+      <c r="C19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="2:8" s="2" customFormat="1">
+      <c r="C20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="23" spans="2:8" s="2" customFormat="1">
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12110,7 +12466,7 @@
     </row>
     <row r="16" spans="2:10" s="2" customFormat="1">
       <c r="C16" s="19" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19" t="s">
@@ -12215,8 +12571,8 @@
         <v>312</v>
       </c>
       <c r="J21" s="19"/>
-      <c r="K21" s="27" t="s">
-        <v>424</v>
+      <c r="K21" s="20" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="3:11" s="2" customFormat="1">
@@ -12236,7 +12592,7 @@
         <v>312</v>
       </c>
       <c r="J22" s="19"/>
-      <c r="K22" s="27"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="3:11" s="2" customFormat="1">
       <c r="C23" s="19" t="s">
@@ -12276,11 +12632,11 @@
     </row>
     <row r="25" spans="3:11" s="2" customFormat="1">
       <c r="C25" s="19" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19" t="s">
@@ -12292,11 +12648,11 @@
     </row>
     <row r="26" spans="3:11" s="2" customFormat="1">
       <c r="C26" s="19" t="s">
-        <v>196</v>
+        <v>422</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19" t="s">
@@ -12310,11 +12666,11 @@
     </row>
     <row r="27" spans="3:11" s="2" customFormat="1">
       <c r="C27" s="19" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19" t="s">
@@ -12383,6 +12739,9 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
@@ -12407,9 +12766,6 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
@@ -12919,7 +13275,7 @@
     </row>
     <row r="94" spans="2:3" s="2" customFormat="1">
       <c r="B94" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="95" spans="2:3" s="2" customFormat="1"/>
@@ -12958,11 +13314,11 @@
     </row>
     <row r="99" spans="2:8" s="2" customFormat="1">
       <c r="C99" s="19" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="19" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F99" s="19"/>
       <c r="G99" s="19" t="s">
@@ -13149,7 +13505,7 @@
     <col min="19" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="20" customFormat="1"/>
+    <row r="3" spans="2:8" s="21" customFormat="1"/>
     <row r="4" spans="2:8" customFormat="1"/>
     <row r="5" spans="2:8" s="7" customFormat="1"/>
     <row r="6" spans="2:8" s="7" customFormat="1">
@@ -13162,7 +13518,7 @@
     </row>
     <row r="7" spans="2:8" s="7" customFormat="1">
       <c r="B7" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -13214,11 +13570,11 @@
     </row>
     <row r="13" spans="2:8">
       <c r="C13" s="19" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19" t="s">
@@ -13247,7 +13603,7 @@
     </row>
     <row r="19" spans="2:8">
       <c r="C19" s="19" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19" t="s">
@@ -13590,7 +13946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="2:8" s="20" customFormat="1"/>
+    <row r="70" spans="2:8" s="21" customFormat="1"/>
     <row r="72" spans="2:8" customFormat="1"/>
     <row r="74" spans="2:8">
       <c r="B74" s="2" t="s">
@@ -13776,7 +14132,7 @@
       </c>
       <c r="H112" s="19"/>
     </row>
-    <row r="115" spans="2:11" s="20" customFormat="1"/>
+    <row r="115" spans="2:11" s="21" customFormat="1"/>
     <row r="117" spans="2:11" customFormat="1"/>
     <row r="119" spans="2:11">
       <c r="B119" s="2" t="s">
@@ -14046,32 +14402,32 @@
       </c>
     </row>
     <row r="167" spans="2:16" s="7" customFormat="1">
-      <c r="C167" s="21" t="s">
+      <c r="C167" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D167" s="21"/>
-      <c r="E167" s="21" t="s">
+      <c r="D167" s="22"/>
+      <c r="E167" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F167" s="21"/>
-      <c r="G167" s="21" t="s">
+      <c r="F167" s="22"/>
+      <c r="G167" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H167" s="21"/>
+      <c r="H167" s="22"/>
     </row>
     <row r="168" spans="2:16" s="7" customFormat="1">
-      <c r="C168" s="21" t="s">
+      <c r="C168" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D168" s="21"/>
-      <c r="E168" s="21" t="s">
+      <c r="D168" s="22"/>
+      <c r="E168" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F168" s="21"/>
-      <c r="G168" s="21" t="s">
+      <c r="F168" s="22"/>
+      <c r="G168" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H168" s="21"/>
+      <c r="H168" s="22"/>
     </row>
     <row r="169" spans="2:16" s="7" customFormat="1"/>
     <row r="171" spans="2:16">
@@ -14554,7 +14910,7 @@
     <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" s="20" customFormat="1"/>
+    <row r="3" spans="2:10" s="21" customFormat="1"/>
     <row r="6" spans="2:10" s="2" customFormat="1">
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -15167,7 +15523,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="2:8" s="22" customFormat="1"/>
+    <row r="76" spans="2:8" s="23" customFormat="1"/>
     <row r="79" spans="2:8" s="2" customFormat="1">
       <c r="B79" s="2" t="s">
         <v>9</v>
@@ -15529,7 +15885,7 @@
       </c>
       <c r="H126" s="19"/>
     </row>
-    <row r="129" spans="2:10" s="22" customFormat="1"/>
+    <row r="129" spans="2:10" s="23" customFormat="1"/>
     <row r="132" spans="2:10" s="2" customFormat="1">
       <c r="B132" s="2" t="s">
         <v>9</v>
@@ -15792,10 +16148,10 @@
       </c>
       <c r="F172" s="19"/>
       <c r="G172" s="19"/>
-      <c r="H172" s="23" t="s">
+      <c r="H172" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I172" s="24"/>
+      <c r="I172" s="25"/>
     </row>
     <row r="173" spans="2:9">
       <c r="C173" s="19" t="s">
@@ -15807,10 +16163,10 @@
       </c>
       <c r="F173" s="19"/>
       <c r="G173" s="19"/>
-      <c r="H173" s="23" t="s">
+      <c r="H173" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I173" s="24"/>
+      <c r="I173" s="25"/>
     </row>
     <row r="174" spans="2:9">
       <c r="C174" s="19" t="s">
@@ -15822,10 +16178,10 @@
       </c>
       <c r="F174" s="19"/>
       <c r="G174" s="19"/>
-      <c r="H174" s="23" t="s">
+      <c r="H174" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I174" s="24"/>
+      <c r="I174" s="25"/>
     </row>
     <row r="175" spans="2:9">
       <c r="C175" s="19" t="s">
@@ -15837,12 +16193,12 @@
       </c>
       <c r="F175" s="19"/>
       <c r="G175" s="19"/>
-      <c r="H175" s="23" t="s">
+      <c r="H175" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I175" s="24"/>
-    </row>
-    <row r="178" spans="2:10" s="22" customFormat="1"/>
+      <c r="I175" s="25"/>
+    </row>
+    <row r="178" spans="2:10" s="23" customFormat="1"/>
     <row r="181" spans="2:10" s="2" customFormat="1">
       <c r="B181" s="2" t="s">
         <v>9</v>
@@ -16065,34 +16421,34 @@
     </row>
     <row r="219" spans="2:9" s="8" customFormat="1">
       <c r="B219" s="7"/>
-      <c r="C219" s="21" t="s">
+      <c r="C219" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D219" s="21"/>
-      <c r="E219" s="21" t="s">
+      <c r="D219" s="22"/>
+      <c r="E219" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F219" s="21"/>
-      <c r="G219" s="21"/>
-      <c r="H219" s="25" t="s">
+      <c r="F219" s="22"/>
+      <c r="G219" s="22"/>
+      <c r="H219" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I219" s="26"/>
+      <c r="I219" s="27"/>
     </row>
     <row r="220" spans="2:9" s="8" customFormat="1">
-      <c r="C220" s="21" t="s">
+      <c r="C220" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D220" s="21"/>
-      <c r="E220" s="21" t="s">
+      <c r="D220" s="22"/>
+      <c r="E220" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="F220" s="21"/>
-      <c r="G220" s="21"/>
-      <c r="H220" s="25" t="s">
+      <c r="F220" s="22"/>
+      <c r="G220" s="22"/>
+      <c r="H220" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I220" s="26"/>
+      <c r="I220" s="27"/>
     </row>
     <row r="221" spans="2:9" s="8" customFormat="1"/>
     <row r="222" spans="2:9" s="8" customFormat="1"/>
@@ -16319,7 +16675,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:P205"/>
+  <dimension ref="B3:P207"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16521,7 +16877,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="2:13" s="2" customFormat="1">
@@ -16553,7 +16909,7 @@
       </c>
       <c r="J53" s="19"/>
       <c r="K53" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L53" s="19"/>
       <c r="M53" s="19"/>
@@ -16576,18 +16932,18 @@
       </c>
       <c r="J54" s="19"/>
       <c r="K54" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L54" s="19"/>
       <c r="M54" s="19"/>
     </row>
     <row r="55" spans="2:13" s="2" customFormat="1">
       <c r="C55" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="19" t="s">
@@ -16604,11 +16960,11 @@
     </row>
     <row r="56" spans="2:13" s="2" customFormat="1">
       <c r="C56" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D56" s="19"/>
       <c r="E56" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19" t="s">
@@ -16620,22 +16976,22 @@
       </c>
       <c r="J56" s="19"/>
       <c r="K56" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L56" s="19"/>
       <c r="M56" s="19"/>
     </row>
     <row r="57" spans="2:13" s="2" customFormat="1">
       <c r="C57" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19" t="s">
@@ -16643,193 +16999,186 @@
       </c>
       <c r="J57" s="19"/>
       <c r="K57" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L57" s="19"/>
       <c r="M57" s="19"/>
     </row>
-    <row r="58" spans="2:13" s="2" customFormat="1"/>
-    <row r="59" spans="2:13" s="2" customFormat="1">
-      <c r="E59" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" s="2" customFormat="1"/>
-    <row r="61" spans="2:13" s="2" customFormat="1">
-      <c r="B61" s="2" t="s">
+    <row r="58" spans="2:13" s="2" customFormat="1">
+      <c r="C58" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+    </row>
+    <row r="59" spans="2:13" s="2" customFormat="1"/>
+    <row r="60" spans="2:13" s="2" customFormat="1">
+      <c r="E60" s="4"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+    </row>
+    <row r="61" spans="2:13" s="2" customFormat="1"/>
+    <row r="62" spans="2:13" s="2" customFormat="1">
+      <c r="B62" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="2:13" s="2" customFormat="1">
-      <c r="C62" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="19"/>
     </row>
     <row r="63" spans="2:13" s="2" customFormat="1">
       <c r="C63" s="19" t="s">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19" t="s">
-        <v>318</v>
+        <v>13</v>
       </c>
       <c r="F63" s="19"/>
       <c r="G63" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="19"/>
+    </row>
+    <row r="64" spans="2:13" s="2" customFormat="1">
+      <c r="C64" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H63" s="19"/>
-    </row>
-    <row r="64" spans="2:13" s="2" customFormat="1"/>
+      <c r="H64" s="19"/>
+    </row>
     <row r="65" spans="2:2" s="2" customFormat="1"/>
     <row r="66" spans="2:2" s="2" customFormat="1"/>
     <row r="67" spans="2:2" s="2" customFormat="1"/>
-    <row r="68" spans="2:2" s="2" customFormat="1">
-      <c r="B68" s="2" t="s">
+    <row r="68" spans="2:2" s="2" customFormat="1"/>
+    <row r="69" spans="2:2" s="2" customFormat="1">
+      <c r="B69" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="69" spans="2:2" s="2" customFormat="1"/>
-    <row r="139" spans="2:2" s="2" customFormat="1">
-      <c r="B139" s="2" t="s">
+    <row r="70" spans="2:2" s="2" customFormat="1"/>
+    <row r="140" spans="2:2" s="2" customFormat="1">
+      <c r="B140" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="2:15" s="9" customFormat="1"/>
-    <row r="150" spans="2:15" s="2" customFormat="1">
-      <c r="B150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="148" spans="2:15" s="9" customFormat="1"/>
     <row r="151" spans="2:15" s="2" customFormat="1">
       <c r="B151" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="152" spans="2:15" s="2" customFormat="1"/>
-    <row r="153" spans="2:15" s="2" customFormat="1">
-      <c r="B153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="2:15" s="2" customFormat="1">
+      <c r="B152" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="153" spans="2:15" s="2" customFormat="1"/>
+    <row r="154" spans="2:15" s="2" customFormat="1">
+      <c r="B154" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="154" spans="2:15" s="2" customFormat="1">
-      <c r="C154" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="19"/>
-      <c r="E154" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F154" s="19"/>
-      <c r="G154" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J154" s="19"/>
-      <c r="K154" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="L154" s="19"/>
-      <c r="M154" s="19"/>
-      <c r="N154" s="19"/>
-      <c r="O154" s="18"/>
     </row>
     <row r="155" spans="2:15" s="2" customFormat="1">
       <c r="C155" s="19" t="s">
-        <v>321</v>
+        <v>12</v>
       </c>
       <c r="D155" s="19"/>
       <c r="E155" s="19" t="s">
-        <v>323</v>
+        <v>13</v>
       </c>
       <c r="F155" s="19"/>
       <c r="G155" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J155" s="19"/>
-      <c r="K155" s="19"/>
+      <c r="K155" s="19" t="s">
+        <v>324</v>
+      </c>
       <c r="L155" s="19"/>
       <c r="M155" s="19"/>
       <c r="N155" s="19"/>
+      <c r="O155" s="18"/>
     </row>
     <row r="156" spans="2:15" s="2" customFormat="1">
       <c r="C156" s="19" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D156" s="19"/>
       <c r="E156" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F156" s="19"/>
       <c r="G156" s="19" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19" t="s">
         <v>154</v>
       </c>
       <c r="J156" s="19"/>
-      <c r="K156" s="19" t="s">
-        <v>326</v>
-      </c>
+      <c r="K156" s="19"/>
       <c r="L156" s="19"/>
       <c r="M156" s="19"/>
       <c r="N156" s="19"/>
     </row>
     <row r="157" spans="2:15" s="2" customFormat="1">
       <c r="C157" s="19" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D157" s="19"/>
       <c r="E157" s="19" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F157" s="19"/>
       <c r="G157" s="19" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19" t="s">
         <v>154</v>
       </c>
       <c r="J157" s="19"/>
-      <c r="K157" s="19"/>
+      <c r="K157" s="19" t="s">
+        <v>325</v>
+      </c>
       <c r="L157" s="19"/>
       <c r="M157" s="19"/>
       <c r="N157" s="19"/>
     </row>
     <row r="158" spans="2:15" s="2" customFormat="1">
       <c r="C158" s="19" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D158" s="19"/>
       <c r="E158" s="19" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F158" s="19"/>
       <c r="G158" s="19" t="s">
@@ -16847,39 +17196,37 @@
     </row>
     <row r="159" spans="2:15" s="2" customFormat="1">
       <c r="C159" s="19" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="D159" s="19"/>
       <c r="E159" s="19" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F159" s="19"/>
       <c r="G159" s="19" t="s">
-        <v>329</v>
+        <v>17</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19" t="s">
         <v>154</v>
       </c>
       <c r="J159" s="19"/>
-      <c r="K159" s="19" t="s">
-        <v>328</v>
-      </c>
+      <c r="K159" s="19"/>
       <c r="L159" s="19"/>
       <c r="M159" s="19"/>
       <c r="N159" s="19"/>
     </row>
     <row r="160" spans="2:15" s="2" customFormat="1">
       <c r="C160" s="19" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D160" s="19"/>
       <c r="E160" s="19" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="F160" s="19"/>
       <c r="G160" s="19" t="s">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19" t="s">
@@ -16887,169 +17234,208 @@
       </c>
       <c r="J160" s="19"/>
       <c r="K160" s="19" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="L160" s="19"/>
       <c r="M160" s="19"/>
       <c r="N160" s="19"/>
     </row>
-    <row r="161" spans="2:16" s="2" customFormat="1"/>
+    <row r="161" spans="2:16" s="2" customFormat="1">
+      <c r="C161" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="F161" s="19"/>
+      <c r="G161" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H161" s="19"/>
+      <c r="I161" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J161" s="19"/>
+      <c r="K161" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="L161" s="19"/>
+      <c r="M161" s="19"/>
+      <c r="N161" s="19"/>
+    </row>
     <row r="162" spans="2:16" s="2" customFormat="1">
-      <c r="E162" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="F162" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="G162" s="16"/>
-      <c r="H162" s="16" t="s">
-        <v>316</v>
-      </c>
+      <c r="C162" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D162" s="19"/>
+      <c r="E162" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H162" s="19"/>
+      <c r="I162" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J162" s="19"/>
+      <c r="K162" s="19"/>
+      <c r="L162" s="19"/>
+      <c r="M162" s="19"/>
+      <c r="N162" s="19"/>
     </row>
     <row r="163" spans="2:16" s="2" customFormat="1"/>
     <row r="164" spans="2:16" s="2" customFormat="1">
-      <c r="B164" s="2" t="s">
+      <c r="E164" s="4"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="16"/>
+      <c r="H164" s="16"/>
+    </row>
+    <row r="165" spans="2:16" s="2" customFormat="1"/>
+    <row r="166" spans="2:16" s="2" customFormat="1">
+      <c r="B166" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="165" spans="2:16" s="2" customFormat="1">
-      <c r="C165" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" s="19"/>
-      <c r="G165" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="J165" s="19"/>
-      <c r="K165" s="19"/>
-      <c r="L165" s="19"/>
-      <c r="M165" s="19"/>
-    </row>
-    <row r="166" spans="2:16" s="2" customFormat="1">
-      <c r="C166" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F166" s="19"/>
-      <c r="G166" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="J166" s="19"/>
-      <c r="K166" s="19"/>
-      <c r="L166" s="19"/>
-      <c r="M166" s="19"/>
     </row>
     <row r="167" spans="2:16" s="2" customFormat="1">
       <c r="C167" s="19" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D167" s="19"/>
       <c r="E167" s="19" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F167" s="19"/>
       <c r="G167" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="J167" s="19"/>
       <c r="K167" s="19"/>
       <c r="L167" s="19"/>
       <c r="M167" s="19"/>
     </row>
-    <row r="168" spans="2:16" s="2" customFormat="1"/>
-    <row r="169" spans="2:16" s="2" customFormat="1"/>
-    <row r="170" spans="2:16" s="2" customFormat="1">
-      <c r="P170" s="17"/>
-    </row>
+    <row r="168" spans="2:16" s="2" customFormat="1">
+      <c r="C168" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="J168" s="19"/>
+      <c r="K168" s="19"/>
+      <c r="L168" s="19"/>
+      <c r="M168" s="19"/>
+    </row>
+    <row r="169" spans="2:16" s="2" customFormat="1">
+      <c r="C169" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169" s="19"/>
+      <c r="E169" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="J169" s="19"/>
+      <c r="K169" s="19"/>
+      <c r="L169" s="19"/>
+      <c r="M169" s="19"/>
+    </row>
+    <row r="170" spans="2:16" s="2" customFormat="1"/>
     <row r="171" spans="2:16" s="2" customFormat="1"/>
     <row r="172" spans="2:16" s="2" customFormat="1">
-      <c r="B172" s="2" t="s">
+      <c r="P172" s="17"/>
+    </row>
+    <row r="173" spans="2:16" s="2" customFormat="1"/>
+    <row r="174" spans="2:16" s="2" customFormat="1">
+      <c r="B174" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="202" spans="2:3">
-      <c r="C202" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3" s="2" customFormat="1">
-      <c r="B205" s="2" t="s">
+    <row r="204" spans="2:3">
+      <c r="C204" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" s="2" customFormat="1">
+      <c r="B207" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="K159:N159"/>
-    <mergeCell ref="I165:M165"/>
-    <mergeCell ref="I166:M166"/>
+  <mergeCells count="102">
+    <mergeCell ref="K160:N160"/>
     <mergeCell ref="I167:M167"/>
+    <mergeCell ref="I168:M168"/>
+    <mergeCell ref="I169:M169"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="I161:J161"/>
+    <mergeCell ref="K161:N161"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="I159:J159"/>
     <mergeCell ref="C160:D160"/>
     <mergeCell ref="E160:F160"/>
     <mergeCell ref="G160:H160"/>
     <mergeCell ref="I160:J160"/>
-    <mergeCell ref="K160:N160"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="C167:D167"/>
     <mergeCell ref="E167:F167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="I158:J158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="I159:J159"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="K158:N158"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="I162:J162"/>
     <mergeCell ref="C157:D157"/>
     <mergeCell ref="E157:F157"/>
     <mergeCell ref="G157:H157"/>
     <mergeCell ref="I157:J157"/>
     <mergeCell ref="K157:N157"/>
+    <mergeCell ref="K159:N159"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="I158:J158"/>
+    <mergeCell ref="K158:N158"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="I155:J155"/>
+    <mergeCell ref="K155:N155"/>
     <mergeCell ref="C156:D156"/>
     <mergeCell ref="E156:F156"/>
     <mergeCell ref="G156:H156"/>
     <mergeCell ref="I156:J156"/>
     <mergeCell ref="K156:N156"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="I155:J155"/>
-    <mergeCell ref="K155:N155"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="I154:J154"/>
-    <mergeCell ref="K154:N154"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:M54"/>
     <mergeCell ref="K53:M53"/>
     <mergeCell ref="K55:M55"/>
     <mergeCell ref="K56:M56"/>
@@ -17058,8 +17444,11 @@
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I55:J55"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:M54"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="C10:D10"/>
@@ -17074,22 +17463,30 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K162:N162"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:M58"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17305,12 +17702,12 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="2:11" s="2" customFormat="1">
       <c r="B7" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="2:11" s="2" customFormat="1"/>
@@ -17376,11 +17773,11 @@
     </row>
     <row r="17" spans="2:12" s="2" customFormat="1">
       <c r="C17" s="19" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19" t="s">
@@ -17388,18 +17785,18 @@
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
     </row>
     <row r="18" spans="2:12" s="2" customFormat="1">
       <c r="C18" s="19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19" t="s">
@@ -17407,21 +17804,21 @@
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
-      <c r="L18" s="27" t="s">
-        <v>365</v>
+      <c r="L18" s="20" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="2:12" s="2" customFormat="1">
       <c r="C19" s="19" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19" t="s">
@@ -17429,38 +17826,38 @@
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="2:12" s="2" customFormat="1">
       <c r="C20" s="19" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
     </row>
     <row r="21" spans="2:12" s="2" customFormat="1">
       <c r="C21" s="19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19" t="s">
@@ -17468,18 +17865,18 @@
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
     </row>
     <row r="22" spans="2:12" s="2" customFormat="1">
       <c r="C22" s="19" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19" t="s">
@@ -17487,7 +17884,7 @@
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
@@ -17528,7 +17925,7 @@
     </row>
     <row r="26" spans="2:12" s="2" customFormat="1">
       <c r="C26" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="2:12" s="2" customFormat="1">
@@ -17568,12 +17965,12 @@
         <v>9</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="2:8" s="2" customFormat="1">
       <c r="B57" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="2:8" s="2" customFormat="1"/>
@@ -17612,11 +18009,11 @@
     </row>
     <row r="62" spans="2:8" s="2" customFormat="1">
       <c r="C62" s="19" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="19" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="19" t="s">
@@ -17630,7 +18027,7 @@
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F63" s="19"/>
       <c r="G63" s="19" t="s">
@@ -17640,11 +18037,11 @@
     </row>
     <row r="64" spans="2:8" s="2" customFormat="1">
       <c r="C64" s="19" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D64" s="19"/>
       <c r="E64" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="19" t="s">
@@ -17654,11 +18051,11 @@
     </row>
     <row r="65" spans="2:8" s="2" customFormat="1">
       <c r="C65" s="19" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="19" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="19" t="s">
@@ -17668,15 +18065,15 @@
     </row>
     <row r="66" spans="2:8" s="2" customFormat="1">
       <c r="C66" s="19" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="19" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F66" s="19"/>
       <c r="G66" s="19" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H66" s="19"/>
     </row>
@@ -17704,11 +18101,11 @@
     </row>
     <row r="72" spans="2:8" s="2" customFormat="1">
       <c r="C72" s="19" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="19" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="19" t="s">
@@ -17718,11 +18115,11 @@
     </row>
     <row r="73" spans="2:8" s="2" customFormat="1">
       <c r="C73" s="19" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F73" s="19"/>
       <c r="G73" s="19" t="s">
@@ -17784,12 +18181,12 @@
         <v>9</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="2:8" s="2" customFormat="1">
       <c r="B92" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="2:8" s="2" customFormat="1"/>
@@ -17855,19 +18252,19 @@
     </row>
     <row r="102" spans="2:14" s="2" customFormat="1">
       <c r="C102" s="19" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="19" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F102" s="19"/>
       <c r="G102" s="19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J102" s="19"/>
       <c r="K102" s="19"/>
@@ -17876,19 +18273,19 @@
     </row>
     <row r="103" spans="2:14" s="2" customFormat="1">
       <c r="C103" s="19" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D103" s="19"/>
       <c r="E103" s="19" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F103" s="19"/>
       <c r="G103" s="19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J103" s="19"/>
       <c r="K103" s="19"/>
@@ -17897,19 +18294,19 @@
     </row>
     <row r="104" spans="2:14" s="2" customFormat="1">
       <c r="C104" s="19" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D104" s="19"/>
       <c r="E104" s="19" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F104" s="19"/>
       <c r="G104" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J104" s="19"/>
       <c r="K104" s="19"/>
@@ -17918,19 +18315,19 @@
     </row>
     <row r="105" spans="2:14" s="2" customFormat="1">
       <c r="C105" s="19" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D105" s="19"/>
       <c r="E105" s="19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F105" s="19"/>
       <c r="G105" s="19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J105" s="19"/>
       <c r="K105" s="19"/>
@@ -17939,49 +18336,49 @@
     </row>
     <row r="106" spans="2:14" s="2" customFormat="1">
       <c r="C106" s="19" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D106" s="19"/>
       <c r="E106" s="19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F106" s="19"/>
       <c r="G106" s="19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J106" s="19"/>
       <c r="K106" s="19"/>
       <c r="L106" s="19"/>
       <c r="M106" s="19"/>
-      <c r="N106" s="27" t="s">
-        <v>399</v>
+      <c r="N106" s="20" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="107" spans="2:14" s="2" customFormat="1">
       <c r="C107" s="19" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D107" s="19"/>
       <c r="E107" s="19" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F107" s="19"/>
       <c r="G107" s="19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J107" s="19"/>
       <c r="K107" s="19"/>
       <c r="L107" s="19"/>
       <c r="M107" s="19"/>
-      <c r="N107" s="27"/>
+      <c r="N107" s="20"/>
     </row>
     <row r="108" spans="2:14" s="2" customFormat="1">
       <c r="C108" s="19" t="s">
@@ -17989,15 +18386,15 @@
       </c>
       <c r="D108" s="19"/>
       <c r="E108" s="19" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F108" s="19"/>
       <c r="G108" s="19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J108" s="19"/>
       <c r="K108" s="19"/>
@@ -18006,19 +18403,19 @@
     </row>
     <row r="109" spans="2:14" s="2" customFormat="1">
       <c r="C109" s="19" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D109" s="19"/>
       <c r="E109" s="19" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F109" s="19"/>
       <c r="G109" s="19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J109" s="19"/>
       <c r="K109" s="19"/>
@@ -18027,19 +18424,19 @@
     </row>
     <row r="110" spans="2:14" s="2" customFormat="1">
       <c r="C110" s="19" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="19" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F110" s="19"/>
       <c r="G110" s="19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J110" s="19"/>
       <c r="K110" s="19"/>
@@ -18048,11 +18445,11 @@
     </row>
     <row r="111" spans="2:14" s="2" customFormat="1">
       <c r="C111" s="19" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D111" s="19"/>
       <c r="E111" s="19" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F111" s="19"/>
       <c r="G111" s="19" t="s">
@@ -18106,12 +18503,12 @@
     <row r="114" spans="2:13" s="3" customFormat="1"/>
     <row r="115" spans="2:13" s="2" customFormat="1">
       <c r="C115" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="116" spans="2:13" s="3" customFormat="1">
       <c r="C116" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="118" spans="2:13" s="2" customFormat="1">
@@ -18299,22 +18696,22 @@
   <sheetData>
     <row r="47" spans="12:12">
       <c r="L47" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="9:12">
       <c r="I55" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" spans="9:12">
       <c r="L63" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="9:9">
       <c r="I68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/后台接口设计.xlsx
+++ b/后台接口设计.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="428">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1728,6 +1728,10 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 中奖，0: 未中奖</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1962,14 +1966,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1977,11 +1984,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12376,6 +12380,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
@@ -12391,12 +12401,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12726,6 +12730,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="G27:H27"/>
@@ -12742,51 +12791,6 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13384,15 +13388,80 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:M58"/>
-    <mergeCell ref="I59:M59"/>
-    <mergeCell ref="I60:M60"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I57:M57"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:M56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="G63:H63"/>
@@ -13408,80 +13477,15 @@
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="G61:H61"/>
     <mergeCell ref="I61:M61"/>
-    <mergeCell ref="I57:M57"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:M56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:M58"/>
+    <mergeCell ref="I59:M59"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="G59:H59"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13505,7 +13509,7 @@
     <col min="19" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="21" customFormat="1"/>
+    <row r="3" spans="2:8" s="22" customFormat="1"/>
     <row r="4" spans="2:8" customFormat="1"/>
     <row r="5" spans="2:8" s="7" customFormat="1"/>
     <row r="6" spans="2:8" s="7" customFormat="1">
@@ -13946,7 +13950,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="2:8" s="21" customFormat="1"/>
+    <row r="70" spans="2:8" s="22" customFormat="1"/>
     <row r="72" spans="2:8" customFormat="1"/>
     <row r="74" spans="2:8">
       <c r="B74" s="2" t="s">
@@ -14132,7 +14136,7 @@
       </c>
       <c r="H112" s="19"/>
     </row>
-    <row r="115" spans="2:11" s="21" customFormat="1"/>
+    <row r="115" spans="2:11" s="22" customFormat="1"/>
     <row r="117" spans="2:11" customFormat="1"/>
     <row r="119" spans="2:11">
       <c r="B119" s="2" t="s">
@@ -14402,32 +14406,32 @@
       </c>
     </row>
     <row r="167" spans="2:16" s="7" customFormat="1">
-      <c r="C167" s="22" t="s">
+      <c r="C167" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D167" s="22"/>
-      <c r="E167" s="22" t="s">
+      <c r="D167" s="21"/>
+      <c r="E167" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F167" s="22"/>
-      <c r="G167" s="22" t="s">
+      <c r="F167" s="21"/>
+      <c r="G167" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H167" s="22"/>
+      <c r="H167" s="21"/>
     </row>
     <row r="168" spans="2:16" s="7" customFormat="1">
-      <c r="C168" s="22" t="s">
+      <c r="C168" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D168" s="22"/>
-      <c r="E168" s="22" t="s">
+      <c r="D168" s="21"/>
+      <c r="E168" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F168" s="22"/>
-      <c r="G168" s="22" t="s">
+      <c r="F168" s="21"/>
+      <c r="G168" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H168" s="22"/>
+      <c r="H168" s="21"/>
     </row>
     <row r="169" spans="2:16" s="7" customFormat="1"/>
     <row r="171" spans="2:16">
@@ -14687,6 +14691,183 @@
     </row>
   </sheetData>
   <mergeCells count="201">
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A70:XFD70"/>
+    <mergeCell ref="A115:XFD115"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="I128:K128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="I129:K129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:K130"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:K133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:K134"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:K132"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="I137:K137"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:K135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:K136"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="G177:H177"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
@@ -14711,183 +14892,6 @@
     <mergeCell ref="E179:F179"/>
     <mergeCell ref="G179:H179"/>
     <mergeCell ref="C180:D180"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="I137:K137"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:K135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="I136:K136"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:K133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:K134"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:K132"/>
-    <mergeCell ref="I128:K128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="I129:K129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:K130"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="A70:XFD70"/>
-    <mergeCell ref="A115:XFD115"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14910,7 +14914,7 @@
     <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" s="21" customFormat="1"/>
+    <row r="3" spans="2:10" s="22" customFormat="1"/>
     <row r="6" spans="2:10" s="2" customFormat="1">
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -15523,7 +15527,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="2:8" s="23" customFormat="1"/>
+    <row r="76" spans="2:8" s="27" customFormat="1"/>
     <row r="79" spans="2:8" s="2" customFormat="1">
       <c r="B79" s="2" t="s">
         <v>9</v>
@@ -15885,7 +15889,7 @@
       </c>
       <c r="H126" s="19"/>
     </row>
-    <row r="129" spans="2:10" s="23" customFormat="1"/>
+    <row r="129" spans="2:10" s="27" customFormat="1"/>
     <row r="132" spans="2:10" s="2" customFormat="1">
       <c r="B132" s="2" t="s">
         <v>9</v>
@@ -16148,10 +16152,10 @@
       </c>
       <c r="F172" s="19"/>
       <c r="G172" s="19"/>
-      <c r="H172" s="24" t="s">
+      <c r="H172" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I172" s="25"/>
+      <c r="I172" s="26"/>
     </row>
     <row r="173" spans="2:9">
       <c r="C173" s="19" t="s">
@@ -16163,10 +16167,10 @@
       </c>
       <c r="F173" s="19"/>
       <c r="G173" s="19"/>
-      <c r="H173" s="24" t="s">
+      <c r="H173" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I173" s="25"/>
+      <c r="I173" s="26"/>
     </row>
     <row r="174" spans="2:9">
       <c r="C174" s="19" t="s">
@@ -16178,10 +16182,10 @@
       </c>
       <c r="F174" s="19"/>
       <c r="G174" s="19"/>
-      <c r="H174" s="24" t="s">
+      <c r="H174" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I174" s="25"/>
+      <c r="I174" s="26"/>
     </row>
     <row r="175" spans="2:9">
       <c r="C175" s="19" t="s">
@@ -16193,12 +16197,12 @@
       </c>
       <c r="F175" s="19"/>
       <c r="G175" s="19"/>
-      <c r="H175" s="24" t="s">
+      <c r="H175" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I175" s="25"/>
-    </row>
-    <row r="178" spans="2:10" s="23" customFormat="1"/>
+      <c r="I175" s="26"/>
+    </row>
+    <row r="178" spans="2:10" s="27" customFormat="1"/>
     <row r="181" spans="2:10" s="2" customFormat="1">
       <c r="B181" s="2" t="s">
         <v>9</v>
@@ -16421,34 +16425,34 @@
     </row>
     <row r="219" spans="2:9" s="8" customFormat="1">
       <c r="B219" s="7"/>
-      <c r="C219" s="22" t="s">
+      <c r="C219" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D219" s="22"/>
-      <c r="E219" s="22" t="s">
+      <c r="D219" s="21"/>
+      <c r="E219" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F219" s="22"/>
-      <c r="G219" s="22"/>
-      <c r="H219" s="26" t="s">
+      <c r="F219" s="21"/>
+      <c r="G219" s="21"/>
+      <c r="H219" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I219" s="27"/>
+      <c r="I219" s="24"/>
     </row>
     <row r="220" spans="2:9" s="8" customFormat="1">
-      <c r="C220" s="22" t="s">
+      <c r="C220" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D220" s="22"/>
-      <c r="E220" s="22" t="s">
+      <c r="D220" s="21"/>
+      <c r="E220" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F220" s="22"/>
-      <c r="G220" s="22"/>
-      <c r="H220" s="26" t="s">
+      <c r="F220" s="21"/>
+      <c r="G220" s="21"/>
+      <c r="H220" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I220" s="27"/>
+      <c r="I220" s="24"/>
     </row>
     <row r="221" spans="2:9" s="8" customFormat="1"/>
     <row r="222" spans="2:9" s="8" customFormat="1"/>
@@ -16459,6 +16463,188 @@
     <row r="227" s="8" customFormat="1"/>
   </sheetData>
   <mergeCells count="206">
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="A76:XFD76"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="E174:G174"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="A178:XFD178"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="E220:G220"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="E219:G219"/>
+    <mergeCell ref="H219:I219"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:F68"/>
     <mergeCell ref="G68:H68"/>
@@ -16483,188 +16669,6 @@
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="E220:G220"/>
-    <mergeCell ref="H220:I220"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="E219:G219"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="E174:G174"/>
-    <mergeCell ref="E175:G175"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="A178:XFD178"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="A76:XFD76"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17166,7 +17170,7 @@
       </c>
       <c r="J157" s="19"/>
       <c r="K157" s="19" t="s">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="L157" s="19"/>
       <c r="M157" s="19"/>
@@ -17385,83 +17389,6 @@
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="K160:N160"/>
-    <mergeCell ref="I167:M167"/>
-    <mergeCell ref="I168:M168"/>
-    <mergeCell ref="I169:M169"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="I161:J161"/>
-    <mergeCell ref="K161:N161"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="I159:J159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="I160:J160"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="I162:J162"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="I157:J157"/>
-    <mergeCell ref="K157:N157"/>
-    <mergeCell ref="K159:N159"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="I158:J158"/>
-    <mergeCell ref="K158:N158"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="I155:J155"/>
-    <mergeCell ref="K155:N155"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="I156:J156"/>
-    <mergeCell ref="K156:N156"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="K162:N162"/>
     <mergeCell ref="C58:D58"/>
@@ -17486,7 +17413,84 @@
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
     <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="I155:J155"/>
+    <mergeCell ref="K155:N155"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="I156:J156"/>
+    <mergeCell ref="K156:N156"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="I157:J157"/>
+    <mergeCell ref="K157:N157"/>
+    <mergeCell ref="K159:N159"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="I158:J158"/>
+    <mergeCell ref="K158:N158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="I159:J159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="I160:J160"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="I162:J162"/>
+    <mergeCell ref="K160:N160"/>
+    <mergeCell ref="I167:M167"/>
+    <mergeCell ref="I168:M168"/>
+    <mergeCell ref="I169:M169"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="I161:J161"/>
+    <mergeCell ref="K161:N161"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="G167:H167"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18540,19 +18544,107 @@
     <row r="140" s="2" customFormat="1"/>
   </sheetData>
   <mergeCells count="138">
-    <mergeCell ref="N106:N107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="I108:M108"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="I110:M110"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="I109:M109"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I103:M103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="I104:M104"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:M101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:M102"/>
     <mergeCell ref="C112:D112"/>
     <mergeCell ref="E112:F112"/>
     <mergeCell ref="G112:H112"/>
@@ -18577,107 +18669,19 @@
     <mergeCell ref="E111:F111"/>
     <mergeCell ref="G111:H111"/>
     <mergeCell ref="I111:M111"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="I103:M103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="I104:M104"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I101:M101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="I102:M102"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="N106:N107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="I108:M108"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="I110:M110"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="I109:M109"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/后台接口设计.xlsx
+++ b/后台接口设计.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="431">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1732,6 +1732,18 @@
   </si>
   <si>
     <t>1: 中奖，0: 未中奖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播地址</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1966,10 +1978,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1977,15 +1998,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2123,14 +2135,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2145,8 +2157,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="5958840"/>
-          <a:ext cx="7383780" cy="5989320"/>
+          <a:off x="1219200" y="6309360"/>
+          <a:ext cx="7383780" cy="6332220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2176,6 +2188,20 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"appId":"123456789",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"server":"ws://test2-test-api.zego.im:8181/ws",</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -12380,12 +12406,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
@@ -12401,6 +12421,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12411,7 +12437,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K33"/>
+  <dimension ref="B3:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12688,11 +12714,11 @@
     </row>
     <row r="28" spans="3:11" s="2" customFormat="1">
       <c r="C28" s="19" t="s">
-        <v>23</v>
+        <v>428</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
-        <v>24</v>
+        <v>428</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19" t="s">
@@ -12704,11 +12730,11 @@
     </row>
     <row r="29" spans="3:11" s="2" customFormat="1">
       <c r="C29" s="19" t="s">
-        <v>25</v>
+        <v>429</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19" t="s">
-        <v>26</v>
+        <v>430</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19" t="s">
@@ -12718,18 +12744,50 @@
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
     </row>
+    <row r="30" spans="3:11" s="2" customFormat="1">
+      <c r="C30" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+    </row>
     <row r="31" spans="3:11" s="2" customFormat="1">
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+    </row>
+    <row r="33" spans="2:3" s="2" customFormat="1">
+      <c r="C33" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="2:2" s="2" customFormat="1">
-      <c r="B33" s="2" t="s">
+    <row r="35" spans="2:3" s="2" customFormat="1">
+      <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="69">
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
@@ -12738,43 +12796,6 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="G27:H27"/>
@@ -12791,6 +12812,51 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13388,54 +13454,41 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I58:M58"/>
+    <mergeCell ref="I59:M59"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:M63"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:M62"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="I57:M57"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:M56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
@@ -13451,41 +13504,54 @@
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I57:M57"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:M56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:M63"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:M62"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I58:M58"/>
-    <mergeCell ref="I59:M59"/>
-    <mergeCell ref="I60:M60"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:H104"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13509,7 +13575,7 @@
     <col min="19" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="22" customFormat="1"/>
+    <row r="3" spans="2:8" s="21" customFormat="1"/>
     <row r="4" spans="2:8" customFormat="1"/>
     <row r="5" spans="2:8" s="7" customFormat="1"/>
     <row r="6" spans="2:8" s="7" customFormat="1">
@@ -13950,7 +14016,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="2:8" s="22" customFormat="1"/>
+    <row r="70" spans="2:8" s="21" customFormat="1"/>
     <row r="72" spans="2:8" customFormat="1"/>
     <row r="74" spans="2:8">
       <c r="B74" s="2" t="s">
@@ -14136,7 +14202,7 @@
       </c>
       <c r="H112" s="19"/>
     </row>
-    <row r="115" spans="2:11" s="22" customFormat="1"/>
+    <row r="115" spans="2:11" s="21" customFormat="1"/>
     <row r="117" spans="2:11" customFormat="1"/>
     <row r="119" spans="2:11">
       <c r="B119" s="2" t="s">
@@ -14406,32 +14472,32 @@
       </c>
     </row>
     <row r="167" spans="2:16" s="7" customFormat="1">
-      <c r="C167" s="21" t="s">
+      <c r="C167" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D167" s="21"/>
-      <c r="E167" s="21" t="s">
+      <c r="D167" s="22"/>
+      <c r="E167" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F167" s="21"/>
-      <c r="G167" s="21" t="s">
+      <c r="F167" s="22"/>
+      <c r="G167" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H167" s="21"/>
+      <c r="H167" s="22"/>
     </row>
     <row r="168" spans="2:16" s="7" customFormat="1">
-      <c r="C168" s="21" t="s">
+      <c r="C168" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D168" s="21"/>
-      <c r="E168" s="21" t="s">
+      <c r="D168" s="22"/>
+      <c r="E168" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F168" s="21"/>
-      <c r="G168" s="21" t="s">
+      <c r="F168" s="22"/>
+      <c r="G168" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H168" s="21"/>
+      <c r="H168" s="22"/>
     </row>
     <row r="169" spans="2:16" s="7" customFormat="1"/>
     <row r="171" spans="2:16">
@@ -14691,6 +14757,183 @@
     </row>
   </sheetData>
   <mergeCells count="201">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I179:L179"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="I172:L172"/>
+    <mergeCell ref="I173:L173"/>
+    <mergeCell ref="I174:L174"/>
+    <mergeCell ref="I175:L175"/>
+    <mergeCell ref="I176:L176"/>
+    <mergeCell ref="I177:L177"/>
+    <mergeCell ref="I180:L180"/>
+    <mergeCell ref="I181:L181"/>
+    <mergeCell ref="I182:L182"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="I178:L178"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="I137:K137"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:K135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:K136"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:K133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:K134"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:K132"/>
+    <mergeCell ref="I128:K128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="I129:K129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:K130"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
     <mergeCell ref="A3:XFD3"/>
     <mergeCell ref="A70:XFD70"/>
     <mergeCell ref="A115:XFD115"/>
@@ -14715,183 +14958,6 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="I128:K128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="I129:K129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:K130"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:K133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:K134"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:K132"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="I137:K137"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:K135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="I136:K136"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I179:L179"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="I172:L172"/>
-    <mergeCell ref="I173:L173"/>
-    <mergeCell ref="I174:L174"/>
-    <mergeCell ref="I175:L175"/>
-    <mergeCell ref="I176:L176"/>
-    <mergeCell ref="I177:L177"/>
-    <mergeCell ref="I180:L180"/>
-    <mergeCell ref="I181:L181"/>
-    <mergeCell ref="I182:L182"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="I178:L178"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="C180:D180"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14914,7 +14980,7 @@
     <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" s="22" customFormat="1"/>
+    <row r="3" spans="2:10" s="21" customFormat="1"/>
     <row r="6" spans="2:10" s="2" customFormat="1">
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -15527,7 +15593,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="2:8" s="27" customFormat="1"/>
+    <row r="76" spans="2:8" s="23" customFormat="1"/>
     <row r="79" spans="2:8" s="2" customFormat="1">
       <c r="B79" s="2" t="s">
         <v>9</v>
@@ -15889,7 +15955,7 @@
       </c>
       <c r="H126" s="19"/>
     </row>
-    <row r="129" spans="2:10" s="27" customFormat="1"/>
+    <row r="129" spans="2:10" s="23" customFormat="1"/>
     <row r="132" spans="2:10" s="2" customFormat="1">
       <c r="B132" s="2" t="s">
         <v>9</v>
@@ -16152,10 +16218,10 @@
       </c>
       <c r="F172" s="19"/>
       <c r="G172" s="19"/>
-      <c r="H172" s="25" t="s">
+      <c r="H172" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I172" s="26"/>
+      <c r="I172" s="25"/>
     </row>
     <row r="173" spans="2:9">
       <c r="C173" s="19" t="s">
@@ -16167,10 +16233,10 @@
       </c>
       <c r="F173" s="19"/>
       <c r="G173" s="19"/>
-      <c r="H173" s="25" t="s">
+      <c r="H173" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I173" s="26"/>
+      <c r="I173" s="25"/>
     </row>
     <row r="174" spans="2:9">
       <c r="C174" s="19" t="s">
@@ -16182,10 +16248,10 @@
       </c>
       <c r="F174" s="19"/>
       <c r="G174" s="19"/>
-      <c r="H174" s="25" t="s">
+      <c r="H174" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I174" s="26"/>
+      <c r="I174" s="25"/>
     </row>
     <row r="175" spans="2:9">
       <c r="C175" s="19" t="s">
@@ -16197,12 +16263,12 @@
       </c>
       <c r="F175" s="19"/>
       <c r="G175" s="19"/>
-      <c r="H175" s="25" t="s">
+      <c r="H175" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I175" s="26"/>
-    </row>
-    <row r="178" spans="2:10" s="27" customFormat="1"/>
+      <c r="I175" s="25"/>
+    </row>
+    <row r="178" spans="2:10" s="23" customFormat="1"/>
     <row r="181" spans="2:10" s="2" customFormat="1">
       <c r="B181" s="2" t="s">
         <v>9</v>
@@ -16425,34 +16491,34 @@
     </row>
     <row r="219" spans="2:9" s="8" customFormat="1">
       <c r="B219" s="7"/>
-      <c r="C219" s="21" t="s">
+      <c r="C219" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D219" s="21"/>
-      <c r="E219" s="21" t="s">
+      <c r="D219" s="22"/>
+      <c r="E219" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F219" s="21"/>
-      <c r="G219" s="21"/>
-      <c r="H219" s="23" t="s">
+      <c r="F219" s="22"/>
+      <c r="G219" s="22"/>
+      <c r="H219" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I219" s="24"/>
+      <c r="I219" s="27"/>
     </row>
     <row r="220" spans="2:9" s="8" customFormat="1">
-      <c r="C220" s="21" t="s">
+      <c r="C220" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D220" s="21"/>
-      <c r="E220" s="21" t="s">
+      <c r="D220" s="22"/>
+      <c r="E220" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="F220" s="21"/>
-      <c r="G220" s="21"/>
-      <c r="H220" s="23" t="s">
+      <c r="F220" s="22"/>
+      <c r="G220" s="22"/>
+      <c r="H220" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I220" s="24"/>
+      <c r="I220" s="27"/>
     </row>
     <row r="221" spans="2:9" s="8" customFormat="1"/>
     <row r="222" spans="2:9" s="8" customFormat="1"/>
@@ -16463,79 +16529,115 @@
     <row r="227" s="8" customFormat="1"/>
   </sheetData>
   <mergeCells count="206">
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="E220:G220"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="E219:G219"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="E174:G174"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="A178:XFD178"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="A76:XFD76"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="E121:F121"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
@@ -16560,115 +16662,79 @@
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="A76:XFD76"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="E174:G174"/>
-    <mergeCell ref="E175:G175"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="A178:XFD178"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="E220:G220"/>
-    <mergeCell ref="H220:I220"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="E219:G219"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17389,6 +17455,84 @@
     </row>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="K160:N160"/>
+    <mergeCell ref="I167:M167"/>
+    <mergeCell ref="I168:M168"/>
+    <mergeCell ref="I169:M169"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="I161:J161"/>
+    <mergeCell ref="K161:N161"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="I160:J160"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="I162:J162"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="I157:J157"/>
+    <mergeCell ref="K157:N157"/>
+    <mergeCell ref="K159:N159"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="I158:J158"/>
+    <mergeCell ref="K158:N158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="I159:J159"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="I155:J155"/>
+    <mergeCell ref="K155:N155"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="I156:J156"/>
+    <mergeCell ref="K156:N156"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="K162:N162"/>
     <mergeCell ref="C58:D58"/>
@@ -17413,84 +17557,6 @@
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="I155:J155"/>
-    <mergeCell ref="K155:N155"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="I156:J156"/>
-    <mergeCell ref="K156:N156"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="I157:J157"/>
-    <mergeCell ref="K157:N157"/>
-    <mergeCell ref="K159:N159"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="I158:J158"/>
-    <mergeCell ref="K158:N158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="I159:J159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="I160:J160"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="I162:J162"/>
-    <mergeCell ref="K160:N160"/>
-    <mergeCell ref="I167:M167"/>
-    <mergeCell ref="I168:M168"/>
-    <mergeCell ref="I169:M169"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="I161:J161"/>
-    <mergeCell ref="K161:N161"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="G167:H167"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18544,6 +18610,120 @@
     <row r="140" s="2" customFormat="1"/>
   </sheetData>
   <mergeCells count="138">
+    <mergeCell ref="N106:N107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="I108:M108"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="I110:M110"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="I109:M109"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="I112:M112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="I113:M113"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="I105:M105"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="I107:M107"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="I106:M106"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="I111:M111"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I103:M103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="I104:M104"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:M101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:M102"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="E95:F95"/>
     <mergeCell ref="G95:H95"/>
@@ -18568,120 +18748,6 @@
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="E72:F72"/>
     <mergeCell ref="G72:H72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="I103:M103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="I104:M104"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I101:M101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="I102:M102"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="I112:M112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="I113:M113"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="I105:M105"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="I107:M107"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="I106:M106"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="I111:M111"/>
-    <mergeCell ref="N106:N107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="I108:M108"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="I110:M110"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="I109:M109"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/后台接口设计.xlsx
+++ b/后台接口设计.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="435">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -760,126 +760,938 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">        List</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序：以【抓取时间】降序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过状态值名称对应列表转换</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态值名称对应列表：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:寄存中</t>
+  </si>
+  <si>
+    <t>2:待邮寄</t>
+  </si>
+  <si>
+    <t>3:邮寄中</t>
+  </si>
+  <si>
+    <t>4:已签收</t>
+  </si>
+  <si>
+    <t>5:已兑换</t>
+  </si>
+  <si>
+    <t>值:名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品介绍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品价值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入参</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先做单条记录的发货申请</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先做单条记录的确认收货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先做单条记录的发货处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该房间的最近抓中记录展示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/room/roomLatelyAwardRecordsShow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品表(prize)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户昵称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器获奖记录表(machine_award_records)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分兑换金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成loginToken</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginToken</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成的token</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成过程：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需参数：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由即构提供</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“ver":</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hash":</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“nonce":</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"expired":</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//int类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>710a5199398176a316ebcc88bc5b4470,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//字符串类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash的获得：通过MD5加密(app_id+app_key_32+id_name+nonce+expired)得出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_key_32: 通过app_key运算获得，算法：剔除app_key里的"0x", ","字符后，获取前面32字节即为app_key_32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机串，需要保证同一USER_ID在失效时间内不重复, 建议按guid生成, //字符串类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效时间，unix_timestamp  //int64类型，单位秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把以上json内容通过base64加密，最后得出loginToken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/encode/loginToken</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/encode/configEncode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>createTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓中时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序：以【抓中时间】降序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取记录条数：10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信令交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、预约上机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.预约上机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.预约上机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.预约结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.预约结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.预约结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、取消预约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.取消预约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.取消预约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.取消结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.取消结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/user/showUserAwardInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.通知上机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.通知上机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.确认通知上机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.确认通知上机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、通知上机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.确认上机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.确认上机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.收到“确认上机”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.收到“确认上机”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、确认上机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏操作：左右前后，下抓，结束移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、游戏操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4前a.支付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4前b.支付成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.游戏结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.游戏结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.收到“游戏结果”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.收到“游戏结果”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、结果反馈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.获取游戏信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.获取游戏信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.回复获取游戏信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.回复获取游戏信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*.游戏信息更新(服务端主动发送信息)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、游戏信息更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*此步骤需要在业务端后台加密config信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后传到即构服务端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*客户业务后台对 encrypted_result 解密</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/homePage/show</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>machineStatus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>redPacketStatus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prizeContext</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>playValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>push1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>push2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品介绍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推流1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推流2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器表（machine）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品表（prize）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序：以机器表的【更新时间】降序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理说明：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密后的config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成config信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeStamp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>session ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 确认上机, 0: 放弃上机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间戳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>64位长整型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据房间ID取游戏相关配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>encryptedResult</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密结果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>娃娃机将上机结果进行加密后的内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200"、"000"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"校验游戏结果成功"、"校验游戏结果失败"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/encode/resultDecode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>把加密的结果解密后，JSON格式如上图所示，将参数组成JSON内容与解密后的明文进行比较，相等就返回成功，否则返回失败。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣减成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣减失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/point/pointHomePage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>packageNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actualGold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>payAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户金币值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户积分值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币套餐表(gold_package)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料表(user_base)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序：以【套餐编号】升序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/point/pointExchange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分兑换处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分兑换首页展示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPoint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方用户ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户金币数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户积分值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户积分兑换账单查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/point/getUserPointExchangeRecords</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值支付id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>billExplain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值方式名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kindName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付状态名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值记录表(user_recharge_records)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        List</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序：以【抓取时间】降序</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过状态值名称对应列表转换</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态值名称对应列表：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:寄存中</t>
-  </si>
-  <si>
-    <t>2:待邮寄</t>
-  </si>
-  <si>
-    <t>3:邮寄中</t>
-  </si>
-  <si>
-    <t>4:已签收</t>
-  </si>
-  <si>
-    <t>5:已兑换</t>
-  </si>
-  <si>
-    <t>值:名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>roomId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖品ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>introduce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖品介绍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>exchange</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖品价值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>consume</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽奖消耗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>入参</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据来源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先做单条记录的发货申请</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先做单条记录的确认收货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先做单条记录的发货处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>该房间的最近抓中记录展示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口访问地址：/room/roomLatelyAwardRecordsShow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖品表(prize)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>userName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户昵称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器获奖记录表(machine_award_records)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值方式名： 0-支付宝;1-微信支付;2-积分兑换;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付状态名：1-支付成功，0-支付失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分兑换时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取记录数：积分兑换时间在一年内的所有记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序：以【积分兑换时间】降序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actualGold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>payAmt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值实际金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/user/addUserInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userTel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有第一个未开发(02.01开发完)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已合并到信令交互接口中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/room/updateRoomUserCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间ID,对接即构用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间名,对接即构用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -887,850 +1699,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>积分兑换金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>废止</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>支付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zegoRoomId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zegoRoomName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/pay/userPay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户支付</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>开发备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成loginToken</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginToken</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成的token</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>idName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成过程：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所需参数：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>app_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>由即构提供</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>app_key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>“ver":</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"hash":</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>“nonce":</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"expired":</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//int类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>710a5199398176a316ebcc88bc5b4470,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//字符串类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hash的获得：通过MD5加密(app_id+app_key_32+id_name+nonce+expired)得出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>app_key_32: 通过app_key运算获得，算法：剔除app_key里的"0x", ","字符后，获取前面32字节即为app_key_32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机串，需要保证同一USER_ID在失效时间内不重复, 建议按guid生成, //字符串类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>失效时间，unix_timestamp  //int64类型，单位秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把以上json内容通过base64加密，最后得出loginToken</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口访问地址：/encode/loginToken</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口访问地址：/encode/configEncode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>createTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓中时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序：以【抓中时间】降序</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取记录条数：10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信令交互</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、预约上机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.预约上机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b.预约上机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c.预约结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.预约结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>e.预约结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、取消预约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.取消预约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b.取消预约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c.取消结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.取消结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口访问地址：/user/showUserAwardInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.通知上机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b.通知上机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c.确认通知上机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.确认通知上机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、通知上机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.确认上机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b.确认上机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c.收到“确认上机”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.收到“确认上机”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、确认上机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏操作：左右前后，下抓，结束移动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、游戏操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4前a.支付</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4前b.支付成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.游戏结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b.游戏结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c.收到“游戏结果”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.收到“游戏结果”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、结果反馈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.获取游戏信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b.获取游戏信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c.回复获取游戏信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.回复获取游戏信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*.游戏信息更新(服务端主动发送信息)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、游戏信息更新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*此步骤需要在业务端后台加密config信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后传到即构服务端</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*客户业务后台对 encrypted_result 解密</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口访问地址：/homePage/show</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>machineStatus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>redPacketStatus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prizeContext</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>playValue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>push1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>push2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖品id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖品名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖品介绍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖品消耗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推流1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推流2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器表（machine）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖品表（prize）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序：以机器表的【更新时间】降序</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理说明：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>config</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加密后的config</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成config信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>confirm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sessionId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeStamp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>session ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1: 确认上机, 0: 放弃上机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间戳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>64位长整型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>long int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据房间ID取游戏相关配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>encryptedResult</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加密结果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>娃娃机将上机结果进行加密后的内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200"、"000"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"校验游戏结果成功"、"校验游戏结果失败"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口访问地址：/encode/resultDecode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>把加密的结果解密后，JSON格式如上图所示，将参数组成JSON内容与解密后的明文进行比较，相等就返回成功，否则返回失败。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣减成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣减失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口访问地址：/point/pointHomePage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>packageNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>actualGold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>payAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>point</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户金币值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户积分值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BigDecimal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套餐编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币套餐表(gold_package)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三方获得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人资料表(user_base)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序：以【套餐编号】升序</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口访问地址：/point/pointExchange</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分兑换处理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分兑换首页展示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>userPoint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三方用户ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户金币数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户积分值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>userPoint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户积分兑换账单查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口访问地址：/point/getUserPointExchangeRecords</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值支付id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>amt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BigDecimal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>billExplain</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值方式名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>kindName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付状态名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值记录表(user_recharge_records)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值方式名： 0-支付宝;1-微信支付;2-积分兑换;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付状态名：1-支付成功，0-支付失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分兑换时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取记录数：积分兑换时间在一年内的所有记录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序：以【积分兑换时间】降序</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actualGold</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>payAmt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值实际金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BigDecimal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口访问地址：/user/addUserInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>userTel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有第一个未开发(02.01开发完)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已合并到信令交互接口中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>total</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口访问地址：/room/updateRoomUserCount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间ID,对接即构用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间名,对接即构用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zegoRoomId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>zegoRoomName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口访问地址：/pay/userPay</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户支付</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1: 中奖，0: 未中奖</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1745,6 +1737,30 @@
   <si>
     <t>直播地址</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新房间用户人数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户获奖记录状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问地址：/user/getUserAwardStatus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prizeTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prizeStatus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获奖记录id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3795,12 +3811,12 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3816,8 +3832,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7985760" y="30015180"/>
-          <a:ext cx="251460" cy="1127760"/>
+          <a:off x="7985760" y="30205680"/>
+          <a:ext cx="251460" cy="1463040"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -3852,13 +3868,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3982,7 +3998,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>			"status": "1",</a:t>
+            <a:t>			"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>prizeStatus</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>": "1",</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4004,7 +4028,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>			"createTime": "2017-12-03 19:29:24"</a:t>
+            <a:t>			"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>prizeTime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>": "2017-12-03 19:29:24"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4076,7 +4108,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>			"status": "2",</a:t>
+            <a:t>			"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>prizeStatus</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>": "2",</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4098,7 +4138,172 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>			"createTime": "2017-11-07 22:22:09"</a:t>
+            <a:t>			"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>prizeTime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>": "2017-11-07 22:22:09"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49FEAD1B-E205-4B37-B5D2-4E3AE149838C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="41536620"/>
+          <a:ext cx="5143500" cy="2621280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnCode": "200",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"retnDesc": "OK",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	"data": [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		{						"status": 1,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"statusName": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>寄存中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>"			},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"status": 2,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			"statusName": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>待邮寄</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -11837,8 +12042,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="R177:R182" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" totalsRowBorderDxfId="1" headerRowCellStyle="常规 2" dataCellStyle="常规 2">
-  <autoFilter ref="R177:R182"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="R178:R183" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" totalsRowBorderDxfId="1" headerRowCellStyle="常规 2" dataCellStyle="常规 2">
+  <autoFilter ref="R178:R183"/>
   <tableColumns count="1">
     <tableColumn id="1" name="值:名称" dataDxfId="0" dataCellStyle="常规 2"/>
   </tableColumns>
@@ -12131,13 +12336,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="3:7">
@@ -12145,10 +12350,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="3:7">
@@ -12159,10 +12364,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="3:7">
@@ -12170,13 +12375,13 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="3:7">
@@ -12184,10 +12389,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="3:7">
@@ -12198,10 +12403,10 @@
         <v>165</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="3:7">
@@ -12209,46 +12414,46 @@
         <v>8</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="3:7">
       <c r="C11" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G13" s="15"/>
     </row>
@@ -12279,12 +12484,12 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="2:8" s="2" customFormat="1">
       <c r="B7" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="2" customFormat="1"/>
@@ -12323,7 +12528,7 @@
     </row>
     <row r="12" spans="2:8" s="2" customFormat="1">
       <c r="C12" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19" t="s">
@@ -12341,7 +12546,7 @@
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19" t="s">
@@ -12456,7 +12661,7 @@
     </row>
     <row r="7" spans="2:10" s="2" customFormat="1">
       <c r="B7" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="2:10" s="2" customFormat="1"/>
@@ -12467,7 +12672,7 @@
     </row>
     <row r="10" spans="2:10" s="2" customFormat="1">
       <c r="C10" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="2:10" s="2" customFormat="1"/>
@@ -12490,25 +12695,25 @@
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J15" s="19"/>
     </row>
     <row r="16" spans="2:10" s="2" customFormat="1">
       <c r="C16" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J16" s="19"/>
     </row>
@@ -12518,25 +12723,25 @@
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="3:11" s="2" customFormat="1">
       <c r="C18" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19" t="s">
@@ -12544,17 +12749,17 @@
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J18" s="19"/>
     </row>
     <row r="19" spans="3:11" s="2" customFormat="1">
       <c r="C19" s="19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19" t="s">
@@ -12562,7 +12767,7 @@
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J19" s="19"/>
     </row>
@@ -12572,7 +12777,7 @@
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19" t="s">
@@ -12580,17 +12785,17 @@
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="3:11" s="2" customFormat="1">
       <c r="C21" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19" t="s">
@@ -12598,20 +12803,20 @@
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="3:11" s="2" customFormat="1">
       <c r="C22" s="19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19" t="s">
@@ -12619,18 +12824,18 @@
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="3:11" s="2" customFormat="1">
       <c r="C23" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19" t="s">
@@ -12638,17 +12843,17 @@
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="3:11" s="2" customFormat="1">
       <c r="C24" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19" t="s">
@@ -12656,17 +12861,17 @@
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="3:11" s="2" customFormat="1">
       <c r="C25" s="19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19" t="s">
@@ -12678,11 +12883,11 @@
     </row>
     <row r="26" spans="3:11" s="2" customFormat="1">
       <c r="C26" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19" t="s">
@@ -12690,17 +12895,17 @@
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J26" s="19"/>
     </row>
     <row r="27" spans="3:11" s="2" customFormat="1">
       <c r="C27" s="19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19" t="s">
@@ -12708,17 +12913,17 @@
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J27" s="19"/>
     </row>
     <row r="28" spans="3:11" s="2" customFormat="1">
       <c r="C28" s="19" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19" t="s">
@@ -12730,11 +12935,11 @@
     </row>
     <row r="29" spans="3:11" s="2" customFormat="1">
       <c r="C29" s="19" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19" t="s">
@@ -12778,7 +12983,7 @@
     </row>
     <row r="33" spans="2:3" s="2" customFormat="1">
       <c r="C33" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="2:3" s="2" customFormat="1">
@@ -12912,7 +13117,7 @@
     </row>
     <row r="11" spans="2:10" s="2" customFormat="1">
       <c r="C11" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19" t="s">
@@ -12946,13 +13151,13 @@
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="2:10" s="2" customFormat="1">
       <c r="C17" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19" t="s">
@@ -12964,7 +13169,7 @@
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J17" s="19"/>
     </row>
@@ -12974,7 +13179,7 @@
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19" t="s">
@@ -12982,7 +13187,7 @@
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J18" s="19"/>
     </row>
@@ -13000,17 +13205,17 @@
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J19" s="19"/>
     </row>
     <row r="20" spans="2:10" s="2" customFormat="1">
       <c r="C20" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19" t="s">
@@ -13018,17 +13223,17 @@
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="2:10" s="2" customFormat="1">
       <c r="C21" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19" t="s">
@@ -13036,17 +13241,17 @@
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J21" s="19"/>
     </row>
     <row r="22" spans="2:10" s="2" customFormat="1">
       <c r="C22" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19" t="s">
@@ -13054,7 +13259,7 @@
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J22" s="19"/>
     </row>
@@ -13102,12 +13307,12 @@
         <v>9</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="2:3" s="2" customFormat="1">
       <c r="B47" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="2:3" s="2" customFormat="1"/>
@@ -13132,7 +13337,7 @@
     </row>
     <row r="51" spans="2:14" s="2" customFormat="1">
       <c r="C51" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="19" t="s">
@@ -13166,7 +13371,7 @@
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
@@ -13187,7 +13392,7 @@
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
@@ -13208,7 +13413,7 @@
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
@@ -13221,7 +13426,7 @@
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="19" t="s">
@@ -13229,23 +13434,23 @@
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J59" s="19"/>
       <c r="K59" s="19"/>
       <c r="L59" s="19"/>
       <c r="M59" s="19"/>
       <c r="N59" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="2:14" s="2" customFormat="1">
       <c r="C60" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="19" t="s">
@@ -13253,7 +13458,7 @@
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
@@ -13262,19 +13467,19 @@
     </row>
     <row r="61" spans="2:14" s="2" customFormat="1">
       <c r="C61" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
@@ -13321,12 +13526,12 @@
     </row>
     <row r="65" spans="2:3" s="2" customFormat="1">
       <c r="C65" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="C66" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="2:3" s="2" customFormat="1">
@@ -13340,12 +13545,12 @@
         <v>9</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>168</v>
+        <v>429</v>
       </c>
     </row>
     <row r="94" spans="2:3" s="2" customFormat="1">
       <c r="B94" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="95" spans="2:3" s="2" customFormat="1"/>
@@ -13370,7 +13575,7 @@
     </row>
     <row r="98" spans="2:8" s="2" customFormat="1">
       <c r="C98" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D98" s="19"/>
       <c r="E98" s="19" t="s">
@@ -13384,11 +13589,11 @@
     </row>
     <row r="99" spans="2:8" s="2" customFormat="1">
       <c r="C99" s="19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="19" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F99" s="19"/>
       <c r="G99" s="19" t="s">
@@ -13562,7 +13767,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R186"/>
+  <dimension ref="B3:R237"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13588,7 +13793,7 @@
     </row>
     <row r="7" spans="2:8" s="7" customFormat="1">
       <c r="B7" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -13640,11 +13845,11 @@
     </row>
     <row r="13" spans="2:8">
       <c r="C13" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19" t="s">
@@ -13673,7 +13878,7 @@
     </row>
     <row r="19" spans="2:8">
       <c r="C19" s="19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19" t="s">
@@ -14450,9 +14655,9 @@
       </c>
     </row>
     <row r="159" s="10" customFormat="1"/>
-    <row r="161" spans="2:16" s="7" customFormat="1"/>
-    <row r="162" spans="2:16" s="7" customFormat="1"/>
-    <row r="163" spans="2:16" s="7" customFormat="1">
+    <row r="161" spans="2:12" s="7" customFormat="1"/>
+    <row r="162" spans="2:12" s="7" customFormat="1"/>
+    <row r="163" spans="2:12" s="7" customFormat="1">
       <c r="B163" s="7" t="s">
         <v>9</v>
       </c>
@@ -14460,18 +14665,18 @@
         <v>170</v>
       </c>
     </row>
-    <row r="164" spans="2:16" s="7" customFormat="1">
+    <row r="164" spans="2:12" s="7" customFormat="1">
       <c r="B164" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="165" spans="2:16" s="7" customFormat="1"/>
-    <row r="166" spans="2:16" s="7" customFormat="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" s="7" customFormat="1"/>
+    <row r="166" spans="2:12" s="7" customFormat="1">
       <c r="B166" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="2:16" s="7" customFormat="1">
+    <row r="167" spans="2:12" s="7" customFormat="1">
       <c r="C167" s="22" t="s">
         <v>12</v>
       </c>
@@ -14485,7 +14690,7 @@
       </c>
       <c r="H167" s="22"/>
     </row>
-    <row r="168" spans="2:16" s="7" customFormat="1">
+    <row r="168" spans="2:12" s="7" customFormat="1">
       <c r="C168" s="22" t="s">
         <v>21</v>
       </c>
@@ -14499,13 +14704,13 @@
       </c>
       <c r="H168" s="22"/>
     </row>
-    <row r="169" spans="2:16" s="7" customFormat="1"/>
-    <row r="171" spans="2:16">
+    <row r="169" spans="2:12" s="7" customFormat="1"/>
+    <row r="171" spans="2:12">
       <c r="B171" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="2:16">
+    <row r="172" spans="2:12">
       <c r="C172" s="19" t="s">
         <v>12</v>
       </c>
@@ -14525,13 +14730,13 @@
       <c r="K172" s="19"/>
       <c r="L172" s="19"/>
     </row>
-    <row r="173" spans="2:16">
+    <row r="173" spans="2:12">
       <c r="C173" s="19" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="D173" s="19"/>
       <c r="E173" s="19" t="s">
-        <v>81</v>
+        <v>434</v>
       </c>
       <c r="F173" s="19"/>
       <c r="G173" s="19" t="s">
@@ -14545,13 +14750,13 @@
       <c r="K173" s="19"/>
       <c r="L173" s="19"/>
     </row>
-    <row r="174" spans="2:16">
+    <row r="174" spans="2:12">
       <c r="C174" s="19" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="D174" s="19"/>
       <c r="E174" s="19" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="F174" s="19"/>
       <c r="G174" s="19" t="s">
@@ -14565,13 +14770,13 @@
       <c r="K174" s="19"/>
       <c r="L174" s="19"/>
     </row>
-    <row r="175" spans="2:16">
+    <row r="175" spans="2:12">
       <c r="C175" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D175" s="19"/>
       <c r="E175" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F175" s="19"/>
       <c r="G175" s="19" t="s">
@@ -14585,17 +14790,17 @@
       <c r="K175" s="19"/>
       <c r="L175" s="19"/>
     </row>
-    <row r="176" spans="2:16">
+    <row r="176" spans="2:12">
       <c r="C176" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D176" s="19"/>
       <c r="E176" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F176" s="19"/>
       <c r="G176" s="19" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19" t="s">
@@ -14604,20 +14809,14 @@
       <c r="J176" s="19"/>
       <c r="K176" s="19"/>
       <c r="L176" s="19"/>
-      <c r="M176" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="P176" s="2" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="177" spans="2:18">
       <c r="C177" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D177" s="19"/>
       <c r="E177" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F177" s="19"/>
       <c r="G177" s="19" t="s">
@@ -14630,17 +14829,20 @@
       <c r="J177" s="19"/>
       <c r="K177" s="19"/>
       <c r="L177" s="19"/>
-      <c r="R177" s="12" t="s">
-        <v>195</v>
+      <c r="M177" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="P177" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="178" spans="2:18">
       <c r="C178" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D178" s="19"/>
       <c r="E178" s="19" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F178" s="19"/>
       <c r="G178" s="19" t="s">
@@ -14653,17 +14855,17 @@
       <c r="J178" s="19"/>
       <c r="K178" s="19"/>
       <c r="L178" s="19"/>
-      <c r="R178" s="11" t="s">
-        <v>190</v>
+      <c r="R178" s="12" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="2:18">
       <c r="C179" s="19" t="s">
-        <v>186</v>
+        <v>433</v>
       </c>
       <c r="D179" s="19"/>
       <c r="E179" s="19" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F179" s="19"/>
       <c r="G179" s="19" t="s">
@@ -14671,66 +14873,68 @@
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="J179" s="19"/>
       <c r="K179" s="19"/>
       <c r="L179" s="19"/>
       <c r="R179" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="2:18">
       <c r="C180" s="19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D180" s="19"/>
       <c r="E180" s="19" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="F180" s="19"/>
       <c r="G180" s="19" t="s">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="J180" s="19"/>
       <c r="K180" s="19"/>
       <c r="L180" s="19"/>
       <c r="R180" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="2:18">
       <c r="C181" s="19" t="s">
-        <v>23</v>
+        <v>432</v>
       </c>
       <c r="D181" s="19"/>
       <c r="E181" s="19" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="F181" s="19"/>
       <c r="G181" s="19" t="s">
-        <v>17</v>
+        <v>248</v>
       </c>
       <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
+      <c r="I181" s="19" t="s">
+        <v>180</v>
+      </c>
       <c r="J181" s="19"/>
       <c r="K181" s="19"/>
       <c r="L181" s="19"/>
       <c r="R181" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="182" spans="2:18">
       <c r="C182" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D182" s="19"/>
       <c r="E182" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F182" s="19"/>
       <c r="G182" s="19" t="s">
@@ -14741,66 +14945,244 @@
       <c r="J182" s="19"/>
       <c r="K182" s="19"/>
       <c r="L182" s="19"/>
-      <c r="R182" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="184" spans="2:18">
-      <c r="C184" s="2" t="s">
+      <c r="R182" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="183" spans="2:18">
+      <c r="C183" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F183" s="19"/>
+      <c r="G183" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H183" s="19"/>
+      <c r="I183" s="19"/>
+      <c r="J183" s="19"/>
+      <c r="K183" s="19"/>
+      <c r="L183" s="19"/>
+      <c r="R183" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="185" spans="2:18">
+      <c r="C185" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="2:18">
+      <c r="B187" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" s="10" customFormat="1"/>
+    <row r="220" spans="2:3" s="7" customFormat="1"/>
+    <row r="221" spans="2:3" s="7" customFormat="1"/>
+    <row r="222" spans="2:3" s="7" customFormat="1">
+      <c r="B222" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" s="7" customFormat="1">
+      <c r="B223" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" s="7" customFormat="1"/>
+    <row r="225" spans="2:12" s="7" customFormat="1">
+      <c r="B225" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="2:12" s="7" customFormat="1">
+      <c r="C226" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="22"/>
+      <c r="E226" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F226" s="22"/>
+      <c r="G226" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H226" s="22"/>
+    </row>
+    <row r="227" spans="2:12" s="7" customFormat="1">
+      <c r="C227" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D227" s="22"/>
+      <c r="E227" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F227" s="22"/>
+      <c r="G227" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H227" s="22"/>
+    </row>
+    <row r="228" spans="2:12" s="7" customFormat="1">
+      <c r="C228" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D228" s="22"/>
+      <c r="E228" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F228" s="22"/>
+      <c r="G228" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H228" s="22"/>
+    </row>
+    <row r="229" spans="2:12" s="7" customFormat="1"/>
+    <row r="231" spans="2:12">
+      <c r="B231" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232" spans="2:12">
+      <c r="C232" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232" s="19"/>
+      <c r="E232" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F232" s="19"/>
+      <c r="G232" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H232" s="19"/>
+      <c r="I232" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J232" s="19"/>
+      <c r="K232" s="19"/>
+      <c r="L232" s="19"/>
+    </row>
+    <row r="233" spans="2:12">
+      <c r="C233" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D233" s="19"/>
+      <c r="E233" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F233" s="19"/>
+      <c r="G233" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H233" s="19"/>
+      <c r="I233" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J233" s="19"/>
+      <c r="K233" s="19"/>
+      <c r="L233" s="19"/>
+    </row>
+    <row r="234" spans="2:12">
+      <c r="C234" s="19" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="186" spans="2:18">
-      <c r="B186" s="2" t="s">
+      <c r="D234" s="19"/>
+      <c r="E234" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F234" s="19"/>
+      <c r="G234" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H234" s="19"/>
+      <c r="I234" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J234" s="19"/>
+      <c r="K234" s="19"/>
+      <c r="L234" s="19"/>
+    </row>
+    <row r="237" spans="2:12">
+      <c r="B237" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="201">
+  <mergeCells count="226">
+    <mergeCell ref="I173:L173"/>
+    <mergeCell ref="I232:L232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="G233:H233"/>
+    <mergeCell ref="I233:L233"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="E234:F234"/>
+    <mergeCell ref="G234:H234"/>
+    <mergeCell ref="I234:L234"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="G226:H226"/>
+    <mergeCell ref="C227:D227"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="E232:F232"/>
+    <mergeCell ref="G232:H232"/>
+    <mergeCell ref="C228:D228"/>
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="G228:H228"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I179:L179"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="I180:L180"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="G183:H183"/>
     <mergeCell ref="I172:L172"/>
-    <mergeCell ref="I173:L173"/>
     <mergeCell ref="I174:L174"/>
     <mergeCell ref="I175:L175"/>
     <mergeCell ref="I176:L176"/>
     <mergeCell ref="I177:L177"/>
-    <mergeCell ref="I180:L180"/>
+    <mergeCell ref="I178:L178"/>
     <mergeCell ref="I181:L181"/>
     <mergeCell ref="I182:L182"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="I178:L178"/>
+    <mergeCell ref="I183:L183"/>
     <mergeCell ref="C179:D179"/>
     <mergeCell ref="E179:F179"/>
     <mergeCell ref="G179:H179"/>
+    <mergeCell ref="I179:L179"/>
     <mergeCell ref="C180:D180"/>
     <mergeCell ref="E180:F180"/>
     <mergeCell ref="G180:H180"/>
     <mergeCell ref="C181:D181"/>
     <mergeCell ref="E181:F181"/>
     <mergeCell ref="G181:H181"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="G182:H182"/>
     <mergeCell ref="C176:D176"/>
     <mergeCell ref="E176:F176"/>
     <mergeCell ref="G176:H176"/>
     <mergeCell ref="C177:D177"/>
     <mergeCell ref="E177:F177"/>
     <mergeCell ref="G177:H177"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="G178:H178"/>
     <mergeCell ref="C174:D174"/>
     <mergeCell ref="E174:F174"/>
     <mergeCell ref="G174:H174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="G175:H175"/>
     <mergeCell ref="C167:D167"/>
     <mergeCell ref="E167:F167"/>
     <mergeCell ref="G167:H167"/>
@@ -14810,6 +15192,9 @@
     <mergeCell ref="C172:D172"/>
     <mergeCell ref="E172:F172"/>
     <mergeCell ref="G172:H172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:H173"/>
     <mergeCell ref="C137:D137"/>
     <mergeCell ref="E137:F137"/>
     <mergeCell ref="G137:H137"/>
@@ -15655,7 +16040,7 @@
       </c>
       <c r="H85" s="19"/>
       <c r="J85" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="2:10" s="2" customFormat="1">
@@ -16017,7 +16402,7 @@
       </c>
       <c r="H138" s="19"/>
       <c r="J138" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="139" spans="2:10" s="2" customFormat="1">
@@ -16330,7 +16715,7 @@
       </c>
       <c r="H187" s="19"/>
       <c r="J187" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="2:10" s="2" customFormat="1"/>
@@ -16760,12 +17145,12 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="2:10" s="2" customFormat="1">
       <c r="B7" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="2:10" s="2" customFormat="1"/>
@@ -16794,7 +17179,7 @@
     </row>
     <row r="11" spans="2:10" s="2" customFormat="1">
       <c r="C11" s="19" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19" t="s">
@@ -16834,11 +17219,11 @@
     </row>
     <row r="17" spans="2:8" s="2" customFormat="1">
       <c r="C17" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19" t="s">
@@ -16854,91 +17239,91 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="C27" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="D28" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="D29" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="D31" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="D32" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="4:9">
       <c r="D33" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="4:9">
       <c r="D34" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="4:9">
       <c r="D35" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="4:9">
       <c r="D36" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="4:9">
       <c r="D38" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="4:9">
       <c r="D39" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="4:9">
       <c r="D42" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="4:9" s="9" customFormat="1"/>
@@ -16947,12 +17332,12 @@
         <v>9</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="2:13" s="2" customFormat="1">
       <c r="B50" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="2:13" s="2" customFormat="1"/>
@@ -16979,14 +17364,14 @@
       </c>
       <c r="J53" s="19"/>
       <c r="K53" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L53" s="19"/>
       <c r="M53" s="19"/>
     </row>
     <row r="54" spans="2:13" s="2" customFormat="1">
       <c r="C54" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="19" t="s">
@@ -17002,18 +17387,18 @@
       </c>
       <c r="J54" s="19"/>
       <c r="K54" s="19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L54" s="19"/>
       <c r="M54" s="19"/>
     </row>
     <row r="55" spans="2:13" s="2" customFormat="1">
       <c r="C55" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="19" t="s">
@@ -17030,11 +17415,11 @@
     </row>
     <row r="56" spans="2:13" s="2" customFormat="1">
       <c r="C56" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D56" s="19"/>
       <c r="E56" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19" t="s">
@@ -17046,22 +17431,22 @@
       </c>
       <c r="J56" s="19"/>
       <c r="K56" s="19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L56" s="19"/>
       <c r="M56" s="19"/>
     </row>
     <row r="57" spans="2:13" s="2" customFormat="1">
       <c r="C57" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19" t="s">
@@ -17069,7 +17454,7 @@
       </c>
       <c r="J57" s="19"/>
       <c r="K57" s="19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L57" s="19"/>
       <c r="M57" s="19"/>
@@ -17124,11 +17509,11 @@
     </row>
     <row r="64" spans="2:13" s="2" customFormat="1">
       <c r="C64" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D64" s="19"/>
       <c r="E64" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="19" t="s">
@@ -17142,7 +17527,7 @@
     <row r="68" spans="2:2" s="2" customFormat="1"/>
     <row r="69" spans="2:2" s="2" customFormat="1">
       <c r="B69" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="2:2" s="2" customFormat="1"/>
@@ -17162,7 +17547,7 @@
     </row>
     <row r="152" spans="2:15" s="2" customFormat="1">
       <c r="B152" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="153" spans="2:15" s="2" customFormat="1"/>
@@ -17189,7 +17574,7 @@
       </c>
       <c r="J155" s="19"/>
       <c r="K155" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L155" s="19"/>
       <c r="M155" s="19"/>
@@ -17198,11 +17583,11 @@
     </row>
     <row r="156" spans="2:15" s="2" customFormat="1">
       <c r="C156" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D156" s="19"/>
       <c r="E156" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F156" s="19"/>
       <c r="G156" s="19" t="s">
@@ -17220,11 +17605,11 @@
     </row>
     <row r="157" spans="2:15" s="2" customFormat="1">
       <c r="C157" s="19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D157" s="19"/>
       <c r="E157" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F157" s="19"/>
       <c r="G157" s="19" t="s">
@@ -17236,7 +17621,7 @@
       </c>
       <c r="J157" s="19"/>
       <c r="K157" s="19" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L157" s="19"/>
       <c r="M157" s="19"/>
@@ -17244,11 +17629,11 @@
     </row>
     <row r="158" spans="2:15" s="2" customFormat="1">
       <c r="C158" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D158" s="19"/>
       <c r="E158" s="19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F158" s="19"/>
       <c r="G158" s="19" t="s">
@@ -17266,11 +17651,11 @@
     </row>
     <row r="159" spans="2:15" s="2" customFormat="1">
       <c r="C159" s="19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D159" s="19"/>
       <c r="E159" s="19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F159" s="19"/>
       <c r="G159" s="19" t="s">
@@ -17288,15 +17673,15 @@
     </row>
     <row r="160" spans="2:15" s="2" customFormat="1">
       <c r="C160" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D160" s="19"/>
       <c r="E160" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F160" s="19"/>
       <c r="G160" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19" t="s">
@@ -17304,7 +17689,7 @@
       </c>
       <c r="J160" s="19"/>
       <c r="K160" s="19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L160" s="19"/>
       <c r="M160" s="19"/>
@@ -17312,11 +17697,11 @@
     </row>
     <row r="161" spans="2:16" s="2" customFormat="1">
       <c r="C161" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D161" s="19"/>
       <c r="E161" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F161" s="19"/>
       <c r="G161" s="19" t="s">
@@ -17328,7 +17713,7 @@
       </c>
       <c r="J161" s="19"/>
       <c r="K161" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L161" s="19"/>
       <c r="M161" s="19"/>
@@ -17336,7 +17721,7 @@
     </row>
     <row r="162" spans="2:16" s="2" customFormat="1">
       <c r="C162" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D162" s="19"/>
       <c r="E162" s="19" t="s">
@@ -17383,7 +17768,7 @@
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J167" s="19"/>
       <c r="K167" s="19"/>
@@ -17404,7 +17789,7 @@
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J168" s="19"/>
       <c r="K168" s="19"/>
@@ -17425,7 +17810,7 @@
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J169" s="19"/>
       <c r="K169" s="19"/>
@@ -17440,12 +17825,12 @@
     <row r="173" spans="2:16" s="2" customFormat="1"/>
     <row r="174" spans="2:16" s="2" customFormat="1">
       <c r="B174" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="204" spans="2:3">
       <c r="C204" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="207" spans="2:3" s="2" customFormat="1">
@@ -17455,7 +17840,6 @@
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="K160:N160"/>
     <mergeCell ref="I167:M167"/>
     <mergeCell ref="I168:M168"/>
     <mergeCell ref="I169:M169"/>
@@ -17472,10 +17856,6 @@
     <mergeCell ref="G169:H169"/>
     <mergeCell ref="C167:D167"/>
     <mergeCell ref="G167:H167"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="I160:J160"/>
     <mergeCell ref="E167:F167"/>
     <mergeCell ref="C162:D162"/>
     <mergeCell ref="E162:F162"/>
@@ -17496,6 +17876,11 @@
     <mergeCell ref="E159:F159"/>
     <mergeCell ref="G159:H159"/>
     <mergeCell ref="I159:J159"/>
+    <mergeCell ref="K160:N160"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="I160:J160"/>
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="E155:F155"/>
     <mergeCell ref="G155:H155"/>
@@ -17578,174 +17963,174 @@
   <sheetData>
     <row r="3" spans="9:13">
       <c r="I3" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="9:13">
       <c r="M10" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="4:13">
       <c r="K19" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:13">
       <c r="D23" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="4:13">
       <c r="D24" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="4:13">
       <c r="K27" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="4:13">
       <c r="I39" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="4:13">
       <c r="D41" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="4:13">
       <c r="K46" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="11:13">
       <c r="K55" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="9:13">
       <c r="I67" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="9:13">
       <c r="K74" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="11:13">
       <c r="K83" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="9:13">
       <c r="K101" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="9:13">
       <c r="I103" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="9:13">
       <c r="K110" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="11:13">
       <c r="K119" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="131" spans="9:12">
       <c r="I131" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="138" spans="9:12">
       <c r="L138" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="147" spans="9:12">
       <c r="L147" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="159" spans="9:12">
       <c r="I159" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="166" spans="11:13">
       <c r="K166" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="175" spans="11:13">
       <c r="K175" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="187" spans="9:9">
       <c r="I187" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="194" spans="11:16">
       <c r="K194" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P194" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="203" spans="11:16">
       <c r="K203" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -17772,12 +18157,12 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="2:11" s="2" customFormat="1">
       <c r="B7" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="2:11" s="2" customFormat="1"/>
@@ -17836,18 +18221,18 @@
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
     </row>
     <row r="17" spans="2:12" s="2" customFormat="1">
       <c r="C17" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19" t="s">
@@ -17855,18 +18240,18 @@
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
     </row>
     <row r="18" spans="2:12" s="2" customFormat="1">
       <c r="C18" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19" t="s">
@@ -17874,21 +18259,21 @@
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="2:12" s="2" customFormat="1">
       <c r="C19" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19" t="s">
@@ -17896,7 +18281,7 @@
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
@@ -17904,30 +18289,30 @@
     </row>
     <row r="20" spans="2:12" s="2" customFormat="1">
       <c r="C20" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
     </row>
     <row r="21" spans="2:12" s="2" customFormat="1">
       <c r="C21" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19" t="s">
@@ -17935,18 +18320,18 @@
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
     </row>
     <row r="22" spans="2:12" s="2" customFormat="1">
       <c r="C22" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19" t="s">
@@ -17954,7 +18339,7 @@
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
@@ -17995,7 +18380,7 @@
     </row>
     <row r="26" spans="2:12" s="2" customFormat="1">
       <c r="C26" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="2:12" s="2" customFormat="1">
@@ -18035,12 +18420,12 @@
         <v>9</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="2:8" s="2" customFormat="1">
       <c r="B57" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="2:8" s="2" customFormat="1"/>
@@ -18079,11 +18464,11 @@
     </row>
     <row r="62" spans="2:8" s="2" customFormat="1">
       <c r="C62" s="19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="19" t="s">
@@ -18097,7 +18482,7 @@
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F63" s="19"/>
       <c r="G63" s="19" t="s">
@@ -18107,11 +18492,11 @@
     </row>
     <row r="64" spans="2:8" s="2" customFormat="1">
       <c r="C64" s="19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D64" s="19"/>
       <c r="E64" s="19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="19" t="s">
@@ -18121,11 +18506,11 @@
     </row>
     <row r="65" spans="2:8" s="2" customFormat="1">
       <c r="C65" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="19" t="s">
@@ -18135,15 +18520,15 @@
     </row>
     <row r="66" spans="2:8" s="2" customFormat="1">
       <c r="C66" s="19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F66" s="19"/>
       <c r="G66" s="19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H66" s="19"/>
     </row>
@@ -18171,11 +18556,11 @@
     </row>
     <row r="72" spans="2:8" s="2" customFormat="1">
       <c r="C72" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="19" t="s">
@@ -18185,11 +18570,11 @@
     </row>
     <row r="73" spans="2:8" s="2" customFormat="1">
       <c r="C73" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F73" s="19"/>
       <c r="G73" s="19" t="s">
@@ -18251,12 +18636,12 @@
         <v>9</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="2:8" s="2" customFormat="1">
       <c r="B92" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="93" spans="2:8" s="2" customFormat="1"/>
@@ -18313,7 +18698,7 @@
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J101" s="19"/>
       <c r="K101" s="19"/>
@@ -18322,19 +18707,19 @@
     </row>
     <row r="102" spans="2:14" s="2" customFormat="1">
       <c r="C102" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F102" s="19"/>
       <c r="G102" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J102" s="19"/>
       <c r="K102" s="19"/>
@@ -18343,19 +18728,19 @@
     </row>
     <row r="103" spans="2:14" s="2" customFormat="1">
       <c r="C103" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D103" s="19"/>
       <c r="E103" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F103" s="19"/>
       <c r="G103" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J103" s="19"/>
       <c r="K103" s="19"/>
@@ -18364,19 +18749,19 @@
     </row>
     <row r="104" spans="2:14" s="2" customFormat="1">
       <c r="C104" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D104" s="19"/>
       <c r="E104" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F104" s="19"/>
       <c r="G104" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J104" s="19"/>
       <c r="K104" s="19"/>
@@ -18385,19 +18770,19 @@
     </row>
     <row r="105" spans="2:14" s="2" customFormat="1">
       <c r="C105" s="19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D105" s="19"/>
       <c r="E105" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F105" s="19"/>
       <c r="G105" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J105" s="19"/>
       <c r="K105" s="19"/>
@@ -18406,43 +18791,43 @@
     </row>
     <row r="106" spans="2:14" s="2" customFormat="1">
       <c r="C106" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D106" s="19"/>
       <c r="E106" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F106" s="19"/>
       <c r="G106" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J106" s="19"/>
       <c r="K106" s="19"/>
       <c r="L106" s="19"/>
       <c r="M106" s="19"/>
       <c r="N106" s="20" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="107" spans="2:14" s="2" customFormat="1">
       <c r="C107" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D107" s="19"/>
       <c r="E107" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F107" s="19"/>
       <c r="G107" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J107" s="19"/>
       <c r="K107" s="19"/>
@@ -18456,15 +18841,15 @@
       </c>
       <c r="D108" s="19"/>
       <c r="E108" s="19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F108" s="19"/>
       <c r="G108" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J108" s="19"/>
       <c r="K108" s="19"/>
@@ -18473,19 +18858,19 @@
     </row>
     <row r="109" spans="2:14" s="2" customFormat="1">
       <c r="C109" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D109" s="19"/>
       <c r="E109" s="19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F109" s="19"/>
       <c r="G109" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J109" s="19"/>
       <c r="K109" s="19"/>
@@ -18494,19 +18879,19 @@
     </row>
     <row r="110" spans="2:14" s="2" customFormat="1">
       <c r="C110" s="19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F110" s="19"/>
       <c r="G110" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J110" s="19"/>
       <c r="K110" s="19"/>
@@ -18515,11 +18900,11 @@
     </row>
     <row r="111" spans="2:14" s="2" customFormat="1">
       <c r="C111" s="19" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D111" s="19"/>
       <c r="E111" s="19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F111" s="19"/>
       <c r="G111" s="19" t="s">
@@ -18573,12 +18958,12 @@
     <row r="114" spans="2:13" s="3" customFormat="1"/>
     <row r="115" spans="2:13" s="2" customFormat="1">
       <c r="C115" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="116" spans="2:13" s="3" customFormat="1">
       <c r="C116" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118" spans="2:13" s="2" customFormat="1">
@@ -18766,22 +19151,22 @@
   <sheetData>
     <row r="47" spans="12:12">
       <c r="L47" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="9:12">
       <c r="I55" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="9:12">
       <c r="L63" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="9:9">
       <c r="I68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
